--- a/custom sim/two_track_out2.xlsx
+++ b/custom sim/two_track_out2.xlsx
@@ -1,39 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ethan\Documents\GitHub\FEBSim\custom sim\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84296109-9E2C-4B93-9ED2-ED108FDECF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>time</t>
   </si>
@@ -82,15 +63,12 @@
   <si>
     <t>gamma_y</t>
   </si>
-  <si>
-    <t>Delta</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,7 +93,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -138,27 +116,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -167,21 +131,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -219,7 +175,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -253,7 +209,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -288,10 +243,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -464,16 +418,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,11 +474,8 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>0</v>
       </c>
@@ -534,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>30.000000181389701</v>
+        <v>29.99999739566411</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -543,4342 +492,3422 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>-0.52059994323080327</v>
+        <v>-0.2702505563138138</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>171.42843813281709</v>
+        <v>171.4280177052676</v>
       </c>
       <c r="I2">
-        <v>171.4284940020226</v>
+        <v>171.4283835692619</v>
       </c>
       <c r="J2">
-        <v>89.646461895075902</v>
+        <v>72.59644880647843</v>
       </c>
       <c r="K2">
-        <v>89.777293472907004</v>
+        <v>90.59754701633935</v>
       </c>
       <c r="L2">
-        <v>-1.341980991823879E-2</v>
+        <v>-0.0007008544648795109</v>
       </c>
       <c r="M2">
-        <v>489.71588022803923</v>
+        <v>449.316120762934</v>
       </c>
       <c r="N2">
-        <v>4.849283368109682E-25</v>
+        <v>-4.303735218331349E-20</v>
       </c>
       <c r="O2">
-        <v>33.721069461148332</v>
+        <v>-283.0678199056217</v>
       </c>
       <c r="P2">
-        <v>0.55680137078295933</v>
-      </c>
-      <c r="Q2">
-        <f>DEGREES(L2)</f>
-        <v>-0.76889847018288504</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-1.866704920067906</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3">
-        <v>0.17531754222858409</v>
+        <v>0.175148236510452</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>29.856587230219301</v>
+        <v>29.99999983056264</v>
       </c>
       <c r="D3">
-        <v>-4.0488179633132613E-3</v>
+        <v>-0.0007553603927464459</v>
       </c>
       <c r="E3">
-        <v>-6.9592083253088386E-3</v>
+        <v>0.005775513476068665</v>
       </c>
       <c r="F3">
-        <v>-0.53367360306192813</v>
+        <v>-0.2700888252871915</v>
       </c>
       <c r="G3">
-        <v>-6.3754796072618429E-4</v>
+        <v>0.0008699662100687607</v>
       </c>
       <c r="H3">
-        <v>12.22405838144401</v>
+        <v>85.57449085625431</v>
       </c>
       <c r="I3">
-        <v>12.230060437135119</v>
+        <v>86.42261887572441</v>
       </c>
       <c r="J3">
-        <v>130.4777218251534</v>
+        <v>101.911935913443</v>
       </c>
       <c r="K3">
-        <v>130.72106099115791</v>
+        <v>93.88818366908896</v>
       </c>
       <c r="L3">
-        <v>-4.0122066920529401E-3</v>
+        <v>-0.02504570173229527</v>
       </c>
       <c r="M3">
-        <v>-1.981679530437814E-35</v>
+        <v>404.2397083497763</v>
       </c>
       <c r="N3">
-        <v>-1.184511509597754E-4</v>
+        <v>1.203251192425251E-27</v>
       </c>
       <c r="O3">
-        <v>-341.11873087958008</v>
+        <v>-245.2490418743137</v>
       </c>
       <c r="P3">
-        <v>-2.570463920224856</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" ref="Q3:Q66" si="0">DEGREES(L3)</f>
-        <v>-0.22988250998877863</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <v>21.29130960883162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4">
-        <v>0.35170921697738272</v>
+        <v>0.3501486729923848</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>29.485727195479779</v>
+        <v>29.9988015889761</v>
       </c>
       <c r="D4">
-        <v>-1.952685056347451E-3</v>
+        <v>-0.00559082339246463</v>
       </c>
       <c r="E4">
-        <v>-8.5782109166372255E-3</v>
+        <v>-0.003262681252059567</v>
       </c>
       <c r="F4">
-        <v>-0.55639029297467568</v>
+        <v>-0.2827516960506198</v>
       </c>
       <c r="G4">
-        <v>-1.979668305820699E-3</v>
+        <v>0.001092901668211778</v>
       </c>
       <c r="H4">
-        <v>86.779130089971204</v>
+        <v>85.78825623760189</v>
       </c>
       <c r="I4">
-        <v>85.579871059151259</v>
+        <v>85.09782003942341</v>
       </c>
       <c r="J4">
-        <v>89.633471730260908</v>
+        <v>103.7239749205084</v>
       </c>
       <c r="K4">
-        <v>89.596158520020893</v>
+        <v>93.94209242061122</v>
       </c>
       <c r="L4">
-        <v>-4.5051558580501083E-2</v>
+        <v>-0.05231688253363346</v>
       </c>
       <c r="M4">
-        <v>1.358191706952272E-34</v>
+        <v>404.7353104071987</v>
       </c>
       <c r="N4">
-        <v>9.9299136398009226E-6</v>
+        <v>-1.940005093046536E-27</v>
       </c>
       <c r="O4">
-        <v>142.2569235993378</v>
+        <v>-263.9921329831768</v>
       </c>
       <c r="P4">
-        <v>65.720927487102955</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="0"/>
-        <v>-2.5812641671491021</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>39.06927319012095</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5">
-        <v>0.53182562750831752</v>
+        <v>0.5251595317725035</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>28.78190357821342</v>
+        <v>29.99999963866599</v>
       </c>
       <c r="D5">
-        <v>-1.404906400305119E-2</v>
+        <v>-0.01079945548171086</v>
       </c>
       <c r="E5">
-        <v>-3.5520067359003003E-2</v>
+        <v>-0.02050228251169342</v>
       </c>
       <c r="F5">
-        <v>-0.62250830776461175</v>
+        <v>-0.3264813428942182</v>
       </c>
       <c r="G5">
-        <v>-5.9827062439899411E-3</v>
+        <v>-0.0009704810072043052</v>
       </c>
       <c r="H5">
-        <v>79.806283123232433</v>
+        <v>85.4605259126847</v>
       </c>
       <c r="I5">
-        <v>81.045914597438582</v>
+        <v>86.10894944589667</v>
       </c>
       <c r="J5">
-        <v>81.773907273671114</v>
+        <v>103.4894607824712</v>
       </c>
       <c r="K5">
-        <v>82.077009559955243</v>
+        <v>94.13056251564815</v>
       </c>
       <c r="L5">
-        <v>3.3044275081640711E-3</v>
+        <v>-0.04653400602082683</v>
       </c>
       <c r="M5">
-        <v>493.03507002611832</v>
+        <v>397.1658166988021</v>
       </c>
       <c r="N5">
-        <v>-4.7960730344450277E-34</v>
+        <v>-2.943282834618596E-26</v>
       </c>
       <c r="O5">
-        <v>-344.1776082273455</v>
+        <v>-250.7120530595055</v>
       </c>
       <c r="P5">
-        <v>-8.7531393300795592</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="0"/>
-        <v>0.18932974992473264</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>33.50820073452412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6">
-        <v>0.7140043020561756</v>
+        <v>0.7002007032934222</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>28.916483027420771</v>
+        <v>29.99244363851315</v>
       </c>
       <c r="D6">
-        <v>-1.7637223586262369E-3</v>
+        <v>-0.01116894665144502</v>
       </c>
       <c r="E6">
-        <v>-3.6344475975490738E-2</v>
+        <v>-0.0368260356533487</v>
       </c>
       <c r="F6">
-        <v>-0.70849193059709759</v>
+        <v>-0.4024800883557253</v>
       </c>
       <c r="G6">
-        <v>-1.2647239533309179E-2</v>
+        <v>-0.005992750146944469</v>
       </c>
       <c r="H6">
-        <v>84.327408228605506</v>
+        <v>85.67282798612499</v>
       </c>
       <c r="I6">
-        <v>83.664873145175619</v>
+        <v>85.41484272524832</v>
       </c>
       <c r="J6">
-        <v>92.781982783993598</v>
+        <v>103.3698978150644</v>
       </c>
       <c r="K6">
-        <v>91.192032434795664</v>
+        <v>93.84390508083925</v>
       </c>
       <c r="L6">
-        <v>-2.72416900998548E-4</v>
+        <v>-0.0523431534041934</v>
       </c>
       <c r="M6">
-        <v>385.64710414169627</v>
+        <v>402.994166745402</v>
       </c>
       <c r="N6">
-        <v>1.0127622321813889E-33</v>
+        <v>4.581089132841495E-27</v>
       </c>
       <c r="O6">
-        <v>-203.93175263948319</v>
+        <v>-264.3889453881312</v>
       </c>
       <c r="P6">
-        <v>16.3966544023063</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="0"/>
-        <v>-1.5608338695249982E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>43.24325580077888</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7">
-        <v>0.89541807353794245</v>
+        <v>0.8752634688893306</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>28.96807056625919</v>
+        <v>29.99999524687372</v>
       </c>
       <c r="D7">
-        <v>3.6164380521515119E-3</v>
+        <v>-0.009708194299310373</v>
       </c>
       <c r="E7">
-        <v>-3.5470153980028708E-2</v>
+        <v>-0.05411581826598051</v>
       </c>
       <c r="F7">
-        <v>-0.78548516171879956</v>
+        <v>-0.5093286506710499</v>
       </c>
       <c r="G7">
-        <v>-1.9173802805551889E-2</v>
+        <v>-0.01396053627372621</v>
       </c>
       <c r="H7">
-        <v>81.189215220525199</v>
+        <v>85.41117144742898</v>
       </c>
       <c r="I7">
-        <v>82.04580845037151</v>
+        <v>86.01299583954764</v>
       </c>
       <c r="J7">
-        <v>90.186475765823886</v>
+        <v>101.7448627247406</v>
       </c>
       <c r="K7">
-        <v>91.32317276980335</v>
+        <v>94.09250860909573</v>
       </c>
       <c r="L7">
-        <v>1.2632481669143619E-4</v>
+        <v>-0.08464046098628504</v>
       </c>
       <c r="M7">
-        <v>456.86340306798758</v>
+        <v>383.5780761218104</v>
       </c>
       <c r="N7">
-        <v>-6.194898297654175E-33</v>
+        <v>-8.96348007022494E-28</v>
       </c>
       <c r="O7">
-        <v>-316.59464310388142</v>
+        <v>-252.1065821221995</v>
       </c>
       <c r="P7">
-        <v>25.231705444990201</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="0"/>
-        <v>7.2378788441830695E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>67.67169328388906</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8">
-        <v>1.076184236768891</v>
+        <v>1.050354612257053</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>29.12217088785583</v>
+        <v>29.99999876022166</v>
       </c>
       <c r="D8">
-        <v>6.0828102889615892E-3</v>
+        <v>-0.009076291498923411</v>
       </c>
       <c r="E8">
-        <v>-3.3285939103586952E-2</v>
+        <v>-0.07791734757747674</v>
       </c>
       <c r="F8">
-        <v>-0.87637675218196165</v>
+        <v>-0.6622771227168154</v>
       </c>
       <c r="G8">
-        <v>-2.5395693215053299E-2</v>
+        <v>-0.02550188823884381</v>
       </c>
       <c r="H8">
-        <v>84.259497841730408</v>
+        <v>85.2629277737649</v>
       </c>
       <c r="I8">
-        <v>83.919967188198655</v>
+        <v>85.37113961025112</v>
       </c>
       <c r="J8">
-        <v>89.685403763104929</v>
+        <v>92.37855644397554</v>
       </c>
       <c r="K8">
-        <v>94.990198652075179</v>
+        <v>94.22601207606471</v>
       </c>
       <c r="L8">
-        <v>-2.9268830763640341E-2</v>
+        <v>-0.04841882778277753</v>
       </c>
       <c r="M8">
-        <v>575.49075829791332</v>
+        <v>391.8888313349107</v>
       </c>
       <c r="N8">
-        <v>-4.57733414374913E-34</v>
+        <v>1.445655997706762E-24</v>
       </c>
       <c r="O8">
-        <v>-128.28485728589851</v>
+        <v>-258.0479333907703</v>
       </c>
       <c r="P8">
-        <v>60.94580585252092</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="0"/>
-        <v>-1.676980474039258</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>64.76934810977976</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9">
-        <v>1.2569430782299349</v>
+        <v>1.225499757483865</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>28.95405203795044</v>
+        <v>29.98629861262248</v>
       </c>
       <c r="D9">
-        <v>1.607198358116938E-3</v>
+        <v>-0.00256449402259163</v>
       </c>
       <c r="E9">
-        <v>-4.8836926786371831E-2</v>
+        <v>-0.0925764795562182</v>
       </c>
       <c r="F9">
-        <v>-1.010447476765413</v>
+        <v>-0.8644275401994517</v>
       </c>
       <c r="G9">
-        <v>-3.2822112632705402E-2</v>
+        <v>-0.04050788773798109</v>
       </c>
       <c r="H9">
-        <v>81.601488841344505</v>
+        <v>85.52810541603233</v>
       </c>
       <c r="I9">
-        <v>82.227471475296042</v>
+        <v>86.20621549735269</v>
       </c>
       <c r="J9">
-        <v>129.68459320386799</v>
+        <v>90.05345733001154</v>
       </c>
       <c r="K9">
-        <v>147.55647159453639</v>
+        <v>94.89804494969685</v>
       </c>
       <c r="L9">
-        <v>2.134434111297137E-3</v>
+        <v>0.04141014888834691</v>
       </c>
       <c r="M9">
-        <v>2.0728280209688131E-30</v>
+        <v>435.6938360112447</v>
       </c>
       <c r="N9">
-        <v>-2.213725463401146E-4</v>
+        <v>3.397690724693333E-28</v>
       </c>
       <c r="O9">
-        <v>-290.49824465115893</v>
+        <v>-252.4305730012158</v>
       </c>
       <c r="P9">
-        <v>32.667242816800382</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="0"/>
-        <v>0.12229406622608258</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-2.55878366849068</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10">
-        <v>1.438560388714766</v>
+        <v>1.400688136228056</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>28.801293241243709</v>
+        <v>30.00000007969707</v>
       </c>
       <c r="D10">
-        <v>7.8719250826184781E-3</v>
+        <v>0.01670841275708275</v>
       </c>
       <c r="E10">
-        <v>-4.280071512775406E-2</v>
+        <v>-0.07404306037784376</v>
       </c>
       <c r="F10">
-        <v>-1.1783252193383409</v>
+        <v>-1.074194612272204</v>
       </c>
       <c r="G10">
-        <v>-4.1653331700611543E-2</v>
+        <v>-0.05513820570028236</v>
       </c>
       <c r="H10">
-        <v>82.996503946000516</v>
+        <v>85.36326045051545</v>
       </c>
       <c r="I10">
-        <v>82.918034060317396</v>
+        <v>85.54569530579924</v>
       </c>
       <c r="J10">
-        <v>86.622293655085102</v>
+        <v>94.95612502138002</v>
       </c>
       <c r="K10">
-        <v>91.148199220894455</v>
+        <v>98.68606607510506</v>
       </c>
       <c r="L10">
-        <v>3.7658563920251499E-3</v>
+        <v>0.03499138696120417</v>
       </c>
       <c r="M10">
-        <v>435.38151883536608</v>
+        <v>419.8284899575024</v>
       </c>
       <c r="N10">
-        <v>-7.9147647781806633E-34</v>
+        <v>-8.498488252749848E-28</v>
       </c>
       <c r="O10">
-        <v>-220.6187537186201</v>
+        <v>-260.2069833423311</v>
       </c>
       <c r="P10">
-        <v>29.994718297143589</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="0"/>
-        <v>0.21576767751540471</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>31.20546562955481</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11">
-        <v>1.62082131569163</v>
+        <v>1.575807398538395</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>28.843272843509979</v>
+        <v>29.99999935710484</v>
       </c>
       <c r="D11">
-        <v>1.017542910770208E-2</v>
+        <v>0.02474974397563092</v>
       </c>
       <c r="E11">
-        <v>-4.0075922554432722E-2</v>
+        <v>-0.05839563646757716</v>
       </c>
       <c r="F11">
-        <v>-1.369253404711086</v>
+        <v>-1.283714728661302</v>
       </c>
       <c r="G11">
-        <v>-4.9130677969810403E-2</v>
+        <v>-0.06671870525157461</v>
       </c>
       <c r="H11">
-        <v>81.644589960168801</v>
+        <v>85.6783545595397</v>
       </c>
       <c r="I11">
-        <v>82.062492013317467</v>
+        <v>86.11039198869005</v>
       </c>
       <c r="J11">
-        <v>91.196768370998313</v>
+        <v>93.58315209973553</v>
       </c>
       <c r="K11">
-        <v>102.9152137023116</v>
+        <v>106.1526174173784</v>
       </c>
       <c r="L11">
-        <v>3.2253871673293487E-2</v>
+        <v>0.06612957526612506</v>
       </c>
       <c r="M11">
-        <v>420.77724734248937</v>
+        <v>602.5223596407133</v>
       </c>
       <c r="N11">
-        <v>-1.4160929124620679E-32</v>
+        <v>-1.003094263682719E-26</v>
       </c>
       <c r="O11">
-        <v>-262.67254019257712</v>
+        <v>-156.4814604077547</v>
       </c>
       <c r="P11">
-        <v>3.9679930897929991</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="0"/>
-        <v>1.8480107198362752</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-35.85592561121008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12">
-        <v>1.802834116437787</v>
+        <v>1.751514699071341</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>28.881275940338011</v>
+        <v>29.78046720144491</v>
       </c>
       <c r="D12">
-        <v>1.704683850868112E-2</v>
+        <v>0.03963229130727886</v>
       </c>
       <c r="E12">
-        <v>-2.8676109659292189E-2</v>
+        <v>-0.03692606382483118</v>
       </c>
       <c r="F12">
-        <v>-1.570750912751159</v>
+        <v>-1.48682977130751</v>
       </c>
       <c r="G12">
-        <v>-5.5367734840883427E-2</v>
+        <v>-0.07494811591239135</v>
       </c>
       <c r="H12">
-        <v>82.952102622030679</v>
+        <v>84.80847347443027</v>
       </c>
       <c r="I12">
-        <v>82.913793382344721</v>
+        <v>84.87367933722267</v>
       </c>
       <c r="J12">
-        <v>90.938075958399835</v>
+        <v>144.1261167807237</v>
       </c>
       <c r="K12">
-        <v>113.9214202403009</v>
+        <v>155.2172238812166</v>
       </c>
       <c r="L12">
-        <v>7.4458411550475681E-2</v>
+        <v>0.1080290974616526</v>
       </c>
       <c r="M12">
-        <v>358.72291019302293</v>
+        <v>-4.02182987857733E-26</v>
       </c>
       <c r="N12">
-        <v>1.9310786202152331E-29</v>
+        <v>-0.0002382656986221379</v>
       </c>
       <c r="O12">
-        <v>-189.7039391079669</v>
+        <v>-212.6353441050444</v>
       </c>
       <c r="P12">
-        <v>-36.670284393285137</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="0"/>
-        <v>4.2661527310903971</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-2.115484282094079</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13">
-        <v>1.984973402734546</v>
+        <v>1.928533916696793</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>28.798152873960419</v>
+        <v>29.58636800451441</v>
       </c>
       <c r="D13">
-        <v>2.8322997363136791E-2</v>
+        <v>0.05198737876893288</v>
       </c>
       <c r="E13">
-        <v>-3.067345256204414E-3</v>
+        <v>-0.009316364016207605</v>
       </c>
       <c r="F13">
-        <v>-1.7483083043538561</v>
+        <v>-1.646705559141833</v>
       </c>
       <c r="G13">
-        <v>-5.8262353466255648E-2</v>
+        <v>-0.079189460141976</v>
       </c>
       <c r="H13">
-        <v>81.655885822554495</v>
+        <v>84.36464466957358</v>
       </c>
       <c r="I13">
-        <v>81.831481858210353</v>
+        <v>84.50027406909025</v>
       </c>
       <c r="J13">
-        <v>91.019383470361774</v>
+        <v>92.39613089078176</v>
       </c>
       <c r="K13">
-        <v>120.3859955152176</v>
+        <v>105.9985875005506</v>
       </c>
       <c r="L13">
-        <v>9.9924294869182903E-2</v>
+        <v>0.125055788493705</v>
       </c>
       <c r="M13">
-        <v>361.41442354161518</v>
+        <v>358.7102237865072</v>
       </c>
       <c r="N13">
-        <v>-6.5425606366166852E-32</v>
+        <v>1.763242668763301E-27</v>
       </c>
       <c r="O13">
-        <v>-216.81902417571979</v>
+        <v>-198.1511343810747</v>
       </c>
       <c r="P13">
-        <v>-43.097018310477331</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="0"/>
-        <v>5.7252403668249272</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-25.67060757642481</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14">
-        <v>2.1676000007180218</v>
+        <v>2.106471973778904</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>28.714384778786979</v>
+        <v>29.44312662709868</v>
       </c>
       <c r="D14">
-        <v>3.4291404435273953E-2</v>
+        <v>0.05392145412454036</v>
       </c>
       <c r="E14">
-        <v>2.6117252592618011E-2</v>
+        <v>0.02951284708389866</v>
       </c>
       <c r="F14">
-        <v>-1.8837958124997809</v>
+        <v>-1.780294036945668</v>
       </c>
       <c r="G14">
-        <v>-5.6158744022934422E-2</v>
+        <v>-0.07733963114756436</v>
       </c>
       <c r="H14">
-        <v>82.260904758732323</v>
+        <v>83.93184197797147</v>
       </c>
       <c r="I14">
-        <v>82.000350542896484</v>
+        <v>83.72652645860553</v>
       </c>
       <c r="J14">
-        <v>90.723695462114648</v>
+        <v>95.4105724811533</v>
       </c>
       <c r="K14">
-        <v>126.8091065991641</v>
+        <v>109.3552215878401</v>
       </c>
       <c r="L14">
-        <v>0.12599583815896381</v>
+        <v>0.1399931318186446</v>
       </c>
       <c r="M14">
-        <v>326.40556109155608</v>
+        <v>332.4299846781488</v>
       </c>
       <c r="N14">
-        <v>-3.5796651410685199E-31</v>
+        <v>1.742212466640867E-26</v>
       </c>
       <c r="O14">
-        <v>-175.27983168145599</v>
+        <v>-201.9918137635009</v>
       </c>
       <c r="P14">
-        <v>-59.557544547609311</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="0"/>
-        <v>7.2190297627219948</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-32.03204122763687</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15">
-        <v>2.3509255058189802</v>
+        <v>2.285254239181182</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>28.569130264926741</v>
+        <v>29.3029106111724</v>
       </c>
       <c r="D15">
-        <v>3.7503310653364832E-2</v>
+        <v>0.0506311188972042</v>
       </c>
       <c r="E15">
-        <v>5.9252282940542071E-2</v>
+        <v>0.06772207249900106</v>
       </c>
       <c r="F15">
-        <v>-1.9695156459712999</v>
+        <v>-1.88922668367108</v>
       </c>
       <c r="G15">
-        <v>-4.8334980560435628E-2</v>
+        <v>-0.06864072030209249</v>
       </c>
       <c r="H15">
-        <v>81.084062748632832</v>
+        <v>83.55584881772363</v>
       </c>
       <c r="I15">
-        <v>80.927734603547691</v>
+        <v>83.28289370661173</v>
       </c>
       <c r="J15">
-        <v>89.925366049090954</v>
+        <v>93.79356953687916</v>
       </c>
       <c r="K15">
-        <v>130.12608600928209</v>
+        <v>108.1983496077264</v>
       </c>
       <c r="L15">
-        <v>0.12829255866348649</v>
+        <v>0.1423112275103812</v>
       </c>
       <c r="M15">
-        <v>340.5891370220358</v>
+        <v>329.907777830612</v>
       </c>
       <c r="N15">
-        <v>-1.2002296813612131E-30</v>
+        <v>2.76763683728454E-27</v>
       </c>
       <c r="O15">
-        <v>-201.9318503675787</v>
+        <v>-209.7973436063861</v>
       </c>
       <c r="P15">
-        <v>-60.312692822452092</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="0"/>
-        <v>7.3506221543523012</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-35.79826427394634</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16">
-        <v>2.5350736363359681</v>
+        <v>2.464797532383591</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>28.452362924507209</v>
+        <v>29.18972401618702</v>
       </c>
       <c r="D16">
-        <v>3.3906567981735858E-2</v>
+        <v>0.04077829581824167</v>
       </c>
       <c r="E16">
-        <v>9.0761075753323803E-2</v>
+        <v>0.1054925840237673</v>
       </c>
       <c r="F16">
-        <v>-1.999999797782787</v>
+        <v>-1.969198158422217</v>
       </c>
       <c r="G16">
-        <v>-3.4495488034885988E-2</v>
+        <v>-0.05308098356623071</v>
       </c>
       <c r="H16">
-        <v>81.478531721442195</v>
+        <v>83.27617455107935</v>
       </c>
       <c r="I16">
-        <v>80.931461574586535</v>
+        <v>82.73570952619457</v>
       </c>
       <c r="J16">
-        <v>89.115231811714807</v>
+        <v>90.23952510250032</v>
       </c>
       <c r="K16">
-        <v>134.76379525308309</v>
+        <v>104.5485520835698</v>
       </c>
       <c r="L16">
-        <v>0.13791202669283981</v>
+        <v>0.5734386587331688</v>
       </c>
       <c r="M16">
-        <v>320.37498742493921</v>
+        <v>412.5678104075254</v>
       </c>
       <c r="N16">
-        <v>-1.2931819090422829E-32</v>
+        <v>2.279472509395758E-27</v>
       </c>
       <c r="O16">
-        <v>-177.0508052076764</v>
+        <v>-23.39852531058329</v>
       </c>
       <c r="P16">
-        <v>-75.535907848010325</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="0"/>
-        <v>7.901777073595273</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-71.71965438736433</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17">
-        <v>2.7200656129656058</v>
+        <v>2.646304900532903</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>28.309430306412651</v>
+        <v>28.64392812222416</v>
       </c>
       <c r="D17">
-        <v>2.7325307671063039E-2</v>
+        <v>0.03254825729389917</v>
       </c>
       <c r="E17">
-        <v>0.12189769751092561</v>
+        <v>0.1349440177524654</v>
       </c>
       <c r="F17">
-        <v>-1.969336107669442</v>
+        <v>-1.999999810693658</v>
       </c>
       <c r="G17">
-        <v>-1.4789339300622539E-2</v>
+        <v>-0.03113979509410816</v>
       </c>
       <c r="H17">
-        <v>80.4461750023805</v>
+        <v>65.71787633436971</v>
       </c>
       <c r="I17">
-        <v>79.969107659023024</v>
+        <v>66.16579388110144</v>
       </c>
       <c r="J17">
-        <v>87.623140899330863</v>
+        <v>121.5395205622169</v>
       </c>
       <c r="K17">
-        <v>137.16851384914261</v>
+        <v>128.4402575183722</v>
       </c>
       <c r="L17">
-        <v>0.12794939968495159</v>
+        <v>0.1321209100411237</v>
       </c>
       <c r="M17">
-        <v>356.41257408228211</v>
+        <v>0.001939280818943257</v>
       </c>
       <c r="N17">
-        <v>-1.0337170445186029E-31</v>
+        <v>7.66398330006273E-25</v>
       </c>
       <c r="O17">
-        <v>-199.0682089183764</v>
+        <v>-68.40302639663129</v>
       </c>
       <c r="P17">
-        <v>-88.557203438673909</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="0"/>
-        <v>7.3309605931802313</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-57.67629934326195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18">
-        <v>2.905916733150486</v>
+        <v>2.830603326154852</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>28.198798897543099</v>
+        <v>28.34394403757355</v>
       </c>
       <c r="D18">
-        <v>1.6705935801930631E-2</v>
+        <v>0.02286746195829881</v>
       </c>
       <c r="E18">
-        <v>0.14855831441656769</v>
+        <v>0.1716769414562861</v>
       </c>
       <c r="F18">
-        <v>-1.866660412788659</v>
+        <v>-1.941931444187555</v>
       </c>
       <c r="G18">
-        <v>1.041729346279037E-2</v>
+        <v>-0.003014252561297861</v>
       </c>
       <c r="H18">
-        <v>80.776731138200788</v>
+        <v>94.09696873531539</v>
       </c>
       <c r="I18">
-        <v>79.958894389607977</v>
+        <v>91.87932625864471</v>
       </c>
       <c r="J18">
-        <v>90.529852638505133</v>
+        <v>79.99472038654166</v>
       </c>
       <c r="K18">
-        <v>144.0758630832625</v>
+        <v>79.80041194766807</v>
       </c>
       <c r="L18">
-        <v>0.12925226485599281</v>
+        <v>0.121119769646981</v>
       </c>
       <c r="M18">
-        <v>52.920352330919798</v>
+        <v>-3.279916929011744E-24</v>
       </c>
       <c r="N18">
-        <v>-2.1274890187582652E-28</v>
+        <v>-0.00294914023710311</v>
       </c>
       <c r="O18">
-        <v>-79.52182169644162</v>
+        <v>256.187546612053</v>
       </c>
       <c r="P18">
-        <v>-125.90202661374209</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="0"/>
-        <v>7.4056092687554829</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-100.8695702955812</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19">
-        <v>3.0933865281658801</v>
+        <v>3.018736632587401</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>27.82695122983829</v>
+        <v>27.52529179726817</v>
       </c>
       <c r="D19">
-        <v>7.7234794484041273E-3</v>
+        <v>0.02043185750597484</v>
       </c>
       <c r="E19">
-        <v>0.1862287692654396</v>
+        <v>0.2209513005327868</v>
       </c>
       <c r="F19">
-        <v>-1.666878493835287</v>
+        <v>-1.74833029082763</v>
       </c>
       <c r="G19">
-        <v>4.1679267820608941E-2</v>
+        <v>0.03393054705061835</v>
       </c>
       <c r="H19">
-        <v>79.194234633741786</v>
+        <v>67.32405371162919</v>
       </c>
       <c r="I19">
-        <v>78.406069513641285</v>
+        <v>67.77763150691243</v>
       </c>
       <c r="J19">
-        <v>79.058814515672992</v>
+        <v>78.52319294319351</v>
       </c>
       <c r="K19">
-        <v>100.9953847155611</v>
+        <v>79.54585574299591</v>
       </c>
       <c r="L19">
-        <v>0.11739926495515821</v>
+        <v>0.1191978778303996</v>
       </c>
       <c r="M19">
-        <v>516.81944931341752</v>
+        <v>503.9356604045615</v>
       </c>
       <c r="N19">
-        <v>-1.2001912685192929E-31</v>
+        <v>5.318210895122265E-28</v>
       </c>
       <c r="O19">
-        <v>-168.4640087859552</v>
+        <v>-332.7536131185527</v>
       </c>
       <c r="P19">
-        <v>-117.4174521435087</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" si="0"/>
-        <v>6.7264823998686767</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-103.0542606003206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20">
-        <v>3.2828008523074299</v>
+        <v>3.209489361479243</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>27.686553787382621</v>
+        <v>27.64652984520336</v>
       </c>
       <c r="D20">
-        <v>-8.4077068447742567E-3</v>
+        <v>-0.008330811044512188</v>
       </c>
       <c r="E20">
-        <v>0.2115261797242155</v>
+        <v>0.2380682547519472</v>
       </c>
       <c r="F20">
-        <v>-1.35126452646784</v>
+        <v>-1.428809801732096</v>
       </c>
       <c r="G20">
-        <v>7.9383624055102117E-2</v>
+        <v>0.07796339368739101</v>
       </c>
       <c r="H20">
-        <v>79.345517968779461</v>
+        <v>87.52022694410493</v>
       </c>
       <c r="I20">
-        <v>78.221369009461895</v>
+        <v>83.43484896976381</v>
       </c>
       <c r="J20">
-        <v>122.3348643182411</v>
+        <v>102.2377175346772</v>
       </c>
       <c r="K20">
-        <v>130.7839736788097</v>
+        <v>85.58423591373686</v>
       </c>
       <c r="L20">
-        <v>9.5772678177568071E-2</v>
+        <v>0.09087146402773645</v>
       </c>
       <c r="M20">
-        <v>5.9560879034906706E-32</v>
+        <v>4.129029810154228E-30</v>
       </c>
       <c r="N20">
-        <v>-681.36795720163752</v>
+        <v>-340.5057285290218</v>
       </c>
       <c r="O20">
-        <v>192.56838999611111</v>
+        <v>262.4399918949118</v>
       </c>
       <c r="P20">
-        <v>-201.34122227936481</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" si="0"/>
-        <v>5.4873702522393311</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-171.8350549962871</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21">
-        <v>3.4759522406815342</v>
+        <v>3.40324726950419</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>26.90382452486422</v>
+        <v>26.75426692319439</v>
       </c>
       <c r="D21">
-        <v>-1.622011792096191E-2</v>
+        <v>-0.01524613692329107</v>
       </c>
       <c r="E21">
-        <v>0.25579127739771518</v>
+        <v>0.2760300333001882</v>
       </c>
       <c r="F21">
-        <v>-0.88263589847925272</v>
+        <v>-0.9511877451839259</v>
       </c>
       <c r="G21">
-        <v>0.1246455491092783</v>
+        <v>0.1279110609036712</v>
       </c>
       <c r="H21">
-        <v>74.769482436791449</v>
+        <v>68.32492373140883</v>
       </c>
       <c r="I21">
-        <v>72.275862580679643</v>
+        <v>69.4524457427579</v>
       </c>
       <c r="J21">
-        <v>96.533689416135331</v>
+        <v>85.56676236461699</v>
       </c>
       <c r="K21">
-        <v>74.990728537546829</v>
+        <v>75.72387214062176</v>
       </c>
       <c r="L21">
-        <v>8.2794784937965479E-2</v>
+        <v>0.106271284886993</v>
       </c>
       <c r="M21">
-        <v>-6.7602831452660794E-31</v>
+        <v>7.00789265528821E-05</v>
       </c>
       <c r="N21">
-        <v>-1021.885330053142</v>
+        <v>-1.17434611415472E-24</v>
       </c>
       <c r="O21">
-        <v>166.91390944124561</v>
+        <v>-106.3855923017031</v>
       </c>
       <c r="P21">
-        <v>-220.9492331691558</v>
-      </c>
-      <c r="Q21">
-        <f t="shared" si="0"/>
-        <v>4.7437917426387397</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-207.2497389191921</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22">
-        <v>3.6778591429419452</v>
+        <v>3.604119813775911</v>
       </c>
       <c r="B22">
-        <v>3.183098861837901E-3</v>
+        <v>0.003183098861837901</v>
       </c>
       <c r="C22">
-        <v>25.56012895259121</v>
+        <v>26.00634421883393</v>
       </c>
       <c r="D22">
-        <v>-2.5927457216640162E-2</v>
+        <v>-0.028085495899735</v>
       </c>
       <c r="E22">
-        <v>0.27602736446880621</v>
+        <v>0.2764568842117314</v>
       </c>
       <c r="F22">
-        <v>-0.22654555364295781</v>
+        <v>-0.2760139041835133</v>
       </c>
       <c r="G22">
-        <v>0.16154513029823939</v>
+        <v>0.1666787013563632</v>
       </c>
       <c r="H22">
-        <v>72.209008306252699</v>
+        <v>81.43306235505052</v>
       </c>
       <c r="I22">
-        <v>68.347183958005559</v>
+        <v>77.1717678403068</v>
       </c>
       <c r="J22">
-        <v>68.145915281096123</v>
+        <v>72.85539721410859</v>
       </c>
       <c r="K22">
-        <v>72.903958965184742</v>
+        <v>75.59838168285037</v>
       </c>
       <c r="L22">
-        <v>9.8922577165197326E-2</v>
+        <v>0.07135646548253842</v>
       </c>
       <c r="M22">
-        <v>3.191661637901997E-35</v>
+        <v>-9.544694409049545E-30</v>
       </c>
       <c r="N22">
-        <v>-1406.262003728594</v>
+        <v>-1335.892709540615</v>
       </c>
       <c r="O22">
-        <v>270.82103954888618</v>
+        <v>327.0166767702015</v>
       </c>
       <c r="P22">
-        <v>-202.01069493218091</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" si="0"/>
-        <v>5.6678461701230178</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-169.2842546171157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23">
-        <v>3.8917848978404721</v>
+        <v>3.813986636381685</v>
       </c>
       <c r="B23">
-        <v>9.7084515286055967E-3</v>
+        <v>0.009708451528605597</v>
       </c>
       <c r="C23">
-        <v>23.908640390394389</v>
+        <v>24.45368675157986</v>
       </c>
       <c r="D23">
-        <v>-3.8897864159856597E-2</v>
+        <v>-0.03880062472196966</v>
       </c>
       <c r="E23">
-        <v>0.30265232047437629</v>
+        <v>0.3122155920487815</v>
       </c>
       <c r="F23">
-        <v>0.49657604518648968</v>
+        <v>0.46861965900346</v>
       </c>
       <c r="G23">
-        <v>0.1725530219612682</v>
+        <v>0.1775396088560895</v>
       </c>
       <c r="H23">
-        <v>64.245452046288335</v>
+        <v>60.42025166434669</v>
       </c>
       <c r="I23">
-        <v>58.625762016922998</v>
+        <v>59.92394348416438</v>
       </c>
       <c r="J23">
-        <v>41.584181152641399</v>
+        <v>46.18691910975839</v>
       </c>
       <c r="K23">
-        <v>66.573770749827773</v>
+        <v>67.49396245266546</v>
       </c>
       <c r="L23">
-        <v>7.7305636804983355E-2</v>
+        <v>0.08093771193798818</v>
       </c>
       <c r="M23">
-        <v>1.6122856729703581E-4</v>
+        <v>4.177142603132374E-05</v>
       </c>
       <c r="N23">
-        <v>8.9062301278204196E-30</v>
+        <v>-2.047357458758156E-25</v>
       </c>
       <c r="O23">
-        <v>-112.72615584660571</v>
+        <v>-137.4727861493442</v>
       </c>
       <c r="P23">
-        <v>-235.0045072171726</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" si="0"/>
-        <v>4.429286721496748</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-223.9283384094417</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24">
-        <v>4.1145592164814166</v>
+        <v>4.031927964921906</v>
       </c>
       <c r="B24">
-        <v>1.6392959138465189E-2</v>
+        <v>0.01639295913846519</v>
       </c>
       <c r="C24">
-        <v>23.008099830383099</v>
+        <v>23.54491119809519</v>
       </c>
       <c r="D24">
-        <v>-4.6699967217447659E-2</v>
+        <v>-0.04880884224298262</v>
       </c>
       <c r="E24">
-        <v>0.30179680446797019</v>
+        <v>0.306428747886173</v>
       </c>
       <c r="F24">
-        <v>1.1333712082130869</v>
+        <v>1.1270084947225</v>
       </c>
       <c r="G24">
-        <v>0.154355445286909</v>
+        <v>0.1594283793624685</v>
       </c>
       <c r="H24">
-        <v>69.949484380467851</v>
+        <v>76.05838811512807</v>
       </c>
       <c r="I24">
-        <v>70.933330255506476</v>
+        <v>72.31711816135441</v>
       </c>
       <c r="J24">
-        <v>63.041406951485392</v>
+        <v>64.88454155099977</v>
       </c>
       <c r="K24">
-        <v>67.554902563679406</v>
+        <v>69.35343767710854</v>
       </c>
       <c r="L24">
-        <v>6.2828435949455877E-2</v>
+        <v>0.06217117779341732</v>
       </c>
       <c r="M24">
-        <v>9.0181114291066733E-5</v>
+        <v>-1.121288683062752E-28</v>
       </c>
       <c r="N24">
-        <v>5.8441289322290103E-31</v>
+        <v>-339.9507502921666</v>
       </c>
       <c r="O24">
-        <v>205.41811971047841</v>
+        <v>275.3206488217727</v>
       </c>
       <c r="P24">
-        <v>-224.82079334113149</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="0"/>
-        <v>3.5998042133118391</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-193.6760403331835</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25">
-        <v>4.3409518467461012</v>
+        <v>4.254212962298838</v>
       </c>
       <c r="B25">
-        <v>1.986760647169749E-2</v>
+        <v>0.01986760647169749</v>
       </c>
       <c r="C25">
-        <v>22.294481538633342</v>
+        <v>22.59126197695183</v>
       </c>
       <c r="D25">
-        <v>-4.9202865309846272E-2</v>
+        <v>-0.05467298210836744</v>
       </c>
       <c r="E25">
-        <v>0.33177919140709339</v>
+        <v>0.3435125175454988</v>
       </c>
       <c r="F25">
-        <v>1.593849139562699</v>
+        <v>1.594959641935798</v>
       </c>
       <c r="G25">
-        <v>0.1218311998918836</v>
+        <v>0.1273950904415034</v>
       </c>
       <c r="H25">
-        <v>60.640790704154291</v>
+        <v>56.388549796456</v>
       </c>
       <c r="I25">
-        <v>57.071483333477659</v>
+        <v>56.63439290133422</v>
       </c>
       <c r="J25">
-        <v>63.306144685588059</v>
+        <v>60.96788944995595</v>
       </c>
       <c r="K25">
-        <v>64.236771304290727</v>
+        <v>64.51840229927424</v>
       </c>
       <c r="L25">
-        <v>8.123297749758901E-2</v>
+        <v>0.07148982424466999</v>
       </c>
       <c r="M25">
-        <v>1.14225683986015E-30</v>
+        <v>4.124450162148068E-05</v>
       </c>
       <c r="N25">
-        <v>-6.9296983766069741E-4</v>
+        <v>-4.964718211583831E-24</v>
       </c>
       <c r="O25">
-        <v>-95.290092937460685</v>
+        <v>-144.333003941144</v>
       </c>
       <c r="P25">
-        <v>-249.1061133925094</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" si="0"/>
-        <v>4.6543067678930381</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-237.1809739169186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26">
-        <v>4.5722173886990776</v>
+        <v>4.482652804149417</v>
       </c>
       <c r="B26">
         <v>0.02</v>
       </c>
       <c r="C26">
-        <v>21.59462274323533</v>
+        <v>21.85315022846399</v>
       </c>
       <c r="D26">
-        <v>-5.2396222201151359E-2</v>
+        <v>-0.05990869498501382</v>
       </c>
       <c r="E26">
-        <v>0.32142216065171381</v>
+        <v>0.3261467804699089</v>
       </c>
       <c r="F26">
-        <v>1.8775300218287501</v>
+        <v>1.876354003335981</v>
       </c>
       <c r="G26">
-        <v>9.2369767727078292E-2</v>
+        <v>0.09894187404917255</v>
       </c>
       <c r="H26">
-        <v>65.054240326153945</v>
+        <v>70.34173864295875</v>
       </c>
       <c r="I26">
-        <v>64.516600314735854</v>
+        <v>66.02293561445649</v>
       </c>
       <c r="J26">
-        <v>60.932977621967041</v>
+        <v>62.22500730921784</v>
       </c>
       <c r="K26">
-        <v>62.583873795714879</v>
+        <v>63.58001218990383</v>
       </c>
       <c r="L26">
-        <v>5.7925129635386478E-2</v>
+        <v>0.05567684862949855</v>
       </c>
       <c r="M26">
-        <v>-3.0143883251090259E-33</v>
+        <v>-2.669437567255827E-28</v>
       </c>
       <c r="N26">
-        <v>-1115.1510159634929</v>
+        <v>-285.8759741480189</v>
       </c>
       <c r="O26">
-        <v>300.13920418568279</v>
+        <v>258.0428116068421</v>
       </c>
       <c r="P26">
-        <v>-195.96263875737719</v>
-      </c>
-      <c r="Q26">
-        <f t="shared" si="0"/>
-        <v>3.3188654558558142</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-204.0327083042688</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27">
-        <v>4.8139424685012804</v>
+        <v>4.718413167775238</v>
       </c>
       <c r="B27">
         <v>0.02</v>
       </c>
       <c r="C27">
-        <v>20.160946296399761</v>
+        <v>20.9587226103786</v>
       </c>
       <c r="D27">
-        <v>-5.9425204096483587E-2</v>
+        <v>-0.06397206409210804</v>
       </c>
       <c r="E27">
-        <v>0.35791795395910281</v>
+        <v>0.3616505122086126</v>
       </c>
       <c r="F27">
-        <v>1.9999998940222881</v>
+        <v>1.999999890945066</v>
       </c>
       <c r="G27">
-        <v>6.9486559211373505E-2</v>
+        <v>0.07501339881310645</v>
       </c>
       <c r="H27">
-        <v>52.773781627705517</v>
+        <v>52.74375469392419</v>
       </c>
       <c r="I27">
-        <v>48.759471768865332</v>
+        <v>53.36088471995214</v>
       </c>
       <c r="J27">
-        <v>35.646005817599438</v>
+        <v>57.17252085368987</v>
       </c>
       <c r="K27">
-        <v>56.160387837381052</v>
+        <v>60.13441786971049</v>
       </c>
       <c r="L27">
-        <v>6.7990819144124345E-2</v>
+        <v>0.06298101072657836</v>
       </c>
       <c r="M27">
-        <v>9.6040721014202684E-5</v>
+        <v>1.568764306202474E-25</v>
       </c>
       <c r="N27">
-        <v>-4.9581044048377955E-32</v>
+        <v>-5.367531465370823E-05</v>
       </c>
       <c r="O27">
-        <v>-133.37205689093179</v>
+        <v>-138.9509047335262</v>
       </c>
       <c r="P27">
-        <v>-240.81528512461199</v>
-      </c>
-      <c r="Q27">
-        <f t="shared" si="0"/>
-        <v>3.8955869825956051</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-240.9259860860476</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28">
-        <v>5.069559422906007</v>
+        <v>4.963023535182331</v>
       </c>
       <c r="B28">
         <v>0.02</v>
       </c>
       <c r="C28">
-        <v>19.35805709936189</v>
+        <v>20.25710807129565</v>
       </c>
       <c r="D28">
-        <v>-6.1596731928366871E-2</v>
+        <v>-0.06617149478998177</v>
       </c>
       <c r="E28">
-        <v>0.34529762165219491</v>
+        <v>0.3421130304013377</v>
       </c>
       <c r="F28">
-        <v>1.9999996432297029</v>
+        <v>1.999999498710614</v>
       </c>
       <c r="G28">
-        <v>5.500393584677582E-2</v>
+        <v>0.05611899938720128</v>
       </c>
       <c r="H28">
-        <v>60.590095798237762</v>
+        <v>65.15825179911336</v>
       </c>
       <c r="I28">
-        <v>60.028630187785367</v>
+        <v>60.6424258199774</v>
       </c>
       <c r="J28">
-        <v>52.962163285205087</v>
+        <v>57.4461050429945</v>
       </c>
       <c r="K28">
-        <v>57.237673675483393</v>
+        <v>58.92615039693928</v>
       </c>
       <c r="L28">
-        <v>5.8005186287836553E-2</v>
+        <v>0.05132264680241373</v>
       </c>
       <c r="M28">
-        <v>1.4322170467908751E-4</v>
+        <v>2.830983595433104E-28</v>
       </c>
       <c r="N28">
-        <v>5.6815488128328706E-29</v>
+        <v>-28.62000192897993</v>
       </c>
       <c r="O28">
-        <v>238.1787106109021</v>
+        <v>224.1530884898876</v>
       </c>
       <c r="P28">
-        <v>-214.57014006311451</v>
-      </c>
-      <c r="Q28">
-        <f t="shared" si="0"/>
-        <v>3.3234523641631495</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-215.3147127432239</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29">
-        <v>5.3345925530667833</v>
+        <v>5.216391358850169</v>
       </c>
       <c r="B29">
         <v>0.02</v>
       </c>
       <c r="C29">
-        <v>18.703553228061949</v>
+        <v>19.56986153668406</v>
       </c>
       <c r="D29">
-        <v>-5.9099424869888881E-2</v>
+        <v>-0.0666321352467568</v>
       </c>
       <c r="E29">
-        <v>0.38325499035421989</v>
+        <v>0.3755668045678391</v>
       </c>
       <c r="F29">
-        <v>1.9488979439211001</v>
+        <v>1.909801751400547</v>
       </c>
       <c r="G29">
-        <v>4.6606881001936697E-2</v>
+        <v>0.04204554436509146</v>
       </c>
       <c r="H29">
-        <v>49.550424445699818</v>
+        <v>50.04380040419706</v>
       </c>
       <c r="I29">
-        <v>46.823588759744439</v>
+        <v>51.01071316721705</v>
       </c>
       <c r="J29">
-        <v>52.869665084592498</v>
+        <v>55.19162123256464</v>
       </c>
       <c r="K29">
-        <v>53.99345214591407</v>
+        <v>56.66425996408394</v>
       </c>
       <c r="L29">
-        <v>6.5678969208946558E-2</v>
+        <v>0.06332210453117473</v>
       </c>
       <c r="M29">
-        <v>214.4935986950756</v>
+        <v>1.59989329059248E-26</v>
       </c>
       <c r="N29">
-        <v>2.1108549698196469E-29</v>
+        <v>2.426879561172013E-07</v>
       </c>
       <c r="O29">
-        <v>-250.7970127118551</v>
+        <v>-118.7746998057287</v>
       </c>
       <c r="P29">
-        <v>-233.22715979594659</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" si="0"/>
-        <v>3.763127738442325</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-244.3834921872013</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30">
-        <v>5.6047944275168309</v>
+        <v>5.479401382938831</v>
       </c>
       <c r="B30">
         <v>0.02</v>
       </c>
       <c r="C30">
-        <v>18.693853515151581</v>
+        <v>18.90566457868778</v>
       </c>
       <c r="D30">
-        <v>-5.8125173922747013E-2</v>
+        <v>-0.0656040060246442</v>
       </c>
       <c r="E30">
-        <v>0.34855296870217661</v>
+        <v>0.3568248022896389</v>
       </c>
       <c r="F30">
-        <v>1.873878914344089</v>
+        <v>1.763105826308185</v>
       </c>
       <c r="G30">
-        <v>4.0465877444591132E-2</v>
+        <v>0.03335066998658347</v>
       </c>
       <c r="H30">
-        <v>57.977755826215819</v>
+        <v>60.35793359666894</v>
       </c>
       <c r="I30">
-        <v>55.996218395019987</v>
+        <v>55.66827258623834</v>
       </c>
       <c r="J30">
-        <v>56.313805097824407</v>
+        <v>53.10798433878568</v>
       </c>
       <c r="K30">
-        <v>56.359496089233339</v>
+        <v>54.87485800965162</v>
       </c>
       <c r="L30">
-        <v>6.3055588790900688E-2</v>
+        <v>0.0522304813512872</v>
       </c>
       <c r="M30">
-        <v>2.2151614252326232E-3</v>
+        <v>91.41256820290248</v>
       </c>
       <c r="N30">
-        <v>5.1032960458020329E-28</v>
+        <v>2.236481725476671E-24</v>
       </c>
       <c r="O30">
-        <v>239.40863728625271</v>
+        <v>127.3548453895466</v>
       </c>
       <c r="P30">
-        <v>-223.41508459524971</v>
-      </c>
-      <c r="Q30">
-        <f t="shared" si="0"/>
-        <v>3.6128191124310312</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-217.4153173629903</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31">
-        <v>5.8798411109110553</v>
+        <v>5.750999871292233</v>
       </c>
       <c r="B31">
         <v>0.02</v>
       </c>
       <c r="C31">
-        <v>18.08458295814501</v>
+        <v>18.49700693031129</v>
       </c>
       <c r="D31">
-        <v>-5.3213532867019041E-2</v>
+        <v>-0.06329929296912493</v>
       </c>
       <c r="E31">
-        <v>0.38762203081991509</v>
+        <v>0.3800973215982708</v>
       </c>
       <c r="F31">
-        <v>1.7844122342743991</v>
+        <v>1.591762018829999</v>
       </c>
       <c r="G31">
-        <v>3.6728384106981787E-2</v>
+        <v>0.02841764661952779</v>
       </c>
       <c r="H31">
-        <v>48.488532025177882</v>
+        <v>48.01169906866211</v>
       </c>
       <c r="I31">
-        <v>47.001680789759632</v>
+        <v>49.07286240900848</v>
       </c>
       <c r="J31">
-        <v>51.308211300876337</v>
+        <v>58.09786346314313</v>
       </c>
       <c r="K31">
-        <v>51.839438843853841</v>
+        <v>54.94336917923483</v>
       </c>
       <c r="L31">
-        <v>6.7179324533482312E-2</v>
+        <v>0.06939279321942551</v>
       </c>
       <c r="M31">
-        <v>291.75798706486029</v>
+        <v>-5.957587782203527E-29</v>
       </c>
       <c r="N31">
-        <v>8.3979643775254212E-34</v>
+        <v>1.677535141814168E-05</v>
       </c>
       <c r="O31">
-        <v>-276.40880222331259</v>
+        <v>-66.04634201202123</v>
       </c>
       <c r="P31">
-        <v>-210.87093340315661</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" si="0"/>
-        <v>3.8490917663082045</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-244.3730092245467</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32">
-        <v>6.1584529214767461</v>
+        <v>6.030808714007093</v>
       </c>
       <c r="B32">
         <v>0.02</v>
       </c>
       <c r="C32">
-        <v>18.318542102837029</v>
+        <v>17.90056985576439</v>
       </c>
       <c r="D32">
-        <v>-5.7021230731138212E-2</v>
+        <v>-0.05867408132330796</v>
       </c>
       <c r="E32">
-        <v>0.35530088834745771</v>
+        <v>0.3682562603721562</v>
       </c>
       <c r="F32">
-        <v>1.6924095888884521</v>
+        <v>1.42129742159429</v>
       </c>
       <c r="G32">
-        <v>3.5021614113256591E-2</v>
+        <v>0.02802251492798536</v>
       </c>
       <c r="H32">
-        <v>56.333433750597408</v>
+        <v>56.69189764168556</v>
       </c>
       <c r="I32">
-        <v>53.607009394325978</v>
+        <v>52.00463748034964</v>
       </c>
       <c r="J32">
-        <v>61.144492355310362</v>
+        <v>49.12241722812717</v>
       </c>
       <c r="K32">
-        <v>56.220360247345511</v>
+        <v>51.33806932408342</v>
       </c>
       <c r="L32">
-        <v>6.4135224428132645E-2</v>
+        <v>0.06197848919785732</v>
       </c>
       <c r="M32">
-        <v>4.3133205727900599</v>
+        <v>68.92316978135646</v>
       </c>
       <c r="N32">
-        <v>1.036973390973918E-30</v>
+        <v>3.11855260816492E-25</v>
       </c>
       <c r="O32">
-        <v>221.1616655761386</v>
+        <v>121.056377388412</v>
       </c>
       <c r="P32">
-        <v>-231.12778508792971</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" si="0"/>
-        <v>3.6746776778563395</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-222.0389915312417</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33">
-        <v>6.4399712856200484</v>
+        <v>6.320028452627537</v>
       </c>
       <c r="B33">
         <v>0.02</v>
       </c>
       <c r="C33">
-        <v>17.75888142230205</v>
+        <v>17.45987373387959</v>
       </c>
       <c r="D33">
-        <v>-5.2522360138653787E-2</v>
+        <v>-0.05271370901780061</v>
       </c>
       <c r="E33">
-        <v>0.39259419095147641</v>
+        <v>0.3905904597524811</v>
       </c>
       <c r="F33">
-        <v>1.58943259305101</v>
+        <v>1.290376152413829</v>
       </c>
       <c r="G33">
-        <v>3.5379681247922103E-2</v>
+        <v>0.03280378142384666</v>
       </c>
       <c r="H33">
-        <v>48.137677209588617</v>
+        <v>45.86854625080127</v>
       </c>
       <c r="I33">
-        <v>47.268979868786538</v>
+        <v>46.80838075915286</v>
       </c>
       <c r="J33">
-        <v>52.186564353443963</v>
+        <v>51.8006688142414</v>
       </c>
       <c r="K33">
-        <v>50.55699658494752</v>
+        <v>51.9675529646732</v>
       </c>
       <c r="L33">
-        <v>6.7371954559479308E-2</v>
+        <v>0.07501908524007181</v>
       </c>
       <c r="M33">
-        <v>292.76497842868213</v>
+        <v>261.7167072585108</v>
       </c>
       <c r="N33">
-        <v>-3.0665507994810879E-34</v>
+        <v>-9.598535298243677E-31</v>
       </c>
       <c r="O33">
-        <v>-271.25347133212318</v>
+        <v>-247.3352899442067</v>
       </c>
       <c r="P33">
-        <v>-209.62629847025079</v>
-      </c>
-      <c r="Q33">
-        <f t="shared" si="0"/>
-        <v>3.8601286538053277</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-221.0784672431397</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34">
-        <v>6.7244925210227109</v>
+        <v>6.611466678105559</v>
       </c>
       <c r="B34">
         <v>0.02</v>
       </c>
       <c r="C34">
-        <v>18.023094805500129</v>
+        <v>17.68452854028479</v>
       </c>
       <c r="D34">
-        <v>-5.7001590702496732E-2</v>
+        <v>-0.05277535762174398</v>
       </c>
       <c r="E34">
-        <v>0.36091711307177232</v>
+        <v>0.3598096460151987</v>
       </c>
       <c r="F34">
-        <v>1.5012052296599929</v>
+        <v>1.203009380508814</v>
       </c>
       <c r="G34">
-        <v>3.7338418706523907E-2</v>
+        <v>0.03704144584465612</v>
       </c>
       <c r="H34">
-        <v>55.017073289567442</v>
+        <v>55.3170429663875</v>
       </c>
       <c r="I34">
-        <v>51.932965420066488</v>
+        <v>50.67718014078041</v>
       </c>
       <c r="J34">
-        <v>61.186970232107377</v>
+        <v>56.83232653198873</v>
       </c>
       <c r="K34">
-        <v>55.569007501978312</v>
+        <v>53.18848044892403</v>
       </c>
       <c r="L34">
-        <v>5.7962202784508733E-2</v>
+        <v>0.06866613363868762</v>
       </c>
       <c r="M34">
-        <v>198.45510413094519</v>
+        <v>43.3831044343839</v>
       </c>
       <c r="N34">
-        <v>-2.4910853753739289E-29</v>
+        <v>-1.651680962403308E-26</v>
       </c>
       <c r="O34">
-        <v>46.205692137322828</v>
+        <v>171.3099134863379</v>
       </c>
       <c r="P34">
-        <v>-219.03832405620801</v>
-      </c>
-      <c r="Q34">
-        <f t="shared" si="0"/>
-        <v>3.3209895908337788</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-225.9957916261661</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35">
-        <v>7.0082277285471504</v>
+        <v>6.905138940281997</v>
       </c>
       <c r="B35">
         <v>0.02</v>
       </c>
       <c r="C35">
-        <v>17.909299077620311</v>
+        <v>17.23401778798979</v>
       </c>
       <c r="D35">
-        <v>-5.9968340099114122E-2</v>
+        <v>-0.04580828679797188</v>
       </c>
       <c r="E35">
-        <v>0.38487531766908911</v>
+        <v>0.3915808318291374</v>
       </c>
       <c r="F35">
-        <v>1.3958143089126409</v>
+        <v>1.151114730230537</v>
       </c>
       <c r="G35">
-        <v>3.8078719649245502E-2</v>
+        <v>0.04242575900457433</v>
       </c>
       <c r="H35">
-        <v>49.048194313468898</v>
+        <v>45.92504654053485</v>
       </c>
       <c r="I35">
-        <v>48.514018522167817</v>
+        <v>46.83243496698204</v>
       </c>
       <c r="J35">
-        <v>83.389693456449578</v>
+        <v>51.47095802622008</v>
       </c>
       <c r="K35">
-        <v>53.683442481790131</v>
+        <v>49.92742206220482</v>
       </c>
       <c r="L35">
-        <v>6.3411127100840348E-2</v>
+        <v>0.08329081763892782</v>
       </c>
       <c r="M35">
-        <v>-6.4980110175667146E-33</v>
+        <v>280.1664486362501</v>
       </c>
       <c r="N35">
-        <v>-9.8374776008970248E-5</v>
+        <v>2.567646184633904E-29</v>
       </c>
       <c r="O35">
-        <v>-47.72273297532454</v>
+        <v>-265.7739080861951</v>
       </c>
       <c r="P35">
-        <v>-256.53682044796449</v>
-      </c>
-      <c r="Q35">
-        <f t="shared" si="0"/>
-        <v>3.6331899570457877</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-213.8737271608356</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36">
-        <v>7.2968536970241784</v>
+        <v>7.200296208691094</v>
       </c>
       <c r="B36">
         <v>0.02</v>
       </c>
       <c r="C36">
-        <v>17.496275552798789</v>
+        <v>17.53188097188578</v>
       </c>
       <c r="D36">
-        <v>-6.160411047615548E-2</v>
+        <v>-0.04720362886079962</v>
       </c>
       <c r="E36">
-        <v>0.37716240625929981</v>
+        <v>0.3589701590505832</v>
       </c>
       <c r="F36">
-        <v>1.2850531931037179</v>
+        <v>1.149069956547078</v>
       </c>
       <c r="G36">
-        <v>4.3363195632833612E-2</v>
+        <v>0.04804723048819105</v>
       </c>
       <c r="H36">
-        <v>53.154885296253809</v>
+        <v>54.22641023152722</v>
       </c>
       <c r="I36">
-        <v>49.974216027045983</v>
+        <v>49.72164211795151</v>
       </c>
       <c r="J36">
-        <v>48.817077568159952</v>
+        <v>56.59770943834998</v>
       </c>
       <c r="K36">
-        <v>49.963233957494332</v>
+        <v>53.5163566059118</v>
       </c>
       <c r="L36">
-        <v>5.0310902828760967E-2</v>
+        <v>0.07150070286149632</v>
       </c>
       <c r="M36">
-        <v>354.10371633854379</v>
+        <v>59.16893691467783</v>
       </c>
       <c r="N36">
-        <v>-2.432144459921119E-34</v>
+        <v>-1.453888720114538E-25</v>
       </c>
       <c r="O36">
-        <v>-54.210441202928372</v>
+        <v>154.8998612278962</v>
       </c>
       <c r="P36">
-        <v>-175.80880031944869</v>
-      </c>
-      <c r="Q36">
-        <f t="shared" si="0"/>
-        <v>2.8826023955807982</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-227.1009672237715</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37">
-        <v>7.5881920041552462</v>
+        <v>7.496085728932864</v>
       </c>
       <c r="B37">
         <v>0.02</v>
       </c>
       <c r="C37">
-        <v>17.675636366494071</v>
+        <v>17.1431139479808</v>
       </c>
       <c r="D37">
-        <v>-7.8088728915554545E-2</v>
+        <v>-0.04082649287382356</v>
       </c>
       <c r="E37">
-        <v>0.40013407564835518</v>
+        <v>0.3900412960272182</v>
       </c>
       <c r="F37">
-        <v>1.181986189560426</v>
+        <v>1.182521595426026</v>
       </c>
       <c r="G37">
-        <v>5.0670036118658279E-2</v>
+        <v>0.05388224042737847</v>
       </c>
       <c r="H37">
-        <v>48.762059856744102</v>
+        <v>46.31727679658388</v>
       </c>
       <c r="I37">
-        <v>48.139213872126597</v>
+        <v>47.09303475600134</v>
       </c>
       <c r="J37">
-        <v>99.346472995523655</v>
+        <v>52.73515869816585</v>
       </c>
       <c r="K37">
-        <v>62.706875496257062</v>
+        <v>49.45763745343412</v>
       </c>
       <c r="L37">
-        <v>3.9566994859146318E-2</v>
+        <v>0.1830028358104935</v>
       </c>
       <c r="M37">
-        <v>8.3091779315272256E-4</v>
+        <v>238.5727406092965</v>
       </c>
       <c r="N37">
-        <v>-5.1720384382311885E-29</v>
+        <v>-3.786883064217709E-29</v>
       </c>
       <c r="O37">
-        <v>-38.535783484225263</v>
+        <v>-191.6909737606789</v>
       </c>
       <c r="P37">
-        <v>-222.44159809454769</v>
-      </c>
-      <c r="Q37">
-        <f t="shared" si="0"/>
-        <v>2.2670218134449094</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-220.1070107144204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38">
-        <v>7.8811587876507163</v>
+        <v>7.793938959118723</v>
       </c>
       <c r="B38">
         <v>0.02</v>
       </c>
       <c r="C38">
-        <v>17.351703102813669</v>
+        <v>17.2569442584117</v>
       </c>
       <c r="D38">
-        <v>-8.9195194323726343E-2</v>
+        <v>-0.04450722972638575</v>
       </c>
       <c r="E38">
-        <v>0.4015290365187712</v>
+        <v>0.3647261767296222</v>
       </c>
       <c r="F38">
-        <v>1.040222116893792</v>
+        <v>1.260403551929532</v>
       </c>
       <c r="G38">
-        <v>6.3457481246821212E-2</v>
+        <v>0.06122746719624157</v>
       </c>
       <c r="H38">
-        <v>52.446322769785567</v>
+        <v>51.3643419549745</v>
       </c>
       <c r="I38">
-        <v>49.19208182945016</v>
+        <v>47.30676760082309</v>
       </c>
       <c r="J38">
-        <v>62.620384784030954</v>
+        <v>54.88863585206523</v>
       </c>
       <c r="K38">
-        <v>45.581784028040794</v>
+        <v>52.54830344708554</v>
       </c>
       <c r="L38">
-        <v>2.5132895537517009E-2</v>
+        <v>0.06497434698849419</v>
       </c>
       <c r="M38">
-        <v>123.55152458873791</v>
+        <v>141.005231303369</v>
       </c>
       <c r="N38">
-        <v>5.3750193236994578E-32</v>
+        <v>4.115314585031116E-25</v>
       </c>
       <c r="O38">
-        <v>-28.474924975766442</v>
+        <v>-3.721436148868396</v>
       </c>
       <c r="P38">
-        <v>-227.1596360203396</v>
-      </c>
-      <c r="Q38">
-        <f t="shared" si="0"/>
-        <v>1.4400088412429051</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-232.7946857549203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39">
-        <v>8.1801909919878071</v>
+        <v>8.091122931133524</v>
       </c>
       <c r="B39">
         <v>0.02</v>
       </c>
       <c r="C39">
-        <v>17.097248906758281</v>
+        <v>17.15579617263688</v>
       </c>
       <c r="D39">
-        <v>-9.3203137681763235E-2</v>
+        <v>-0.04030892298840084</v>
       </c>
       <c r="E39">
-        <v>0.40190004864709189</v>
+        <v>0.3724066999441362</v>
       </c>
       <c r="F39">
-        <v>0.9339033303519727</v>
+        <v>1.368312054915998</v>
       </c>
       <c r="G39">
-        <v>7.8498867194251642E-2</v>
+        <v>0.06578103394254267</v>
       </c>
       <c r="H39">
-        <v>47.447363808090763</v>
+        <v>48.38540008525107</v>
       </c>
       <c r="I39">
-        <v>46.784414823163473</v>
+        <v>48.7111656481016</v>
       </c>
       <c r="J39">
-        <v>58.867503345162007</v>
+        <v>54.2810219180784</v>
       </c>
       <c r="K39">
-        <v>53.284725044589031</v>
+        <v>50.12603376177968</v>
       </c>
       <c r="L39">
-        <v>2.2390057736283601E-2</v>
+        <v>0.08554277063520478</v>
       </c>
       <c r="M39">
-        <v>171.2799274181622</v>
+        <v>231.1489103499916</v>
       </c>
       <c r="N39">
-        <v>7.9302428392237097E-30</v>
+        <v>4.228808392912525E-30</v>
       </c>
       <c r="O39">
-        <v>-154.55526156952331</v>
+        <v>-187.4406879674974</v>
       </c>
       <c r="P39">
-        <v>-239.8525007836775</v>
-      </c>
-      <c r="Q39">
-        <f t="shared" si="0"/>
-        <v>1.2828558113432884</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-224.8106749389978</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40">
-        <v>8.4818671503934713</v>
+        <v>8.386889961011637</v>
       </c>
       <c r="B40">
         <v>0.02</v>
       </c>
       <c r="C40">
-        <v>17.07096491151523</v>
+        <v>17.33977792713401</v>
       </c>
       <c r="D40">
-        <v>-9.4559483279402334E-2</v>
+        <v>-0.03835916300840144</v>
       </c>
       <c r="E40">
-        <v>0.38455779957733249</v>
+        <v>0.3530006922999765</v>
       </c>
       <c r="F40">
-        <v>0.88870977848027155</v>
+        <v>1.510366809876015</v>
       </c>
       <c r="G40">
-        <v>9.2210818929718733E-2</v>
+        <v>0.06803105745413768</v>
       </c>
       <c r="H40">
-        <v>51.348871950894853</v>
+        <v>51.24712558420509</v>
       </c>
       <c r="I40">
-        <v>48.192441424879661</v>
+        <v>47.66051586194631</v>
       </c>
       <c r="J40">
-        <v>56.700110841489277</v>
+        <v>54.21574631735587</v>
       </c>
       <c r="K40">
-        <v>50.131320131786758</v>
+        <v>52.25928490430933</v>
       </c>
       <c r="L40">
-        <v>2.888220954848009E-2</v>
+        <v>0.05894958667273837</v>
       </c>
       <c r="M40">
-        <v>91.167716838388017</v>
+        <v>178.9547673504247</v>
       </c>
       <c r="N40">
-        <v>-7.3784135691502206E-31</v>
+        <v>-1.26899371976994E-30</v>
       </c>
       <c r="O40">
-        <v>34.737604309883167</v>
+        <v>-58.39929240621525</v>
       </c>
       <c r="P40">
-        <v>-245.5670326383898</v>
-      </c>
-      <c r="Q40">
-        <f t="shared" si="0"/>
-        <v>1.6548287101403563</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-222.4604197367706</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41">
-        <v>8.7868446305784893</v>
+        <v>8.679912998813574</v>
       </c>
       <c r="B41">
         <v>0.02</v>
       </c>
       <c r="C41">
-        <v>16.74554102944543</v>
+        <v>17.37181633112408</v>
       </c>
       <c r="D41">
-        <v>-8.8163499332528109E-2</v>
+        <v>-0.03565586879593829</v>
       </c>
       <c r="E41">
-        <v>0.39438829344466619</v>
+        <v>0.3532485738191174</v>
       </c>
       <c r="F41">
-        <v>0.92630462975508465</v>
+        <v>1.665432468019806</v>
       </c>
       <c r="G41">
-        <v>0.106021846774785</v>
+        <v>0.06649472865838951</v>
       </c>
       <c r="H41">
-        <v>46.627273722074733</v>
+        <v>49.35596465950109</v>
       </c>
       <c r="I41">
-        <v>45.975888629728537</v>
+        <v>49.37339572028718</v>
       </c>
       <c r="J41">
-        <v>53.624352777601509</v>
+        <v>54.98363176134757</v>
       </c>
       <c r="K41">
-        <v>49.605246234376096</v>
+        <v>51.2147836187531</v>
       </c>
       <c r="L41">
-        <v>-4.4016163103340299E-3</v>
+        <v>0.07010805522273364</v>
       </c>
       <c r="M41">
-        <v>200.23884669255631</v>
+        <v>232.8721175334108</v>
       </c>
       <c r="N41">
-        <v>-6.0639602868904743E-34</v>
+        <v>8.75580444618351E-30</v>
       </c>
       <c r="O41">
-        <v>-218.28593506434399</v>
+        <v>-175.3403837717839</v>
       </c>
       <c r="P41">
-        <v>-226.833980731846</v>
-      </c>
-      <c r="Q41">
-        <f t="shared" si="0"/>
-        <v>-0.25219403761808551</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-218.5827306315371</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42">
-        <v>9.0933957905105842</v>
+        <v>8.970032173345627</v>
       </c>
       <c r="B42">
         <v>0.02</v>
       </c>
       <c r="C42">
-        <v>16.844083345607629</v>
+        <v>17.57525092731254</v>
       </c>
       <c r="D42">
-        <v>-8.5229958643810055E-2</v>
+        <v>-0.03373530975851145</v>
       </c>
       <c r="E42">
-        <v>0.35847272650241102</v>
+        <v>0.3380644137788796</v>
       </c>
       <c r="F42">
-        <v>1.0528359981495701</v>
+        <v>1.816043997584537</v>
       </c>
       <c r="G42">
-        <v>0.1164407276440506</v>
+        <v>0.06176038018371807</v>
       </c>
       <c r="H42">
-        <v>50.729737204386574</v>
+        <v>51.69476284908245</v>
       </c>
       <c r="I42">
-        <v>47.713361497638637</v>
+        <v>48.51230848719851</v>
       </c>
       <c r="J42">
-        <v>52.900082536991327</v>
+        <v>54.78041270453804</v>
       </c>
       <c r="K42">
-        <v>50.574564065816723</v>
+        <v>52.62006601679167</v>
       </c>
       <c r="L42">
-        <v>0.1472751631164072</v>
+        <v>0.0460562270289034</v>
       </c>
       <c r="M42">
-        <v>1.945263026585243E-32</v>
+        <v>204.9067526621295</v>
       </c>
       <c r="N42">
-        <v>-2.35817042946308E-4</v>
+        <v>1.042014786473643E-30</v>
       </c>
       <c r="O42">
-        <v>146.47660821205889</v>
+        <v>-96.28246823869799</v>
       </c>
       <c r="P42">
-        <v>-238.50760556169669</v>
-      </c>
-      <c r="Q42">
-        <f t="shared" si="0"/>
-        <v>8.4382452736709013</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-210.0498392475159</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43">
-        <v>9.4048156492709865</v>
+        <v>9.256564707387838</v>
       </c>
       <c r="B43">
         <v>0.02</v>
       </c>
       <c r="C43">
-        <v>16.11382351305145</v>
+        <v>17.70055364537248</v>
       </c>
       <c r="D43">
-        <v>-7.0567708690042363E-2</v>
+        <v>-0.03405187191906311</v>
       </c>
       <c r="E43">
-        <v>0.37874302809805982</v>
+        <v>0.3315416378786687</v>
       </c>
       <c r="F43">
-        <v>1.269471937617431</v>
+        <v>1.934703061322355</v>
       </c>
       <c r="G43">
-        <v>0.1261687700104473</v>
+        <v>0.05268192102089887</v>
       </c>
       <c r="H43">
-        <v>43.356736886221213</v>
+        <v>50.52265550655499</v>
       </c>
       <c r="I43">
-        <v>42.826105218522031</v>
+        <v>50.33060267106741</v>
       </c>
       <c r="J43">
-        <v>45.250913845967737</v>
+        <v>55.57729762065753</v>
       </c>
       <c r="K43">
-        <v>46.141403574779829</v>
+        <v>52.44158949040104</v>
       </c>
       <c r="L43">
-        <v>-5.9549809387937677E-2</v>
+        <v>0.05012939732648833</v>
       </c>
       <c r="M43">
-        <v>193.76471877104021</v>
+        <v>239.2709021790526</v>
       </c>
       <c r="N43">
-        <v>9.8137829207272019E-35</v>
+        <v>1.107546326902022E-26</v>
       </c>
       <c r="O43">
-        <v>-278.16931254439089</v>
+        <v>-171.7392613533504</v>
       </c>
       <c r="P43">
-        <v>-167.51205483295851</v>
-      </c>
-      <c r="Q43">
-        <f t="shared" si="0"/>
-        <v>-3.4119527487373569</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-208.1299181206844</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44">
-        <v>9.7207782385579744</v>
+        <v>9.539675302571187</v>
       </c>
       <c r="B44">
         <v>0.02</v>
       </c>
       <c r="C44">
-        <v>16.236544359442721</v>
+        <v>17.92702921776986</v>
       </c>
       <c r="D44">
-        <v>-8.2828765822795747E-2</v>
+        <v>-0.03265342238335223</v>
       </c>
       <c r="E44">
-        <v>0.29744902344986962</v>
+        <v>0.316265148381986</v>
       </c>
       <c r="F44">
-        <v>1.521273961578582</v>
+        <v>1.999999864931711</v>
       </c>
       <c r="G44">
-        <v>0.12771349045534211</v>
+        <v>0.03936629053902025</v>
       </c>
       <c r="H44">
-        <v>50.412973922256967</v>
+        <v>52.53312949785076</v>
       </c>
       <c r="I44">
-        <v>47.573587873444453</v>
+        <v>49.71993067741214</v>
       </c>
       <c r="J44">
-        <v>48.305402187756059</v>
+        <v>55.68799698598681</v>
       </c>
       <c r="K44">
-        <v>49.287354933660268</v>
+        <v>53.48212057534185</v>
       </c>
       <c r="L44">
-        <v>0.3833159864271064</v>
+        <v>0.03379423605154323</v>
       </c>
       <c r="M44">
-        <v>-1.1067429210712379E-36</v>
+        <v>223.5503920599814</v>
       </c>
       <c r="N44">
-        <v>-756.73219648225916</v>
+        <v>2.352401576515773E-31</v>
       </c>
       <c r="O44">
-        <v>251.58049647234901</v>
+        <v>-120.0131847962945</v>
       </c>
       <c r="P44">
-        <v>-135.78330248696051</v>
-      </c>
-      <c r="Q44">
-        <f t="shared" si="0"/>
-        <v>21.962388242167144</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-197.2597895081246</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45">
-        <v>10.051177932286921</v>
+        <v>9.819407762522172</v>
       </c>
       <c r="B45">
         <v>0.02</v>
       </c>
       <c r="C45">
-        <v>14.509223882809991</v>
+        <v>18.10547760821647</v>
       </c>
       <c r="D45">
-        <v>-8.2541134478104294E-2</v>
+        <v>-0.03396394063563473</v>
       </c>
       <c r="E45">
-        <v>0.31283689248561081</v>
+        <v>0.3043746259104375</v>
       </c>
       <c r="F45">
-        <v>1.732869381519403</v>
+        <v>1.984962779664668</v>
       </c>
       <c r="G45">
-        <v>0.12342244479271471</v>
+        <v>0.02115319309012525</v>
       </c>
       <c r="H45">
-        <v>25.420300403219709</v>
+        <v>51.78285227705366</v>
       </c>
       <c r="I45">
-        <v>21.63305482651116</v>
+        <v>51.47577498699793</v>
       </c>
       <c r="J45">
-        <v>34.322491992849201</v>
+        <v>56.55507094433766</v>
       </c>
       <c r="K45">
-        <v>40.001845334720272</v>
+        <v>53.76339575335403</v>
       </c>
       <c r="L45">
-        <v>-6.3584290981589894E-2</v>
+        <v>0.02756209752023485</v>
       </c>
       <c r="M45">
-        <v>83.974992727013557</v>
+        <v>255.0793967543425</v>
       </c>
       <c r="N45">
-        <v>-2.0364581266783251E-33</v>
+        <v>-1.216987510771085E-30</v>
       </c>
       <c r="O45">
-        <v>-305.0811587859975</v>
+        <v>-180.4669891039564</v>
       </c>
       <c r="P45">
-        <v>-136.3174527273749</v>
-      </c>
-      <c r="Q45">
-        <f t="shared" si="0"/>
-        <v>-3.6431115165768433</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-190.0125905030407</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46">
-        <v>10.403810803295411</v>
+        <v>10.09617809614165</v>
       </c>
       <c r="B46">
         <v>0.02</v>
       </c>
       <c r="C46">
-        <v>14.226433981573869</v>
+        <v>18.37587661309</v>
       </c>
       <c r="D46">
-        <v>-6.0269632634907241E-2</v>
+        <v>-0.03444662946367001</v>
       </c>
       <c r="E46">
-        <v>0.2133631953585495</v>
+        <v>0.2840196943296125</v>
       </c>
       <c r="F46">
-        <v>1.973051792509136</v>
+        <v>1.860194615692348</v>
       </c>
       <c r="G46">
-        <v>0.1114477820789688</v>
+        <v>-0.002449160335722087</v>
       </c>
       <c r="H46">
-        <v>57.135938677418068</v>
+        <v>53.68630402839651</v>
       </c>
       <c r="I46">
-        <v>57.308293066408183</v>
+        <v>51.23899152109929</v>
       </c>
       <c r="J46">
-        <v>44.682246649786407</v>
+        <v>57.24831629396588</v>
       </c>
       <c r="K46">
-        <v>43.277208014458147</v>
+        <v>54.79040116336819</v>
       </c>
       <c r="L46">
-        <v>-7.6198326523630691E-2</v>
+        <v>0.0105274321386805</v>
       </c>
       <c r="M46">
-        <v>3.06267493273191E-34</v>
+        <v>244.5411071237461</v>
       </c>
       <c r="N46">
-        <v>-697.38699095875404</v>
+        <v>-9.30583052841991E-30</v>
       </c>
       <c r="O46">
-        <v>303.65171401971759</v>
+        <v>-141.0928793981904</v>
       </c>
       <c r="P46">
-        <v>-67.634336649415218</v>
-      </c>
-      <c r="Q46">
-        <f t="shared" si="0"/>
-        <v>-4.3658425157637968</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-174.5798692089672</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
       <c r="A47">
-        <v>10.7719392782134</v>
+        <v>10.37058164915373</v>
       </c>
       <c r="B47">
         <v>0.02</v>
       </c>
       <c r="C47">
-        <v>13.107164541683799</v>
+        <v>18.61104172838906</v>
       </c>
       <c r="D47">
-        <v>-0.10113807160547229</v>
+        <v>-0.03789585827521252</v>
       </c>
       <c r="E47">
-        <v>0.1865607590008449</v>
+        <v>0.2622089044107401</v>
       </c>
       <c r="F47">
-        <v>1.9999999893823319</v>
+        <v>1.586827175290384</v>
       </c>
       <c r="G47">
-        <v>7.7824520592131546E-2</v>
+        <v>-0.03255404080890677</v>
       </c>
       <c r="H47">
-        <v>21.39689029506939</v>
+        <v>53.24441312161098</v>
       </c>
       <c r="I47">
-        <v>19.263410063651818</v>
+        <v>52.95110200559144</v>
       </c>
       <c r="J47">
-        <v>31.235429977694341</v>
+        <v>58.26542181642778</v>
       </c>
       <c r="K47">
-        <v>35.523813371037058</v>
+        <v>55.3661261253029</v>
       </c>
       <c r="L47">
-        <v>-0.1525033287118702</v>
+        <v>0.005360065039212361</v>
       </c>
       <c r="M47">
-        <v>2.3562962668240201E-36</v>
+        <v>272.1752115071617</v>
       </c>
       <c r="N47">
-        <v>-262.70843276343942</v>
+        <v>-9.437179747590532E-31</v>
       </c>
       <c r="O47">
-        <v>-300.75729860557863</v>
+        <v>-190.0481416090455</v>
       </c>
       <c r="P47">
-        <v>-100.4047528777848</v>
-      </c>
-      <c r="Q47">
-        <f t="shared" si="0"/>
-        <v>-8.7377970968864318</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-165.6302451048647</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
       <c r="A48">
-        <v>11.172997772898359</v>
+        <v>10.64375626276973</v>
       </c>
       <c r="B48">
-        <v>1.979575552496814E-2</v>
+        <v>0.01991830220998726</v>
       </c>
       <c r="C48">
-        <v>12.11248932885778</v>
+        <v>18.91926512013778</v>
       </c>
       <c r="D48">
-        <v>-5.4943841529266867E-2</v>
+        <v>-0.03720035898949309</v>
       </c>
       <c r="E48">
-        <v>4.6218796473387093E-2</v>
+        <v>0.23470033260237</v>
       </c>
       <c r="F48">
-        <v>1.8555685049087749</v>
+        <v>1.134233650033034</v>
       </c>
       <c r="G48">
-        <v>2.0351014979221309E-2</v>
+        <v>-0.06929197920200716</v>
       </c>
       <c r="H48">
-        <v>49.157630431503677</v>
+        <v>55.06600667091554</v>
       </c>
       <c r="I48">
-        <v>48.253858249858482</v>
+        <v>53.02558516164466</v>
       </c>
       <c r="J48">
-        <v>37.99484708343148</v>
+        <v>59.14145391038939</v>
       </c>
       <c r="K48">
-        <v>36.138377766068508</v>
+        <v>56.4042149913326</v>
       </c>
       <c r="L48">
-        <v>-0.27763827547946712</v>
+        <v>-0.0077463281846291</v>
       </c>
       <c r="M48">
-        <v>85.728083721859463</v>
+        <v>271.9467120228146</v>
       </c>
       <c r="N48">
-        <v>4.9047549213493069E-29</v>
+        <v>7.294076685247619E-30</v>
       </c>
       <c r="O48">
-        <v>180.17309970378491</v>
+        <v>-164.486285531264</v>
       </c>
       <c r="P48">
-        <v>-52.009142541933123</v>
-      </c>
-      <c r="Q48">
-        <f t="shared" si="0"/>
-        <v>-15.907501416263958</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-145.5832846930768</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
       <c r="A49">
-        <v>11.606939668077519</v>
+        <v>10.91728605354176</v>
       </c>
       <c r="B49">
-        <v>1.1235876537611791E-2</v>
+        <v>0.01649435061504471</v>
       </c>
       <c r="C49">
-        <v>11.82783831986135</v>
+        <v>19.22058985590987</v>
       </c>
       <c r="D49">
-        <v>-0.14609596462151311</v>
+        <v>-0.03859596754771999</v>
       </c>
       <c r="E49">
-        <v>-9.4597153313686025E-2</v>
+        <v>0.2045581682624821</v>
       </c>
       <c r="F49">
-        <v>1.228919019267636</v>
+        <v>0.4915141992219205</v>
       </c>
       <c r="G49">
-        <v>-4.8839906575054257E-2</v>
+        <v>-0.09586886879412186</v>
       </c>
       <c r="H49">
-        <v>18.632585584250702</v>
+        <v>54.9355867617726</v>
       </c>
       <c r="I49">
-        <v>19.80846662704587</v>
+        <v>54.76806918576017</v>
       </c>
       <c r="J49">
-        <v>35.443284578657021</v>
+        <v>60.28574355370315</v>
       </c>
       <c r="K49">
-        <v>34.251362995284232</v>
+        <v>57.29226541078476</v>
       </c>
       <c r="L49">
-        <v>-0.2617538449107038</v>
+        <v>-0.01145590098799235</v>
       </c>
       <c r="M49">
-        <v>-3.0896341489854891E-5</v>
+        <v>302.382786048038</v>
       </c>
       <c r="N49">
-        <v>-1.156170478630411E-32</v>
+        <v>-7.413824476071486E-31</v>
       </c>
       <c r="O49">
-        <v>-28.979160709407861</v>
+        <v>-206.7726729348484</v>
       </c>
       <c r="P49">
-        <v>-25.187201874817791</v>
-      </c>
-      <c r="Q49">
-        <f t="shared" si="0"/>
-        <v>-14.997390584705231</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-131.301250648508</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
       <c r="A50">
-        <v>12.07510873997674</v>
+        <v>11.18979201538024</v>
       </c>
       <c r="B50">
-        <v>-5.4753924870371909E-3</v>
+        <v>0.009809843005185111</v>
       </c>
       <c r="C50">
-        <v>11.09538876894049</v>
+        <v>19.60062225845789</v>
       </c>
       <c r="D50">
-        <v>-8.1613983297690165E-2</v>
+        <v>-0.03551467540361967</v>
       </c>
       <c r="E50">
-        <v>-0.25596010129515218</v>
+        <v>0.1713465552052831</v>
       </c>
       <c r="F50">
-        <v>0.18464978501437829</v>
+        <v>-0.2233307246219464</v>
       </c>
       <c r="G50">
-        <v>-0.1026233367540119</v>
+        <v>-0.09619850324199698</v>
       </c>
       <c r="H50">
-        <v>45.026894071137413</v>
+        <v>56.81260921575408</v>
       </c>
       <c r="I50">
-        <v>45.453982355264287</v>
+        <v>55.21912616879638</v>
       </c>
       <c r="J50">
-        <v>31.095940611273019</v>
+        <v>61.41483650969563</v>
       </c>
       <c r="K50">
-        <v>30.31950207731974</v>
+        <v>58.5178634365199</v>
       </c>
       <c r="L50">
-        <v>-0.22901055510647819</v>
+        <v>-0.02193531581744311</v>
       </c>
       <c r="M50">
-        <v>263.03127509449871</v>
+        <v>313.5115482953804</v>
       </c>
       <c r="N50">
-        <v>1.3061401931168209E-28</v>
+        <v>2.428808427027646E-31</v>
       </c>
       <c r="O50">
-        <v>107.0793899744026</v>
+        <v>-194.7837204811747</v>
       </c>
       <c r="P50">
-        <v>19.521976360658581</v>
-      </c>
-      <c r="Q50">
-        <f t="shared" si="0"/>
-        <v>-13.121338271549364</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-106.4830237513414</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
       <c r="A51">
-        <v>12.546057414542769</v>
+        <v>11.45734382909261</v>
       </c>
       <c r="B51">
-        <v>-2.2186661511686169E-2</v>
+        <v>0.003233794600127655</v>
       </c>
       <c r="C51">
-        <v>11.443122213760089</v>
+        <v>19.99378005686687</v>
       </c>
       <c r="D51">
-        <v>-8.5765441562206363E-2</v>
+        <v>-0.03455940870307408</v>
       </c>
       <c r="E51">
-        <v>-0.37235731779557152</v>
+        <v>0.1362198362502424</v>
       </c>
       <c r="F51">
-        <v>-0.89417131640430292</v>
+        <v>-0.866589804777582</v>
       </c>
       <c r="G51">
-        <v>-0.13584958845910231</v>
+        <v>-0.07209005550940069</v>
       </c>
       <c r="H51">
-        <v>18.024672087466769</v>
+        <v>57.05344889906311</v>
       </c>
       <c r="I51">
-        <v>20.556344228528062</v>
+        <v>57.08606609375592</v>
       </c>
       <c r="J51">
-        <v>63.912022753134288</v>
+        <v>62.78037732534976</v>
       </c>
       <c r="K51">
-        <v>70.737169304704082</v>
+        <v>59.80607084570988</v>
       </c>
       <c r="L51">
-        <v>-0.56256804704961272</v>
+        <v>-0.02340240964807794</v>
       </c>
       <c r="M51">
-        <v>452.40774986519608</v>
+        <v>344.8597562577993</v>
       </c>
       <c r="N51">
-        <v>1.0762269248008189E-32</v>
+        <v>-6.572276610274761E-30</v>
       </c>
       <c r="O51">
-        <v>-134.09499335150571</v>
+        <v>-229.3808801869622</v>
       </c>
       <c r="P51">
-        <v>91.464081930937226</v>
-      </c>
-      <c r="Q51">
-        <f t="shared" si="0"/>
-        <v>-32.232774784859934</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-88.69013583422591</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
       <c r="A52">
-        <v>12.980483825860039</v>
+        <v>11.71797598337239</v>
       </c>
       <c r="B52">
-        <v>-3.8897930536335147E-2</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>11.723600592323679</v>
+        <v>20.45153614189159</v>
       </c>
       <c r="D52">
-        <v>4.743094190851384E-3</v>
+        <v>-0.02980111408246361</v>
       </c>
       <c r="E52">
-        <v>-0.41883730957383059</v>
+        <v>0.1023881967446281</v>
       </c>
       <c r="F52">
-        <v>-1.7351171253792239</v>
+        <v>-1.330283582595182</v>
       </c>
       <c r="G52">
-        <v>-0.1039407111606894</v>
+        <v>-0.0410563103650491</v>
       </c>
       <c r="H52">
-        <v>37.007678154859803</v>
+        <v>59.02630543832731</v>
       </c>
       <c r="I52">
-        <v>38.295957944278818</v>
+        <v>57.89317031525459</v>
       </c>
       <c r="J52">
-        <v>137.58141960079459</v>
+        <v>64.15931887715459</v>
       </c>
       <c r="K52">
-        <v>171.42837620736049</v>
+        <v>61.28380372892499</v>
       </c>
       <c r="L52">
-        <v>-0.11521337304115439</v>
+        <v>-0.0296431275454726</v>
       </c>
       <c r="M52">
-        <v>99.488147581586091</v>
+        <v>362.9837397638042</v>
       </c>
       <c r="N52">
-        <v>4.64841060863205E-30</v>
+        <v>1.553884969042059E-29</v>
       </c>
       <c r="O52">
-        <v>131.98994181757999</v>
+        <v>-227.8503562528336</v>
       </c>
       <c r="P52">
-        <v>114.81363723707111</v>
-      </c>
-      <c r="Q52">
-        <f t="shared" si="0"/>
-        <v>-6.6012400187244848</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-63.65573791435528</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
       <c r="A53">
-        <v>13.385153617914289</v>
+        <v>11.97214748785181</v>
       </c>
       <c r="B53">
-        <v>-4.8626782524329823E-2</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>11.855718168232119</v>
+        <v>20.92891599224533</v>
       </c>
       <c r="D53">
-        <v>2.6835370641045981E-2</v>
+        <v>-0.02675311687018086</v>
       </c>
       <c r="E53">
-        <v>-0.50632569190612675</v>
+        <v>0.06953685504965307</v>
       </c>
       <c r="F53">
-        <v>-1.999999996780788</v>
+        <v>-1.635005788406454</v>
       </c>
       <c r="G53">
-        <v>-3.5806242067246398E-2</v>
+        <v>-0.01927449436217221</v>
       </c>
       <c r="H53">
-        <v>28.00303625565169</v>
+        <v>59.6266075985923</v>
       </c>
       <c r="I53">
-        <v>31.12965066325382</v>
+        <v>59.86082576464671</v>
       </c>
       <c r="J53">
-        <v>107.80965216313901</v>
+        <v>65.72881313786736</v>
       </c>
       <c r="K53">
-        <v>171.42848789386269</v>
+        <v>62.96952920945337</v>
       </c>
       <c r="L53">
-        <v>-0.20262468346896109</v>
+        <v>-0.02608121989660552</v>
       </c>
       <c r="M53">
-        <v>43.121508748414641</v>
+        <v>390.6272278688153</v>
       </c>
       <c r="N53">
-        <v>-9.7484438386031664E-30</v>
+        <v>1.754837716188897E-29</v>
       </c>
       <c r="O53">
-        <v>-8.8407107468642696</v>
+        <v>-254.0555690094482</v>
       </c>
       <c r="P53">
-        <v>196.59509561393159</v>
-      </c>
-      <c r="Q53">
-        <f t="shared" si="0"/>
-        <v>-11.609539187945691</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-47.30003107700363</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
       <c r="A54">
-        <v>13.782891590737339</v>
+        <v>12.22006230863698</v>
       </c>
       <c r="B54">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>12.000922670794379</v>
+        <v>21.45086250124922</v>
       </c>
       <c r="D54">
-        <v>9.062707011119786E-2</v>
+        <v>-0.02084018743828562</v>
       </c>
       <c r="E54">
-        <v>-0.55963392854078831</v>
+        <v>0.04239728626678527</v>
       </c>
       <c r="F54">
-        <v>-1.745438147761726</v>
+        <v>-1.821084291450236</v>
       </c>
       <c r="G54">
-        <v>1.269952913260395E-2</v>
+        <v>-0.005477968580721022</v>
       </c>
       <c r="H54">
-        <v>35.493900002261107</v>
+        <v>61.67863659980172</v>
       </c>
       <c r="I54">
-        <v>37.634179818713072</v>
+        <v>60.95624172203545</v>
       </c>
       <c r="J54">
-        <v>31.922270784515341</v>
+        <v>67.32495865425422</v>
       </c>
       <c r="K54">
-        <v>143.52521650137859</v>
+        <v>64.72162965213079</v>
       </c>
       <c r="L54">
-        <v>-4.5702491303899292E-2</v>
+        <v>-0.02549734842109723</v>
       </c>
       <c r="M54">
-        <v>7.0743032038486129E-35</v>
+        <v>407.7695549652397</v>
       </c>
       <c r="N54">
-        <v>-1048.0961586685889</v>
+        <v>2.138316141107261E-29</v>
       </c>
       <c r="O54">
-        <v>297.83718567261923</v>
+        <v>-257.1210426905168</v>
       </c>
       <c r="P54">
-        <v>170.28203089490879</v>
-      </c>
-      <c r="Q54">
-        <f t="shared" si="0"/>
-        <v>-2.6185598649467763</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-27.98035286826806</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
       <c r="A55">
-        <v>14.225647688670479</v>
+        <v>12.4618641413827</v>
       </c>
       <c r="B55">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
       <c r="C55">
-        <v>10.143513654555811</v>
+        <v>21.98102523013781</v>
       </c>
       <c r="D55">
-        <v>0.10330628742953279</v>
+        <v>-0.01632475671977554</v>
       </c>
       <c r="E55">
-        <v>-0.62587258576960136</v>
+        <v>0.02003675377682059</v>
       </c>
       <c r="F55">
-        <v>-1.172271209222691</v>
+        <v>-1.924829173039639</v>
       </c>
       <c r="G55">
-        <v>1.277933132187062E-2</v>
+        <v>0.001994820734094132</v>
       </c>
       <c r="H55">
-        <v>22.58221313357695</v>
+        <v>62.57403605493435</v>
       </c>
       <c r="I55">
-        <v>26.739966009055181</v>
+        <v>62.93356289575028</v>
       </c>
       <c r="J55">
-        <v>27.675265365057701</v>
+        <v>69.04403538169329</v>
       </c>
       <c r="K55">
-        <v>81.646724107579075</v>
+        <v>66.74689690956677</v>
       </c>
       <c r="L55">
-        <v>-3.5379401962537409E-2</v>
+        <v>-0.01796466441569363</v>
       </c>
       <c r="M55">
-        <v>1.6543048891518869E-34</v>
+        <v>426.1651608657469</v>
       </c>
       <c r="N55">
-        <v>-732.91492084084587</v>
+        <v>-6.624582539336354E-29</v>
       </c>
       <c r="O55">
-        <v>-139.619880279765</v>
+        <v>-273.9243793050162</v>
       </c>
       <c r="P55">
-        <v>202.55339803783431</v>
-      </c>
-      <c r="Q55">
-        <f t="shared" si="0"/>
-        <v>-2.0270904141502553</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-16.95334649250927</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
       <c r="A56">
-        <v>14.75927323799659</v>
+        <v>12.69780102770439</v>
       </c>
       <c r="B56">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>8.5375957122898054</v>
+        <v>22.52282477820338</v>
       </c>
       <c r="D56">
-        <v>9.9447881477089023E-2</v>
+        <v>-0.01077731604276446</v>
       </c>
       <c r="E56">
-        <v>-0.57168535147646471</v>
+        <v>0.005091053568056193</v>
       </c>
       <c r="F56">
-        <v>-0.70325591891823547</v>
+        <v>-1.974623342200836</v>
       </c>
       <c r="G56">
-        <v>-4.3504398303228088E-2</v>
+        <v>0.00488581305245185</v>
       </c>
       <c r="H56">
-        <v>2.1645156818602388E-6</v>
+        <v>64.59154998711496</v>
       </c>
       <c r="I56">
-        <v>27.957049693873611</v>
+        <v>64.16249780497749</v>
       </c>
       <c r="J56">
-        <v>26.73842339061256</v>
+        <v>70.78371992988001</v>
       </c>
       <c r="K56">
-        <v>23.82900751692209</v>
+        <v>68.75421185934624</v>
       </c>
       <c r="L56">
-        <v>-0.11798629970942601</v>
+        <v>-0.01589649410062524</v>
       </c>
       <c r="M56">
-        <v>149.7280223894457</v>
+        <v>436.5805068569553</v>
       </c>
       <c r="N56">
-        <v>-4.3042076062866048E-35</v>
+        <v>1.537391592796668E-27</v>
       </c>
       <c r="O56">
-        <v>-54.07972520344611</v>
+        <v>-275.7730645575422</v>
       </c>
       <c r="P56">
-        <v>146.48283770102</v>
-      </c>
-      <c r="Q56">
-        <f t="shared" si="0"/>
-        <v>-6.7601170137157212</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-4.318040816968792</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
       <c r="A57">
-        <v>15.34311520467041</v>
+        <v>12.92820008680493</v>
       </c>
       <c r="B57">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>8.9192035147412518</v>
+        <v>23.04876388770719</v>
       </c>
       <c r="D57">
-        <v>-1.470388729017651E-2</v>
+        <v>-0.007254018003740477</v>
       </c>
       <c r="E57">
-        <v>-0.55530441157887944</v>
+        <v>-0.005741199020544688</v>
       </c>
       <c r="F57">
-        <v>-0.93892895593978842</v>
+        <v>-1.994620451105244</v>
       </c>
       <c r="G57">
-        <v>-0.1114481203544244</v>
+        <v>0.004755735290799788</v>
       </c>
       <c r="H57">
-        <v>46.261672792153149</v>
+        <v>65.62154947119235</v>
       </c>
       <c r="I57">
-        <v>24.341197925190919</v>
+        <v>66.00181693176427</v>
       </c>
       <c r="J57">
-        <v>27.533819531623099</v>
+        <v>72.64410300182259</v>
       </c>
       <c r="K57">
-        <v>26.178220966228519</v>
+        <v>71.23148013850066</v>
       </c>
       <c r="L57">
-        <v>-8.7856805191625156E-2</v>
+        <v>-0.007644599035413526</v>
       </c>
       <c r="M57">
-        <v>304.78662376864708</v>
+        <v>443.0433176791869</v>
       </c>
       <c r="N57">
-        <v>1.3708625944880669E-34</v>
+        <v>1.084809255320042E-28</v>
       </c>
       <c r="O57">
-        <v>-256.17866141017618</v>
+        <v>-283.0594031137477</v>
       </c>
       <c r="P57">
-        <v>161.0608468853537</v>
-      </c>
-      <c r="Q57">
-        <f t="shared" si="0"/>
-        <v>-5.0338241389831815</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-0.4392686744444267</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
       <c r="A58">
-        <v>15.855902407038529</v>
+        <v>13.15348202580292</v>
       </c>
       <c r="B58">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>10.40823752690881</v>
+        <v>23.55598631415235</v>
       </c>
       <c r="D58">
-        <v>-2.8290711584447641E-3</v>
+        <v>-0.003204549737869117</v>
       </c>
       <c r="E58">
-        <v>-0.48493791564193239</v>
+        <v>-0.01058228958997999</v>
       </c>
       <c r="F58">
-        <v>-1.5614246592817651</v>
+        <v>-1.99999946949124</v>
       </c>
       <c r="G58">
-        <v>-0.11447801952214839</v>
+        <v>0.002877153098402982</v>
       </c>
       <c r="H58">
-        <v>7.4278915639871892</v>
+        <v>67.44982549663361</v>
       </c>
       <c r="I58">
-        <v>33.425370380684519</v>
+        <v>67.19564481840062</v>
       </c>
       <c r="J58">
-        <v>32.118232163045803</v>
+        <v>74.39803962934799</v>
       </c>
       <c r="K58">
-        <v>31.304728259191108</v>
+        <v>73.32689799248394</v>
       </c>
       <c r="L58">
-        <v>-7.5537949461155732E-2</v>
+        <v>-0.0009191491256197496</v>
       </c>
       <c r="M58">
-        <v>213.96717772244449</v>
+        <v>441.4123915148464</v>
       </c>
       <c r="N58">
-        <v>8.4839289148142385E-37</v>
+        <v>3.578564923998964E-29</v>
       </c>
       <c r="O58">
-        <v>-59.915592494549777</v>
+        <v>-280.1324257312623</v>
       </c>
       <c r="P58">
-        <v>146.72280209236601</v>
-      </c>
-      <c r="Q58">
-        <f t="shared" si="0"/>
-        <v>-4.3280056971967342</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2.239121827019806</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
       <c r="A59">
-        <v>16.301230464571901</v>
+        <v>13.37413336798776</v>
       </c>
       <c r="B59">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>11.12611838222257</v>
+        <v>24.02649350523733</v>
       </c>
       <c r="D59">
-        <v>5.3287666717437513E-3</v>
+        <v>4.405031059662506E-05</v>
       </c>
       <c r="E59">
-        <v>-0.46381781638944719</v>
+        <v>-0.01095113528741443</v>
       </c>
       <c r="F59">
-        <v>-1.9838360008627911</v>
+        <v>-1.997995329610591</v>
       </c>
       <c r="G59">
-        <v>-6.2831250325751362E-2</v>
+        <v>0.0004784570750179082</v>
       </c>
       <c r="H59">
-        <v>51.206708442885017</v>
+        <v>68.4561102559819</v>
       </c>
       <c r="I59">
-        <v>30.466329141555939</v>
+        <v>68.77283412519076</v>
       </c>
       <c r="J59">
-        <v>33.669111746431327</v>
+        <v>75.73425010866306</v>
       </c>
       <c r="K59">
-        <v>33.367108462253633</v>
+        <v>75.21427560366803</v>
       </c>
       <c r="L59">
-        <v>-4.0257604999734291E-2</v>
+        <v>0.007027812333839</v>
       </c>
       <c r="M59">
-        <v>319.7899642848692</v>
+        <v>442.252938730777</v>
       </c>
       <c r="N59">
-        <v>-5.9398392572819882E-36</v>
+        <v>2.191776469345094E-30</v>
       </c>
       <c r="O59">
-        <v>-253.50310400335371</v>
+        <v>-282.9434481013639</v>
       </c>
       <c r="P59">
-        <v>147.45961643652481</v>
-      </c>
-      <c r="Q59">
-        <f t="shared" si="0"/>
-        <v>-2.3065908597895364</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.8022067544612832</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
       <c r="A60">
-        <v>16.70487467411888</v>
+        <v>13.5906368690226</v>
       </c>
       <c r="B60">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>12.23051744212867</v>
+        <v>24.46761562216563</v>
       </c>
       <c r="D60">
-        <v>2.602669520376602E-2</v>
+        <v>0.002819398856350751</v>
       </c>
       <c r="E60">
-        <v>-0.40751652211185913</v>
+        <v>-0.00697825805773308</v>
       </c>
       <c r="F60">
-        <v>-1.9999869354148381</v>
+        <v>-1.991915840225344</v>
       </c>
       <c r="G60">
-        <v>2.4790757448951321E-2</v>
+        <v>-0.001476632088750429</v>
       </c>
       <c r="H60">
-        <v>14.58898810469559</v>
+        <v>70.01351034320673</v>
       </c>
       <c r="I60">
-        <v>38.293547100926659</v>
+        <v>69.82217409422954</v>
       </c>
       <c r="J60">
-        <v>37.707352750625873</v>
+        <v>77.06231528739983</v>
       </c>
       <c r="K60">
-        <v>42.52148428407483</v>
+        <v>76.71743044463342</v>
       </c>
       <c r="L60">
-        <v>-3.3502185848307109E-2</v>
+        <v>0.008126363465820035</v>
       </c>
       <c r="M60">
-        <v>-1.3299744094181319E-32</v>
+        <v>440.3382749522</v>
       </c>
       <c r="N60">
-        <v>-4.8297978438539889E-4</v>
+        <v>1.377542464860059E-29</v>
       </c>
       <c r="O60">
-        <v>144.2903100958182</v>
+        <v>-280.5187919297882</v>
       </c>
       <c r="P60">
-        <v>126.60643804698221</v>
-      </c>
-      <c r="Q60">
-        <f t="shared" si="0"/>
-        <v>-1.919533853570911</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1.662760382008889</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
       <c r="A61">
-        <v>17.102667108127871</v>
+        <v>13.80341810626703</v>
       </c>
       <c r="B61">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
       <c r="C61">
-        <v>11.92374281515113</v>
+        <v>24.87521503496018</v>
       </c>
       <c r="D61">
-        <v>3.0611966559499649E-2</v>
+        <v>0.003543112282022477</v>
       </c>
       <c r="E61">
-        <v>-0.40456884545308341</v>
+        <v>-0.002313108320789624</v>
       </c>
       <c r="F61">
-        <v>-1.4897963669334211</v>
+        <v>-1.985297196179395</v>
       </c>
       <c r="G61">
-        <v>0.12592718892675681</v>
+        <v>-0.002465031085992346</v>
       </c>
       <c r="H61">
-        <v>51.934442837790257</v>
+        <v>70.94535293757322</v>
       </c>
       <c r="I61">
-        <v>32.679882089323648</v>
+        <v>71.14887505158923</v>
       </c>
       <c r="J61">
-        <v>33.895652528648647</v>
+        <v>78.17084037526534</v>
       </c>
       <c r="K61">
-        <v>30.279822446325689</v>
+        <v>78.16785417738534</v>
       </c>
       <c r="L61">
-        <v>-2.002483313496576E-2</v>
+        <v>0.007716898444950014</v>
       </c>
       <c r="M61">
-        <v>-5.0303209439275176E-35</v>
+        <v>441.2140416227772</v>
       </c>
       <c r="N61">
-        <v>-726.21506001140312</v>
+        <v>2.155968690372191E-30</v>
       </c>
       <c r="O61">
-        <v>-177.20303576037489</v>
+        <v>-282.6656477069695</v>
       </c>
       <c r="P61">
-        <v>137.23247414679989</v>
-      </c>
-      <c r="Q61">
-        <f t="shared" si="0"/>
-        <v>-1.1473384240872633</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.5524195406049585</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
       <c r="A62">
-        <v>17.558378067972619</v>
+        <v>14.01284566600077</v>
       </c>
       <c r="B62">
-        <v>-4.4542180881062807E-2</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>10.44625250689748</v>
+        <v>25.25806698070437</v>
       </c>
       <c r="D62">
-        <v>1.681263083118929E-2</v>
+        <v>0.003151679616284214</v>
       </c>
       <c r="E62">
-        <v>-0.32222213382695769</v>
+        <v>0.001936889933207007</v>
       </c>
       <c r="F62">
-        <v>-0.52438421182589634</v>
+        <v>-1.98094711372665</v>
       </c>
       <c r="G62">
-        <v>0.19434544803224979</v>
+        <v>-0.002498123699927706</v>
       </c>
       <c r="H62">
-        <v>28.88028773620702</v>
+        <v>72.25773869875196</v>
       </c>
       <c r="I62">
-        <v>31.815866729852932</v>
+        <v>72.08578514915888</v>
       </c>
       <c r="J62">
-        <v>31.02685092823911</v>
+        <v>79.31966045630027</v>
       </c>
       <c r="K62">
-        <v>30.326717283026781</v>
+        <v>79.42812534255813</v>
       </c>
       <c r="L62">
-        <v>-1.3455707191648129E-3</v>
+        <v>0.003984338939220324</v>
       </c>
       <c r="M62">
-        <v>270.9568177080817</v>
+        <v>440.2218583029254</v>
       </c>
       <c r="N62">
-        <v>-1.4225904870867421E-30</v>
+        <v>-4.418836325438934E-29</v>
       </c>
       <c r="O62">
-        <v>-120.8979800516671</v>
+        <v>-281.2314556765193</v>
       </c>
       <c r="P62">
-        <v>103.9374268005194</v>
-      </c>
-      <c r="Q62">
-        <f t="shared" si="0"/>
-        <v>-7.7095523244526731E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.6271506802736259</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
       <c r="A63">
-        <v>18.045018526508649</v>
+        <v>14.21923162541453</v>
       </c>
       <c r="B63">
-        <v>-1.9542180881062798E-2</v>
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>11.57953696404269</v>
+        <v>25.61434011708347</v>
       </c>
       <c r="D63">
-        <v>2.458630296452588E-2</v>
+        <v>0.001760153631069652</v>
       </c>
       <c r="E63">
-        <v>-0.24869501415957709</v>
+        <v>0.004158240509543088</v>
       </c>
       <c r="F63">
-        <v>0.61675041481337167</v>
+        <v>-1.980065096117542</v>
       </c>
       <c r="G63">
-        <v>0.15908000440505851</v>
+        <v>-0.001858931070325327</v>
       </c>
       <c r="H63">
-        <v>32.638969775715488</v>
+        <v>73.10693578129042</v>
       </c>
       <c r="I63">
-        <v>32.506112516659449</v>
+        <v>73.22403316458468</v>
       </c>
       <c r="J63">
-        <v>35.511269863707589</v>
+        <v>80.37793374019853</v>
       </c>
       <c r="K63">
-        <v>35.696023714050988</v>
+        <v>80.61156602101046</v>
       </c>
       <c r="L63">
-        <v>3.808583689855382E-2</v>
+        <v>0.001209228178324576</v>
       </c>
       <c r="M63">
-        <v>360.10887593839237</v>
+        <v>440.7849745155056</v>
       </c>
       <c r="N63">
-        <v>-1.263388760919919E-35</v>
+        <v>-5.297878702402491E-30</v>
       </c>
       <c r="O63">
-        <v>-266.57442643236749</v>
+        <v>-282.6993987681153</v>
       </c>
       <c r="P63">
-        <v>78.883473009570565</v>
-      </c>
-      <c r="Q63">
-        <f t="shared" si="0"/>
-        <v>2.1821577135107546</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-0.4635818549206762</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
       <c r="A64">
-        <v>18.477355646889968</v>
+        <v>14.42285139068643</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64">
-        <v>12.955671709900869</v>
+        <v>25.949387934466</v>
       </c>
       <c r="D64">
-        <v>3.107848130758864E-2</v>
+        <v>0.0004163902762145762</v>
       </c>
       <c r="E64">
-        <v>-0.1566412493422126</v>
+        <v>0.004767708811659001</v>
       </c>
       <c r="F64">
-        <v>1.3712794935400581</v>
+        <v>-1.982229727911674</v>
       </c>
       <c r="G64">
-        <v>7.2035146803501621E-2</v>
+        <v>-0.0009419263301016941</v>
       </c>
       <c r="H64">
-        <v>36.422545529145182</v>
+        <v>74.21283367017635</v>
       </c>
       <c r="I64">
-        <v>38.482400936003593</v>
+        <v>74.07448620573456</v>
       </c>
       <c r="J64">
-        <v>39.063828107399033</v>
+        <v>81.47474165363556</v>
       </c>
       <c r="K64">
-        <v>40.277869211986648</v>
+        <v>81.61787564299281</v>
       </c>
       <c r="L64">
-        <v>3.3758745031969947E-2</v>
+        <v>-0.001963827259961594</v>
       </c>
       <c r="M64">
-        <v>333.4894789350023</v>
+        <v>439.8754243026239</v>
       </c>
       <c r="N64">
-        <v>3.8047658109745873E-33</v>
+        <v>-2.961536548127957E-30</v>
       </c>
       <c r="O64">
-        <v>-168.5068769760243</v>
+        <v>-281.5575462053598</v>
       </c>
       <c r="P64">
-        <v>54.881076352715183</v>
-      </c>
-      <c r="Q64">
-        <f t="shared" si="0"/>
-        <v>1.9342336119901133</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-0.3285367685865132</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
       <c r="A65">
-        <v>18.86756058400065</v>
+        <v>14.62394765235881</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65">
-        <v>14.03039610266779</v>
+        <v>26.26162163751965</v>
       </c>
       <c r="D65">
-        <v>2.8006151262664401E-2</v>
+        <v>-0.0007950274280725685</v>
       </c>
       <c r="E65">
-        <v>-9.4863605081157029E-2</v>
+        <v>0.00373024822120531</v>
       </c>
       <c r="F65">
-        <v>1.7696591350288551</v>
+        <v>-1.986361849852085</v>
       </c>
       <c r="G65">
-        <v>2.328713540176339E-2</v>
+        <v>-8.14858420235277E-05</v>
       </c>
       <c r="H65">
-        <v>40.026051253520627</v>
+        <v>74.97953087159206</v>
       </c>
       <c r="I65">
-        <v>39.234592719228907</v>
+        <v>75.05760147901722</v>
       </c>
       <c r="J65">
-        <v>42.493359293256383</v>
+        <v>82.48447334663639</v>
       </c>
       <c r="K65">
-        <v>43.851309504440351</v>
+        <v>82.56403194703815</v>
       </c>
       <c r="L65">
-        <v>3.8999313692054838E-2</v>
+        <v>-0.003008505676550867</v>
       </c>
       <c r="M65">
-        <v>424.5052616534324</v>
+        <v>440.0529158358166</v>
       </c>
       <c r="N65">
-        <v>2.308173766647802E-34</v>
+        <v>7.239456466319677E-31</v>
       </c>
       <c r="O65">
-        <v>-297.14068214102372</v>
+        <v>-282.4967468467839</v>
       </c>
       <c r="P65">
-        <v>29.946790291433349</v>
-      </c>
-      <c r="Q65">
-        <f t="shared" si="0"/>
-        <v>2.2344960784615067</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-0.8685256198183162</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
       <c r="A66">
-        <v>19.2254048234139</v>
+        <v>14.82273851727173</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>15.324958609695971</v>
+        <v>26.55508450395694</v>
       </c>
       <c r="D66">
-        <v>1.9901069874563471E-2</v>
+        <v>-0.001354133202986988</v>
       </c>
       <c r="E66">
-        <v>-4.3056830175585301E-2</v>
+        <v>0.00210608957344559</v>
       </c>
       <c r="F66">
-        <v>1.94171886123562</v>
+        <v>-1.991098758059789</v>
       </c>
       <c r="G66">
-        <v>-1.0562172396599971E-3</v>
+        <v>0.0005003984128530284</v>
       </c>
       <c r="H66">
-        <v>43.477684819436668</v>
+        <v>75.91701046340093</v>
       </c>
       <c r="I66">
-        <v>44.871820092225491</v>
+        <v>75.82659446642462</v>
       </c>
       <c r="J66">
-        <v>46.688406519556423</v>
+        <v>83.4807390392009</v>
       </c>
       <c r="K66">
-        <v>47.880821894343107</v>
+        <v>83.39388859602673</v>
       </c>
       <c r="L66">
-        <v>3.0401041058100091E-2</v>
+        <v>-0.003558207949539017</v>
       </c>
       <c r="M66">
-        <v>405.30313908092342</v>
+        <v>439.3727165189503</v>
       </c>
       <c r="N66">
-        <v>-2.8260166996069282E-34</v>
+        <v>2.003180276175655E-25</v>
       </c>
       <c r="O66">
-        <v>-227.28122180232231</v>
+        <v>-281.720427899179</v>
       </c>
       <c r="P66">
-        <v>12.085600816977641</v>
-      </c>
-      <c r="Q66">
-        <f t="shared" si="0"/>
-        <v>1.7418513454330657</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-0.4623981423582945</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
       <c r="A67">
-        <v>19.55633926543327</v>
+        <v>15.01941638397542</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="C67">
-        <v>16.400577697893699</v>
+        <v>26.8292556215936</v>
       </c>
       <c r="D67">
-        <v>1.535766148910994E-2</v>
+        <v>-0.001491840966995927</v>
       </c>
       <c r="E67">
-        <v>-1.026432876953994E-2</v>
+        <v>0.0002549100499349298</v>
       </c>
       <c r="F67">
-        <v>1.999998519644719</v>
+        <v>-1.995372416725188</v>
       </c>
       <c r="G67">
-        <v>-9.6929728821356347E-3</v>
+        <v>0.0007319230745700741</v>
       </c>
       <c r="H67">
-        <v>46.998013976869927</v>
+        <v>76.61083517407528</v>
       </c>
       <c r="I67">
-        <v>45.930975277144867</v>
+        <v>76.67591228483252</v>
       </c>
       <c r="J67">
-        <v>50.303775307769101</v>
+        <v>84.38182869155985</v>
       </c>
       <c r="K67">
-        <v>51.543641408991789</v>
+        <v>84.20825876198447</v>
       </c>
       <c r="L67">
-        <v>1.8682349616272059E-2</v>
+        <v>-0.002423878090414986</v>
       </c>
       <c r="M67">
-        <v>458.74383211507882</v>
+        <v>439.5034026761299</v>
       </c>
       <c r="N67">
-        <v>-4.3469130122921606E-34</v>
+        <v>-2.771650830179325E-30</v>
       </c>
       <c r="O67">
-        <v>-308.63447305457561</v>
+        <v>-282.3991618850509</v>
       </c>
       <c r="P67">
-        <v>2.1222995556858208</v>
-      </c>
-      <c r="Q67">
-        <f t="shared" ref="Q67:Q81" si="1">DEGREES(L67)</f>
-        <v>1.0704197844002421</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-0.6583232212184169</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
       <c r="A68">
-        <v>19.865671998664041</v>
+        <v>15.21415356732201</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="C68">
-        <v>17.537704412911339</v>
+        <v>27.08726181182552</v>
       </c>
       <c r="D68">
-        <v>7.3888636111522259E-3</v>
+        <v>-0.00111611589486981</v>
       </c>
       <c r="E68">
-        <v>6.6870170209203921E-3</v>
+        <v>-0.001029550424399625</v>
       </c>
       <c r="F68">
-        <v>1.999998224753728</v>
+        <v>-1.998439550382097</v>
       </c>
       <c r="G68">
-        <v>-1.0055583994838231E-2</v>
+        <v>0.0006535240976610539</v>
       </c>
       <c r="H68">
-        <v>49.947878479766203</v>
+        <v>77.41591893271378</v>
       </c>
       <c r="I68">
-        <v>50.945204467555698</v>
+        <v>77.36604057434529</v>
       </c>
       <c r="J68">
-        <v>54.466718227088222</v>
+        <v>85.25225262628889</v>
       </c>
       <c r="K68">
-        <v>55.351441378848072</v>
+        <v>84.95703433454239</v>
       </c>
       <c r="L68">
-        <v>4.5008061134571946E-3</v>
+        <v>-0.001240881674720904</v>
       </c>
       <c r="M68">
-        <v>429.90118576980348</v>
+        <v>439.0300490728508</v>
       </c>
       <c r="N68">
-        <v>1.781692453835023E-34</v>
+        <v>1.574780678346522E-29</v>
       </c>
       <c r="O68">
-        <v>-251.36884131476211</v>
+        <v>-281.8996399718433</v>
       </c>
       <c r="P68">
-        <v>-1.7521116080276771</v>
-      </c>
-      <c r="Q68">
-        <f t="shared" si="1"/>
-        <v>0.25787719470777642</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-0.3343038851291994</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
       <c r="A69">
-        <v>20.157221707137872</v>
+        <v>15.40710306629226</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="C69">
-        <v>18.469876461972191</v>
+        <v>27.32895537111682</v>
       </c>
       <c r="D69">
-        <v>1.573539274329544E-3</v>
+        <v>-0.0005858524395284717</v>
       </c>
       <c r="E69">
-        <v>1.015907870728756E-2</v>
+        <v>-0.001679553049499067</v>
       </c>
       <c r="F69">
-        <v>1.9726167813784989</v>
+        <v>-1.999981877029894</v>
       </c>
       <c r="G69">
-        <v>-7.5330828207009846E-3</v>
+        <v>0.0003889392242223858</v>
       </c>
       <c r="H69">
-        <v>52.941474725915988</v>
+        <v>78.04686464195264</v>
       </c>
       <c r="I69">
-        <v>51.940760215074278</v>
+        <v>78.10011496271376</v>
       </c>
       <c r="J69">
-        <v>57.912721157759123</v>
+        <v>86.04696404102258</v>
       </c>
       <c r="K69">
-        <v>58.186260695182099</v>
+        <v>85.69178015169136</v>
       </c>
       <c r="L69">
-        <v>-7.749828701793352E-3</v>
+        <v>0.00047885976984989</v>
       </c>
       <c r="M69">
-        <v>457.74051915989259</v>
+        <v>439.0291929333104</v>
       </c>
       <c r="N69">
-        <v>-4.7340863501430871E-35</v>
+        <v>-3.829987378389947E-31</v>
       </c>
       <c r="O69">
-        <v>-304.02183578595009</v>
+        <v>-282.3165693347185</v>
       </c>
       <c r="P69">
-        <v>-7.9434412969516976E-2</v>
-      </c>
-      <c r="Q69">
-        <f t="shared" si="1"/>
-        <v>-0.44403247656210892</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-0.5395691786072626</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
       <c r="A70">
-        <v>20.43446212511293</v>
+        <v>15.59840362962104</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="C70">
-        <v>19.396165179530179</v>
+        <v>27.55644293163924</v>
       </c>
       <c r="D70">
-        <v>-2.776487539270572E-3</v>
+        <v>3.199070130129252E-05</v>
       </c>
       <c r="E70">
-        <v>4.984576756262505E-3</v>
+        <v>-0.00149072459056563</v>
       </c>
       <c r="F70">
-        <v>1.932521188159279</v>
+        <v>-1.999986857351332</v>
       </c>
       <c r="G70">
-        <v>-5.3947524741545811E-3</v>
+        <v>8.264284133753508E-05</v>
       </c>
       <c r="H70">
-        <v>55.273934565019488</v>
+        <v>78.74533055573271</v>
       </c>
       <c r="I70">
-        <v>56.109622175546633</v>
+        <v>78.71558281461846</v>
       </c>
       <c r="J70">
-        <v>60.848988375279511</v>
+        <v>86.81777224625216</v>
       </c>
       <c r="K70">
-        <v>61.101346763668552</v>
-      </c>
-      <c r="L70">
-        <v>-5.2422536654810484E-3</v>
-      </c>
-      <c r="M70">
-        <v>432.5564441935137</v>
-      </c>
-      <c r="N70">
-        <v>-1.212070699144159E-31</v>
-      </c>
-      <c r="O70">
-        <v>-259.32742319128681</v>
-      </c>
-      <c r="P70">
-        <v>-1.722861813207571</v>
-      </c>
-      <c r="Q70">
-        <f t="shared" si="1"/>
-        <v>-0.30035901016904976</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>20.699820364504301</v>
-      </c>
-      <c r="B71">
-        <v>0</v>
-      </c>
-      <c r="C71">
-        <v>20.167227391454009</v>
-      </c>
-      <c r="D71">
-        <v>-2.5371094788897591E-3</v>
-      </c>
-      <c r="E71">
-        <v>9.3664804919907591E-4</v>
-      </c>
-      <c r="F71">
-        <v>1.892532569553157</v>
-      </c>
-      <c r="G71">
-        <v>-4.6190146832151471E-3</v>
-      </c>
-      <c r="H71">
-        <v>57.746934474611848</v>
-      </c>
-      <c r="I71">
-        <v>56.962144102853983</v>
-      </c>
-      <c r="J71">
-        <v>63.45789033116543</v>
-      </c>
-      <c r="K71">
-        <v>63.271010218990718</v>
-      </c>
-      <c r="L71">
-        <v>-5.4486598793015237E-3</v>
-      </c>
-      <c r="M71">
-        <v>453.86359740662181</v>
-      </c>
-      <c r="N71">
-        <v>-5.6316137113820301E-35</v>
-      </c>
-      <c r="O71">
-        <v>-298.94579423068092</v>
-      </c>
-      <c r="P71">
-        <v>0.51195872921323504</v>
-      </c>
-      <c r="Q71">
-        <f t="shared" si="1"/>
-        <v>-0.31218521508623787</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>20.955277553842532</v>
-      </c>
-      <c r="B72">
-        <v>0</v>
-      </c>
-      <c r="C72">
-        <v>20.929751517837801</v>
-      </c>
-      <c r="D72">
-        <v>-1.951689277299112E-3</v>
-      </c>
-      <c r="E72">
-        <v>-2.5889762675904552E-3</v>
-      </c>
-      <c r="F72">
-        <v>1.8563298182381469</v>
-      </c>
-      <c r="G72">
-        <v>-4.8416570893931136E-3</v>
-      </c>
-      <c r="H72">
-        <v>59.662240684617792</v>
-      </c>
-      <c r="I72">
-        <v>60.369086687585693</v>
-      </c>
-      <c r="J72">
-        <v>65.799217184236767</v>
-      </c>
-      <c r="K72">
-        <v>65.740619045171343</v>
-      </c>
-      <c r="L72">
-        <v>3.0510708549036982E-4</v>
-      </c>
-      <c r="M72">
-        <v>435.13848267085871</v>
-      </c>
-      <c r="N72">
-        <v>4.3227889990858596E-37</v>
-      </c>
-      <c r="O72">
-        <v>-265.49519229709591</v>
-      </c>
-      <c r="P72">
-        <v>-0.73392814051736999</v>
-      </c>
-      <c r="Q72">
-        <f t="shared" si="1"/>
-        <v>1.7481348298135389E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>21.202247093796611</v>
-      </c>
-      <c r="B73">
-        <v>0</v>
-      </c>
-      <c r="C73">
-        <v>21.580537906938289</v>
-      </c>
-      <c r="D73">
-        <v>-9.746528736729118E-5</v>
-      </c>
-      <c r="E73">
-        <v>-2.55021361515406E-3</v>
-      </c>
-      <c r="F73">
-        <v>1.824907359745785</v>
-      </c>
-      <c r="G73">
-        <v>-5.4903494385778453E-3</v>
-      </c>
-      <c r="H73">
-        <v>61.75230498630313</v>
-      </c>
-      <c r="I73">
-        <v>61.145282644677742</v>
-      </c>
-      <c r="J73">
-        <v>67.92967574780414</v>
-      </c>
-      <c r="K73">
-        <v>67.697127124562456</v>
-      </c>
-      <c r="L73">
-        <v>2.8948876110233948E-4</v>
-      </c>
-      <c r="M73">
-        <v>450.63470376414739</v>
-      </c>
-      <c r="N73">
-        <v>3.4594698507718821E-34</v>
-      </c>
-      <c r="O73">
-        <v>-294.74610698105352</v>
-      </c>
-      <c r="P73">
-        <v>1.089759420335374</v>
-      </c>
-      <c r="Q73">
-        <f t="shared" si="1"/>
-        <v>1.6586484227635007E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>21.44194352749706</v>
-      </c>
-      <c r="B74">
-        <v>0</v>
-      </c>
-      <c r="C74">
-        <v>22.21984955781145</v>
-      </c>
-      <c r="D74">
-        <v>3.4517521303054533E-4</v>
-      </c>
-      <c r="E74">
-        <v>-2.217952436982681E-3</v>
-      </c>
-      <c r="F74">
-        <v>1.795451723773775</v>
-      </c>
-      <c r="G74">
-        <v>-6.0648791513512037E-3</v>
-      </c>
-      <c r="H74">
-        <v>63.373673970755362</v>
-      </c>
-      <c r="I74">
-        <v>63.928127044390138</v>
-      </c>
-      <c r="J74">
-        <v>69.814024126230251</v>
-      </c>
-      <c r="K74">
-        <v>69.833983371223326</v>
-      </c>
-      <c r="L74">
-        <v>2.9912099631378029E-3</v>
-      </c>
-      <c r="M74">
-        <v>436.71850749963079</v>
-      </c>
-      <c r="N74">
-        <v>-2.0964804670323261E-34</v>
-      </c>
-      <c r="O74">
-        <v>-270.10047100047348</v>
-      </c>
-      <c r="P74">
-        <v>-0.46665667333531069</v>
-      </c>
-      <c r="Q74">
-        <f t="shared" si="1"/>
-        <v>0.17138370652527865</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>21.675275471649989</v>
-      </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
-      <c r="C75">
-        <v>22.77606684594658</v>
-      </c>
-      <c r="D75">
-        <v>1.0651968358729919E-3</v>
-      </c>
-      <c r="E75">
-        <v>-4.587481776813825E-4</v>
-      </c>
-      <c r="F75">
-        <v>1.7668405899821</v>
-      </c>
-      <c r="G75">
-        <v>-6.3800355244795614E-3</v>
-      </c>
-      <c r="H75">
-        <v>65.150229556279669</v>
-      </c>
-      <c r="I75">
-        <v>64.674829099591193</v>
-      </c>
-      <c r="J75">
-        <v>71.615142718222657</v>
-      </c>
-      <c r="K75">
-        <v>71.530123444147705</v>
-      </c>
-      <c r="L75">
-        <v>9.2011513603662098E-4</v>
-      </c>
-      <c r="M75">
-        <v>447.83333769389498</v>
-      </c>
-      <c r="N75">
-        <v>8.5180302792786806E-35</v>
-      </c>
-      <c r="O75">
-        <v>-291.3031616968305</v>
-      </c>
-      <c r="P75">
-        <v>0.91361833795063652</v>
-      </c>
-      <c r="Q75">
-        <f t="shared" si="1"/>
-        <v>5.2718713961003985E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>21.90304718066394</v>
-      </c>
-      <c r="B76">
-        <v>0</v>
-      </c>
-      <c r="C76">
-        <v>23.31860021233685</v>
-      </c>
-      <c r="D76">
-        <v>5.820542878720459E-4</v>
-      </c>
-      <c r="E76">
-        <v>2.297645740743524E-4</v>
-      </c>
-      <c r="F76">
-        <v>1.7373637442639149</v>
-      </c>
-      <c r="G76">
-        <v>-6.4015185183331127E-3</v>
-      </c>
-      <c r="H76">
-        <v>66.541269136358864</v>
-      </c>
-      <c r="I76">
-        <v>66.954126521883225</v>
-      </c>
-      <c r="J76">
-        <v>73.217991772383215</v>
-      </c>
-      <c r="K76">
-        <v>73.33364161527011</v>
-      </c>
-      <c r="L76">
-        <v>1.7138140243615691E-3</v>
-      </c>
-      <c r="M76">
-        <v>437.79081044871128</v>
-      </c>
-      <c r="N76">
-        <v>2.7059697960533907E-35</v>
-      </c>
-      <c r="O76">
-        <v>-273.63173550022037</v>
-      </c>
-      <c r="P76">
-        <v>-0.62240987255658897</v>
-      </c>
-      <c r="Q76">
-        <f t="shared" si="1"/>
-        <v>9.8194310466248755E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>22.125878441032281</v>
-      </c>
-      <c r="B77">
-        <v>0</v>
-      </c>
-      <c r="C77">
-        <v>23.798718480560019</v>
-      </c>
-      <c r="D77">
-        <v>5.3683965163803607E-4</v>
-      </c>
-      <c r="E77">
-        <v>1.1533633807014E-3</v>
-      </c>
-      <c r="F77">
-        <v>1.707073396978964</v>
-      </c>
-      <c r="G77">
-        <v>-6.246191519197395E-3</v>
-      </c>
-      <c r="H77">
-        <v>68.056468336985716</v>
-      </c>
-      <c r="I77">
-        <v>67.692128698211604</v>
-      </c>
-      <c r="J77">
-        <v>74.79309368638701</v>
-      </c>
-      <c r="K77">
-        <v>74.774842697595901</v>
-      </c>
-      <c r="L77">
-        <v>-5.565252160678112E-4</v>
-      </c>
-      <c r="M77">
-        <v>445.60327815509942</v>
-      </c>
-      <c r="N77">
-        <v>1.9358545537909791E-36</v>
-      </c>
-      <c r="O77">
-        <v>-288.66078994934043</v>
-      </c>
-      <c r="P77">
-        <v>0.50124731433239267</v>
-      </c>
-      <c r="Q77">
-        <f t="shared" si="1"/>
-        <v>-3.1886546073291812E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>22.344329218340778</v>
-      </c>
-      <c r="B78">
-        <v>0</v>
-      </c>
-      <c r="C78">
-        <v>24.263719581785139</v>
-      </c>
-      <c r="D78">
-        <v>-7.3546372703621793E-5</v>
-      </c>
-      <c r="E78">
-        <v>9.2349687548337947E-4</v>
-      </c>
-      <c r="F78">
-        <v>1.675828466952368</v>
-      </c>
-      <c r="G78">
-        <v>-6.0153129508234383E-3</v>
-      </c>
-      <c r="H78">
-        <v>69.262141946482132</v>
-      </c>
-      <c r="I78">
-        <v>69.564974671152058</v>
-      </c>
-      <c r="J78">
-        <v>76.202050323784093</v>
-      </c>
-      <c r="K78">
-        <v>76.289382209946353</v>
-      </c>
-      <c r="L78">
-        <v>9.2431966234840941E-5</v>
-      </c>
-      <c r="M78">
-        <v>438.43280270641623</v>
-      </c>
-      <c r="N78">
-        <v>6.2557818728806142E-37</v>
-      </c>
-      <c r="O78">
-        <v>-276.22335982743112</v>
-      </c>
-      <c r="P78">
-        <v>-0.67973064573928876</v>
-      </c>
-      <c r="Q78">
-        <f t="shared" si="1"/>
-        <v>5.2959615573521168E-3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>22.558844491839761</v>
-      </c>
-      <c r="B79">
-        <v>0</v>
-      </c>
-      <c r="C79">
-        <v>24.68097175289962</v>
-      </c>
-      <c r="D79">
-        <v>-1.209903706389566E-4</v>
-      </c>
-      <c r="E79">
-        <v>8.972965722848725E-4</v>
-      </c>
-      <c r="F79">
-        <v>1.6442322784056529</v>
-      </c>
-      <c r="G79">
-        <v>-5.8198394064288856E-3</v>
-      </c>
-      <c r="H79">
-        <v>70.560590363530594</v>
-      </c>
-      <c r="I79">
-        <v>70.293139460426403</v>
-      </c>
-      <c r="J79">
-        <v>77.581405418498889</v>
-      </c>
-      <c r="K79">
-        <v>77.528063511775116</v>
-      </c>
-      <c r="L79">
-        <v>-1.2206853558734019E-3</v>
-      </c>
-      <c r="M79">
-        <v>443.79808851262601</v>
-      </c>
-      <c r="N79">
-        <v>7.0902470687097948E-36</v>
-      </c>
-      <c r="O79">
-        <v>-286.69344748111882</v>
-      </c>
-      <c r="P79">
-        <v>0.26395248479887617</v>
-      </c>
-      <c r="Q79">
-        <f t="shared" si="1"/>
-        <v>-6.9940119004970866E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>22.76983094581847</v>
-      </c>
-      <c r="B80">
-        <v>0</v>
-      </c>
-      <c r="C80">
-        <v>25.08256713802113</v>
-      </c>
-      <c r="D80">
-        <v>-3.9865446031746358E-4</v>
-      </c>
-      <c r="E80">
-        <v>2.7239751917843751E-4</v>
-      </c>
-      <c r="F80">
-        <v>1.6125288067777559</v>
-      </c>
-      <c r="G80">
-        <v>-5.6952084234414956E-3</v>
-      </c>
-      <c r="H80">
-        <v>71.615490821657218</v>
-      </c>
-      <c r="I80">
-        <v>71.837194138944696</v>
-      </c>
-      <c r="J80">
-        <v>78.81675529099941</v>
-      </c>
-      <c r="K80">
-        <v>78.817200425615198</v>
-      </c>
-      <c r="L80">
-        <v>-2.088448787997003E-4</v>
-      </c>
-      <c r="M80">
-        <v>438.75847697444948</v>
-      </c>
-      <c r="N80">
-        <v>-1.1159549037376321E-35</v>
-      </c>
-      <c r="O80">
-        <v>-278.08527397657878</v>
-      </c>
-      <c r="P80">
-        <v>-0.58789473859896968</v>
-      </c>
-      <c r="Q80">
-        <f t="shared" si="1"/>
-        <v>-1.196593012814403E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>22.97762022811574</v>
-      </c>
-      <c r="B81">
-        <v>0</v>
-      </c>
-      <c r="C81">
-        <v>25.44701253556881</v>
-      </c>
-      <c r="D81">
-        <v>-2.2699332757937529E-4</v>
-      </c>
-      <c r="E81">
-        <v>9.4287565260902105E-5</v>
-      </c>
-      <c r="F81">
-        <v>1.5811557769079301</v>
-      </c>
-      <c r="G81">
-        <v>-5.6583456047038291E-3</v>
-      </c>
-      <c r="H81">
-        <v>72.734705127577101</v>
-      </c>
-      <c r="I81">
-        <v>72.545394148916273</v>
-      </c>
-      <c r="J81">
-        <v>80.019690737442403</v>
-      </c>
-      <c r="K81">
-        <v>79.902413492884889</v>
-      </c>
-      <c r="L81">
-        <v>-4.9811218846169156E-4</v>
-      </c>
-      <c r="M81">
-        <v>442.36428361136882</v>
-      </c>
-      <c r="N81">
-        <v>4.5658295684065352E-36</v>
-      </c>
-      <c r="O81">
-        <v>-285.27759907458841</v>
-      </c>
-      <c r="P81">
-        <v>-1.2139645090988031E-2</v>
-      </c>
-      <c r="Q81">
-        <f t="shared" si="1"/>
-        <v>-2.8539726122879989E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>23.18251720021469</v>
-      </c>
-      <c r="B82">
-        <v>0</v>
-      </c>
-      <c r="C82">
-        <v>25.796010926766549</v>
-      </c>
-      <c r="D82">
-        <v>-1.9705929375675319E-4</v>
-      </c>
-      <c r="E82">
-        <v>-1.6427451720028391E-4</v>
-      </c>
-      <c r="F82">
-        <v>1.550329951198981</v>
-      </c>
-      <c r="G82">
-        <v>-5.6658692529718904E-3</v>
-      </c>
-      <c r="H82">
-        <v>73.665068143394763</v>
-      </c>
-      <c r="I82">
-        <v>73.824461760345812</v>
-      </c>
-      <c r="J82">
-        <v>81.117550879625639</v>
-      </c>
-      <c r="K82">
-        <v>80.998129038990115</v>
+        <v>86.36455145499291</v>
       </c>
     </row>
   </sheetData>

--- a/custom sim/two_track_out2.xlsx
+++ b/custom sim/two_track_out2.xlsx
@@ -1,39 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ethan\Documents\GitHub\FEBSim\custom sim\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84296109-9E2C-4B93-9ED2-ED108FDECF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>time</t>
   </si>
@@ -82,15 +63,12 @@
   <si>
     <t>gamma_y</t>
   </si>
-  <si>
-    <t>Delta</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,7 +93,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -138,27 +116,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -167,21 +131,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -219,7 +175,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -253,7 +209,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -288,10 +243,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -464,16 +418,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,11 +474,8 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>0</v>
       </c>
@@ -534,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>30.000000181389701</v>
+        <v>29.9999965505624</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -543,4342 +492,3422 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>-0.52059994323080327</v>
+        <v>0.2320604605972438</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>171.42843813281709</v>
+        <v>171.4282027089089</v>
       </c>
       <c r="I2">
-        <v>171.4284940020226</v>
+        <v>171.4280931381811</v>
       </c>
       <c r="J2">
-        <v>89.646461895075902</v>
+        <v>107.5208504528805</v>
       </c>
       <c r="K2">
-        <v>89.777293472907004</v>
+        <v>79.60007150396021</v>
       </c>
       <c r="L2">
-        <v>-1.341980991823879E-2</v>
+        <v>-0.02857097950420896</v>
       </c>
       <c r="M2">
-        <v>489.71588022803923</v>
+        <v>351.884758896506</v>
       </c>
       <c r="N2">
-        <v>4.849283368109682E-25</v>
+        <v>-5.908529567313807E-24</v>
       </c>
       <c r="O2">
-        <v>33.721069461148332</v>
+        <v>-297.5693422114842</v>
       </c>
       <c r="P2">
-        <v>0.55680137078295933</v>
-      </c>
-      <c r="Q2">
-        <f>DEGREES(L2)</f>
-        <v>-0.76889847018288504</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+        <v>23.81471856793359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3">
-        <v>0.17531754222858409</v>
+        <v>0.1749733693700128</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>29.856587230219301</v>
+        <v>29.99999942626179</v>
       </c>
       <c r="D3">
-        <v>-4.0488179633132613E-3</v>
+        <v>-0.003216403915270479</v>
       </c>
       <c r="E3">
-        <v>-6.9592083253088386E-3</v>
+        <v>-0.01252924282285913</v>
       </c>
       <c r="F3">
-        <v>-0.53367360306192813</v>
+        <v>0.2225182262450724</v>
       </c>
       <c r="G3">
-        <v>-6.3754796072618429E-4</v>
+        <v>-0.001084477021943975</v>
       </c>
       <c r="H3">
-        <v>12.22405838144401</v>
+        <v>94.04536085553407</v>
       </c>
       <c r="I3">
-        <v>12.230060437135119</v>
+        <v>83.9687302820961</v>
       </c>
       <c r="J3">
-        <v>130.4777218251534</v>
+        <v>96.49237348658137</v>
       </c>
       <c r="K3">
-        <v>130.72106099115791</v>
+        <v>90.47810395783249</v>
       </c>
       <c r="L3">
-        <v>-4.0122066920529401E-3</v>
+        <v>0.001548977650521072</v>
       </c>
       <c r="M3">
-        <v>-1.981679530437814E-35</v>
+        <v>414.7139936024735</v>
       </c>
       <c r="N3">
-        <v>-1.184511509597754E-4</v>
+        <v>1.483527986111293E-29</v>
       </c>
       <c r="O3">
-        <v>-341.11873087958008</v>
+        <v>-195.108156631456</v>
       </c>
       <c r="P3">
-        <v>-2.570463920224856</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" ref="Q3:Q66" si="0">DEGREES(L3)</f>
-        <v>-0.22988250998877863</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-1.84796429974083</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4">
-        <v>0.35170921697738272</v>
+        <v>0.3500656721218474</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>29.485727195479779</v>
+        <v>29.96728371657728</v>
       </c>
       <c r="D4">
-        <v>-1.952685056347451E-3</v>
+        <v>0.0001646011544047545</v>
       </c>
       <c r="E4">
-        <v>-8.5782109166372255E-3</v>
+        <v>-0.01073450339991884</v>
       </c>
       <c r="F4">
-        <v>-0.55639029297467568</v>
+        <v>0.2043451849230679</v>
       </c>
       <c r="G4">
-        <v>-1.979668305820699E-3</v>
+        <v>-0.003154624266102412</v>
       </c>
       <c r="H4">
-        <v>86.779130089971204</v>
+        <v>78.6942158513617</v>
       </c>
       <c r="I4">
-        <v>85.579871059151259</v>
+        <v>87.11036749016502</v>
       </c>
       <c r="J4">
-        <v>89.633471730260908</v>
+        <v>103.5760888725133</v>
       </c>
       <c r="K4">
-        <v>89.596158520020893</v>
+        <v>95.34040073764801</v>
       </c>
       <c r="L4">
-        <v>-4.5051558580501083E-2</v>
+        <v>-0.06275813467670825</v>
       </c>
       <c r="M4">
-        <v>1.358191706952272E-34</v>
+        <v>408.66625096142</v>
       </c>
       <c r="N4">
-        <v>9.9299136398009226E-6</v>
+        <v>-8.482813330424801E-29</v>
       </c>
       <c r="O4">
-        <v>142.2569235993378</v>
+        <v>-294.4658066230089</v>
       </c>
       <c r="P4">
-        <v>65.720927487102955</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="0"/>
-        <v>-2.5812641671491021</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>51.27758152050582</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5">
-        <v>0.53182562750831752</v>
+        <v>0.5251826662684715</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>28.78190357821342</v>
+        <v>29.99999990675439</v>
       </c>
       <c r="D5">
-        <v>-1.404906400305119E-2</v>
+        <v>-0.006476794761359161</v>
       </c>
       <c r="E5">
-        <v>-3.5520067359003003E-2</v>
+        <v>-0.02788199485792449</v>
       </c>
       <c r="F5">
-        <v>-0.62250830776461175</v>
+        <v>0.1612320846596063</v>
       </c>
       <c r="G5">
-        <v>-5.9827062439899411E-3</v>
+        <v>-0.00649144681145464</v>
       </c>
       <c r="H5">
-        <v>79.806283123232433</v>
+        <v>90.20897694507258</v>
       </c>
       <c r="I5">
-        <v>81.045914597438582</v>
+        <v>84.40384709174847</v>
       </c>
       <c r="J5">
-        <v>81.773907273671114</v>
+        <v>99.05436381094536</v>
       </c>
       <c r="K5">
-        <v>82.077009559955243</v>
+        <v>94.57930198920934</v>
       </c>
       <c r="L5">
-        <v>3.3044275081640711E-3</v>
+        <v>-0.05242949248756738</v>
       </c>
       <c r="M5">
-        <v>493.03507002611832</v>
+        <v>379.0430541121582</v>
       </c>
       <c r="N5">
-        <v>-4.7960730344450277E-34</v>
+        <v>-2.566777378785355E-30</v>
       </c>
       <c r="O5">
-        <v>-344.1776082273455</v>
+        <v>-228.7736143273183</v>
       </c>
       <c r="P5">
-        <v>-8.7531393300795592</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="0"/>
-        <v>0.18932974992473264</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>46.13173241104052</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6">
-        <v>0.7140043020561756</v>
+        <v>0.7002125609798902</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>28.916483027420771</v>
+        <v>30.00000010061721</v>
       </c>
       <c r="D6">
-        <v>-1.7637223586262369E-3</v>
+        <v>-0.008429292053954783</v>
       </c>
       <c r="E6">
-        <v>-3.6344475975490738E-2</v>
+        <v>-0.0471254675982475</v>
       </c>
       <c r="F6">
-        <v>-0.70849193059709759</v>
+        <v>0.07024861432280183</v>
       </c>
       <c r="G6">
-        <v>-1.2647239533309179E-2</v>
+        <v>-0.01303776028165467</v>
       </c>
       <c r="H6">
-        <v>84.327408228605506</v>
+        <v>81.96599316879188</v>
       </c>
       <c r="I6">
-        <v>83.664873145175619</v>
+        <v>86.79296525132371</v>
       </c>
       <c r="J6">
-        <v>92.781982783993598</v>
+        <v>91.78892282535116</v>
       </c>
       <c r="K6">
-        <v>91.192032434795664</v>
+        <v>94.11320754621788</v>
       </c>
       <c r="L6">
-        <v>-2.72416900998548E-4</v>
+        <v>-0.03102685947759151</v>
       </c>
       <c r="M6">
-        <v>385.64710414169627</v>
+        <v>602.2010285028068</v>
       </c>
       <c r="N6">
-        <v>1.0127622321813889E-33</v>
+        <v>-6.533404260957989E-31</v>
       </c>
       <c r="O6">
-        <v>-203.93175263948319</v>
+        <v>-222.1751658068758</v>
       </c>
       <c r="P6">
-        <v>16.3966544023063</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="0"/>
-        <v>-1.5608338695249982E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>40.18209017366821</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7">
-        <v>0.89541807353794245</v>
+        <v>0.8754595853001039</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>28.96807056625919</v>
+        <v>29.89561420215112</v>
       </c>
       <c r="D7">
-        <v>3.6164380521515119E-3</v>
+        <v>-0.004512023929787505</v>
       </c>
       <c r="E7">
-        <v>-3.5470153980028708E-2</v>
+        <v>-0.05935981270035209</v>
       </c>
       <c r="F7">
-        <v>-0.78548516171879956</v>
+        <v>-0.05543045832091974</v>
       </c>
       <c r="G7">
-        <v>-1.9173802805551889E-2</v>
+        <v>-0.02240770892338732</v>
       </c>
       <c r="H7">
-        <v>81.189215220525199</v>
+        <v>88.11454614625072</v>
       </c>
       <c r="I7">
-        <v>82.04580845037151</v>
+        <v>84.73125126638183</v>
       </c>
       <c r="J7">
-        <v>90.186475765823886</v>
+        <v>128.3571229338733</v>
       </c>
       <c r="K7">
-        <v>91.32317276980335</v>
+        <v>139.0624744504061</v>
       </c>
       <c r="L7">
-        <v>1.2632481669143619E-4</v>
+        <v>-0.05842582464105895</v>
       </c>
       <c r="M7">
-        <v>456.86340306798758</v>
+        <v>-1.671297633590335E-27</v>
       </c>
       <c r="N7">
-        <v>-6.194898297654175E-33</v>
+        <v>-7.519674738630422E-05</v>
       </c>
       <c r="O7">
-        <v>-316.59464310388142</v>
+        <v>-215.1234775640619</v>
       </c>
       <c r="P7">
-        <v>25.231705444990201</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="0"/>
-        <v>7.2378788441830695E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>71.15337793471882</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8">
-        <v>1.076184236768891</v>
+        <v>1.051670479242106</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>29.12217088785583</v>
+        <v>29.63092468737112</v>
       </c>
       <c r="D8">
-        <v>6.0828102889615892E-3</v>
+        <v>-0.004483933965635688</v>
       </c>
       <c r="E8">
-        <v>-3.3285939103586952E-2</v>
+        <v>-0.07398071453383213</v>
       </c>
       <c r="F8">
-        <v>-0.87637675218196165</v>
+        <v>-0.228846238439181</v>
       </c>
       <c r="G8">
-        <v>-2.5395693215053299E-2</v>
+        <v>-0.03458153347448969</v>
       </c>
       <c r="H8">
-        <v>84.259497841730408</v>
+        <v>82.1828521808839</v>
       </c>
       <c r="I8">
-        <v>83.919967188198655</v>
+        <v>85.33876401352555</v>
       </c>
       <c r="J8">
-        <v>89.685403763104929</v>
+        <v>89.56210417258681</v>
       </c>
       <c r="K8">
-        <v>94.990198652075179</v>
+        <v>89.7945170050171</v>
       </c>
       <c r="L8">
-        <v>-2.9268830763640341E-2</v>
+        <v>0.003942525907492989</v>
       </c>
       <c r="M8">
-        <v>575.49075829791332</v>
+        <v>451.4732075776443</v>
       </c>
       <c r="N8">
-        <v>-4.57733414374913E-34</v>
+        <v>3.337461871763626E-32</v>
       </c>
       <c r="O8">
-        <v>-128.28485728589851</v>
+        <v>-303.4622723773087</v>
       </c>
       <c r="P8">
-        <v>60.94580585252092</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="0"/>
-        <v>-1.676980474039258</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>27.2184163679912</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9">
-        <v>1.2569430782299349</v>
+        <v>1.228733605744287</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>28.95405203795044</v>
+        <v>29.72074283012126</v>
       </c>
       <c r="D9">
-        <v>1.607198358116938E-3</v>
+        <v>0.007121019789931852</v>
       </c>
       <c r="E9">
-        <v>-4.8836926786371831E-2</v>
+        <v>-0.06976049950402156</v>
       </c>
       <c r="F9">
-        <v>-1.010447476765413</v>
+        <v>-0.4337309906944465</v>
       </c>
       <c r="G9">
-        <v>-3.2822112632705402E-2</v>
+        <v>-0.04736594898535304</v>
       </c>
       <c r="H9">
-        <v>81.601488841344505</v>
+        <v>86.49789635001572</v>
       </c>
       <c r="I9">
-        <v>82.227471475296042</v>
+        <v>84.68142196264444</v>
       </c>
       <c r="J9">
-        <v>129.68459320386799</v>
+        <v>91.34689344844746</v>
       </c>
       <c r="K9">
-        <v>147.55647159453639</v>
+        <v>93.83739812463038</v>
       </c>
       <c r="L9">
-        <v>2.134434111297137E-3</v>
+        <v>-0.003036715065509692</v>
       </c>
       <c r="M9">
-        <v>2.0728280209688131E-30</v>
+        <v>369.6686928719324</v>
       </c>
       <c r="N9">
-        <v>-2.213725463401146E-4</v>
+        <v>2.827585613318573E-30</v>
       </c>
       <c r="O9">
-        <v>-290.49824465115893</v>
+        <v>-223.6076997694501</v>
       </c>
       <c r="P9">
-        <v>32.667242816800382</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="0"/>
-        <v>0.12229406622608258</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>56.10367677685845</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10">
-        <v>1.438560388714766</v>
+        <v>1.405603706381501</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>28.801293241243709</v>
+        <v>29.69453484223084</v>
       </c>
       <c r="D10">
-        <v>7.8719250826184781E-3</v>
+        <v>0.0111355289309714</v>
       </c>
       <c r="E10">
-        <v>-4.280071512775406E-2</v>
+        <v>-0.06607223998910737</v>
       </c>
       <c r="F10">
-        <v>-1.1783252193383409</v>
+        <v>-0.6649694485283985</v>
       </c>
       <c r="G10">
-        <v>-4.1653331700611543E-2</v>
+        <v>-0.05942118633720416</v>
       </c>
       <c r="H10">
-        <v>82.996503946000516</v>
+        <v>83.28258897178358</v>
       </c>
       <c r="I10">
-        <v>82.918034060317396</v>
+        <v>85.32907064173976</v>
       </c>
       <c r="J10">
-        <v>86.622293655085102</v>
+        <v>89.16682519297603</v>
       </c>
       <c r="K10">
-        <v>91.148199220894455</v>
+        <v>93.43349106764016</v>
       </c>
       <c r="L10">
-        <v>3.7658563920251499E-3</v>
+        <v>0.03736034019683971</v>
       </c>
       <c r="M10">
-        <v>435.38151883536608</v>
+        <v>433.1368542718214</v>
       </c>
       <c r="N10">
-        <v>-7.9147647781806633E-34</v>
+        <v>3.238278005773622E-31</v>
       </c>
       <c r="O10">
-        <v>-220.6187537186201</v>
+        <v>-282.6585886669467</v>
       </c>
       <c r="P10">
-        <v>29.994718297143589</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="0"/>
-        <v>0.21576767751540471</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>20.57600476564333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11">
-        <v>1.62082131569163</v>
+        <v>1.582481690656036</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>28.843272843509979</v>
+        <v>29.74279336080675</v>
       </c>
       <c r="D11">
-        <v>1.017542910770208E-2</v>
+        <v>0.01933292371592083</v>
       </c>
       <c r="E11">
-        <v>-4.0075922554432722E-2</v>
+        <v>-0.04685605650460688</v>
       </c>
       <c r="F11">
-        <v>-1.369253404711086</v>
+        <v>-0.9215464379290998</v>
       </c>
       <c r="G11">
-        <v>-4.9130677969810403E-2</v>
+        <v>-0.06939607327438906</v>
       </c>
       <c r="H11">
-        <v>81.644589960168801</v>
+        <v>85.8971376944986</v>
       </c>
       <c r="I11">
-        <v>82.062492013317467</v>
+        <v>84.7848448193173</v>
       </c>
       <c r="J11">
-        <v>91.196768370998313</v>
+        <v>91.59552370929853</v>
       </c>
       <c r="K11">
-        <v>102.9152137023116</v>
+        <v>96.11858999767233</v>
       </c>
       <c r="L11">
-        <v>3.2253871673293487E-2</v>
+        <v>0.04166144102763555</v>
       </c>
       <c r="M11">
-        <v>420.77724734248937</v>
+        <v>418.6981363718793</v>
       </c>
       <c r="N11">
-        <v>-1.4160929124620679E-32</v>
+        <v>3.762676412759406E-30</v>
       </c>
       <c r="O11">
-        <v>-262.67254019257712</v>
+        <v>-237.0753543027841</v>
       </c>
       <c r="P11">
-        <v>3.9679930897929991</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="0"/>
-        <v>1.8480107198362752</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+        <v>14.86975485798165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12">
-        <v>1.802834116437787</v>
+        <v>1.759224018422356</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>28.881275940338011</v>
+        <v>29.73955954339518</v>
       </c>
       <c r="D12">
-        <v>1.704683850868112E-2</v>
+        <v>0.02382930315571253</v>
       </c>
       <c r="E12">
-        <v>-2.8676109659292189E-2</v>
+        <v>-0.02781912659414659</v>
       </c>
       <c r="F12">
-        <v>-1.570750912751159</v>
+        <v>-1.189529215427892</v>
       </c>
       <c r="G12">
-        <v>-5.5367734840883427E-2</v>
+        <v>-0.0759455341405586</v>
       </c>
       <c r="H12">
-        <v>82.952102622030679</v>
+        <v>84.03847976536669</v>
       </c>
       <c r="I12">
-        <v>82.913793382344721</v>
+        <v>85.25013662822487</v>
       </c>
       <c r="J12">
-        <v>90.938075958399835</v>
+        <v>93.5815136931317</v>
       </c>
       <c r="K12">
-        <v>113.9214202403009</v>
+        <v>102.5848584470666</v>
       </c>
       <c r="L12">
-        <v>7.4458411550475681E-2</v>
+        <v>0.08152052624778398</v>
       </c>
       <c r="M12">
-        <v>358.72291019302293</v>
+        <v>390.2073999978909</v>
       </c>
       <c r="N12">
-        <v>1.9310786202152331E-29</v>
+        <v>-5.947996566165863E-26</v>
       </c>
       <c r="O12">
-        <v>-189.7039391079669</v>
+        <v>-245.3029664612398</v>
       </c>
       <c r="P12">
-        <v>-36.670284393285137</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="0"/>
-        <v>4.2661527310903971</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-18.13877281648661</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13">
-        <v>1.984973402734546</v>
+        <v>1.936075635725619</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>28.798152873960419</v>
+        <v>29.70513044102383</v>
       </c>
       <c r="D13">
-        <v>2.8322997363136791E-2</v>
+        <v>0.02999494608658312</v>
       </c>
       <c r="E13">
-        <v>-3.067345256204414E-3</v>
+        <v>0.000932558146041407</v>
       </c>
       <c r="F13">
-        <v>-1.7483083043538561</v>
+        <v>-1.45254419299333</v>
       </c>
       <c r="G13">
-        <v>-5.8262353466255648E-2</v>
+        <v>-0.07833176274757961</v>
       </c>
       <c r="H13">
-        <v>81.655885822554495</v>
+        <v>85.32045022177236</v>
       </c>
       <c r="I13">
-        <v>81.831481858210353</v>
+        <v>84.48521215507338</v>
       </c>
       <c r="J13">
-        <v>91.019383470361774</v>
+        <v>93.19482811210824</v>
       </c>
       <c r="K13">
-        <v>120.3859955152176</v>
+        <v>104.2726680742674</v>
       </c>
       <c r="L13">
-        <v>9.9924294869182903E-2</v>
+        <v>0.1073459088780685</v>
       </c>
       <c r="M13">
-        <v>361.41442354161518</v>
+        <v>548.3728437115834</v>
       </c>
       <c r="N13">
-        <v>-6.5425606366166852E-32</v>
+        <v>-7.519231634643081E-29</v>
       </c>
       <c r="O13">
-        <v>-216.81902417571979</v>
+        <v>-143.666256526575</v>
       </c>
       <c r="P13">
-        <v>-43.097018310477331</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="0"/>
-        <v>5.7252403668249272</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-81.88396646166548</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14">
-        <v>2.1676000007180218</v>
+        <v>2.11361464984358</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>28.714384778786979</v>
+        <v>29.46909673153005</v>
       </c>
       <c r="D14">
-        <v>3.4291404435273953E-2</v>
+        <v>0.03983950247560883</v>
       </c>
       <c r="E14">
-        <v>2.6117252592618011E-2</v>
+        <v>0.0328295212277935</v>
       </c>
       <c r="F14">
-        <v>-1.8837958124997809</v>
+        <v>-1.674091671120747</v>
       </c>
       <c r="G14">
-        <v>-5.6158744022934422E-2</v>
+        <v>-0.07523159175503803</v>
       </c>
       <c r="H14">
-        <v>82.260904758732323</v>
+        <v>83.52849155220747</v>
       </c>
       <c r="I14">
-        <v>82.000350542896484</v>
+        <v>84.0485891359901</v>
       </c>
       <c r="J14">
-        <v>90.723695462114648</v>
+        <v>139.527690821582</v>
       </c>
       <c r="K14">
-        <v>126.8091065991641</v>
+        <v>141.5714774790246</v>
       </c>
       <c r="L14">
-        <v>0.12599583815896381</v>
+        <v>0.1433111816976594</v>
       </c>
       <c r="M14">
-        <v>326.40556109155608</v>
+        <v>-1.302114975572466E-28</v>
       </c>
       <c r="N14">
-        <v>-3.5796651410685199E-31</v>
+        <v>-0.0008252472040130488</v>
       </c>
       <c r="O14">
-        <v>-175.27983168145599</v>
+        <v>-190.2808459783814</v>
       </c>
       <c r="P14">
-        <v>-59.557544547609311</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="0"/>
-        <v>7.2190297627219948</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-8.785523450114244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15">
-        <v>2.3509255058189802</v>
+        <v>2.292527834897353</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>28.569130264926741</v>
+        <v>29.27712694846301</v>
       </c>
       <c r="D15">
-        <v>3.7503310653364832E-2</v>
+        <v>0.04197485550130572</v>
       </c>
       <c r="E15">
-        <v>5.9252282940542071E-2</v>
+        <v>0.06548114533261835</v>
       </c>
       <c r="F15">
-        <v>-1.9695156459712999</v>
+        <v>-1.827506254587329</v>
       </c>
       <c r="G15">
-        <v>-4.8334980560435628E-2</v>
+        <v>-0.06666290616597317</v>
       </c>
       <c r="H15">
-        <v>81.084062748632832</v>
+        <v>83.64265516101186</v>
       </c>
       <c r="I15">
-        <v>80.927734603547691</v>
+        <v>82.8297905562149</v>
       </c>
       <c r="J15">
-        <v>89.925366049090954</v>
+        <v>88.04371211174688</v>
       </c>
       <c r="K15">
-        <v>130.12608600928209</v>
+        <v>89.15641803713382</v>
       </c>
       <c r="L15">
-        <v>0.12829255866348649</v>
+        <v>0.1300023921586984</v>
       </c>
       <c r="M15">
-        <v>340.5891370220358</v>
+        <v>448.6383085736321</v>
       </c>
       <c r="N15">
-        <v>-1.2002296813612131E-30</v>
+        <v>4.834461879881648E-29</v>
       </c>
       <c r="O15">
-        <v>-201.9318503675787</v>
+        <v>-219.0643280457268</v>
       </c>
       <c r="P15">
-        <v>-60.312692822452092</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="0"/>
-        <v>7.3506221543523012</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-53.68021493041866</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16">
-        <v>2.5350736363359681</v>
+        <v>2.472093145071059</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>28.452362924507209</v>
+        <v>29.21427290630593</v>
       </c>
       <c r="D16">
-        <v>3.3906567981735858E-2</v>
+        <v>0.03173515228014505</v>
       </c>
       <c r="E16">
-        <v>9.0761075753323803E-2</v>
+        <v>0.1051716838236654</v>
       </c>
       <c r="F16">
-        <v>-1.999999797782787</v>
+        <v>-1.947348144248492</v>
       </c>
       <c r="G16">
-        <v>-3.4495488034885988E-2</v>
+        <v>-0.05116284817361244</v>
       </c>
       <c r="H16">
-        <v>81.478531721442195</v>
+        <v>83.25953545552689</v>
       </c>
       <c r="I16">
-        <v>80.931461574586535</v>
+        <v>83.12057236369769</v>
       </c>
       <c r="J16">
-        <v>89.115231811714807</v>
+        <v>105.7478092259707</v>
       </c>
       <c r="K16">
-        <v>134.76379525308309</v>
+        <v>96.15168691895666</v>
       </c>
       <c r="L16">
-        <v>0.13791202669283981</v>
+        <v>0.1454509780829278</v>
       </c>
       <c r="M16">
-        <v>320.37498742493921</v>
+        <v>57.48993572955184</v>
       </c>
       <c r="N16">
-        <v>-1.2931819090422829E-32</v>
+        <v>2.554759032698038E-26</v>
       </c>
       <c r="O16">
-        <v>-177.0508052076764</v>
+        <v>17.8519342450774</v>
       </c>
       <c r="P16">
-        <v>-75.535907848010325</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="0"/>
-        <v>7.901777073595273</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-101.5151692542846</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17">
-        <v>2.7200656129656058</v>
+        <v>2.653260254146734</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>28.309430306412651</v>
+        <v>28.69639592319548</v>
       </c>
       <c r="D17">
-        <v>2.7325307671063039E-2</v>
+        <v>0.02745413161290178</v>
       </c>
       <c r="E17">
-        <v>0.12189769751092561</v>
+        <v>0.146588897766643</v>
       </c>
       <c r="F17">
-        <v>-1.969336107669442</v>
+        <v>-1.999999810849401</v>
       </c>
       <c r="G17">
-        <v>-1.4789339300622539E-2</v>
+        <v>-0.02828477332753244</v>
       </c>
       <c r="H17">
-        <v>80.4461750023805</v>
+        <v>81.81990484785923</v>
       </c>
       <c r="I17">
-        <v>79.969107659023024</v>
+        <v>80.84188523668813</v>
       </c>
       <c r="J17">
-        <v>87.623140899330863</v>
+        <v>83.11113028734142</v>
       </c>
       <c r="K17">
-        <v>137.16851384914261</v>
+        <v>81.99126863489877</v>
       </c>
       <c r="L17">
-        <v>0.12794939968495159</v>
+        <v>0.1238488226712224</v>
       </c>
       <c r="M17">
-        <v>356.41257408228211</v>
+        <v>504.2595203479993</v>
       </c>
       <c r="N17">
-        <v>-1.0337170445186029E-31</v>
+        <v>-1.244998489253596E-28</v>
       </c>
       <c r="O17">
-        <v>-199.0682089183764</v>
+        <v>-210.4553844080745</v>
       </c>
       <c r="P17">
-        <v>-88.557203438673909</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="0"/>
-        <v>7.3309605931802313</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-94.30934270283123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18">
-        <v>2.905916733150486</v>
+        <v>2.836457726840115</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>28.198798897543099</v>
+        <v>28.63004397491765</v>
       </c>
       <c r="D18">
-        <v>1.6705935801930631E-2</v>
+        <v>0.01031651028159242</v>
       </c>
       <c r="E18">
-        <v>0.14855831441656769</v>
+        <v>0.1785889045923406</v>
       </c>
       <c r="F18">
-        <v>-1.866660412788659</v>
+        <v>-1.975372463441698</v>
       </c>
       <c r="G18">
-        <v>1.041729346279037E-2</v>
+        <v>0.001640164161365682</v>
       </c>
       <c r="H18">
-        <v>80.776731138200788</v>
+        <v>81.92803087538731</v>
       </c>
       <c r="I18">
-        <v>79.958894389607977</v>
+        <v>81.24356865682491</v>
       </c>
       <c r="J18">
-        <v>90.529852638505133</v>
+        <v>116.2499761915558</v>
       </c>
       <c r="K18">
-        <v>144.0758630832625</v>
+        <v>98.3045784517187</v>
       </c>
       <c r="L18">
-        <v>0.12925226485599281</v>
+        <v>0.1195681539879312</v>
       </c>
       <c r="M18">
-        <v>52.920352330919798</v>
+        <v>2.766315983614561E-30</v>
       </c>
       <c r="N18">
-        <v>-2.1274890187582652E-28</v>
+        <v>-826.7377900986843</v>
       </c>
       <c r="O18">
-        <v>-79.52182169644162</v>
+        <v>208.1918225181431</v>
       </c>
       <c r="P18">
-        <v>-125.90202661374209</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="0"/>
-        <v>7.4056092687554829</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-168.5756827778159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19">
-        <v>3.0933865281658801</v>
+        <v>3.023222464155137</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>27.82695122983829</v>
+        <v>27.56106528440247</v>
       </c>
       <c r="D19">
-        <v>7.7234794484041273E-3</v>
+        <v>0.006285856675558301</v>
       </c>
       <c r="E19">
-        <v>0.1862287692654396</v>
+        <v>0.2161511084146722</v>
       </c>
       <c r="F19">
-        <v>-1.666878493835287</v>
+        <v>-1.827323054887463</v>
       </c>
       <c r="G19">
-        <v>4.1679267820608941E-2</v>
+        <v>0.03877649319021665</v>
       </c>
       <c r="H19">
-        <v>79.194234633741786</v>
+        <v>75.7921259637403</v>
       </c>
       <c r="I19">
-        <v>78.406069513641285</v>
+        <v>73.18551493209284</v>
       </c>
       <c r="J19">
-        <v>79.058814515672992</v>
+        <v>85.81329590742659</v>
       </c>
       <c r="K19">
-        <v>100.9953847155611</v>
+        <v>76.95735324376071</v>
       </c>
       <c r="L19">
-        <v>0.11739926495515821</v>
+        <v>0.1244828915770946</v>
       </c>
       <c r="M19">
-        <v>516.81944931341752</v>
+        <v>0.000200479999570538</v>
       </c>
       <c r="N19">
-        <v>-1.2001912685192929E-31</v>
+        <v>-4.599610120281281E-27</v>
       </c>
       <c r="O19">
-        <v>-168.4640087859552</v>
+        <v>-76.01699897016697</v>
       </c>
       <c r="P19">
-        <v>-117.4174521435087</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" si="0"/>
-        <v>6.7264823998686767</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-172.1620504761536</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20">
-        <v>3.2828008523074299</v>
+        <v>3.216690490065712</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>27.686553787382621</v>
+        <v>26.79407800666407</v>
       </c>
       <c r="D20">
-        <v>-8.4077068447742567E-3</v>
+        <v>-0.007016085450373215</v>
       </c>
       <c r="E20">
-        <v>0.2115261797242155</v>
+        <v>0.2347785866767963</v>
       </c>
       <c r="F20">
-        <v>-1.35126452646784</v>
+        <v>-1.514471685020244</v>
       </c>
       <c r="G20">
-        <v>7.9383624055102117E-2</v>
+        <v>0.0824268963875197</v>
       </c>
       <c r="H20">
-        <v>79.345517968779461</v>
+        <v>79.08283846603648</v>
       </c>
       <c r="I20">
-        <v>78.221369009461895</v>
+        <v>78.76923090553089</v>
       </c>
       <c r="J20">
-        <v>122.3348643182411</v>
+        <v>75.15346511718793</v>
       </c>
       <c r="K20">
-        <v>130.7839736788097</v>
+        <v>78.08533093216558</v>
       </c>
       <c r="L20">
-        <v>9.5772678177568071E-2</v>
+        <v>0.09705887456697773</v>
       </c>
       <c r="M20">
-        <v>5.9560879034906706E-32</v>
+        <v>4.883559676763429E-05</v>
       </c>
       <c r="N20">
-        <v>-681.36795720163752</v>
+        <v>7.7845109603664E-28</v>
       </c>
       <c r="O20">
-        <v>192.56838999611111</v>
+        <v>131.3489290305411</v>
       </c>
       <c r="P20">
-        <v>-201.34122227936481</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" si="0"/>
-        <v>5.4873702522393311</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-202.6754258837985</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21">
-        <v>3.4759522406815342</v>
+        <v>3.416516908782437</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>26.90382452486422</v>
+        <v>26.00889598779309</v>
       </c>
       <c r="D21">
-        <v>-1.622011792096191E-2</v>
+        <v>-0.01380860060045832</v>
       </c>
       <c r="E21">
-        <v>0.25579127739771518</v>
+        <v>0.2658528126625258</v>
       </c>
       <c r="F21">
-        <v>-0.88263589847925272</v>
+        <v>-1.005625437171491</v>
       </c>
       <c r="G21">
-        <v>0.1246455491092783</v>
+        <v>0.1325376890476599</v>
       </c>
       <c r="H21">
-        <v>74.769482436791449</v>
+        <v>72.52852977671948</v>
       </c>
       <c r="I21">
-        <v>72.275862580679643</v>
+        <v>70.72501913444333</v>
       </c>
       <c r="J21">
-        <v>96.533689416135331</v>
+        <v>74.03200925503386</v>
       </c>
       <c r="K21">
-        <v>74.990728537546829</v>
+        <v>74.81406114548929</v>
       </c>
       <c r="L21">
-        <v>8.2794784937965479E-2</v>
+        <v>0.08230521847164275</v>
       </c>
       <c r="M21">
-        <v>-6.7602831452660794E-31</v>
+        <v>2.758238746673548E-30</v>
       </c>
       <c r="N21">
-        <v>-1021.885330053142</v>
+        <v>-1500.151901599752</v>
       </c>
       <c r="O21">
-        <v>166.91390944124561</v>
+        <v>268.6885260488461</v>
       </c>
       <c r="P21">
-        <v>-220.9492331691558</v>
-      </c>
-      <c r="Q21">
-        <f t="shared" si="0"/>
-        <v>4.7437917426387397</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-203.6766734573254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22">
-        <v>3.6778591429419452</v>
+        <v>3.627376777259248</v>
       </c>
       <c r="B22">
-        <v>3.183098861837901E-3</v>
+        <v>0.003183098861837901</v>
       </c>
       <c r="C22">
-        <v>25.56012895259121</v>
+        <v>24.33944040293559</v>
       </c>
       <c r="D22">
-        <v>-2.5927457216640162E-2</v>
+        <v>-0.02641209646862845</v>
       </c>
       <c r="E22">
-        <v>0.27602736446880621</v>
+        <v>0.2947967902540618</v>
       </c>
       <c r="F22">
-        <v>-0.22654555364295781</v>
+        <v>-0.2868209804912428</v>
       </c>
       <c r="G22">
-        <v>0.16154513029823939</v>
+        <v>0.1750076367422531</v>
       </c>
       <c r="H22">
-        <v>72.209008306252699</v>
+        <v>67.29403717671106</v>
       </c>
       <c r="I22">
-        <v>68.347183958005559</v>
+        <v>61.43002510163731</v>
       </c>
       <c r="J22">
-        <v>68.145915281096123</v>
+        <v>45.39208153336052</v>
       </c>
       <c r="K22">
-        <v>72.903958965184742</v>
+        <v>67.70432548484534</v>
       </c>
       <c r="L22">
-        <v>9.8922577165197326E-2</v>
+        <v>0.1419225542527602</v>
       </c>
       <c r="M22">
-        <v>3.191661637901997E-35</v>
+        <v>477.4142334468702</v>
       </c>
       <c r="N22">
-        <v>-1406.262003728594</v>
+        <v>-1.272832986711746E-32</v>
       </c>
       <c r="O22">
-        <v>270.82103954888618</v>
+        <v>-233.8979979055288</v>
       </c>
       <c r="P22">
-        <v>-202.01069493218091</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" si="0"/>
-        <v>5.6678461701230178</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-150.6694937907736</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23">
-        <v>3.8917848978404721</v>
+        <v>3.846500089139329</v>
       </c>
       <c r="B23">
-        <v>9.7084515286055967E-3</v>
+        <v>0.009708451528605597</v>
       </c>
       <c r="C23">
-        <v>23.908640390394389</v>
+        <v>24.20835068852163</v>
       </c>
       <c r="D23">
-        <v>-3.8897864159856597E-2</v>
+        <v>-0.05044612573203491</v>
       </c>
       <c r="E23">
-        <v>0.30265232047437629</v>
+        <v>0.3068215259098575</v>
       </c>
       <c r="F23">
-        <v>0.49657604518648968</v>
+        <v>0.4960419509764827</v>
       </c>
       <c r="G23">
-        <v>0.1725530219612682</v>
+        <v>0.1900387820534624</v>
       </c>
       <c r="H23">
-        <v>64.245452046288335</v>
+        <v>70.42611039173801</v>
       </c>
       <c r="I23">
-        <v>58.625762016922998</v>
+        <v>71.28924149122656</v>
       </c>
       <c r="J23">
-        <v>41.584181152641399</v>
+        <v>119.8752490067838</v>
       </c>
       <c r="K23">
-        <v>66.573770749827773</v>
+        <v>82.97437720614488</v>
       </c>
       <c r="L23">
-        <v>7.7305636804983355E-2</v>
+        <v>0.06034067551150774</v>
       </c>
       <c r="M23">
-        <v>1.6122856729703581E-4</v>
+        <v>4.633852213980481E-05</v>
       </c>
       <c r="N23">
-        <v>8.9062301278204196E-30</v>
+        <v>1.191412678061483E-27</v>
       </c>
       <c r="O23">
-        <v>-112.72615584660571</v>
+        <v>119.9833703319895</v>
       </c>
       <c r="P23">
-        <v>-235.0045072171726</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" si="0"/>
-        <v>4.429286721496748</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-235.4947300281167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24">
-        <v>4.1145592164814166</v>
+        <v>4.064461921679284</v>
       </c>
       <c r="B24">
-        <v>1.6392959138465189E-2</v>
+        <v>0.01639295913846519</v>
       </c>
       <c r="C24">
-        <v>23.008099830383099</v>
+        <v>23.6314761907386</v>
       </c>
       <c r="D24">
-        <v>-4.6699967217447659E-2</v>
+        <v>-0.06114316113718164</v>
       </c>
       <c r="E24">
-        <v>0.30179680446797019</v>
+        <v>0.3301770609061128</v>
       </c>
       <c r="F24">
-        <v>1.1333712082130869</v>
+        <v>1.164982469133333</v>
       </c>
       <c r="G24">
-        <v>0.154355445286909</v>
+        <v>0.1737000483685553</v>
       </c>
       <c r="H24">
-        <v>69.949484380467851</v>
+        <v>67.07769102824862</v>
       </c>
       <c r="I24">
-        <v>70.933330255506476</v>
+        <v>63.57111880324871</v>
       </c>
       <c r="J24">
-        <v>63.041406951485392</v>
+        <v>105.3431671036036</v>
       </c>
       <c r="K24">
-        <v>67.554902563679406</v>
+        <v>65.93820010468885</v>
       </c>
       <c r="L24">
-        <v>6.2828435949455877E-2</v>
+        <v>0.05606506959930191</v>
       </c>
       <c r="M24">
-        <v>9.0181114291066733E-5</v>
+        <v>-3.555451371820729E-32</v>
       </c>
       <c r="N24">
-        <v>5.8441289322290103E-31</v>
+        <v>-1524.264673455446</v>
       </c>
       <c r="O24">
-        <v>205.41811971047841</v>
+        <v>262.9492563035065</v>
       </c>
       <c r="P24">
-        <v>-224.82079334113149</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="0"/>
-        <v>3.5998042133118391</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-208.451698954481</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25">
-        <v>4.3409518467461012</v>
+        <v>4.28897637276557</v>
       </c>
       <c r="B25">
-        <v>1.986760647169749E-2</v>
+        <v>0.01986760647169749</v>
       </c>
       <c r="C25">
-        <v>22.294481538633342</v>
+        <v>22.01003283264303</v>
       </c>
       <c r="D25">
-        <v>-4.9202865309846272E-2</v>
+        <v>-0.08217555913604771</v>
       </c>
       <c r="E25">
-        <v>0.33177919140709339</v>
+        <v>0.3489870391227899</v>
       </c>
       <c r="F25">
-        <v>1.593849139562699</v>
+        <v>1.614585242568103</v>
       </c>
       <c r="G25">
-        <v>0.1218311998918836</v>
+        <v>0.145745116216783</v>
       </c>
       <c r="H25">
-        <v>60.640790704154291</v>
+        <v>58.86076904100283</v>
       </c>
       <c r="I25">
-        <v>57.071483333477659</v>
+        <v>50.31828775866357</v>
       </c>
       <c r="J25">
-        <v>63.306144685588059</v>
+        <v>61.63215225532507</v>
       </c>
       <c r="K25">
-        <v>64.236771304290727</v>
+        <v>59.79893296664126</v>
       </c>
       <c r="L25">
-        <v>8.123297749758901E-2</v>
+        <v>0.04131763370308767</v>
       </c>
       <c r="M25">
-        <v>1.14225683986015E-30</v>
+        <v>1.802302057360208E-05</v>
       </c>
       <c r="N25">
-        <v>-6.9296983766069741E-4</v>
+        <v>1.420834025997639E-27</v>
       </c>
       <c r="O25">
-        <v>-95.290092937460685</v>
+        <v>-163.7628397609868</v>
       </c>
       <c r="P25">
-        <v>-249.1061133925094</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" si="0"/>
-        <v>4.6543067678930381</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-247.7994956517061</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26">
-        <v>4.5722173886990776</v>
+        <v>4.523563349777198</v>
       </c>
       <c r="B26">
         <v>0.02</v>
       </c>
       <c r="C26">
-        <v>21.59462274323533</v>
+        <v>21.2549730942403</v>
       </c>
       <c r="D26">
-        <v>-5.2396222201151359E-2</v>
+        <v>-0.08433011192645368</v>
       </c>
       <c r="E26">
-        <v>0.32142216065171381</v>
+        <v>0.3248554501291382</v>
       </c>
       <c r="F26">
-        <v>1.8775300218287501</v>
+        <v>1.863428796515756</v>
       </c>
       <c r="G26">
-        <v>9.2369767727078292E-2</v>
+        <v>0.119744546879834</v>
       </c>
       <c r="H26">
-        <v>65.054240326153945</v>
+        <v>65.0587280438185</v>
       </c>
       <c r="I26">
-        <v>64.516600314735854</v>
+        <v>67.55749814064193</v>
       </c>
       <c r="J26">
-        <v>60.932977621967041</v>
+        <v>59.97730346007253</v>
       </c>
       <c r="K26">
-        <v>62.583873795714879</v>
+        <v>62.9265414698601</v>
       </c>
       <c r="L26">
-        <v>5.7925129635386478E-2</v>
+        <v>0.0347822705779438</v>
       </c>
       <c r="M26">
-        <v>-3.0143883251090259E-33</v>
+        <v>4.255203608997338E-05</v>
       </c>
       <c r="N26">
-        <v>-1115.1510159634929</v>
+        <v>8.955252489723172E-28</v>
       </c>
       <c r="O26">
-        <v>300.13920418568279</v>
+        <v>206.7615354577527</v>
       </c>
       <c r="P26">
-        <v>-195.96263875737719</v>
-      </c>
-      <c r="Q26">
-        <f t="shared" si="0"/>
-        <v>3.3188654558558142</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-227.427839379795</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27">
-        <v>4.8139424685012804</v>
+        <v>4.764958766408149</v>
       </c>
       <c r="B27">
         <v>0.02</v>
       </c>
       <c r="C27">
-        <v>20.160946296399761</v>
+        <v>20.57435467629946</v>
       </c>
       <c r="D27">
-        <v>-5.9425204096483587E-2</v>
+        <v>-0.08418838799074499</v>
       </c>
       <c r="E27">
-        <v>0.35791795395910281</v>
+        <v>0.3543328777840413</v>
       </c>
       <c r="F27">
-        <v>1.9999998940222881</v>
+        <v>1.982333733238514</v>
       </c>
       <c r="G27">
-        <v>6.9486559211373505E-2</v>
+        <v>0.09675397382717017</v>
       </c>
       <c r="H27">
-        <v>52.773781627705517</v>
+        <v>55.59898535421367</v>
       </c>
       <c r="I27">
-        <v>48.759471768865332</v>
+        <v>50.4329313055368</v>
       </c>
       <c r="J27">
-        <v>35.646005817599438</v>
+        <v>58.3014794465147</v>
       </c>
       <c r="K27">
-        <v>56.160387837381052</v>
+        <v>59.17884239073535</v>
       </c>
       <c r="L27">
-        <v>6.7990819144124345E-2</v>
+        <v>0.04610049016074779</v>
       </c>
       <c r="M27">
-        <v>9.6040721014202684E-5</v>
+        <v>3.641045662952897E-05</v>
       </c>
       <c r="N27">
-        <v>-4.9581044048377955E-32</v>
+        <v>4.597727058092471E-27</v>
       </c>
       <c r="O27">
-        <v>-133.37205689093179</v>
+        <v>-112.941766188838</v>
       </c>
       <c r="P27">
-        <v>-240.81528512461199</v>
-      </c>
-      <c r="Q27">
-        <f t="shared" si="0"/>
-        <v>3.8955869825956051</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-253.4570266172867</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28">
-        <v>5.069559422906007</v>
+        <v>5.014181797552071</v>
       </c>
       <c r="B28">
         <v>0.02</v>
       </c>
       <c r="C28">
-        <v>19.35805709936189</v>
+        <v>19.87957858986032</v>
       </c>
       <c r="D28">
-        <v>-6.1596731928366871E-2</v>
+        <v>-0.08242471723940918</v>
       </c>
       <c r="E28">
-        <v>0.34529762165219491</v>
+        <v>0.3369184175161271</v>
       </c>
       <c r="F28">
-        <v>1.9999996432297029</v>
+        <v>1.999999919230807</v>
       </c>
       <c r="G28">
-        <v>5.500393584677582E-2</v>
+        <v>0.07788027622801109</v>
       </c>
       <c r="H28">
-        <v>60.590095798237762</v>
+        <v>60.47454108331839</v>
       </c>
       <c r="I28">
-        <v>60.028630187785367</v>
+        <v>61.04231647651274</v>
       </c>
       <c r="J28">
-        <v>52.962163285205087</v>
+        <v>55.87811512572529</v>
       </c>
       <c r="K28">
-        <v>57.237673675483393</v>
+        <v>57.64156975893905</v>
       </c>
       <c r="L28">
-        <v>5.8005186287836553E-2</v>
+        <v>0.0413600904074139</v>
       </c>
       <c r="M28">
-        <v>1.4322170467908751E-4</v>
+        <v>5.869310941388092E-31</v>
       </c>
       <c r="N28">
-        <v>5.6815488128328706E-29</v>
+        <v>-299.0595417757838</v>
       </c>
       <c r="O28">
-        <v>238.1787106109021</v>
+        <v>233.901799343137</v>
       </c>
       <c r="P28">
-        <v>-214.57014006311451</v>
-      </c>
-      <c r="Q28">
-        <f t="shared" si="0"/>
-        <v>3.3234523641631495</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-224.3183276219225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29">
-        <v>5.3345925530667833</v>
+        <v>5.273837098291423</v>
       </c>
       <c r="B29">
         <v>0.02</v>
       </c>
       <c r="C29">
-        <v>18.703553228061949</v>
+        <v>18.96319236206375</v>
       </c>
       <c r="D29">
-        <v>-5.9099424869888881E-2</v>
+        <v>-0.0804289328833183</v>
       </c>
       <c r="E29">
-        <v>0.38325499035421989</v>
+        <v>0.3715953925120186</v>
       </c>
       <c r="F29">
-        <v>1.9488979439211001</v>
+        <v>1.945519193756124</v>
       </c>
       <c r="G29">
-        <v>4.6606881001936697E-2</v>
+        <v>0.0648492671632597</v>
       </c>
       <c r="H29">
-        <v>49.550424445699818</v>
+        <v>50.99308307660759</v>
       </c>
       <c r="I29">
-        <v>46.823588759744439</v>
+        <v>46.91285286016701</v>
       </c>
       <c r="J29">
-        <v>52.869665084592498</v>
+        <v>50.99988966910098</v>
       </c>
       <c r="K29">
-        <v>53.99345214591407</v>
+        <v>54.41640612980912</v>
       </c>
       <c r="L29">
-        <v>6.5678969208946558E-2</v>
+        <v>0.05357705908373765</v>
       </c>
       <c r="M29">
-        <v>214.4935986950756</v>
+        <v>0.0001729408958792907</v>
       </c>
       <c r="N29">
-        <v>2.1108549698196469E-29</v>
+        <v>-7.389166867746979E-28</v>
       </c>
       <c r="O29">
-        <v>-250.7970127118551</v>
+        <v>-132.3659233491071</v>
       </c>
       <c r="P29">
-        <v>-233.22715979594659</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" si="0"/>
-        <v>3.763127738442325</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-252.0660376038588</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30">
-        <v>5.6047944275168309</v>
+        <v>5.545229714626973</v>
       </c>
       <c r="B30">
         <v>0.02</v>
       </c>
       <c r="C30">
-        <v>18.693853515151581</v>
+        <v>18.27569212992487</v>
       </c>
       <c r="D30">
-        <v>-5.8125173922747013E-2</v>
+        <v>-0.07408943906783505</v>
       </c>
       <c r="E30">
-        <v>0.34855296870217661</v>
+        <v>0.3501745555690555</v>
       </c>
       <c r="F30">
-        <v>1.873878914344089</v>
+        <v>1.861752720551865</v>
       </c>
       <c r="G30">
-        <v>4.0465877444591132E-2</v>
+        <v>0.05782463761199193</v>
       </c>
       <c r="H30">
-        <v>57.977755826215819</v>
+        <v>56.07938511179042</v>
       </c>
       <c r="I30">
-        <v>55.996218395019987</v>
+        <v>55.75430684279277</v>
       </c>
       <c r="J30">
-        <v>56.313805097824407</v>
+        <v>51.85503013237353</v>
       </c>
       <c r="K30">
-        <v>56.359496089233339</v>
+        <v>53.26810491634882</v>
       </c>
       <c r="L30">
-        <v>6.3055588790900688E-2</v>
+        <v>0.05139182507622698</v>
       </c>
       <c r="M30">
-        <v>2.2151614252326232E-3</v>
+        <v>1.536483763630815E-30</v>
       </c>
       <c r="N30">
-        <v>5.1032960458020329E-28</v>
+        <v>-48.61866378696287</v>
       </c>
       <c r="O30">
-        <v>239.40863728625271</v>
+        <v>217.639340746855</v>
       </c>
       <c r="P30">
-        <v>-223.41508459524971</v>
-      </c>
-      <c r="Q30">
-        <f t="shared" si="0"/>
-        <v>3.6128191124310312</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-226.4826352018119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31">
-        <v>5.8798411109110553</v>
+        <v>5.827399550871704</v>
       </c>
       <c r="B31">
         <v>0.02</v>
       </c>
       <c r="C31">
-        <v>18.08458295814501</v>
+        <v>17.58691689332285</v>
       </c>
       <c r="D31">
-        <v>-5.3213532867019041E-2</v>
+        <v>-0.06553957025835004</v>
       </c>
       <c r="E31">
-        <v>0.38762203081991509</v>
+        <v>0.385728878317149</v>
       </c>
       <c r="F31">
-        <v>1.7844122342743991</v>
+        <v>1.794620457603842</v>
       </c>
       <c r="G31">
-        <v>3.6728384106981787E-2</v>
+        <v>0.05665481688771439</v>
       </c>
       <c r="H31">
-        <v>48.488532025177882</v>
+        <v>47.59569622234259</v>
       </c>
       <c r="I31">
-        <v>47.001680789759632</v>
+        <v>44.50612133960952</v>
       </c>
       <c r="J31">
-        <v>51.308211300876337</v>
+        <v>49.30574897535353</v>
       </c>
       <c r="K31">
-        <v>51.839438843853841</v>
+        <v>50.96322490850383</v>
       </c>
       <c r="L31">
-        <v>6.7179324533482312E-2</v>
+        <v>0.06452632586117928</v>
       </c>
       <c r="M31">
-        <v>291.75798706486029</v>
+        <v>201.9532252101014</v>
       </c>
       <c r="N31">
-        <v>8.3979643775254212E-34</v>
+        <v>1.677925487139237E-27</v>
       </c>
       <c r="O31">
-        <v>-276.40880222331259</v>
+        <v>-239.7172309548288</v>
       </c>
       <c r="P31">
-        <v>-210.87093340315661</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" si="0"/>
-        <v>3.8490917663082045</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-237.7397254204749</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32">
-        <v>6.1584529214767461</v>
+        <v>6.115420309346383</v>
       </c>
       <c r="B32">
         <v>0.02</v>
       </c>
       <c r="C32">
-        <v>18.318542102837029</v>
+        <v>17.59399868773954</v>
       </c>
       <c r="D32">
-        <v>-5.7021230731138212E-2</v>
+        <v>-0.0571172099819534</v>
       </c>
       <c r="E32">
-        <v>0.35530088834745771</v>
+        <v>0.3497148928567272</v>
       </c>
       <c r="F32">
-        <v>1.6924095888884521</v>
+        <v>1.774969247584492</v>
       </c>
       <c r="G32">
-        <v>3.5021614113256591E-2</v>
+        <v>0.05755335143111928</v>
       </c>
       <c r="H32">
-        <v>56.333433750597408</v>
+        <v>53.78737361466242</v>
       </c>
       <c r="I32">
-        <v>53.607009394325978</v>
+        <v>52.42943841853094</v>
       </c>
       <c r="J32">
-        <v>61.144492355310362</v>
+        <v>52.78363434220456</v>
       </c>
       <c r="K32">
-        <v>56.220360247345511</v>
+        <v>52.99928797575361</v>
       </c>
       <c r="L32">
-        <v>6.4135224428132645E-2</v>
+        <v>0.07094035061971807</v>
       </c>
       <c r="M32">
-        <v>4.3133205727900599</v>
+        <v>29.71862769450025</v>
       </c>
       <c r="N32">
-        <v>1.036973390973918E-30</v>
+        <v>1.288439511767445E-27</v>
       </c>
       <c r="O32">
-        <v>221.1616655761386</v>
+        <v>205.4706220451126</v>
       </c>
       <c r="P32">
-        <v>-231.12778508792971</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" si="0"/>
-        <v>3.6746776778563395</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-227.2302176545707</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33">
-        <v>6.4399712856200484</v>
+        <v>6.407444851074938</v>
       </c>
       <c r="B33">
         <v>0.02</v>
       </c>
       <c r="C33">
-        <v>17.75888142230205</v>
+        <v>17.08051626518768</v>
       </c>
       <c r="D33">
-        <v>-5.2522360138653787E-2</v>
+        <v>-0.04538645728196714</v>
       </c>
       <c r="E33">
-        <v>0.39259419095147641</v>
+        <v>0.3864576731009777</v>
       </c>
       <c r="F33">
-        <v>1.58943259305101</v>
+        <v>1.810720666277217</v>
       </c>
       <c r="G33">
-        <v>3.5379681247922103E-2</v>
+        <v>0.0600649738810693</v>
       </c>
       <c r="H33">
-        <v>48.137677209588617</v>
+        <v>46.61813971933299</v>
       </c>
       <c r="I33">
-        <v>47.268979868786538</v>
+        <v>44.52695191743512</v>
       </c>
       <c r="J33">
-        <v>52.186564353443963</v>
+        <v>49.99802288216745</v>
       </c>
       <c r="K33">
-        <v>50.55699658494752</v>
+        <v>49.31398925429962</v>
       </c>
       <c r="L33">
-        <v>6.7371954559479308E-2</v>
+        <v>0.07825191062942401</v>
       </c>
       <c r="M33">
-        <v>292.76497842868213</v>
+        <v>261.613316689271</v>
       </c>
       <c r="N33">
-        <v>-3.0665507994810879E-34</v>
+        <v>-1.851843467574043E-31</v>
       </c>
       <c r="O33">
-        <v>-271.25347133212318</v>
+        <v>-268.7000973638845</v>
       </c>
       <c r="P33">
-        <v>-209.62629847025079</v>
-      </c>
-      <c r="Q33">
-        <f t="shared" si="0"/>
-        <v>3.8601286538053277</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-221.217412726374</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34">
-        <v>6.7244925210227109</v>
+        <v>6.701319058904735</v>
       </c>
       <c r="B34">
         <v>0.02</v>
       </c>
       <c r="C34">
-        <v>18.023094805500129</v>
+        <v>17.34260370902562</v>
       </c>
       <c r="D34">
-        <v>-5.7001590702496732E-2</v>
+        <v>-0.0419347516851058</v>
       </c>
       <c r="E34">
-        <v>0.36091711307177232</v>
+        <v>0.3511010232850786</v>
       </c>
       <c r="F34">
-        <v>1.5012052296599929</v>
+        <v>1.905829069205091</v>
       </c>
       <c r="G34">
-        <v>3.7338418706523907E-2</v>
+        <v>0.06335101081339141</v>
       </c>
       <c r="H34">
-        <v>55.017073289567442</v>
+        <v>52.72473329964762</v>
       </c>
       <c r="I34">
-        <v>51.932965420066488</v>
+        <v>50.68076844952467</v>
       </c>
       <c r="J34">
-        <v>61.186970232107377</v>
+        <v>53.12759642468887</v>
       </c>
       <c r="K34">
-        <v>55.569007501978312</v>
+        <v>52.78983822307661</v>
       </c>
       <c r="L34">
-        <v>5.7962202784508733E-2</v>
+        <v>0.07470770405395739</v>
       </c>
       <c r="M34">
-        <v>198.45510413094519</v>
+        <v>336.7120429199209</v>
       </c>
       <c r="N34">
-        <v>-2.4910853753739289E-29</v>
+        <v>-1.284175248054863E-32</v>
       </c>
       <c r="O34">
-        <v>46.205692137322828</v>
+        <v>-24.36240620102177</v>
       </c>
       <c r="P34">
-        <v>-219.03832405620801</v>
-      </c>
-      <c r="Q34">
-        <f t="shared" si="0"/>
-        <v>3.3209895908337788</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-188.8018337532627</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35">
-        <v>7.0082277285471504</v>
+        <v>6.990523370322073</v>
       </c>
       <c r="B35">
         <v>0.02</v>
       </c>
       <c r="C35">
-        <v>17.909299077620311</v>
+        <v>17.54101281896554</v>
       </c>
       <c r="D35">
-        <v>-5.9968340099114122E-2</v>
+        <v>-0.04987288931149934</v>
       </c>
       <c r="E35">
-        <v>0.38487531766908911</v>
+        <v>0.3791699703219613</v>
       </c>
       <c r="F35">
-        <v>1.3958143089126409</v>
+        <v>1.999999209399592</v>
       </c>
       <c r="G35">
-        <v>3.8078719649245502E-2</v>
+        <v>0.06359509254916178</v>
       </c>
       <c r="H35">
-        <v>49.048194313468898</v>
+        <v>48.29727084395579</v>
       </c>
       <c r="I35">
-        <v>48.514018522167817</v>
+        <v>46.88398307145546</v>
       </c>
       <c r="J35">
-        <v>83.389693456449578</v>
+        <v>102.0528157962532</v>
       </c>
       <c r="K35">
-        <v>53.683442481790131</v>
+        <v>56.17708249909267</v>
       </c>
       <c r="L35">
-        <v>6.3411127100840348E-2</v>
+        <v>-0.1721779798916945</v>
       </c>
       <c r="M35">
-        <v>-6.4980110175667146E-33</v>
+        <v>-4.308540293416511E-32</v>
       </c>
       <c r="N35">
-        <v>-9.8374776008970248E-5</v>
+        <v>-1376.141609457463</v>
       </c>
       <c r="O35">
-        <v>-47.72273297532454</v>
+        <v>-40.06399222907648</v>
       </c>
       <c r="P35">
-        <v>-256.53682044796449</v>
-      </c>
-      <c r="Q35">
-        <f t="shared" si="0"/>
-        <v>3.6331899570457877</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-3.354578425047976</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36">
-        <v>7.2968536970241784</v>
+        <v>7.289224592019671</v>
       </c>
       <c r="B36">
         <v>0.02</v>
       </c>
       <c r="C36">
-        <v>17.496275552798789</v>
+        <v>16.04751680231528</v>
       </c>
       <c r="D36">
-        <v>-6.160411047615548E-2</v>
+        <v>-0.1374871086562796</v>
       </c>
       <c r="E36">
-        <v>0.37716240625929981</v>
+        <v>0.3053366623838039</v>
       </c>
       <c r="F36">
-        <v>1.2850531931037179</v>
+        <v>1.839920870509837</v>
       </c>
       <c r="G36">
-        <v>4.3363195632833612E-2</v>
+        <v>0.06033701833290408</v>
       </c>
       <c r="H36">
-        <v>53.154885296253809</v>
+        <v>54.70796157248645</v>
       </c>
       <c r="I36">
-        <v>49.974216027045983</v>
+        <v>47.76943648124625</v>
       </c>
       <c r="J36">
-        <v>48.817077568159952</v>
+        <v>36.73943331406817</v>
       </c>
       <c r="K36">
-        <v>49.963233957494332</v>
+        <v>42.41526412940365</v>
       </c>
       <c r="L36">
-        <v>5.0310902828760967E-2</v>
+        <v>0.004993493222876961</v>
       </c>
       <c r="M36">
-        <v>354.10371633854379</v>
+        <v>89.02475467774609</v>
       </c>
       <c r="N36">
-        <v>-2.432144459921119E-34</v>
+        <v>3.627028196687715E-29</v>
       </c>
       <c r="O36">
-        <v>-54.210441202928372</v>
+        <v>124.8367730965324</v>
       </c>
       <c r="P36">
-        <v>-175.80880031944869</v>
-      </c>
-      <c r="Q36">
-        <f t="shared" si="0"/>
-        <v>2.8826023955807982</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-191.1216887474097</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37">
-        <v>7.5881920041552462</v>
+        <v>7.61140693333112</v>
       </c>
       <c r="B37">
         <v>0.02</v>
       </c>
       <c r="C37">
-        <v>17.675636366494071</v>
+        <v>15.59601796134024</v>
       </c>
       <c r="D37">
-        <v>-7.8088728915554545E-2</v>
+        <v>-0.09777205810734933</v>
       </c>
       <c r="E37">
-        <v>0.40013407564835518</v>
+        <v>0.3339553924145706</v>
       </c>
       <c r="F37">
-        <v>1.181986189560426</v>
+        <v>1.541768447216785</v>
       </c>
       <c r="G37">
-        <v>5.0670036118658279E-2</v>
+        <v>0.05852810896774559</v>
       </c>
       <c r="H37">
-        <v>48.762059856744102</v>
+        <v>36.9427957355765</v>
       </c>
       <c r="I37">
-        <v>48.139213872126597</v>
+        <v>40.62438020687885</v>
       </c>
       <c r="J37">
-        <v>99.346472995523655</v>
+        <v>50.02739109800687</v>
       </c>
       <c r="K37">
-        <v>62.706875496257062</v>
+        <v>47.87050446024393</v>
       </c>
       <c r="L37">
-        <v>3.9566994859146318E-2</v>
+        <v>0.03480172571919932</v>
       </c>
       <c r="M37">
-        <v>8.3091779315272256E-4</v>
+        <v>222.4491206456134</v>
       </c>
       <c r="N37">
-        <v>-5.1720384382311885E-29</v>
+        <v>-4.232901357118987E-31</v>
       </c>
       <c r="O37">
-        <v>-38.535783484225263</v>
+        <v>-237.8423416622346</v>
       </c>
       <c r="P37">
-        <v>-222.44159809454769</v>
-      </c>
-      <c r="Q37">
-        <f t="shared" si="0"/>
-        <v>2.2670218134449094</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-212.9581315870039</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38">
-        <v>7.8811587876507163</v>
+        <v>7.935991470337657</v>
       </c>
       <c r="B38">
         <v>0.02</v>
       </c>
       <c r="C38">
-        <v>17.351703102813669</v>
+        <v>15.82609945629557</v>
       </c>
       <c r="D38">
-        <v>-8.9195194323726343E-2</v>
+        <v>-0.06198130321320052</v>
       </c>
       <c r="E38">
-        <v>0.4015290365187712</v>
+        <v>0.2986079908936322</v>
       </c>
       <c r="F38">
-        <v>1.040222116893792</v>
+        <v>1.429590509788381</v>
       </c>
       <c r="G38">
-        <v>6.3457481246821212E-2</v>
+        <v>0.05632808455250402</v>
       </c>
       <c r="H38">
-        <v>52.446322769785567</v>
+        <v>53.32546343239117</v>
       </c>
       <c r="I38">
-        <v>49.19208182945016</v>
+        <v>46.58221061352315</v>
       </c>
       <c r="J38">
-        <v>62.620384784030954</v>
+        <v>49.04234031881996</v>
       </c>
       <c r="K38">
-        <v>45.581784028040794</v>
+        <v>46.73423069675423</v>
       </c>
       <c r="L38">
-        <v>2.5132895537517009E-2</v>
+        <v>0.06079415950909669</v>
       </c>
       <c r="M38">
-        <v>123.55152458873791</v>
+        <v>399.3878086159709</v>
       </c>
       <c r="N38">
-        <v>5.3750193236994578E-32</v>
+        <v>3.251663447219262E-33</v>
       </c>
       <c r="O38">
-        <v>-28.474924975766442</v>
+        <v>76.6883282154099</v>
       </c>
       <c r="P38">
-        <v>-227.1596360203396</v>
-      </c>
-      <c r="Q38">
-        <f t="shared" si="0"/>
-        <v>1.4400088412429051</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-125.8992908690787</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39">
-        <v>8.1801909919878071</v>
+        <v>8.257073116260534</v>
       </c>
       <c r="B39">
         <v>0.02</v>
       </c>
       <c r="C39">
-        <v>17.097248906758281</v>
+        <v>15.92271214097247</v>
       </c>
       <c r="D39">
-        <v>-9.3203137681763235E-2</v>
+        <v>-0.05887012974079905</v>
       </c>
       <c r="E39">
-        <v>0.40190004864709189</v>
+        <v>0.3543907564108083</v>
       </c>
       <c r="F39">
-        <v>0.9339033303519727</v>
+        <v>1.421639918328253</v>
       </c>
       <c r="G39">
-        <v>7.8498867194251642E-2</v>
+        <v>0.05544275549625619</v>
       </c>
       <c r="H39">
-        <v>47.447363808090763</v>
+        <v>38.78250120985752</v>
       </c>
       <c r="I39">
-        <v>46.784414823163473</v>
+        <v>42.14713291374115</v>
       </c>
       <c r="J39">
-        <v>58.867503345162007</v>
+        <v>128.8396162258298</v>
       </c>
       <c r="K39">
-        <v>53.284725044589031</v>
+        <v>94.88170008463345</v>
       </c>
       <c r="L39">
-        <v>2.2390057736283601E-2</v>
+        <v>0.03645839718493965</v>
       </c>
       <c r="M39">
-        <v>171.2799274181622</v>
+        <v>-9.939876720484895E-32</v>
       </c>
       <c r="N39">
-        <v>7.9302428392237097E-30</v>
+        <v>-561.252662121205</v>
       </c>
       <c r="O39">
-        <v>-154.55526156952331</v>
+        <v>-226.9505239810221</v>
       </c>
       <c r="P39">
-        <v>-239.8525007836775</v>
-      </c>
-      <c r="Q39">
-        <f t="shared" si="0"/>
-        <v>1.2828558113432884</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-202.8545487393114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40">
-        <v>8.4818671503934713</v>
+        <v>8.579220884475017</v>
       </c>
       <c r="B40">
         <v>0.02</v>
       </c>
       <c r="C40">
-        <v>17.07096491151523</v>
+        <v>15.56084553723969</v>
       </c>
       <c r="D40">
-        <v>-9.4559483279402334E-2</v>
+        <v>-0.07543263921718005</v>
       </c>
       <c r="E40">
-        <v>0.38455779957733249</v>
+        <v>0.3289780794691151</v>
       </c>
       <c r="F40">
-        <v>0.88870977848027155</v>
+        <v>1.353991706933554</v>
       </c>
       <c r="G40">
-        <v>9.2210818929718733E-2</v>
+        <v>0.06374930051554488</v>
       </c>
       <c r="H40">
-        <v>51.348871950894853</v>
+        <v>50.24444968543284</v>
       </c>
       <c r="I40">
-        <v>48.192441424879661</v>
+        <v>16.00038687385258</v>
       </c>
       <c r="J40">
-        <v>56.700110841489277</v>
+        <v>46.45877353080427</v>
       </c>
       <c r="K40">
-        <v>50.131320131786758</v>
+        <v>48.55830936204377</v>
       </c>
       <c r="L40">
-        <v>2.888220954848009E-2</v>
+        <v>0.05936693338427047</v>
       </c>
       <c r="M40">
-        <v>91.167716838388017</v>
+        <v>176.5878291970601</v>
       </c>
       <c r="N40">
-        <v>-7.3784135691502206E-31</v>
+        <v>1.294416857397303E-30</v>
       </c>
       <c r="O40">
-        <v>34.737604309883167</v>
+        <v>-23.46617938849017</v>
       </c>
       <c r="P40">
-        <v>-245.5670326383898</v>
-      </c>
-      <c r="Q40">
-        <f t="shared" si="0"/>
-        <v>1.6548287101403563</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-171.7758288979046</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41">
-        <v>8.7868446305784893</v>
+        <v>8.907274981377512</v>
       </c>
       <c r="B41">
         <v>0.02</v>
       </c>
       <c r="C41">
-        <v>16.74554102944543</v>
+        <v>15.5995053442112</v>
       </c>
       <c r="D41">
-        <v>-8.8163499332528109E-2</v>
+        <v>-0.04228156982721827</v>
       </c>
       <c r="E41">
-        <v>0.39438829344466619</v>
+        <v>0.3351769418610065</v>
       </c>
       <c r="F41">
-        <v>0.92630462975508465</v>
+        <v>1.394447401727132</v>
       </c>
       <c r="G41">
-        <v>0.106021846774785</v>
+        <v>0.06766390322076211</v>
       </c>
       <c r="H41">
-        <v>46.627273722074733</v>
+        <v>40.13401083653267</v>
       </c>
       <c r="I41">
-        <v>45.975888629728537</v>
+        <v>68.63149801655605</v>
       </c>
       <c r="J41">
-        <v>53.624352777601509</v>
+        <v>49.45615462978561</v>
       </c>
       <c r="K41">
-        <v>49.605246234376096</v>
+        <v>45.83588013496142</v>
       </c>
       <c r="L41">
-        <v>-4.4016163103340299E-3</v>
+        <v>0.06252770299933766</v>
       </c>
       <c r="M41">
-        <v>200.23884669255631</v>
+        <v>301.8775540351158</v>
       </c>
       <c r="N41">
-        <v>-6.0639602868904743E-34</v>
+        <v>4.505416524572216E-32</v>
       </c>
       <c r="O41">
-        <v>-218.28593506434399</v>
+        <v>-265.3768932564808</v>
       </c>
       <c r="P41">
-        <v>-226.833980731846</v>
-      </c>
-      <c r="Q41">
-        <f t="shared" si="0"/>
-        <v>-0.25219403761808551</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-167.2359041481243</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42">
-        <v>9.0933957905105842</v>
+        <v>9.228004025708419</v>
       </c>
       <c r="B42">
         <v>0.02</v>
       </c>
       <c r="C42">
-        <v>16.844083345607629</v>
+        <v>16.1977063859806</v>
       </c>
       <c r="D42">
-        <v>-8.5229958643810055E-2</v>
+        <v>-0.02675826001190044</v>
       </c>
       <c r="E42">
-        <v>0.35847272650241102</v>
+        <v>0.3045547092533457</v>
       </c>
       <c r="F42">
-        <v>1.0528359981495701</v>
+        <v>1.565614388643478</v>
       </c>
       <c r="G42">
-        <v>0.1164407276440506</v>
+        <v>0.0650928622222729</v>
       </c>
       <c r="H42">
-        <v>50.729737204386574</v>
+        <v>51.61811903557454</v>
       </c>
       <c r="I42">
-        <v>47.713361497638637</v>
+        <v>24.26459682737325</v>
       </c>
       <c r="J42">
-        <v>52.900082536991327</v>
+        <v>49.99656126096917</v>
       </c>
       <c r="K42">
-        <v>50.574564065816723</v>
+        <v>49.15510985340931</v>
       </c>
       <c r="L42">
-        <v>0.1472751631164072</v>
+        <v>0.08430337149060371</v>
       </c>
       <c r="M42">
-        <v>1.945263026585243E-32</v>
+        <v>249.7852287773044</v>
       </c>
       <c r="N42">
-        <v>-2.35817042946308E-4</v>
+        <v>-2.894996675238098E-32</v>
       </c>
       <c r="O42">
-        <v>146.47660821205889</v>
+        <v>-98.30387509711917</v>
       </c>
       <c r="P42">
-        <v>-238.50760556169669</v>
-      </c>
-      <c r="Q42">
-        <f t="shared" si="0"/>
-        <v>8.4382452736709013</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-147.0600872170506</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43">
-        <v>9.4048156492709865</v>
+        <v>9.538489251636287</v>
       </c>
       <c r="B43">
         <v>0.02</v>
       </c>
       <c r="C43">
-        <v>16.11382351305145</v>
+        <v>16.52223440953735</v>
       </c>
       <c r="D43">
-        <v>-7.0567708690042363E-2</v>
+        <v>-0.01523383964151252</v>
       </c>
       <c r="E43">
-        <v>0.37874302809805982</v>
+        <v>0.3121966601377763</v>
       </c>
       <c r="F43">
-        <v>1.269471937617431</v>
+        <v>1.772461212694019</v>
       </c>
       <c r="G43">
-        <v>0.1261687700104473</v>
+        <v>0.0556901704083265</v>
       </c>
       <c r="H43">
-        <v>43.356736886221213</v>
+        <v>43.26173844808696</v>
       </c>
       <c r="I43">
-        <v>42.826105218522031</v>
+        <v>65.354668643606</v>
       </c>
       <c r="J43">
-        <v>45.250913845967737</v>
+        <v>51.87109215599079</v>
       </c>
       <c r="K43">
-        <v>46.141403574779829</v>
+        <v>49.14924284499146</v>
       </c>
       <c r="L43">
-        <v>-5.9549809387937677E-2</v>
+        <v>0.05542440680162241</v>
       </c>
       <c r="M43">
-        <v>193.76471877104021</v>
+        <v>326.7166539406792</v>
       </c>
       <c r="N43">
-        <v>9.8137829207272019E-35</v>
+        <v>3.591144210597747E-33</v>
       </c>
       <c r="O43">
-        <v>-278.16931254439089</v>
+        <v>-258.5558594515061</v>
       </c>
       <c r="P43">
-        <v>-167.51205483295851</v>
-      </c>
-      <c r="Q43">
-        <f t="shared" si="0"/>
-        <v>-3.4119527487373569</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-150.9221398372854</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44">
-        <v>9.7207782385579744</v>
+        <v>9.8387459203155</v>
       </c>
       <c r="B44">
         <v>0.02</v>
       </c>
       <c r="C44">
-        <v>16.236544359442721</v>
+        <v>17.15657046035547</v>
       </c>
       <c r="D44">
-        <v>-8.2828765822795747E-2</v>
+        <v>-0.02005019191444986</v>
       </c>
       <c r="E44">
-        <v>0.29744902344986962</v>
+        <v>0.2930372098217642</v>
       </c>
       <c r="F44">
-        <v>1.521273961578582</v>
+        <v>1.929555028488587</v>
       </c>
       <c r="G44">
-        <v>0.12771349045534211</v>
+        <v>0.04156569385505567</v>
       </c>
       <c r="H44">
-        <v>50.412973922256967</v>
+        <v>53.9617257118467</v>
       </c>
       <c r="I44">
-        <v>47.573587873444453</v>
+        <v>31.81798095168072</v>
       </c>
       <c r="J44">
-        <v>48.305402187756059</v>
+        <v>53.20787472785562</v>
       </c>
       <c r="K44">
-        <v>49.287354933660268</v>
+        <v>51.65561082502733</v>
       </c>
       <c r="L44">
-        <v>0.3833159864271064</v>
+        <v>0.06630037283751367</v>
       </c>
       <c r="M44">
-        <v>-1.1067429210712379E-36</v>
+        <v>255.8020536889538</v>
       </c>
       <c r="N44">
-        <v>-756.73219648225916</v>
+        <v>-6.276617280838146E-28</v>
       </c>
       <c r="O44">
-        <v>251.58049647234901</v>
+        <v>-108.4411794829568</v>
       </c>
       <c r="P44">
-        <v>-135.78330248696051</v>
-      </c>
-      <c r="Q44">
-        <f t="shared" si="0"/>
-        <v>21.962388242167144</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-148.3944149830761</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45">
-        <v>10.051177932286921</v>
+        <v>10.13009669316736</v>
       </c>
       <c r="B45">
         <v>0.02</v>
       </c>
       <c r="C45">
-        <v>14.509223882809991</v>
+        <v>17.46360536751937</v>
       </c>
       <c r="D45">
-        <v>-8.2541134478104294E-2</v>
+        <v>-0.01736935504695734</v>
       </c>
       <c r="E45">
-        <v>0.31283689248561081</v>
+        <v>0.2982339963560213</v>
       </c>
       <c r="F45">
-        <v>1.732869381519403</v>
+        <v>1.999999817919038</v>
       </c>
       <c r="G45">
-        <v>0.12342244479271471</v>
+        <v>0.02267261692343785</v>
       </c>
       <c r="H45">
-        <v>25.420300403219709</v>
+        <v>46.38989336621648</v>
       </c>
       <c r="I45">
-        <v>21.63305482651116</v>
+        <v>63.82403494843105</v>
       </c>
       <c r="J45">
-        <v>34.322491992849201</v>
+        <v>54.69867247492289</v>
       </c>
       <c r="K45">
-        <v>40.001845334720272</v>
+        <v>52.01723966276813</v>
       </c>
       <c r="L45">
-        <v>-6.3584290981589894E-2</v>
+        <v>0.02978665584812748</v>
       </c>
       <c r="M45">
-        <v>83.974992727013557</v>
+        <v>322.4198801295209</v>
       </c>
       <c r="N45">
-        <v>-2.0364581266783251E-33</v>
+        <v>5.189476884563207E-33</v>
       </c>
       <c r="O45">
-        <v>-305.0811587859975</v>
+        <v>-255.5329798754349</v>
       </c>
       <c r="P45">
-        <v>-136.3174527273749</v>
-      </c>
-      <c r="Q45">
-        <f t="shared" si="0"/>
-        <v>-3.6431115165768433</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-150.6460195809832</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46">
-        <v>10.403810803295411</v>
+        <v>10.41424855344874</v>
       </c>
       <c r="B46">
         <v>0.02</v>
       </c>
       <c r="C46">
-        <v>14.226433981573869</v>
+        <v>18.01690949232661</v>
       </c>
       <c r="D46">
-        <v>-6.0269632634907241E-2</v>
+        <v>-0.02644551767768831</v>
       </c>
       <c r="E46">
-        <v>0.2133631953585495</v>
+        <v>0.2724232109522054</v>
       </c>
       <c r="F46">
-        <v>1.973051792509136</v>
+        <v>1.940516032645427</v>
       </c>
       <c r="G46">
-        <v>0.1114477820789688</v>
+        <v>-0.001251067589877969</v>
       </c>
       <c r="H46">
-        <v>57.135938677418068</v>
+        <v>56.00400619959318</v>
       </c>
       <c r="I46">
-        <v>57.308293066408183</v>
+        <v>38.02163534479813</v>
       </c>
       <c r="J46">
-        <v>44.682246649786407</v>
+        <v>55.97769603529453</v>
       </c>
       <c r="K46">
-        <v>43.277208014458147</v>
+        <v>54.08465731585142</v>
       </c>
       <c r="L46">
-        <v>-7.6198326523630691E-2</v>
+        <v>0.0271725282367856</v>
       </c>
       <c r="M46">
-        <v>3.06267493273191E-34</v>
+        <v>252.7230159395719</v>
       </c>
       <c r="N46">
-        <v>-697.38699095875404</v>
+        <v>-4.123926876910075E-29</v>
       </c>
       <c r="O46">
-        <v>303.65171401971759</v>
+        <v>-110.491820927568</v>
       </c>
       <c r="P46">
-        <v>-67.634336649415218</v>
-      </c>
-      <c r="Q46">
-        <f t="shared" si="0"/>
-        <v>-4.3658425157637968</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-145.9470999529813</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
       <c r="A47">
-        <v>10.7719392782134</v>
+        <v>10.69303225762549</v>
       </c>
       <c r="B47">
         <v>0.02</v>
       </c>
       <c r="C47">
-        <v>13.107164541683799</v>
+        <v>18.29077712182906</v>
       </c>
       <c r="D47">
-        <v>-0.10113807160547229</v>
+        <v>-0.02805381546521284</v>
       </c>
       <c r="E47">
-        <v>0.1865607590008449</v>
+        <v>0.2634765233363108</v>
       </c>
       <c r="F47">
-        <v>1.9999999893823319</v>
+        <v>1.719711867503819</v>
       </c>
       <c r="G47">
-        <v>7.7824520592131546E-2</v>
+        <v>-0.03157112556656656</v>
       </c>
       <c r="H47">
-        <v>21.39689029506939</v>
+        <v>49.1297482182788</v>
       </c>
       <c r="I47">
-        <v>19.263410063651818</v>
+        <v>63.14980148387536</v>
       </c>
       <c r="J47">
-        <v>31.235429977694341</v>
+        <v>57.33314559424979</v>
       </c>
       <c r="K47">
-        <v>35.523813371037058</v>
+        <v>54.46423161664276</v>
       </c>
       <c r="L47">
-        <v>-0.1525033287118702</v>
+        <v>0.003654765622943284</v>
       </c>
       <c r="M47">
-        <v>2.3562962668240201E-36</v>
+        <v>319.497669543591</v>
       </c>
       <c r="N47">
-        <v>-262.70843276343942</v>
+        <v>-1.405522308296196E-33</v>
       </c>
       <c r="O47">
-        <v>-300.75729860557863</v>
+        <v>-251.9542716772895</v>
       </c>
       <c r="P47">
-        <v>-100.4047528777848</v>
-      </c>
-      <c r="Q47">
-        <f t="shared" si="0"/>
-        <v>-8.7377970968864318</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-142.4659314130031</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
       <c r="A48">
-        <v>11.172997772898359</v>
+        <v>10.96851994915037</v>
       </c>
       <c r="B48">
-        <v>1.979575552496814E-2</v>
+        <v>0.01991830220998726</v>
       </c>
       <c r="C48">
-        <v>12.11248932885778</v>
+        <v>18.77980748135552</v>
       </c>
       <c r="D48">
-        <v>-5.4943841529266867E-2</v>
+        <v>-0.03349410996797753</v>
       </c>
       <c r="E48">
-        <v>4.6218796473387093E-2</v>
+        <v>0.2290369248626707</v>
       </c>
       <c r="F48">
-        <v>1.8555685049087749</v>
+        <v>1.305530526532213</v>
       </c>
       <c r="G48">
-        <v>2.0351014979221309E-2</v>
+        <v>-0.06835768163625645</v>
       </c>
       <c r="H48">
-        <v>49.157630431503677</v>
+        <v>57.67419699935156</v>
       </c>
       <c r="I48">
-        <v>48.253858249858482</v>
+        <v>42.98645344976713</v>
       </c>
       <c r="J48">
-        <v>37.99484708343148</v>
+        <v>58.55692973694981</v>
       </c>
       <c r="K48">
-        <v>36.138377766068508</v>
+        <v>56.28478500595244</v>
       </c>
       <c r="L48">
-        <v>-0.27763827547946712</v>
+        <v>0.006047063417553936</v>
       </c>
       <c r="M48">
-        <v>85.728083721859463</v>
+        <v>264.0453312385337</v>
       </c>
       <c r="N48">
-        <v>4.9047549213493069E-29</v>
+        <v>2.777589358061655E-33</v>
       </c>
       <c r="O48">
-        <v>180.17309970378491</v>
+        <v>-128.8225939953323</v>
       </c>
       <c r="P48">
-        <v>-52.009142541933123</v>
-      </c>
-      <c r="Q48">
-        <f t="shared" si="0"/>
-        <v>-15.907501416263958</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-134.5822033277703</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
       <c r="A49">
-        <v>11.606939668077519</v>
+        <v>11.24313586010729</v>
       </c>
       <c r="B49">
-        <v>1.1235876537611791E-2</v>
+        <v>0.01649435061504471</v>
       </c>
       <c r="C49">
-        <v>11.82783831986135</v>
+        <v>19.06138681791821</v>
       </c>
       <c r="D49">
-        <v>-0.14609596462151311</v>
+        <v>-0.03212912812651025</v>
       </c>
       <c r="E49">
-        <v>-9.4597153313686025E-2</v>
+        <v>0.2104350411904506</v>
       </c>
       <c r="F49">
-        <v>1.228919019267636</v>
+        <v>0.6986077196436624</v>
       </c>
       <c r="G49">
-        <v>-4.8839906575054257E-2</v>
+        <v>-0.09463183236809083</v>
       </c>
       <c r="H49">
-        <v>18.632585584250702</v>
+        <v>51.62957709538042</v>
       </c>
       <c r="I49">
-        <v>19.80846662704587</v>
+        <v>63.0636983706982</v>
       </c>
       <c r="J49">
-        <v>35.443284578657021</v>
+        <v>59.53445618020296</v>
       </c>
       <c r="K49">
-        <v>34.251362995284232</v>
+        <v>56.73209366766</v>
       </c>
       <c r="L49">
-        <v>-0.2617538449107038</v>
+        <v>0.02345709749263854</v>
       </c>
       <c r="M49">
-        <v>-3.0896341489854891E-5</v>
+        <v>319.926958777761</v>
       </c>
       <c r="N49">
-        <v>-1.156170478630411E-32</v>
+        <v>-4.704211757050097E-33</v>
       </c>
       <c r="O49">
-        <v>-28.979160709407861</v>
+        <v>-240.8530189285106</v>
       </c>
       <c r="P49">
-        <v>-25.187201874817791</v>
-      </c>
-      <c r="Q49">
-        <f t="shared" si="0"/>
-        <v>-14.997390584705231</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-136.6614293747602</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
       <c r="A50">
-        <v>12.07510873997674</v>
+        <v>11.51634517921228</v>
       </c>
       <c r="B50">
-        <v>-5.4753924870371909E-3</v>
+        <v>0.009809843005185111</v>
       </c>
       <c r="C50">
-        <v>11.09538876894049</v>
+        <v>19.5068302820559</v>
       </c>
       <c r="D50">
-        <v>-8.1613983297690165E-2</v>
+        <v>-0.02326881083158692</v>
       </c>
       <c r="E50">
-        <v>-0.25596010129515218</v>
+        <v>0.1904412662868207</v>
       </c>
       <c r="F50">
-        <v>0.18464978501437829</v>
+        <v>0.0541231494832663</v>
       </c>
       <c r="G50">
-        <v>-0.1026233367540119</v>
+        <v>-0.09145507207988354</v>
       </c>
       <c r="H50">
-        <v>45.026894071137413</v>
+        <v>59.17521299648299</v>
       </c>
       <c r="I50">
-        <v>45.453982355264287</v>
+        <v>47.28512017759144</v>
       </c>
       <c r="J50">
-        <v>31.095940611273019</v>
+        <v>59.89513829561022</v>
       </c>
       <c r="K50">
-        <v>30.31950207731974</v>
+        <v>58.20372517471019</v>
       </c>
       <c r="L50">
-        <v>-0.22901055510647819</v>
+        <v>-0.1680726367860456</v>
       </c>
       <c r="M50">
-        <v>263.03127509449871</v>
+        <v>402.267183221346</v>
       </c>
       <c r="N50">
-        <v>1.3061401931168209E-28</v>
+        <v>4.864024185414224E-33</v>
       </c>
       <c r="O50">
-        <v>107.0793899744026</v>
+        <v>-198.7383619620666</v>
       </c>
       <c r="P50">
-        <v>19.521976360658581</v>
-      </c>
-      <c r="Q50">
-        <f t="shared" si="0"/>
-        <v>-13.121338271549364</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+        <v>20.55013477204703</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
       <c r="A51">
-        <v>12.546057414542769</v>
+        <v>11.78488064050272</v>
       </c>
       <c r="B51">
-        <v>-2.2186661511686169E-2</v>
+        <v>0.003233794600127655</v>
       </c>
       <c r="C51">
-        <v>11.443122213760089</v>
+        <v>19.91620325113954</v>
       </c>
       <c r="D51">
-        <v>-8.5765441562206363E-2</v>
+        <v>-0.07154555770277168</v>
       </c>
       <c r="E51">
-        <v>-0.37235731779557152</v>
+        <v>0.1254878383844608</v>
       </c>
       <c r="F51">
-        <v>-0.89417131640430292</v>
+        <v>-0.6236935985311085</v>
       </c>
       <c r="G51">
-        <v>-0.13584958845910231</v>
+        <v>-0.06623262447184478</v>
       </c>
       <c r="H51">
-        <v>18.024672087466769</v>
+        <v>53.77885079090618</v>
       </c>
       <c r="I51">
-        <v>20.556344228528062</v>
+        <v>62.5309088313012</v>
       </c>
       <c r="J51">
-        <v>63.912022753134288</v>
+        <v>71.51469711105332</v>
       </c>
       <c r="K51">
-        <v>70.737169304704082</v>
+        <v>76.55214133773688</v>
       </c>
       <c r="L51">
-        <v>-0.56256804704961272</v>
+        <v>0.005008171841030954</v>
       </c>
       <c r="M51">
-        <v>452.40774986519608</v>
+        <v>267.47964155301</v>
       </c>
       <c r="N51">
-        <v>1.0762269248008189E-32</v>
+        <v>5.384364778068332E-33</v>
       </c>
       <c r="O51">
-        <v>-134.09499335150571</v>
+        <v>-281.8624177310797</v>
       </c>
       <c r="P51">
-        <v>91.464081930937226</v>
-      </c>
-      <c r="Q51">
-        <f t="shared" si="0"/>
-        <v>-32.232774784859934</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-153.995641499248</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
       <c r="A52">
-        <v>12.980483825860039</v>
+        <v>12.047299128532</v>
       </c>
       <c r="B52">
-        <v>-3.8897930536335147E-2</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>11.723600592323679</v>
+        <v>20.26904878193783</v>
       </c>
       <c r="D52">
-        <v>4.743094190851384E-3</v>
+        <v>-0.03798237828144817</v>
       </c>
       <c r="E52">
-        <v>-0.41883730957383059</v>
+        <v>0.1056155852392511</v>
       </c>
       <c r="F52">
-        <v>-1.7351171253792239</v>
+        <v>-1.182009939567111</v>
       </c>
       <c r="G52">
-        <v>-0.1039407111606894</v>
+        <v>-0.03485553769120276</v>
       </c>
       <c r="H52">
-        <v>37.007678154859803</v>
+        <v>61.08208462417466</v>
       </c>
       <c r="I52">
-        <v>38.295957944278818</v>
+        <v>52.70231217800578</v>
       </c>
       <c r="J52">
-        <v>137.58141960079459</v>
+        <v>62.21279117490103</v>
       </c>
       <c r="K52">
-        <v>171.42837620736049</v>
+        <v>61.79724387226042</v>
       </c>
       <c r="L52">
-        <v>-0.11521337304115439</v>
+        <v>-0.1280954722169138</v>
       </c>
       <c r="M52">
-        <v>99.488147581586091</v>
+        <v>401.3369680616657</v>
       </c>
       <c r="N52">
-        <v>4.64841060863205E-30</v>
+        <v>-9.128830513502356E-33</v>
       </c>
       <c r="O52">
-        <v>131.98994181757999</v>
+        <v>-217.7441355356716</v>
       </c>
       <c r="P52">
-        <v>114.81363723707111</v>
-      </c>
-      <c r="Q52">
-        <f t="shared" si="0"/>
-        <v>-6.6012400187244848</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+        <v>9.573784276628123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
       <c r="A53">
-        <v>13.385153617914289</v>
+        <v>12.30419408572177</v>
       </c>
       <c r="B53">
-        <v>-4.8626782524329823E-2</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>11.855718168232119</v>
+        <v>20.70169635560134</v>
       </c>
       <c r="D53">
-        <v>2.6835370641045981E-2</v>
+        <v>-0.05814902020188308</v>
       </c>
       <c r="E53">
-        <v>-0.50632569190612675</v>
+        <v>0.04385736005289634</v>
       </c>
       <c r="F53">
-        <v>-1.999999996780788</v>
+        <v>-1.564935892364854</v>
       </c>
       <c r="G53">
-        <v>-3.5806242067246398E-2</v>
+        <v>-0.01592545382075446</v>
       </c>
       <c r="H53">
-        <v>28.00303625565169</v>
+        <v>56.31462115989771</v>
       </c>
       <c r="I53">
-        <v>31.12965066325382</v>
+        <v>62.95438682880977</v>
       </c>
       <c r="J53">
-        <v>107.80965216313901</v>
+        <v>71.00430359203845</v>
       </c>
       <c r="K53">
-        <v>171.42848789386269</v>
+        <v>73.4164519928792</v>
       </c>
       <c r="L53">
-        <v>-0.20262468346896109</v>
+        <v>-0.0002417359187671141</v>
       </c>
       <c r="M53">
-        <v>43.121508748414641</v>
+        <v>332.350514273046</v>
       </c>
       <c r="N53">
-        <v>-9.7484438386031664E-30</v>
+        <v>3.958588212035025E-32</v>
       </c>
       <c r="O53">
-        <v>-8.8407107468642696</v>
+        <v>-283.2938680017376</v>
       </c>
       <c r="P53">
-        <v>196.59509561393159</v>
-      </c>
-      <c r="Q53">
-        <f t="shared" si="0"/>
-        <v>-11.609539187945691</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-92.55116210705275</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
       <c r="A54">
-        <v>13.782891590737339</v>
+        <v>12.5551602861934</v>
       </c>
       <c r="B54">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>12.000922670794379</v>
+        <v>21.16135336027013</v>
       </c>
       <c r="D54">
-        <v>9.062707011119786E-2</v>
+        <v>-0.02252590784810118</v>
       </c>
       <c r="E54">
-        <v>-0.55963392854078831</v>
+        <v>0.02956112714202858</v>
       </c>
       <c r="F54">
-        <v>-1.745438147761726</v>
+        <v>-1.827479965585195</v>
       </c>
       <c r="G54">
-        <v>1.269952913260395E-2</v>
+        <v>-0.006221714938454234</v>
       </c>
       <c r="H54">
-        <v>35.493900002261107</v>
+        <v>63.0666821485301</v>
       </c>
       <c r="I54">
-        <v>37.634179818713072</v>
+        <v>56.98096942797581</v>
       </c>
       <c r="J54">
-        <v>31.922270784515341</v>
+        <v>65.77969461399401</v>
       </c>
       <c r="K54">
-        <v>143.52521650137859</v>
+        <v>64.24639825338112</v>
       </c>
       <c r="L54">
-        <v>-4.5702491303899292E-2</v>
+        <v>-0.0170995145595799</v>
       </c>
       <c r="M54">
-        <v>7.0743032038486129E-35</v>
+        <v>416.7678396736358</v>
       </c>
       <c r="N54">
-        <v>-1048.0961586685889</v>
+        <v>-3.808983351861683E-32</v>
       </c>
       <c r="O54">
-        <v>297.83718567261923</v>
+        <v>-265.5303937712574</v>
       </c>
       <c r="P54">
-        <v>170.28203089490879</v>
-      </c>
-      <c r="Q54">
-        <f t="shared" si="0"/>
-        <v>-2.6185598649467763</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-28.16385976072733</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
       <c r="A55">
-        <v>14.225647688670479</v>
+        <v>12.7999837990525</v>
       </c>
       <c r="B55">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
       <c r="C55">
-        <v>10.143513654555811</v>
+        <v>21.73499528268117</v>
       </c>
       <c r="D55">
-        <v>0.10330628742953279</v>
+        <v>-0.01291204576568072</v>
       </c>
       <c r="E55">
-        <v>-0.62587258576960136</v>
+        <v>0.01268370664222229</v>
       </c>
       <c r="F55">
-        <v>-1.172271209222691</v>
+        <v>-1.933830422679983</v>
       </c>
       <c r="G55">
-        <v>1.277933132187062E-2</v>
+        <v>-0.001155593734079937</v>
       </c>
       <c r="H55">
-        <v>22.58221313357695</v>
+        <v>59.84076311401997</v>
       </c>
       <c r="I55">
-        <v>26.739966009055181</v>
+        <v>65.05709653019748</v>
       </c>
       <c r="J55">
-        <v>27.675265365057701</v>
+        <v>68.38986264864961</v>
       </c>
       <c r="K55">
-        <v>81.646724107579075</v>
+        <v>66.02593948049312</v>
       </c>
       <c r="L55">
-        <v>-3.5379401962537409E-2</v>
+        <v>0.00147455555637927</v>
       </c>
       <c r="M55">
-        <v>1.6543048891518869E-34</v>
+        <v>421.8361862120817</v>
       </c>
       <c r="N55">
-        <v>-732.91492084084587</v>
+        <v>9.129796794623039E-33</v>
       </c>
       <c r="O55">
-        <v>-139.619880279765</v>
+        <v>-266.5318143813176</v>
       </c>
       <c r="P55">
-        <v>202.55339803783431</v>
-      </c>
-      <c r="Q55">
-        <f t="shared" si="0"/>
-        <v>-2.0270904141502553</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-21.00052806487598</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
       <c r="A56">
-        <v>14.75927323799659</v>
+        <v>13.03848832907279</v>
       </c>
       <c r="B56">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>8.5375957122898054</v>
+        <v>22.28798670806274</v>
       </c>
       <c r="D56">
-        <v>9.9447881477089023E-2</v>
+        <v>-0.004400684206159837</v>
       </c>
       <c r="E56">
-        <v>-0.57168535147646471</v>
+        <v>0.008948141750721001</v>
       </c>
       <c r="F56">
-        <v>-0.70325591891823547</v>
+        <v>-1.973875467266265</v>
       </c>
       <c r="G56">
-        <v>-4.3504398303228088E-2</v>
+        <v>0.001344446961499834</v>
       </c>
       <c r="H56">
-        <v>2.1645156818602388E-6</v>
+        <v>65.71716920167046</v>
       </c>
       <c r="I56">
-        <v>27.957049693873611</v>
+        <v>61.01310875709184</v>
       </c>
       <c r="J56">
-        <v>26.73842339061256</v>
+        <v>70.04447650985777</v>
       </c>
       <c r="K56">
-        <v>23.82900751692209</v>
+        <v>67.81757392282348</v>
       </c>
       <c r="L56">
-        <v>-0.11798629970942601</v>
+        <v>-0.01694159704373352</v>
       </c>
       <c r="M56">
-        <v>149.7280223894457</v>
+        <v>447.850375583747</v>
       </c>
       <c r="N56">
-        <v>-4.3042076062866048E-35</v>
+        <v>-4.885975577251588E-32</v>
       </c>
       <c r="O56">
-        <v>-54.07972520344611</v>
+        <v>-291.5104656685053</v>
       </c>
       <c r="P56">
-        <v>146.48283770102</v>
-      </c>
-      <c r="Q56">
-        <f t="shared" si="0"/>
-        <v>-6.7601170137157212</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.7926788520561558</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
       <c r="A57">
-        <v>15.34311520467041</v>
+        <v>13.27106928240516</v>
       </c>
       <c r="B57">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>8.9192035147412518</v>
+        <v>22.856115715104</v>
       </c>
       <c r="D57">
-        <v>-1.470388729017651E-2</v>
+        <v>-0.005932105922003063</v>
       </c>
       <c r="E57">
-        <v>-0.55530441157887944</v>
+        <v>-0.001204629193783002</v>
       </c>
       <c r="F57">
-        <v>-0.93892895593978842</v>
+        <v>-1.992215322351199</v>
       </c>
       <c r="G57">
-        <v>-0.1114481203544244</v>
+        <v>0.00222678606427523</v>
       </c>
       <c r="H57">
-        <v>46.261672792153149</v>
+        <v>63.52177712877833</v>
       </c>
       <c r="I57">
-        <v>24.341197925190919</v>
+        <v>67.58155800370342</v>
       </c>
       <c r="J57">
-        <v>27.533819531623099</v>
+        <v>71.80462815247408</v>
       </c>
       <c r="K57">
-        <v>26.178220966228519</v>
+        <v>71.08032701929851</v>
       </c>
       <c r="L57">
-        <v>-8.7856805191625156E-2</v>
+        <v>0.001378548270390558</v>
       </c>
       <c r="M57">
-        <v>304.78662376864708</v>
+        <v>433.9006973154806</v>
       </c>
       <c r="N57">
-        <v>1.3708625944880669E-34</v>
+        <v>7.205955282016238E-33</v>
       </c>
       <c r="O57">
-        <v>-256.17866141017618</v>
+        <v>-270.4733835947975</v>
       </c>
       <c r="P57">
-        <v>161.0608468853537</v>
-      </c>
-      <c r="Q57">
-        <f t="shared" si="0"/>
-        <v>-5.0338241389831815</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-7.4216733306064</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
       <c r="A58">
-        <v>15.855902407038529</v>
+        <v>13.49823746427675</v>
       </c>
       <c r="B58">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>10.40823752690881</v>
+        <v>23.36021260355466</v>
       </c>
       <c r="D58">
-        <v>-2.8290711584447641E-3</v>
+        <v>-0.001338326793050326</v>
       </c>
       <c r="E58">
-        <v>-0.48493791564193239</v>
+        <v>-0.001688862940062221</v>
       </c>
       <c r="F58">
-        <v>-1.5614246592817651</v>
+        <v>-1.998239144861391</v>
       </c>
       <c r="G58">
-        <v>-0.11447801952214839</v>
+        <v>0.001867119724749996</v>
       </c>
       <c r="H58">
-        <v>7.4278915639871892</v>
+        <v>68.27753976929375</v>
       </c>
       <c r="I58">
-        <v>33.425370380684519</v>
+        <v>64.75092199997857</v>
       </c>
       <c r="J58">
-        <v>32.118232163045803</v>
+        <v>73.74862358256738</v>
       </c>
       <c r="K58">
-        <v>31.304728259191108</v>
+        <v>72.12609199896532</v>
       </c>
       <c r="L58">
-        <v>-7.5537949461155732E-2</v>
+        <v>-0.008986530669456606</v>
       </c>
       <c r="M58">
-        <v>213.96717772244449</v>
+        <v>449.4495611109789</v>
       </c>
       <c r="N58">
-        <v>8.4839289148142385E-37</v>
+        <v>5.378083095756927E-31</v>
       </c>
       <c r="O58">
-        <v>-59.915592494549777</v>
+        <v>-293.1330050266109</v>
       </c>
       <c r="P58">
-        <v>146.72280209236601</v>
-      </c>
-      <c r="Q58">
-        <f t="shared" si="0"/>
-        <v>-4.3280056971967342</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+        <v>5.344706708564695</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
       <c r="A59">
-        <v>16.301230464571901</v>
+        <v>13.72058538631234</v>
       </c>
       <c r="B59">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>11.12611838222257</v>
+        <v>23.85962395599775</v>
       </c>
       <c r="D59">
-        <v>5.3287666717437513E-3</v>
+        <v>-0.002077707702032999</v>
       </c>
       <c r="E59">
-        <v>-0.46381781638944719</v>
+        <v>-0.006097694863666914</v>
       </c>
       <c r="F59">
-        <v>-1.9838360008627911</v>
+        <v>-1.999999245242261</v>
       </c>
       <c r="G59">
-        <v>-6.2831250325751362E-2</v>
+        <v>0.0009986952227064038</v>
       </c>
       <c r="H59">
-        <v>51.206708442885017</v>
+        <v>66.81741005600766</v>
       </c>
       <c r="I59">
-        <v>30.466329141555939</v>
+        <v>69.88421756634533</v>
       </c>
       <c r="J59">
-        <v>33.669111746431327</v>
+        <v>74.99817329734279</v>
       </c>
       <c r="K59">
-        <v>33.367108462253633</v>
+        <v>74.80445129483807</v>
       </c>
       <c r="L59">
-        <v>-4.0257604999734291E-2</v>
+        <v>0.005361128799063095</v>
       </c>
       <c r="M59">
-        <v>319.7899642848692</v>
+        <v>436.65475767071</v>
       </c>
       <c r="N59">
-        <v>-5.9398392572819882E-36</v>
+        <v>-7.403499965704219E-32</v>
       </c>
       <c r="O59">
-        <v>-253.50310400335371</v>
+        <v>-272.8299034043516</v>
       </c>
       <c r="P59">
-        <v>147.45961643652481</v>
-      </c>
-      <c r="Q59">
-        <f t="shared" si="0"/>
-        <v>-2.3065908597895364</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-3.372199265756251</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
       <c r="A60">
-        <v>16.70487467411888</v>
+        <v>13.93859263029057</v>
       </c>
       <c r="B60">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>12.23051744212867</v>
+        <v>24.29984093589255</v>
       </c>
       <c r="D60">
-        <v>2.602669520376602E-2</v>
+        <v>0.001190665010704306</v>
       </c>
       <c r="E60">
-        <v>-0.40751652211185913</v>
+        <v>-0.003555815107101603</v>
       </c>
       <c r="F60">
-        <v>-1.9999869354148381</v>
+        <v>-1.998436234650576</v>
       </c>
       <c r="G60">
-        <v>2.4790757448951321E-2</v>
+        <v>-7.220067205715571E-05</v>
       </c>
       <c r="H60">
-        <v>14.58898810469559</v>
+        <v>70.55629946983966</v>
       </c>
       <c r="I60">
-        <v>38.293547100926659</v>
+        <v>67.95866908449553</v>
       </c>
       <c r="J60">
-        <v>37.707352750625873</v>
+        <v>76.70139052504919</v>
       </c>
       <c r="K60">
-        <v>42.52148428407483</v>
+        <v>75.84449521284706</v>
       </c>
       <c r="L60">
-        <v>-3.3502185848307109E-2</v>
+        <v>-0.001749948249321216</v>
       </c>
       <c r="M60">
-        <v>-1.3299744094181319E-32</v>
+        <v>446.8423427388093</v>
       </c>
       <c r="N60">
-        <v>-4.8297978438539889E-4</v>
+        <v>-5.74875930120895E-28</v>
       </c>
       <c r="O60">
-        <v>144.2903100958182</v>
+        <v>-291.1244915483964</v>
       </c>
       <c r="P60">
-        <v>126.60643804698221</v>
-      </c>
-      <c r="Q60">
-        <f t="shared" si="0"/>
-        <v>-1.919533853570911</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+        <v>4.878728954753867</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
       <c r="A61">
-        <v>17.102667108127871</v>
+        <v>14.15272090878</v>
       </c>
       <c r="B61">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
       <c r="C61">
-        <v>11.92374281515113</v>
+        <v>24.7325051148368</v>
       </c>
       <c r="D61">
-        <v>3.0611966559499649E-2</v>
+        <v>0.0005100222885378816</v>
       </c>
       <c r="E61">
-        <v>-0.40456884545308341</v>
+        <v>-0.003885280274583818</v>
       </c>
       <c r="F61">
-        <v>-1.4897963669334211</v>
+        <v>-1.996740450471847</v>
       </c>
       <c r="G61">
-        <v>0.12592718892675681</v>
+        <v>-0.0008640882991993698</v>
       </c>
       <c r="H61">
-        <v>51.934442837790257</v>
+        <v>69.67461384657142</v>
       </c>
       <c r="I61">
-        <v>32.679882089323648</v>
+        <v>71.91725913896011</v>
       </c>
       <c r="J61">
-        <v>33.895652528648647</v>
+        <v>77.63550203482711</v>
       </c>
       <c r="K61">
-        <v>30.279822446325689</v>
+        <v>77.80534513315412</v>
       </c>
       <c r="L61">
-        <v>-2.002483313496576E-2</v>
+        <v>0.007986916316496298</v>
       </c>
       <c r="M61">
-        <v>-5.0303209439275176E-35</v>
+        <v>437.0530950480516</v>
       </c>
       <c r="N61">
-        <v>-726.21506001140312</v>
+        <v>-1.234352460335663E-32</v>
       </c>
       <c r="O61">
-        <v>-177.20303576037489</v>
+        <v>-274.8177519747915</v>
       </c>
       <c r="P61">
-        <v>137.23247414679989</v>
-      </c>
-      <c r="Q61">
-        <f t="shared" si="0"/>
-        <v>-1.1473384240872633</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-3.256392891011975</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
       <c r="A62">
-        <v>17.558378067972619</v>
+        <v>14.36334547731573</v>
       </c>
       <c r="B62">
-        <v>-4.4542180881062807E-2</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>10.44625250689748</v>
+        <v>25.11571986703503</v>
       </c>
       <c r="D62">
-        <v>1.681263083118929E-2</v>
+        <v>0.002304821589850361</v>
       </c>
       <c r="E62">
-        <v>-0.32222213382695769</v>
+        <v>9.455993405098723E-05</v>
       </c>
       <c r="F62">
-        <v>-0.52438421182589634</v>
+        <v>-1.994227083293581</v>
       </c>
       <c r="G62">
-        <v>0.19434544803224979</v>
+        <v>-0.001270862911907068</v>
       </c>
       <c r="H62">
-        <v>28.88028773620702</v>
+        <v>72.57833164477994</v>
       </c>
       <c r="I62">
-        <v>31.815866729852932</v>
+        <v>70.68548620354724</v>
       </c>
       <c r="J62">
-        <v>31.02685092823911</v>
+        <v>79.14290665375417</v>
       </c>
       <c r="K62">
-        <v>30.326717283026781</v>
+        <v>78.65492254793251</v>
       </c>
       <c r="L62">
-        <v>-1.3455707191648129E-3</v>
+        <v>-0.0005124708207579304</v>
       </c>
       <c r="M62">
-        <v>270.9568177080817</v>
+        <v>444.7127299224124</v>
       </c>
       <c r="N62">
-        <v>-1.4225904870867421E-30</v>
+        <v>-8.987402386813777E-33</v>
       </c>
       <c r="O62">
-        <v>-120.8979800516671</v>
+        <v>-288.7996285224163</v>
       </c>
       <c r="P62">
-        <v>103.9374268005194</v>
-      </c>
-      <c r="Q62">
-        <f t="shared" si="0"/>
-        <v>-7.7095523244526731E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+        <v>3.812767364472104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
       <c r="A63">
-        <v>18.045018526508649</v>
+        <v>14.57081659706849</v>
       </c>
       <c r="B63">
-        <v>-1.9542180881062798E-2</v>
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>11.57953696404269</v>
+        <v>25.49047458638701</v>
       </c>
       <c r="D63">
-        <v>2.458630296452588E-2</v>
+        <v>0.0007662166166846198</v>
       </c>
       <c r="E63">
-        <v>-0.24869501415957709</v>
+        <v>0.0002978427253596006</v>
       </c>
       <c r="F63">
-        <v>0.61675041481337167</v>
+        <v>-1.993338803539589</v>
       </c>
       <c r="G63">
-        <v>0.15908000440505851</v>
+        <v>-0.00121984627444663</v>
       </c>
       <c r="H63">
-        <v>32.638969775715488</v>
+        <v>72.12781931324025</v>
       </c>
       <c r="I63">
-        <v>32.506112516659449</v>
+        <v>73.72053094113036</v>
       </c>
       <c r="J63">
-        <v>35.511269863707589</v>
+        <v>79.97830209926671</v>
       </c>
       <c r="K63">
-        <v>35.696023714050988</v>
+        <v>80.25581901130933</v>
       </c>
       <c r="L63">
-        <v>3.808583689855382E-2</v>
+        <v>0.004972559311187249</v>
       </c>
       <c r="M63">
-        <v>360.10887593839237</v>
+        <v>437.5339914266028</v>
       </c>
       <c r="N63">
-        <v>-1.263388760919919E-35</v>
+        <v>-3.647607676373062E-33</v>
       </c>
       <c r="O63">
-        <v>-266.57442643236749</v>
+        <v>-276.8892868201696</v>
       </c>
       <c r="P63">
-        <v>78.883473009570565</v>
-      </c>
-      <c r="Q63">
-        <f t="shared" si="0"/>
-        <v>2.1821577135107546</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-2.928165018826606</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
       <c r="A64">
-        <v>18.477355646889968</v>
+        <v>14.77541461856955</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64">
-        <v>12.955671709900869</v>
+        <v>25.82663190402733</v>
       </c>
       <c r="D64">
-        <v>3.107848130758864E-2</v>
+        <v>0.001244096540351794</v>
       </c>
       <c r="E64">
-        <v>-0.1566412493422126</v>
+        <v>0.002624455552532591</v>
       </c>
       <c r="F64">
-        <v>1.3712794935400581</v>
+        <v>-1.993504400873767</v>
       </c>
       <c r="G64">
-        <v>7.2035146803501621E-2</v>
+        <v>-0.0009220700234252457</v>
       </c>
       <c r="H64">
-        <v>36.422545529145182</v>
+        <v>74.37602634884585</v>
       </c>
       <c r="I64">
-        <v>38.482400936003593</v>
+        <v>73.02034016716976</v>
       </c>
       <c r="J64">
-        <v>39.063828107399033</v>
+        <v>81.28653352691525</v>
       </c>
       <c r="K64">
-        <v>40.277869211986648</v>
+        <v>80.98752866863212</v>
       </c>
       <c r="L64">
-        <v>3.3758745031969947E-2</v>
+        <v>-0.00229837512924553</v>
       </c>
       <c r="M64">
-        <v>333.4894789350023</v>
+        <v>442.9662634205748</v>
       </c>
       <c r="N64">
-        <v>3.8047658109745873E-33</v>
+        <v>6.715008714310447E-32</v>
       </c>
       <c r="O64">
-        <v>-168.5068769760243</v>
+        <v>-286.7574618512276</v>
       </c>
       <c r="P64">
-        <v>54.881076352715183</v>
-      </c>
-      <c r="Q64">
-        <f t="shared" si="0"/>
-        <v>1.9342336119901133</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2.385180704671125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
       <c r="A65">
-        <v>18.86756058400065</v>
+        <v>14.97740692918939</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65">
-        <v>14.03039610266779</v>
+        <v>26.15266774613817</v>
       </c>
       <c r="D65">
-        <v>2.8006151262664401E-2</v>
+        <v>-0.0002595944234438704</v>
       </c>
       <c r="E65">
-        <v>-9.4863605081157029E-2</v>
+        <v>0.001718935092499867</v>
       </c>
       <c r="F65">
-        <v>1.7696591350288551</v>
+        <v>-1.995161706299339</v>
       </c>
       <c r="G65">
-        <v>2.328713540176339E-2</v>
+        <v>-0.0004749825116079102</v>
       </c>
       <c r="H65">
-        <v>40.026051253520627</v>
+        <v>74.22958073970739</v>
       </c>
       <c r="I65">
-        <v>39.234592719228907</v>
+        <v>75.34277799408586</v>
       </c>
       <c r="J65">
-        <v>42.493359293256383</v>
+        <v>82.10404192668321</v>
       </c>
       <c r="K65">
-        <v>43.851309504440351</v>
+        <v>82.2709014547307</v>
       </c>
       <c r="L65">
-        <v>3.8999313692054838E-2</v>
+        <v>0.00167836012653413</v>
       </c>
       <c r="M65">
-        <v>424.5052616534324</v>
+        <v>437.8471913369419</v>
       </c>
       <c r="N65">
-        <v>2.308173766647802E-34</v>
+        <v>3.432625286443066E-33</v>
       </c>
       <c r="O65">
-        <v>-297.14068214102372</v>
+        <v>-278.5485666227026</v>
       </c>
       <c r="P65">
-        <v>29.946790291433349</v>
-      </c>
-      <c r="Q65">
-        <f t="shared" si="0"/>
-        <v>2.2344960784615067</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-2.737033476741651</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
       <c r="A66">
-        <v>19.2254048234139</v>
+        <v>15.17701183880144</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>15.324958609695971</v>
+        <v>26.44856622694962</v>
       </c>
       <c r="D66">
-        <v>1.9901069874563471E-2</v>
+        <v>1.129672122743907E-06</v>
       </c>
       <c r="E66">
-        <v>-4.3056830175585301E-2</v>
+        <v>0.002313420252734623</v>
       </c>
       <c r="F66">
-        <v>1.94171886123562</v>
+        <v>-1.997181348027391</v>
       </c>
       <c r="G66">
-        <v>-1.0562172396599971E-3</v>
+        <v>-7.377945519887093E-05</v>
       </c>
       <c r="H66">
-        <v>43.477684819436668</v>
+        <v>75.97610500239814</v>
       </c>
       <c r="I66">
-        <v>44.871820092225491</v>
+        <v>75.02869489460697</v>
       </c>
       <c r="J66">
-        <v>46.688406519556423</v>
+        <v>83.25613366320488</v>
       </c>
       <c r="K66">
-        <v>47.880821894343107</v>
+        <v>82.89831495042345</v>
       </c>
       <c r="L66">
-        <v>3.0401041058100091E-2</v>
+        <v>-0.002818542068951016</v>
       </c>
       <c r="M66">
-        <v>405.30313908092342</v>
+        <v>441.4259166818165</v>
       </c>
       <c r="N66">
-        <v>-2.8260166996069282E-34</v>
+        <v>-2.642549280531235E-30</v>
       </c>
       <c r="O66">
-        <v>-227.28122180232231</v>
+        <v>-285.1903448694535</v>
       </c>
       <c r="P66">
-        <v>12.085600816977641</v>
-      </c>
-      <c r="Q66">
-        <f t="shared" si="0"/>
-        <v>1.7418513454330657</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1.055953133853115</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
       <c r="A67">
-        <v>19.55633926543327</v>
+        <v>15.37443809002678</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="C67">
-        <v>16.400577697893699</v>
+        <v>26.73332403706083</v>
       </c>
       <c r="D67">
-        <v>1.535766148910994E-2</v>
+        <v>-0.0008060204850232768</v>
       </c>
       <c r="E67">
-        <v>-1.026432876953994E-2</v>
+        <v>0.001010191359229822</v>
       </c>
       <c r="F67">
-        <v>1.999998519644719</v>
+        <v>-1.999098912876021</v>
       </c>
       <c r="G67">
-        <v>-9.6929728821356347E-3</v>
+        <v>0.00025802437443949</v>
       </c>
       <c r="H67">
-        <v>46.998013976869927</v>
+        <v>76.03747232399715</v>
       </c>
       <c r="I67">
-        <v>45.930975277144867</v>
+        <v>76.80832747243423</v>
       </c>
       <c r="J67">
-        <v>50.303775307769101</v>
+        <v>84.05400817887123</v>
       </c>
       <c r="K67">
-        <v>51.543641408991789</v>
+        <v>83.90281871316542</v>
       </c>
       <c r="L67">
-        <v>1.8682349616272059E-2</v>
+        <v>0.0007775212648492783</v>
       </c>
       <c r="M67">
-        <v>458.74383211507882</v>
+        <v>438.0309323238439</v>
       </c>
       <c r="N67">
-        <v>-4.3469130122921606E-34</v>
+        <v>-5.021493518873406E-33</v>
       </c>
       <c r="O67">
-        <v>-308.63447305457561</v>
+        <v>-279.6448983441547</v>
       </c>
       <c r="P67">
-        <v>2.1222995556858208</v>
-      </c>
-      <c r="Q67">
-        <f t="shared" ref="Q67:Q81" si="1">DEGREES(L67)</f>
-        <v>1.0704197844002421</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-2.574593423015128</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
       <c r="A68">
-        <v>19.865671998664041</v>
+        <v>15.56986022679148</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="C68">
-        <v>17.537704412911339</v>
+        <v>26.9941092233207</v>
       </c>
       <c r="D68">
-        <v>7.3888636111522259E-3</v>
+        <v>-0.0003246946538797489</v>
       </c>
       <c r="E68">
-        <v>6.6870170209203921E-3</v>
+        <v>0.001160078017320136</v>
       </c>
       <c r="F68">
-        <v>1.999998224753728</v>
+        <v>-1.999986796525582</v>
       </c>
       <c r="G68">
-        <v>-1.0055583994838231E-2</v>
+        <v>0.0004674765595636218</v>
       </c>
       <c r="H68">
-        <v>49.947878479766203</v>
+        <v>77.40477022736279</v>
       </c>
       <c r="I68">
-        <v>50.945204467555698</v>
+        <v>76.75692092727543</v>
       </c>
       <c r="J68">
-        <v>54.466718227088222</v>
+        <v>85.10535466443939</v>
       </c>
       <c r="K68">
-        <v>55.351441378848072</v>
+        <v>84.47837174651781</v>
       </c>
       <c r="L68">
-        <v>4.5008061134571946E-3</v>
+        <v>-0.002253278984898645</v>
       </c>
       <c r="M68">
-        <v>429.90118576980348</v>
+        <v>440.3040420389422</v>
       </c>
       <c r="N68">
-        <v>1.781692453835023E-34</v>
+        <v>2.180821950900326E-32</v>
       </c>
       <c r="O68">
-        <v>-251.36884131476211</v>
+        <v>-284.0936669784325</v>
       </c>
       <c r="P68">
-        <v>-1.7521116080276771</v>
-      </c>
-      <c r="Q68">
-        <f t="shared" si="1"/>
-        <v>0.25787719470777642</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.7041139284169857</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
       <c r="A69">
-        <v>20.157221707137872</v>
+        <v>15.7634442872509</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="C69">
-        <v>18.469876461972191</v>
+        <v>27.24368620051774</v>
       </c>
       <c r="D69">
-        <v>1.573539274329544E-3</v>
+        <v>-0.0006915954805612955</v>
       </c>
       <c r="E69">
-        <v>1.015907870728756E-2</v>
+        <v>0.0001148369611181993</v>
       </c>
       <c r="F69">
-        <v>1.9726167813784989</v>
+        <v>-1.999996353269706</v>
       </c>
       <c r="G69">
-        <v>-7.5330828207009846E-3</v>
+        <v>0.0005921982230283773</v>
       </c>
       <c r="H69">
-        <v>52.941474725915988</v>
+        <v>77.60167781913299</v>
       </c>
       <c r="I69">
-        <v>51.940760215074278</v>
+        <v>78.12959851579193</v>
       </c>
       <c r="J69">
-        <v>57.912721157759123</v>
+        <v>85.8399559957497</v>
       </c>
       <c r="K69">
-        <v>58.186260695182099</v>
+        <v>85.35429158574892</v>
       </c>
       <c r="L69">
-        <v>-7.749828701793352E-3</v>
+        <v>-0.0009262741121195119</v>
       </c>
       <c r="M69">
-        <v>457.74051915989259</v>
+        <v>438.0741308963723</v>
       </c>
       <c r="N69">
-        <v>-4.7340863501430871E-35</v>
+        <v>-2.000524671911825E-33</v>
       </c>
       <c r="O69">
-        <v>-304.02183578595009</v>
+        <v>-280.4499562090969</v>
       </c>
       <c r="P69">
-        <v>-7.9434412969516976E-2</v>
-      </c>
-      <c r="Q69">
-        <f t="shared" si="1"/>
-        <v>-0.44403247656210892</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-0.4802919709841011</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
       <c r="A70">
-        <v>20.43446212511293</v>
+        <v>15.95533051875061</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="C70">
-        <v>19.396165179530179</v>
+        <v>27.47415209908375</v>
       </c>
       <c r="D70">
-        <v>-2.776487539270572E-3</v>
+        <v>-0.0004852149263315096</v>
       </c>
       <c r="E70">
-        <v>4.984576756262505E-3</v>
+        <v>-0.0004073970282786431</v>
       </c>
       <c r="F70">
-        <v>1.932521188159279</v>
+        <v>-1.999979694603327</v>
       </c>
       <c r="G70">
-        <v>-5.3947524741545811E-3</v>
+        <v>0.000562529846444385</v>
       </c>
       <c r="H70">
-        <v>55.273934565019488</v>
+        <v>78.68216538774548</v>
       </c>
       <c r="I70">
-        <v>56.109622175546633</v>
+        <v>78.24984735444666</v>
       </c>
       <c r="J70">
-        <v>60.848988375279511</v>
+        <v>86.62146728890809</v>
       </c>
       <c r="K70">
-        <v>61.101346763668552</v>
-      </c>
-      <c r="L70">
-        <v>-5.2422536654810484E-3</v>
-      </c>
-      <c r="M70">
-        <v>432.5564441935137</v>
-      </c>
-      <c r="N70">
-        <v>-1.212070699144159E-31</v>
-      </c>
-      <c r="O70">
-        <v>-259.32742319128681</v>
-      </c>
-      <c r="P70">
-        <v>-1.722861813207571</v>
-      </c>
-      <c r="Q70">
-        <f t="shared" si="1"/>
-        <v>-0.30035901016904976</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>20.699820364504301</v>
-      </c>
-      <c r="B71">
-        <v>0</v>
-      </c>
-      <c r="C71">
-        <v>20.167227391454009</v>
-      </c>
-      <c r="D71">
-        <v>-2.5371094788897591E-3</v>
-      </c>
-      <c r="E71">
-        <v>9.3664804919907591E-4</v>
-      </c>
-      <c r="F71">
-        <v>1.892532569553157</v>
-      </c>
-      <c r="G71">
-        <v>-4.6190146832151471E-3</v>
-      </c>
-      <c r="H71">
-        <v>57.746934474611848</v>
-      </c>
-      <c r="I71">
-        <v>56.962144102853983</v>
-      </c>
-      <c r="J71">
-        <v>63.45789033116543</v>
-      </c>
-      <c r="K71">
-        <v>63.271010218990718</v>
-      </c>
-      <c r="L71">
-        <v>-5.4486598793015237E-3</v>
-      </c>
-      <c r="M71">
-        <v>453.86359740662181</v>
-      </c>
-      <c r="N71">
-        <v>-5.6316137113820301E-35</v>
-      </c>
-      <c r="O71">
-        <v>-298.94579423068092</v>
-      </c>
-      <c r="P71">
-        <v>0.51195872921323504</v>
-      </c>
-      <c r="Q71">
-        <f t="shared" si="1"/>
-        <v>-0.31218521508623787</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>20.955277553842532</v>
-      </c>
-      <c r="B72">
-        <v>0</v>
-      </c>
-      <c r="C72">
-        <v>20.929751517837801</v>
-      </c>
-      <c r="D72">
-        <v>-1.951689277299112E-3</v>
-      </c>
-      <c r="E72">
-        <v>-2.5889762675904552E-3</v>
-      </c>
-      <c r="F72">
-        <v>1.8563298182381469</v>
-      </c>
-      <c r="G72">
-        <v>-4.8416570893931136E-3</v>
-      </c>
-      <c r="H72">
-        <v>59.662240684617792</v>
-      </c>
-      <c r="I72">
-        <v>60.369086687585693</v>
-      </c>
-      <c r="J72">
-        <v>65.799217184236767</v>
-      </c>
-      <c r="K72">
-        <v>65.740619045171343</v>
-      </c>
-      <c r="L72">
-        <v>3.0510708549036982E-4</v>
-      </c>
-      <c r="M72">
-        <v>435.13848267085871</v>
-      </c>
-      <c r="N72">
-        <v>4.3227889990858596E-37</v>
-      </c>
-      <c r="O72">
-        <v>-265.49519229709591</v>
-      </c>
-      <c r="P72">
-        <v>-0.73392814051736999</v>
-      </c>
-      <c r="Q72">
-        <f t="shared" si="1"/>
-        <v>1.7481348298135389E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>21.202247093796611</v>
-      </c>
-      <c r="B73">
-        <v>0</v>
-      </c>
-      <c r="C73">
-        <v>21.580537906938289</v>
-      </c>
-      <c r="D73">
-        <v>-9.746528736729118E-5</v>
-      </c>
-      <c r="E73">
-        <v>-2.55021361515406E-3</v>
-      </c>
-      <c r="F73">
-        <v>1.824907359745785</v>
-      </c>
-      <c r="G73">
-        <v>-5.4903494385778453E-3</v>
-      </c>
-      <c r="H73">
-        <v>61.75230498630313</v>
-      </c>
-      <c r="I73">
-        <v>61.145282644677742</v>
-      </c>
-      <c r="J73">
-        <v>67.92967574780414</v>
-      </c>
-      <c r="K73">
-        <v>67.697127124562456</v>
-      </c>
-      <c r="L73">
-        <v>2.8948876110233948E-4</v>
-      </c>
-      <c r="M73">
-        <v>450.63470376414739</v>
-      </c>
-      <c r="N73">
-        <v>3.4594698507718821E-34</v>
-      </c>
-      <c r="O73">
-        <v>-294.74610698105352</v>
-      </c>
-      <c r="P73">
-        <v>1.089759420335374</v>
-      </c>
-      <c r="Q73">
-        <f t="shared" si="1"/>
-        <v>1.6586484227635007E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>21.44194352749706</v>
-      </c>
-      <c r="B74">
-        <v>0</v>
-      </c>
-      <c r="C74">
-        <v>22.21984955781145</v>
-      </c>
-      <c r="D74">
-        <v>3.4517521303054533E-4</v>
-      </c>
-      <c r="E74">
-        <v>-2.217952436982681E-3</v>
-      </c>
-      <c r="F74">
-        <v>1.795451723773775</v>
-      </c>
-      <c r="G74">
-        <v>-6.0648791513512037E-3</v>
-      </c>
-      <c r="H74">
-        <v>63.373673970755362</v>
-      </c>
-      <c r="I74">
-        <v>63.928127044390138</v>
-      </c>
-      <c r="J74">
-        <v>69.814024126230251</v>
-      </c>
-      <c r="K74">
-        <v>69.833983371223326</v>
-      </c>
-      <c r="L74">
-        <v>2.9912099631378029E-3</v>
-      </c>
-      <c r="M74">
-        <v>436.71850749963079</v>
-      </c>
-      <c r="N74">
-        <v>-2.0964804670323261E-34</v>
-      </c>
-      <c r="O74">
-        <v>-270.10047100047348</v>
-      </c>
-      <c r="P74">
-        <v>-0.46665667333531069</v>
-      </c>
-      <c r="Q74">
-        <f t="shared" si="1"/>
-        <v>0.17138370652527865</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>21.675275471649989</v>
-      </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
-      <c r="C75">
-        <v>22.77606684594658</v>
-      </c>
-      <c r="D75">
-        <v>1.0651968358729919E-3</v>
-      </c>
-      <c r="E75">
-        <v>-4.587481776813825E-4</v>
-      </c>
-      <c r="F75">
-        <v>1.7668405899821</v>
-      </c>
-      <c r="G75">
-        <v>-6.3800355244795614E-3</v>
-      </c>
-      <c r="H75">
-        <v>65.150229556279669</v>
-      </c>
-      <c r="I75">
-        <v>64.674829099591193</v>
-      </c>
-      <c r="J75">
-        <v>71.615142718222657</v>
-      </c>
-      <c r="K75">
-        <v>71.530123444147705</v>
-      </c>
-      <c r="L75">
-        <v>9.2011513603662098E-4</v>
-      </c>
-      <c r="M75">
-        <v>447.83333769389498</v>
-      </c>
-      <c r="N75">
-        <v>8.5180302792786806E-35</v>
-      </c>
-      <c r="O75">
-        <v>-291.3031616968305</v>
-      </c>
-      <c r="P75">
-        <v>0.91361833795063652</v>
-      </c>
-      <c r="Q75">
-        <f t="shared" si="1"/>
-        <v>5.2718713961003985E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>21.90304718066394</v>
-      </c>
-      <c r="B76">
-        <v>0</v>
-      </c>
-      <c r="C76">
-        <v>23.31860021233685</v>
-      </c>
-      <c r="D76">
-        <v>5.820542878720459E-4</v>
-      </c>
-      <c r="E76">
-        <v>2.297645740743524E-4</v>
-      </c>
-      <c r="F76">
-        <v>1.7373637442639149</v>
-      </c>
-      <c r="G76">
-        <v>-6.4015185183331127E-3</v>
-      </c>
-      <c r="H76">
-        <v>66.541269136358864</v>
-      </c>
-      <c r="I76">
-        <v>66.954126521883225</v>
-      </c>
-      <c r="J76">
-        <v>73.217991772383215</v>
-      </c>
-      <c r="K76">
-        <v>73.33364161527011</v>
-      </c>
-      <c r="L76">
-        <v>1.7138140243615691E-3</v>
-      </c>
-      <c r="M76">
-        <v>437.79081044871128</v>
-      </c>
-      <c r="N76">
-        <v>2.7059697960533907E-35</v>
-      </c>
-      <c r="O76">
-        <v>-273.63173550022037</v>
-      </c>
-      <c r="P76">
-        <v>-0.62240987255658897</v>
-      </c>
-      <c r="Q76">
-        <f t="shared" si="1"/>
-        <v>9.8194310466248755E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>22.125878441032281</v>
-      </c>
-      <c r="B77">
-        <v>0</v>
-      </c>
-      <c r="C77">
-        <v>23.798718480560019</v>
-      </c>
-      <c r="D77">
-        <v>5.3683965163803607E-4</v>
-      </c>
-      <c r="E77">
-        <v>1.1533633807014E-3</v>
-      </c>
-      <c r="F77">
-        <v>1.707073396978964</v>
-      </c>
-      <c r="G77">
-        <v>-6.246191519197395E-3</v>
-      </c>
-      <c r="H77">
-        <v>68.056468336985716</v>
-      </c>
-      <c r="I77">
-        <v>67.692128698211604</v>
-      </c>
-      <c r="J77">
-        <v>74.79309368638701</v>
-      </c>
-      <c r="K77">
-        <v>74.774842697595901</v>
-      </c>
-      <c r="L77">
-        <v>-5.565252160678112E-4</v>
-      </c>
-      <c r="M77">
-        <v>445.60327815509942</v>
-      </c>
-      <c r="N77">
-        <v>1.9358545537909791E-36</v>
-      </c>
-      <c r="O77">
-        <v>-288.66078994934043</v>
-      </c>
-      <c r="P77">
-        <v>0.50124731433239267</v>
-      </c>
-      <c r="Q77">
-        <f t="shared" si="1"/>
-        <v>-3.1886546073291812E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>22.344329218340778</v>
-      </c>
-      <c r="B78">
-        <v>0</v>
-      </c>
-      <c r="C78">
-        <v>24.263719581785139</v>
-      </c>
-      <c r="D78">
-        <v>-7.3546372703621793E-5</v>
-      </c>
-      <c r="E78">
-        <v>9.2349687548337947E-4</v>
-      </c>
-      <c r="F78">
-        <v>1.675828466952368</v>
-      </c>
-      <c r="G78">
-        <v>-6.0153129508234383E-3</v>
-      </c>
-      <c r="H78">
-        <v>69.262141946482132</v>
-      </c>
-      <c r="I78">
-        <v>69.564974671152058</v>
-      </c>
-      <c r="J78">
-        <v>76.202050323784093</v>
-      </c>
-      <c r="K78">
-        <v>76.289382209946353</v>
-      </c>
-      <c r="L78">
-        <v>9.2431966234840941E-5</v>
-      </c>
-      <c r="M78">
-        <v>438.43280270641623</v>
-      </c>
-      <c r="N78">
-        <v>6.2557818728806142E-37</v>
-      </c>
-      <c r="O78">
-        <v>-276.22335982743112</v>
-      </c>
-      <c r="P78">
-        <v>-0.67973064573928876</v>
-      </c>
-      <c r="Q78">
-        <f t="shared" si="1"/>
-        <v>5.2959615573521168E-3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>22.558844491839761</v>
-      </c>
-      <c r="B79">
-        <v>0</v>
-      </c>
-      <c r="C79">
-        <v>24.68097175289962</v>
-      </c>
-      <c r="D79">
-        <v>-1.209903706389566E-4</v>
-      </c>
-      <c r="E79">
-        <v>8.972965722848725E-4</v>
-      </c>
-      <c r="F79">
-        <v>1.6442322784056529</v>
-      </c>
-      <c r="G79">
-        <v>-5.8198394064288856E-3</v>
-      </c>
-      <c r="H79">
-        <v>70.560590363530594</v>
-      </c>
-      <c r="I79">
-        <v>70.293139460426403</v>
-      </c>
-      <c r="J79">
-        <v>77.581405418498889</v>
-      </c>
-      <c r="K79">
-        <v>77.528063511775116</v>
-      </c>
-      <c r="L79">
-        <v>-1.2206853558734019E-3</v>
-      </c>
-      <c r="M79">
-        <v>443.79808851262601</v>
-      </c>
-      <c r="N79">
-        <v>7.0902470687097948E-36</v>
-      </c>
-      <c r="O79">
-        <v>-286.69344748111882</v>
-      </c>
-      <c r="P79">
-        <v>0.26395248479887617</v>
-      </c>
-      <c r="Q79">
-        <f t="shared" si="1"/>
-        <v>-6.9940119004970866E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>22.76983094581847</v>
-      </c>
-      <c r="B80">
-        <v>0</v>
-      </c>
-      <c r="C80">
-        <v>25.08256713802113</v>
-      </c>
-      <c r="D80">
-        <v>-3.9865446031746358E-4</v>
-      </c>
-      <c r="E80">
-        <v>2.7239751917843751E-4</v>
-      </c>
-      <c r="F80">
-        <v>1.6125288067777559</v>
-      </c>
-      <c r="G80">
-        <v>-5.6952084234414956E-3</v>
-      </c>
-      <c r="H80">
-        <v>71.615490821657218</v>
-      </c>
-      <c r="I80">
-        <v>71.837194138944696</v>
-      </c>
-      <c r="J80">
-        <v>78.81675529099941</v>
-      </c>
-      <c r="K80">
-        <v>78.817200425615198</v>
-      </c>
-      <c r="L80">
-        <v>-2.088448787997003E-4</v>
-      </c>
-      <c r="M80">
-        <v>438.75847697444948</v>
-      </c>
-      <c r="N80">
-        <v>-1.1159549037376321E-35</v>
-      </c>
-      <c r="O80">
-        <v>-278.08527397657878</v>
-      </c>
-      <c r="P80">
-        <v>-0.58789473859896968</v>
-      </c>
-      <c r="Q80">
-        <f t="shared" si="1"/>
-        <v>-1.196593012814403E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>22.97762022811574</v>
-      </c>
-      <c r="B81">
-        <v>0</v>
-      </c>
-      <c r="C81">
-        <v>25.44701253556881</v>
-      </c>
-      <c r="D81">
-        <v>-2.2699332757937529E-4</v>
-      </c>
-      <c r="E81">
-        <v>9.4287565260902105E-5</v>
-      </c>
-      <c r="F81">
-        <v>1.5811557769079301</v>
-      </c>
-      <c r="G81">
-        <v>-5.6583456047038291E-3</v>
-      </c>
-      <c r="H81">
-        <v>72.734705127577101</v>
-      </c>
-      <c r="I81">
-        <v>72.545394148916273</v>
-      </c>
-      <c r="J81">
-        <v>80.019690737442403</v>
-      </c>
-      <c r="K81">
-        <v>79.902413492884889</v>
-      </c>
-      <c r="L81">
-        <v>-4.9811218846169156E-4</v>
-      </c>
-      <c r="M81">
-        <v>442.36428361136882</v>
-      </c>
-      <c r="N81">
-        <v>4.5658295684065352E-36</v>
-      </c>
-      <c r="O81">
-        <v>-285.27759907458841</v>
-      </c>
-      <c r="P81">
-        <v>-1.2139645090988031E-2</v>
-      </c>
-      <c r="Q81">
-        <f t="shared" si="1"/>
-        <v>-2.8539726122879989E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>23.18251720021469</v>
-      </c>
-      <c r="B82">
-        <v>0</v>
-      </c>
-      <c r="C82">
-        <v>25.796010926766549</v>
-      </c>
-      <c r="D82">
-        <v>-1.9705929375675319E-4</v>
-      </c>
-      <c r="E82">
-        <v>-1.6427451720028391E-4</v>
-      </c>
-      <c r="F82">
-        <v>1.550329951198981</v>
-      </c>
-      <c r="G82">
-        <v>-5.6658692529718904E-3</v>
-      </c>
-      <c r="H82">
-        <v>73.665068143394763</v>
-      </c>
-      <c r="I82">
-        <v>73.824461760345812</v>
-      </c>
-      <c r="J82">
-        <v>81.117550879625639</v>
-      </c>
-      <c r="K82">
-        <v>80.998129038990115</v>
+        <v>86.05009385326071</v>
       </c>
     </row>
   </sheetData>

--- a/custom sim/two_track_out2.xlsx
+++ b/custom sim/two_track_out2.xlsx
@@ -483,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>29.99999739566411</v>
+        <v>0.4025236678718991</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -492,3422 +492,3422 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>-0.2702505563138138</v>
+        <v>-1.923587485323732</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>171.4280177052676</v>
+        <v>171.428573986029</v>
       </c>
       <c r="I2">
-        <v>171.4283835692619</v>
+        <v>-2.557454950492511E-06</v>
       </c>
       <c r="J2">
-        <v>72.59644880647843</v>
+        <v>5.592879920384704</v>
       </c>
       <c r="K2">
-        <v>90.59754701633935</v>
+        <v>107.0518191062842</v>
       </c>
       <c r="L2">
-        <v>-0.0007008544648795109</v>
+        <v>-0.008442906890839983</v>
       </c>
       <c r="M2">
-        <v>449.316120762934</v>
+        <v>0.001849342634680564</v>
       </c>
       <c r="N2">
-        <v>-4.303735218331349E-20</v>
+        <v>-1.188450101141443</v>
       </c>
       <c r="O2">
-        <v>-283.0678199056217</v>
+        <v>-43.42724043924721</v>
       </c>
       <c r="P2">
-        <v>-1.866704920067906</v>
+        <v>-20.80765885514819</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3">
-        <v>0.175148236510452</v>
+        <v>13.50030028985811</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>29.99999983056264</v>
+        <v>0.3758859305097116</v>
       </c>
       <c r="D3">
-        <v>-0.0007553603927464459</v>
+        <v>-0.009146453258830166</v>
       </c>
       <c r="E3">
-        <v>0.005775513476068665</v>
+        <v>-0.002840094275378657</v>
       </c>
       <c r="F3">
-        <v>-0.2700888252871915</v>
+        <v>-2.000000026991795</v>
       </c>
       <c r="G3">
-        <v>0.0008699662100687607</v>
+        <v>-0.01992736453858513</v>
       </c>
       <c r="H3">
-        <v>85.57449085625431</v>
+        <v>171.4285707383771</v>
       </c>
       <c r="I3">
-        <v>86.42261887572441</v>
+        <v>55.45623919978623</v>
       </c>
       <c r="J3">
-        <v>101.911935913443</v>
+        <v>0.03933852893697091</v>
       </c>
       <c r="K3">
-        <v>93.88818366908896</v>
+        <v>101.1940606700598</v>
       </c>
       <c r="L3">
-        <v>-0.02504570173229527</v>
+        <v>0.01350520335297163</v>
       </c>
       <c r="M3">
-        <v>404.2397083497763</v>
+        <v>2.404275986633913</v>
       </c>
       <c r="N3">
-        <v>1.203251192425251E-27</v>
+        <v>0.0001998491605094467</v>
       </c>
       <c r="O3">
-        <v>-245.2490418743137</v>
+        <v>172.6992316535219</v>
       </c>
       <c r="P3">
-        <v>21.29130960883162</v>
+        <v>94.6351032206619</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4">
-        <v>0.3501486729923848</v>
+        <v>27.09410522723888</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>29.9988015889761</v>
+        <v>0.3970776190966772</v>
       </c>
       <c r="D4">
-        <v>-0.00559082339246463</v>
+        <v>0.02416015140907168</v>
       </c>
       <c r="E4">
-        <v>-0.003262681252059567</v>
+        <v>0.007127760551605367</v>
       </c>
       <c r="F4">
-        <v>-0.2827516960506198</v>
+        <v>-1.982222532411391</v>
       </c>
       <c r="G4">
-        <v>0.001092901668211778</v>
+        <v>0.01198207239015201</v>
       </c>
       <c r="H4">
-        <v>85.78825623760189</v>
+        <v>6.910984529323092E-07</v>
       </c>
       <c r="I4">
-        <v>85.09782003942341</v>
+        <v>71.16985477815466</v>
       </c>
       <c r="J4">
-        <v>103.7239749205084</v>
+        <v>35.85645322050225</v>
       </c>
       <c r="K4">
-        <v>93.94209242061122</v>
+        <v>134.642221313657</v>
       </c>
       <c r="L4">
-        <v>-0.05231688253363346</v>
+        <v>-0.007183289095877532</v>
       </c>
       <c r="M4">
-        <v>404.7353104071987</v>
+        <v>0.0007105472821708751</v>
       </c>
       <c r="N4">
-        <v>-1.940005093046536E-27</v>
+        <v>-2.611588034178653</v>
       </c>
       <c r="O4">
-        <v>-263.9921329831768</v>
+        <v>-209.5803358827978</v>
       </c>
       <c r="P4">
-        <v>39.06927319012095</v>
+        <v>-110.327168194697</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5">
-        <v>0.5251595317725035</v>
+        <v>41.21219702908144</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>29.99999963866599</v>
+        <v>0.3480958008756005</v>
       </c>
       <c r="D5">
-        <v>-0.01079945548171086</v>
+        <v>-0.03112138228219068</v>
       </c>
       <c r="E5">
-        <v>-0.02050228251169342</v>
+        <v>-0.003701259158805437</v>
       </c>
       <c r="F5">
-        <v>-0.3264813428942182</v>
+        <v>-1.982028185292249</v>
       </c>
       <c r="G5">
-        <v>-0.0009704810072043052</v>
+        <v>-0.004283101064455341</v>
       </c>
       <c r="H5">
-        <v>85.4605259126847</v>
+        <v>171.4285734857922</v>
       </c>
       <c r="I5">
-        <v>86.10894944589667</v>
+        <v>171.4285735952785</v>
       </c>
       <c r="J5">
-        <v>103.4894607824712</v>
+        <v>18.5048155206608</v>
       </c>
       <c r="K5">
-        <v>94.13056251564815</v>
+        <v>112.6749464594002</v>
       </c>
       <c r="L5">
-        <v>-0.04653400602082683</v>
+        <v>0.01199820563138037</v>
       </c>
       <c r="M5">
-        <v>397.1658166988021</v>
+        <v>1.524565923907109</v>
       </c>
       <c r="N5">
-        <v>-2.943282834618596E-26</v>
+        <v>0.0001999828067136122</v>
       </c>
       <c r="O5">
-        <v>-250.7120530595055</v>
+        <v>282.9648999281249</v>
       </c>
       <c r="P5">
-        <v>33.50820073452412</v>
+        <v>172.286353954202</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6">
-        <v>0.7002007032934222</v>
+        <v>55.50499235808775</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>29.99244363851315</v>
+        <v>0.3873166245431029</v>
       </c>
       <c r="D6">
-        <v>-0.01116894665144502</v>
+        <v>0.04471729166097636</v>
       </c>
       <c r="E6">
-        <v>-0.0368260356533487</v>
+        <v>0.007221939080635714</v>
       </c>
       <c r="F6">
-        <v>-0.4024800883557253</v>
+        <v>-1.896014082180723</v>
       </c>
       <c r="G6">
-        <v>-0.005992750146944469</v>
+        <v>0.02395347815962818</v>
       </c>
       <c r="H6">
-        <v>85.67282798612499</v>
+        <v>-2.557669447712158E-06</v>
       </c>
       <c r="I6">
-        <v>85.41484272524832</v>
+        <v>152.9130860348284</v>
       </c>
       <c r="J6">
-        <v>103.3698978150644</v>
+        <v>46.4689003087034</v>
       </c>
       <c r="K6">
-        <v>93.84390508083925</v>
+        <v>134.3430030187501</v>
       </c>
       <c r="L6">
-        <v>-0.0523431534041934</v>
+        <v>-0.0131341041674196</v>
       </c>
       <c r="M6">
-        <v>402.994166745402</v>
+        <v>0.0003711714419971881</v>
       </c>
       <c r="N6">
-        <v>4.581089132841495E-27</v>
+        <v>-4.6852767963984</v>
       </c>
       <c r="O6">
-        <v>-264.3889453881312</v>
+        <v>-299.294826222171</v>
       </c>
       <c r="P6">
-        <v>43.24325580077888</v>
+        <v>-176.6703432633724</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7">
-        <v>0.8752634688893306</v>
+        <v>70.6289001077414</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>29.99999524687372</v>
+        <v>0.309872689562307</v>
       </c>
       <c r="D7">
-        <v>-0.009708194299310373</v>
+        <v>-0.05764679377913462</v>
       </c>
       <c r="E7">
-        <v>-0.05411581826598051</v>
+        <v>-0.004125766939543165</v>
       </c>
       <c r="F7">
-        <v>-0.5093286506710499</v>
+        <v>-1.886468028810635</v>
       </c>
       <c r="G7">
-        <v>-0.01396053627372621</v>
+        <v>-0.006335240316035612</v>
       </c>
       <c r="H7">
-        <v>85.41117144742898</v>
+        <v>171.4285740170393</v>
       </c>
       <c r="I7">
-        <v>86.01299583954764</v>
+        <v>171.4285673992215</v>
       </c>
       <c r="J7">
-        <v>101.7448627247406</v>
+        <v>26.65330585028306</v>
       </c>
       <c r="K7">
-        <v>94.09250860909573</v>
+        <v>108.0286805605204</v>
       </c>
       <c r="L7">
-        <v>-0.08464046098628504</v>
+        <v>0.01093248834956401</v>
       </c>
       <c r="M7">
-        <v>383.5780761218104</v>
+        <v>1.08666001613401</v>
       </c>
       <c r="N7">
-        <v>-8.96348007022494E-28</v>
+        <v>0.0001999860629717998</v>
       </c>
       <c r="O7">
-        <v>-252.1065821221995</v>
+        <v>306.8692648324996</v>
       </c>
       <c r="P7">
-        <v>67.67169328388906</v>
+        <v>205.3954407046986</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8">
-        <v>1.050354612257053</v>
+        <v>86.1260661012579</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>29.99999876022166</v>
+        <v>0.3683472034671609</v>
       </c>
       <c r="D8">
-        <v>-0.009076291498923411</v>
+        <v>0.07002561595617632</v>
       </c>
       <c r="E8">
-        <v>-0.07791734757747674</v>
+        <v>0.007068801122846744</v>
       </c>
       <c r="F8">
-        <v>-0.6622771227168154</v>
+        <v>-1.820963208326224</v>
       </c>
       <c r="G8">
-        <v>-0.02550188823884381</v>
+        <v>0.01935618492382619</v>
       </c>
       <c r="H8">
-        <v>85.2629277737649</v>
+        <v>-2.611226585013112E-06</v>
       </c>
       <c r="I8">
-        <v>85.37113961025112</v>
+        <v>124.2263322672908</v>
       </c>
       <c r="J8">
-        <v>92.37855644397554</v>
+        <v>50.78558340361215</v>
       </c>
       <c r="K8">
-        <v>94.22601207606471</v>
+        <v>124.1584662633507</v>
       </c>
       <c r="L8">
-        <v>-0.04841882778277753</v>
+        <v>-0.01363906414830139</v>
       </c>
       <c r="M8">
-        <v>391.8888313349107</v>
+        <v>0.0003635789449264077</v>
       </c>
       <c r="N8">
-        <v>1.445655997706762E-24</v>
+        <v>-4.773140342545753</v>
       </c>
       <c r="O8">
-        <v>-258.0479333907703</v>
+        <v>-314.6825223289686</v>
       </c>
       <c r="P8">
-        <v>64.76934810977976</v>
+        <v>-205.2401566963525</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9">
-        <v>1.225499757483865</v>
+        <v>102.5586452878137</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>29.98629861262248</v>
+        <v>0.2741733946274609</v>
       </c>
       <c r="D9">
-        <v>-0.00256449402259163</v>
+        <v>-0.0835073737620311</v>
       </c>
       <c r="E9">
-        <v>-0.0925764795562182</v>
+        <v>-0.003968759051152925</v>
       </c>
       <c r="F9">
-        <v>-0.8644275401994517</v>
+        <v>-1.840376654937489</v>
       </c>
       <c r="G9">
-        <v>-0.04050788773798109</v>
+        <v>-0.01221631890677186</v>
       </c>
       <c r="H9">
-        <v>85.52810541603233</v>
+        <v>171.4285740774316</v>
       </c>
       <c r="I9">
-        <v>86.20621549735269</v>
+        <v>100.9676512674029</v>
       </c>
       <c r="J9">
-        <v>90.05345733001154</v>
+        <v>32.14046123258811</v>
       </c>
       <c r="K9">
-        <v>94.89804494969685</v>
+        <v>99.10458882919917</v>
       </c>
       <c r="L9">
-        <v>0.04141014888834691</v>
+        <v>0.01028717453065245</v>
       </c>
       <c r="M9">
-        <v>435.6938360112447</v>
+        <v>0.8125498385202237</v>
       </c>
       <c r="N9">
-        <v>3.397690724693333E-28</v>
+        <v>0.0001999884421727933</v>
       </c>
       <c r="O9">
-        <v>-252.4305730012158</v>
+        <v>295.6488980037444</v>
       </c>
       <c r="P9">
-        <v>-2.55878366849068</v>
+        <v>207.3508081258908</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10">
-        <v>1.400688136228056</v>
+        <v>119.4372438025613</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>30.00000007969707</v>
+        <v>0.348446407457455</v>
       </c>
       <c r="D10">
-        <v>0.01670841275708275</v>
+        <v>0.09500605982315469</v>
       </c>
       <c r="E10">
-        <v>-0.07404306037784376</v>
+        <v>0.006550475281539251</v>
       </c>
       <c r="F10">
-        <v>-1.074194612272204</v>
+        <v>-1.811515325952283</v>
       </c>
       <c r="G10">
-        <v>-0.05513820570028236</v>
+        <v>0.01199838432866765</v>
       </c>
       <c r="H10">
-        <v>85.36326045051545</v>
+        <v>-2.648850144351273E-06</v>
       </c>
       <c r="I10">
-        <v>85.54569530579924</v>
+        <v>42.11953792437455</v>
       </c>
       <c r="J10">
-        <v>94.95612502138002</v>
+        <v>52.07720324443369</v>
       </c>
       <c r="K10">
-        <v>98.68606607510506</v>
+        <v>112.3939510164194</v>
       </c>
       <c r="L10">
-        <v>0.03499138696120417</v>
+        <v>-0.01276187022363004</v>
       </c>
       <c r="M10">
-        <v>419.8284899575024</v>
+        <v>0.0004657674008989858</v>
       </c>
       <c r="N10">
-        <v>-8.498488252749848E-28</v>
+        <v>-3.810925854385568</v>
       </c>
       <c r="O10">
-        <v>-260.2069833423311</v>
+        <v>-300.638014615855</v>
       </c>
       <c r="P10">
-        <v>31.20546562955481</v>
+        <v>-206.2067003091486</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11">
-        <v>1.575807398538395</v>
+        <v>137.2956881221491</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>29.99999935710484</v>
+        <v>0.2432973981317768</v>
       </c>
       <c r="D11">
-        <v>0.02474974397563092</v>
+        <v>-0.1077259475834896</v>
       </c>
       <c r="E11">
-        <v>-0.05839563646757716</v>
+        <v>-0.003178181679021966</v>
       </c>
       <c r="F11">
-        <v>-1.283714728661302</v>
+        <v>-1.862095585250477</v>
       </c>
       <c r="G11">
-        <v>-0.06671870525157461</v>
+        <v>-0.01763443214393483</v>
       </c>
       <c r="H11">
-        <v>85.6783545595397</v>
+        <v>171.428574089508</v>
       </c>
       <c r="I11">
-        <v>86.11039198869005</v>
+        <v>39.75443197357352</v>
       </c>
       <c r="J11">
-        <v>93.58315209973553</v>
+        <v>35.92085714001773</v>
       </c>
       <c r="K11">
-        <v>106.1526174173784</v>
+        <v>90.54014521880822</v>
       </c>
       <c r="L11">
-        <v>0.06612957526612506</v>
+        <v>0.01034660684897255</v>
       </c>
       <c r="M11">
-        <v>602.5223596407133</v>
+        <v>0.5867728999864386</v>
       </c>
       <c r="N11">
-        <v>-1.003094263682719E-26</v>
+        <v>0.0001999897121510085</v>
       </c>
       <c r="O11">
-        <v>-156.4814604077547</v>
+        <v>279.8518285477558</v>
       </c>
       <c r="P11">
-        <v>-35.85592561121008</v>
+        <v>200.403803047832</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12">
-        <v>1.751514699071341</v>
+        <v>155.6058664413082</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>29.78046720144491</v>
+        <v>0.3306704419765834</v>
       </c>
       <c r="D12">
-        <v>0.03963229130727886</v>
+        <v>0.1190956446651706</v>
       </c>
       <c r="E12">
-        <v>-0.03692606382483118</v>
+        <v>0.005652149574822848</v>
       </c>
       <c r="F12">
-        <v>-1.48682977130751</v>
+        <v>-1.860896014627843</v>
       </c>
       <c r="G12">
-        <v>-0.07494811591239135</v>
+        <v>0.006838408287800813</v>
       </c>
       <c r="H12">
-        <v>84.80847347443027</v>
+        <v>-2.644852230977505E-06</v>
       </c>
       <c r="I12">
-        <v>84.87367933722267</v>
+        <v>4.4939003124283E-06</v>
       </c>
       <c r="J12">
-        <v>144.1261167807237</v>
+        <v>49.58864315989902</v>
       </c>
       <c r="K12">
-        <v>155.2172238812166</v>
+        <v>100.9450379392323</v>
       </c>
       <c r="L12">
-        <v>0.1080290974616526</v>
+        <v>-0.01118138088745468</v>
       </c>
       <c r="M12">
-        <v>-4.02182987857733E-26</v>
+        <v>0.0007276294021526524</v>
       </c>
       <c r="N12">
-        <v>-0.0002382656986221379</v>
+        <v>-2.504703120999076</v>
       </c>
       <c r="O12">
-        <v>-212.6353441050444</v>
+        <v>-283.4349036461788</v>
       </c>
       <c r="P12">
-        <v>-2.115484282094079</v>
+        <v>-198.347993369127</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13">
-        <v>1.928533916696793</v>
+        <v>174.8705402406503</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>29.58636800451441</v>
+        <v>0.2181416187822255</v>
       </c>
       <c r="D13">
-        <v>0.05198737876893288</v>
+        <v>-0.1303072562652417</v>
       </c>
       <c r="E13">
-        <v>-0.009316364016207605</v>
+        <v>-0.002811659095833143</v>
       </c>
       <c r="F13">
-        <v>-1.646705559141833</v>
+        <v>-1.924758861120675</v>
       </c>
       <c r="G13">
-        <v>-0.079189460141976</v>
+        <v>-0.01919774733012335</v>
       </c>
       <c r="H13">
-        <v>84.36464466957358</v>
+        <v>171.4285740670998</v>
       </c>
       <c r="I13">
-        <v>84.50027406909025</v>
+        <v>32.89205036648492</v>
       </c>
       <c r="J13">
-        <v>92.39613089078176</v>
+        <v>37.32033605657825</v>
       </c>
       <c r="K13">
-        <v>105.9985875005506</v>
+        <v>84.21569039773586</v>
       </c>
       <c r="L13">
-        <v>0.125055788493705</v>
+        <v>0.01014406456756129</v>
       </c>
       <c r="M13">
-        <v>358.7102237865072</v>
+        <v>0.04884707979865765</v>
       </c>
       <c r="N13">
-        <v>1.763242668763301E-27</v>
+        <v>0.0001999898061446215</v>
       </c>
       <c r="O13">
-        <v>-198.1511343810747</v>
+        <v>265.7252839472441</v>
       </c>
       <c r="P13">
-        <v>-25.67060757642481</v>
+        <v>192.0209892855251</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14">
-        <v>2.106471973778904</v>
+        <v>194.5708491398933</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>29.44312662709868</v>
+        <v>0.3153452456384909</v>
       </c>
       <c r="D14">
-        <v>0.05392145412454036</v>
+        <v>0.1413529311354088</v>
       </c>
       <c r="E14">
-        <v>0.02951284708389866</v>
+        <v>0.005102029399164593</v>
       </c>
       <c r="F14">
-        <v>-1.780294036945668</v>
+        <v>-1.933491280951562</v>
       </c>
       <c r="G14">
-        <v>-0.07733963114756436</v>
+        <v>0.004849643679055799</v>
       </c>
       <c r="H14">
-        <v>83.93184197797147</v>
+        <v>-2.634802071011128E-06</v>
       </c>
       <c r="I14">
-        <v>83.72652645860553</v>
+        <v>3.259514865542934E-05</v>
       </c>
       <c r="J14">
-        <v>95.4105724811533</v>
+        <v>40.09997527399352</v>
       </c>
       <c r="K14">
-        <v>109.3552215878401</v>
+        <v>85.45314163150074</v>
       </c>
       <c r="L14">
-        <v>0.1399931318186446</v>
+        <v>-0.01028656772373162</v>
       </c>
       <c r="M14">
-        <v>332.4299846781488</v>
+        <v>0.0009849736797253276</v>
       </c>
       <c r="N14">
-        <v>1.742212466640867E-26</v>
+        <v>-1.733198907526684</v>
       </c>
       <c r="O14">
-        <v>-201.9918137635009</v>
+        <v>-266.8581442464447</v>
       </c>
       <c r="P14">
-        <v>-32.03204122763687</v>
+        <v>-188.6696935025203</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15">
-        <v>2.285254239181182</v>
+        <v>215.241035636062</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>29.3029106111724</v>
+        <v>0.2172318002830219</v>
       </c>
       <c r="D15">
-        <v>0.0506311188972042</v>
+        <v>-0.1517266841022214</v>
       </c>
       <c r="E15">
-        <v>0.06772207249900106</v>
+        <v>-0.001359309453988036</v>
       </c>
       <c r="F15">
-        <v>-1.88922668367108</v>
+        <v>-2.000000047124283</v>
       </c>
       <c r="G15">
-        <v>-0.06864072030209249</v>
+        <v>-0.01915642205621851</v>
       </c>
       <c r="H15">
-        <v>83.55584881772363</v>
+        <v>171.4285740656412</v>
       </c>
       <c r="I15">
-        <v>83.28289370661173</v>
+        <v>60.34250758024622</v>
       </c>
       <c r="J15">
-        <v>93.79356953687916</v>
+        <v>30.17447759289516</v>
       </c>
       <c r="K15">
-        <v>108.1983496077264</v>
+        <v>71.83643069055907</v>
       </c>
       <c r="L15">
-        <v>0.1423112275103812</v>
+        <v>0.01105248700126392</v>
       </c>
       <c r="M15">
-        <v>329.907777830612</v>
+        <v>0.00466052912367589</v>
       </c>
       <c r="N15">
-        <v>2.76763683728454E-27</v>
+        <v>0.0001999893984333511</v>
       </c>
       <c r="O15">
-        <v>-209.7973436063861</v>
+        <v>254.4952117319014</v>
       </c>
       <c r="P15">
-        <v>-35.79826427394634</v>
+        <v>185.1235313495935</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16">
-        <v>2.464797532383591</v>
+        <v>234.2600612864648</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>29.18972401618702</v>
+        <v>0.3355937445858249</v>
       </c>
       <c r="D16">
-        <v>0.04077829581824167</v>
+        <v>0.1635592339564484</v>
       </c>
       <c r="E16">
-        <v>0.1054925840237673</v>
+        <v>0.004025959163593364</v>
       </c>
       <c r="F16">
-        <v>-1.969198158422217</v>
+        <v>-2.000000049238839</v>
       </c>
       <c r="G16">
-        <v>-0.05308098356623071</v>
+        <v>0.007181053429153064</v>
       </c>
       <c r="H16">
-        <v>83.27617455107935</v>
+        <v>-2.63705673708372E-06</v>
       </c>
       <c r="I16">
-        <v>82.73570952619457</v>
+        <v>60.82563948865756</v>
       </c>
       <c r="J16">
-        <v>90.23952510250032</v>
+        <v>26.85014957610545</v>
       </c>
       <c r="K16">
-        <v>104.5485520835698</v>
+        <v>71.16344417470708</v>
       </c>
       <c r="L16">
-        <v>0.5734386587331688</v>
+        <v>0.0005381018871598624</v>
       </c>
       <c r="M16">
-        <v>412.5678104075254</v>
+        <v>0.002593121483481037</v>
       </c>
       <c r="N16">
-        <v>2.279472509395758E-27</v>
+        <v>-0.1334470676374061</v>
       </c>
       <c r="O16">
-        <v>-23.39852531058329</v>
+        <v>-258.8158308891711</v>
       </c>
       <c r="P16">
-        <v>-71.71965438736433</v>
+        <v>-184.8240808970149</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17">
-        <v>2.646304900532903</v>
+        <v>253.5832688564677</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>28.64392812222416</v>
+        <v>0.2618695535562728</v>
       </c>
       <c r="D17">
-        <v>0.03254825729389917</v>
+        <v>-0.1622469234658728</v>
       </c>
       <c r="E17">
-        <v>0.1349440177524654</v>
+        <v>-0.002487856170210536</v>
       </c>
       <c r="F17">
-        <v>-1.999999810693658</v>
+        <v>-1.956241394345466</v>
       </c>
       <c r="G17">
-        <v>-0.03113979509410816</v>
+        <v>0.008770027441980318</v>
       </c>
       <c r="H17">
-        <v>65.71787633436971</v>
+        <v>171.428574344364</v>
       </c>
       <c r="I17">
-        <v>66.16579388110144</v>
+        <v>120.5437313802238</v>
       </c>
       <c r="J17">
-        <v>121.5395205622169</v>
+        <v>25.29774045053272</v>
       </c>
       <c r="K17">
-        <v>128.4402575183722</v>
+        <v>68.82992519743624</v>
       </c>
       <c r="L17">
-        <v>0.1321209100411237</v>
+        <v>0.008960281225997589</v>
       </c>
       <c r="M17">
-        <v>0.001939280818943257</v>
+        <v>0.00271460981676947</v>
       </c>
       <c r="N17">
-        <v>7.66398330006273E-25</v>
+        <v>0.0001999970018960722</v>
       </c>
       <c r="O17">
-        <v>-68.40302639663129</v>
+        <v>250.0632659773441</v>
       </c>
       <c r="P17">
-        <v>-57.67629934326195</v>
+        <v>181.6915601401241</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18">
-        <v>2.830603326154852</v>
+        <v>269.1871442783465</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>28.34394403757355</v>
+        <v>0.4114353482725129</v>
       </c>
       <c r="D18">
-        <v>0.02286746195829881</v>
+        <v>0.1717321646737955</v>
       </c>
       <c r="E18">
-        <v>0.1716769414562861</v>
+        <v>0.004978138829117581</v>
       </c>
       <c r="F18">
-        <v>-1.941931444187555</v>
+        <v>-1.829222331675156</v>
       </c>
       <c r="G18">
-        <v>-0.003014252561297861</v>
+        <v>0.02992207522772276</v>
       </c>
       <c r="H18">
-        <v>94.09696873531539</v>
+        <v>-2.849877287823442E-06</v>
       </c>
       <c r="I18">
-        <v>91.87932625864471</v>
+        <v>-2.13884299098005E-06</v>
       </c>
       <c r="J18">
-        <v>79.99472038654166</v>
+        <v>26.73780922235307</v>
       </c>
       <c r="K18">
-        <v>79.80041194766807</v>
+        <v>69.20319530570514</v>
       </c>
       <c r="L18">
-        <v>0.121119769646981</v>
+        <v>0.00815364843837431</v>
       </c>
       <c r="M18">
-        <v>-3.279916929011744E-24</v>
+        <v>0.002636220285335493</v>
       </c>
       <c r="N18">
-        <v>-0.00294914023710311</v>
+        <v>0.000199991225148401</v>
       </c>
       <c r="O18">
-        <v>256.187546612053</v>
+        <v>-253.6365632449449</v>
       </c>
       <c r="P18">
-        <v>-100.8695702955812</v>
+        <v>-182.4214296008324</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19">
-        <v>3.018736632587401</v>
+        <v>284.8086591298096</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>27.52529179726817</v>
+        <v>0.3702912562479955</v>
       </c>
       <c r="D19">
-        <v>0.02043185750597484</v>
+        <v>-0.1618283944874649</v>
       </c>
       <c r="E19">
-        <v>0.2209513005327868</v>
+        <v>0.00169021460883954</v>
       </c>
       <c r="F19">
-        <v>-1.74833029082763</v>
+        <v>-1.595913021717977</v>
       </c>
       <c r="G19">
-        <v>0.03393054705061835</v>
+        <v>0.0498148844357296</v>
       </c>
       <c r="H19">
-        <v>67.32405371162919</v>
+        <v>171.4285743461716</v>
       </c>
       <c r="I19">
-        <v>67.77763150691243</v>
+        <v>88.78309554005817</v>
       </c>
       <c r="J19">
-        <v>78.52319294319351</v>
+        <v>26.11769188959753</v>
       </c>
       <c r="K19">
-        <v>79.54585574299591</v>
+        <v>68.20060876669073</v>
       </c>
       <c r="L19">
-        <v>0.1191978778303996</v>
+        <v>0.0117873395639554</v>
       </c>
       <c r="M19">
-        <v>503.9356604045615</v>
+        <v>0.004295489607545928</v>
       </c>
       <c r="N19">
-        <v>5.318210895122265E-28</v>
+        <v>0.0001999968699617555</v>
       </c>
       <c r="O19">
-        <v>-332.7536131185527</v>
+        <v>250.0615280100172</v>
       </c>
       <c r="P19">
-        <v>-103.0542606003206</v>
+        <v>182.4272166150001</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20">
-        <v>3.209489361479243</v>
+        <v>295.7725276897305</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>27.64652984520336</v>
+        <v>0.656522460249566</v>
       </c>
       <c r="D20">
-        <v>-0.008330811044512188</v>
+        <v>0.1734211685786633</v>
       </c>
       <c r="E20">
-        <v>0.2380682547519472</v>
+        <v>0.00669865785399826</v>
       </c>
       <c r="F20">
-        <v>-1.428809801732096</v>
+        <v>-1.226376666578598</v>
       </c>
       <c r="G20">
-        <v>0.07796339368739101</v>
+        <v>0.0781407524891182</v>
       </c>
       <c r="H20">
-        <v>87.52022694410493</v>
+        <v>-2.889993843088816E-06</v>
       </c>
       <c r="I20">
-        <v>83.43484896976381</v>
+        <v>-2.686520688912521E-06</v>
       </c>
       <c r="J20">
-        <v>102.2377175346772</v>
+        <v>15.72786600503182</v>
       </c>
       <c r="K20">
-        <v>85.58423591373686</v>
+        <v>65.78688326562006</v>
       </c>
       <c r="L20">
-        <v>0.09087146402773645</v>
+        <v>0.01492236708512812</v>
       </c>
       <c r="M20">
-        <v>4.129029810154228E-30</v>
+        <v>0.00605690987693816</v>
       </c>
       <c r="N20">
-        <v>-340.5057285290218</v>
+        <v>0.0001999853523934024</v>
       </c>
       <c r="O20">
-        <v>262.4399918949118</v>
+        <v>-254.7295076785167</v>
       </c>
       <c r="P20">
-        <v>-171.8350549962871</v>
+        <v>-183.9055357435065</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21">
-        <v>3.40324726950419</v>
+        <v>305.4770220440475</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>26.75426692319439</v>
+        <v>0.4587012334363274</v>
       </c>
       <c r="D21">
-        <v>-0.01524613692329107</v>
+        <v>-0.1550155039255171</v>
       </c>
       <c r="E21">
-        <v>0.2760300333001882</v>
+        <v>0.003356509518256488</v>
       </c>
       <c r="F21">
-        <v>-0.9511877451839259</v>
+        <v>-0.6745565889967078</v>
       </c>
       <c r="G21">
-        <v>0.1279110609036712</v>
+        <v>0.1146179938937624</v>
       </c>
       <c r="H21">
-        <v>68.32492373140883</v>
+        <v>171.4285743590031</v>
       </c>
       <c r="I21">
-        <v>69.4524457427579</v>
+        <v>113.6141856175414</v>
       </c>
       <c r="J21">
-        <v>85.56676236461699</v>
+        <v>18.59209596466039</v>
       </c>
       <c r="K21">
-        <v>75.72387214062176</v>
+        <v>70.26780160428</v>
       </c>
       <c r="L21">
-        <v>0.106271284886993</v>
+        <v>0.01200226614513192</v>
       </c>
       <c r="M21">
-        <v>7.00789265528821E-05</v>
+        <v>0.01100641330067549</v>
       </c>
       <c r="N21">
-        <v>-1.17434611415472E-24</v>
+        <v>0.0001999966264942684</v>
       </c>
       <c r="O21">
-        <v>-106.3855923017031</v>
+        <v>253.419809273886</v>
       </c>
       <c r="P21">
-        <v>-207.2497389191921</v>
+        <v>184.6751269290639</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22">
-        <v>3.604119813775911</v>
+        <v>314.4846013004699</v>
       </c>
       <c r="B22">
         <v>0.003183098861837901</v>
       </c>
       <c r="C22">
-        <v>26.00634421883393</v>
+        <v>0.888680728703259</v>
       </c>
       <c r="D22">
-        <v>-0.028085495899735</v>
+        <v>0.1661144116921349</v>
       </c>
       <c r="E22">
-        <v>0.2764568842117314</v>
+        <v>0.01033063794965093</v>
       </c>
       <c r="F22">
-        <v>-0.2760139041835133</v>
+        <v>0.01230785083917473</v>
       </c>
       <c r="G22">
-        <v>0.1666787013563632</v>
+        <v>0.1271137204221079</v>
       </c>
       <c r="H22">
-        <v>81.43306235505052</v>
+        <v>-2.921930451875139E-06</v>
       </c>
       <c r="I22">
-        <v>77.1717678403068</v>
+        <v>-2.777202218570391E-06</v>
       </c>
       <c r="J22">
-        <v>72.85539721410859</v>
+        <v>4.596166679722756</v>
       </c>
       <c r="K22">
-        <v>75.59838168285037</v>
+        <v>67.19869455017742</v>
       </c>
       <c r="L22">
-        <v>0.07135646548253842</v>
+        <v>0.02188793713707414</v>
       </c>
       <c r="M22">
-        <v>-9.544694409049545E-30</v>
+        <v>0.02649208092763519</v>
       </c>
       <c r="N22">
-        <v>-1335.892709540615</v>
+        <v>0.0001999194820420282</v>
       </c>
       <c r="O22">
-        <v>327.0166767702015</v>
+        <v>-261.0023984752552</v>
       </c>
       <c r="P22">
-        <v>-169.2842546171157</v>
+        <v>-188.7108235847481</v>
       </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23">
-        <v>3.813986636381685</v>
+        <v>321.4890358289551</v>
       </c>
       <c r="B23">
         <v>0.009708451528605597</v>
       </c>
       <c r="C23">
-        <v>24.45368675157986</v>
+        <v>0.6154758125602243</v>
       </c>
       <c r="D23">
-        <v>-0.03880062472196966</v>
+        <v>-0.138666585104283</v>
       </c>
       <c r="E23">
-        <v>0.3122155920487815</v>
+        <v>0.006388057961833128</v>
       </c>
       <c r="F23">
-        <v>0.46861965900346</v>
+        <v>0.7686169701497171</v>
       </c>
       <c r="G23">
-        <v>0.1775396088560895</v>
+        <v>0.1297141077183976</v>
       </c>
       <c r="H23">
-        <v>60.42025166434669</v>
+        <v>171.4285743805366</v>
       </c>
       <c r="I23">
-        <v>59.92394348416438</v>
+        <v>134.3447457761123</v>
       </c>
       <c r="J23">
-        <v>46.18691910975839</v>
+        <v>9.327762002679201</v>
       </c>
       <c r="K23">
-        <v>67.49396245266546</v>
+        <v>74.57505498767885</v>
       </c>
       <c r="L23">
-        <v>0.08093771193798818</v>
+        <v>0.01282677856362168</v>
       </c>
       <c r="M23">
-        <v>4.177142603132374E-05</v>
+        <v>1.684952743416839</v>
       </c>
       <c r="N23">
-        <v>-2.047357458758156E-25</v>
+        <v>0.0001999962208929666</v>
       </c>
       <c r="O23">
-        <v>-137.4727861493442</v>
+        <v>261.3313800531331</v>
       </c>
       <c r="P23">
-        <v>-223.9283384094417</v>
+        <v>189.966028143527</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24">
-        <v>4.031927964921906</v>
+        <v>328.2314819470565</v>
       </c>
       <c r="B24">
         <v>0.01639295913846519</v>
       </c>
       <c r="C24">
-        <v>23.54491119809519</v>
+        <v>1.033089376885512</v>
       </c>
       <c r="D24">
-        <v>-0.04880884224298262</v>
+        <v>0.149180665874344</v>
       </c>
       <c r="E24">
-        <v>0.306428747886173</v>
+        <v>0.01815686256805184</v>
       </c>
       <c r="F24">
-        <v>1.1270084947225</v>
+        <v>1.348164390776472</v>
       </c>
       <c r="G24">
-        <v>0.1594283793624685</v>
+        <v>0.07461102117586228</v>
       </c>
       <c r="H24">
-        <v>76.05838811512807</v>
+        <v>-2.951966116626071E-06</v>
       </c>
       <c r="I24">
-        <v>72.31711816135441</v>
+        <v>-1.871614698420237E-06</v>
       </c>
       <c r="J24">
-        <v>64.88454155099977</v>
+        <v>0.09678923606466314</v>
       </c>
       <c r="K24">
-        <v>69.35343767710854</v>
+        <v>81.1227813880764</v>
       </c>
       <c r="L24">
-        <v>0.06217117779341732</v>
+        <v>0.03291373387411867</v>
       </c>
       <c r="M24">
-        <v>-1.121288683062752E-28</v>
+        <v>0.03558776008919132</v>
       </c>
       <c r="N24">
-        <v>-339.9507502921666</v>
+        <v>0.0001989843292765865</v>
       </c>
       <c r="O24">
-        <v>275.3206488217727</v>
+        <v>-275.3045187253791</v>
       </c>
       <c r="P24">
-        <v>-193.6760403331835</v>
+        <v>-198.7228724399485</v>
       </c>
     </row>
     <row r="25" spans="1:16">
       <c r="A25">
-        <v>4.254212962298838</v>
+        <v>333.7952521358886</v>
       </c>
       <c r="B25">
         <v>0.01986760647169749</v>
       </c>
       <c r="C25">
-        <v>22.59126197695183</v>
+        <v>0.79381099390087</v>
       </c>
       <c r="D25">
-        <v>-0.05467298210836744</v>
+        <v>-0.1081914460731947</v>
       </c>
       <c r="E25">
-        <v>0.3435125175454988</v>
+        <v>0.01253052892215573</v>
       </c>
       <c r="F25">
-        <v>1.594959641935798</v>
+        <v>1.757522423515591</v>
       </c>
       <c r="G25">
-        <v>0.1273950904415034</v>
+        <v>0.04854325114322183</v>
       </c>
       <c r="H25">
-        <v>56.388549796456</v>
+        <v>171.428574386137</v>
       </c>
       <c r="I25">
-        <v>56.63439290133422</v>
+        <v>171.4285714467678</v>
       </c>
       <c r="J25">
-        <v>60.96788944995595</v>
+        <v>1.301308841704538</v>
       </c>
       <c r="K25">
-        <v>64.51840229927424</v>
+        <v>82.91764999928708</v>
       </c>
       <c r="L25">
-        <v>0.07148982424466999</v>
+        <v>0.01765796195142317</v>
       </c>
       <c r="M25">
-        <v>4.124450162148068E-05</v>
+        <v>16.84390559239931</v>
       </c>
       <c r="N25">
-        <v>-4.964718211583831E-24</v>
+        <v>0.0001999956203532667</v>
       </c>
       <c r="O25">
-        <v>-144.333003941144</v>
+        <v>269.779755455377</v>
       </c>
       <c r="P25">
-        <v>-237.1809739169186</v>
+        <v>193.3878960471683</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26">
-        <v>4.482652804149417</v>
+        <v>339.0810327987595</v>
       </c>
       <c r="B26">
         <v>0.02</v>
       </c>
       <c r="C26">
-        <v>21.85315022846399</v>
+        <v>1.118019419921428</v>
       </c>
       <c r="D26">
-        <v>-0.05990869498501382</v>
+        <v>0.1222204094400906</v>
       </c>
       <c r="E26">
-        <v>0.3261467804699089</v>
+        <v>0.05244359118300083</v>
       </c>
       <c r="F26">
-        <v>1.876354003335981</v>
+        <v>1.891270765280587</v>
       </c>
       <c r="G26">
-        <v>0.09894187404917255</v>
+        <v>-0.01422445674307088</v>
       </c>
       <c r="H26">
-        <v>70.34173864295875</v>
+        <v>-2.958332313885664E-06</v>
       </c>
       <c r="I26">
-        <v>66.02293561445649</v>
+        <v>103.428846709922</v>
       </c>
       <c r="J26">
-        <v>62.22500730921784</v>
+        <v>54.99045067199155</v>
       </c>
       <c r="K26">
-        <v>63.58001218990383</v>
+        <v>159.8264313210843</v>
       </c>
       <c r="L26">
-        <v>0.05567684862949855</v>
+        <v>0.04858570872906419</v>
       </c>
       <c r="M26">
-        <v>-2.669437567255827E-28</v>
+        <v>1.393607267550474E-05</v>
       </c>
       <c r="N26">
-        <v>-285.8759741480189</v>
+        <v>-50.59488761407561</v>
       </c>
       <c r="O26">
-        <v>258.0428116068421</v>
+        <v>-305.9030366082042</v>
       </c>
       <c r="P26">
-        <v>-204.0327083042688</v>
+        <v>-211.6377623197678</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27">
-        <v>4.718413167775238</v>
+        <v>343.6838936747593</v>
       </c>
       <c r="B27">
         <v>0.02</v>
       </c>
       <c r="C27">
-        <v>20.9587226103786</v>
+        <v>1.058329766453057</v>
       </c>
       <c r="D27">
-        <v>-0.06397206409210804</v>
+        <v>-0.05690972704156464</v>
       </c>
       <c r="E27">
-        <v>0.3616505122086126</v>
+        <v>0.01802489696765177</v>
       </c>
       <c r="F27">
-        <v>1.999999890945066</v>
+        <v>2.000000049198159</v>
       </c>
       <c r="G27">
-        <v>0.07501339881310645</v>
+        <v>0.0003179395310395035</v>
       </c>
       <c r="H27">
-        <v>52.74375469392419</v>
+        <v>171.428574392333</v>
       </c>
       <c r="I27">
-        <v>53.36088471995214</v>
+        <v>-1.130636519702664E-06</v>
       </c>
       <c r="J27">
-        <v>57.17252085368987</v>
+        <v>0.02520905350446062</v>
       </c>
       <c r="K27">
-        <v>60.13441786971049</v>
+        <v>87.79389609971304</v>
       </c>
       <c r="L27">
-        <v>0.06298101072657836</v>
+        <v>0.02259688567885212</v>
       </c>
       <c r="M27">
-        <v>1.568764306202474E-25</v>
+        <v>15.75325024294949</v>
       </c>
       <c r="N27">
-        <v>-5.367531465370823E-05</v>
+        <v>0.0001999951357830614</v>
       </c>
       <c r="O27">
-        <v>-138.9509047335262</v>
+        <v>298.1243837404094</v>
       </c>
       <c r="P27">
-        <v>-240.9259860860476</v>
+        <v>203.8595111834251</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28">
-        <v>4.963023535182331</v>
+        <v>347.9048297120319</v>
       </c>
       <c r="B28">
         <v>0.02</v>
       </c>
       <c r="C28">
-        <v>20.25710807129565</v>
+        <v>1.327017432663145</v>
       </c>
       <c r="D28">
-        <v>-0.06617149478998177</v>
+        <v>0.07589798474770515</v>
       </c>
       <c r="E28">
-        <v>0.3421130304013377</v>
+        <v>0.04002605094503976</v>
       </c>
       <c r="F28">
-        <v>1.999999498710614</v>
+        <v>1.933563927507374</v>
       </c>
       <c r="G28">
-        <v>0.05611899938720128</v>
+        <v>-0.05057406156855061</v>
       </c>
       <c r="H28">
-        <v>65.15825179911336</v>
+        <v>-2.961310528341408E-06</v>
       </c>
       <c r="I28">
-        <v>60.6424258199774</v>
+        <v>-2.175712204485554E-06</v>
       </c>
       <c r="J28">
-        <v>57.4461050429945</v>
+        <v>32.48018507158981</v>
       </c>
       <c r="K28">
-        <v>58.92615039693928</v>
+        <v>146.1378839056372</v>
       </c>
       <c r="L28">
-        <v>0.05132264680241373</v>
+        <v>0.03368323206949987</v>
       </c>
       <c r="M28">
-        <v>2.830983595433104E-28</v>
+        <v>3.47787717596384E-05</v>
       </c>
       <c r="N28">
-        <v>-28.62000192897993</v>
+        <v>-29.28021047089428</v>
       </c>
       <c r="O28">
-        <v>224.1530884898876</v>
+        <v>-301.3860848256655</v>
       </c>
       <c r="P28">
-        <v>-215.3147127432239</v>
+        <v>-184.6913196339694</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29">
-        <v>5.216391358850169</v>
+        <v>351.7838196390722</v>
       </c>
       <c r="B29">
         <v>0.02</v>
       </c>
       <c r="C29">
-        <v>19.56986153668406</v>
+        <v>1.276641886751603</v>
       </c>
       <c r="D29">
-        <v>-0.0666321352467568</v>
+        <v>-0.03026005628584125</v>
       </c>
       <c r="E29">
-        <v>0.3755668045678391</v>
+        <v>0.01883992507947921</v>
       </c>
       <c r="F29">
-        <v>1.909801751400547</v>
+        <v>1.723839738318365</v>
       </c>
       <c r="G29">
-        <v>0.04204554436509146</v>
+        <v>0.05968003560393236</v>
       </c>
       <c r="H29">
-        <v>50.04380040419706</v>
+        <v>171.4285743897674</v>
       </c>
       <c r="I29">
-        <v>51.01071316721705</v>
+        <v>-2.594230685574422E-06</v>
       </c>
       <c r="J29">
-        <v>55.19162123256464</v>
+        <v>0.1943252489873309</v>
       </c>
       <c r="K29">
-        <v>56.66425996408394</v>
+        <v>103.850073730754</v>
       </c>
       <c r="L29">
-        <v>0.06332210453117473</v>
+        <v>0.02427553839522184</v>
       </c>
       <c r="M29">
-        <v>1.59989329059248E-26</v>
+        <v>15.63296892205036</v>
       </c>
       <c r="N29">
-        <v>2.426879561172013E-07</v>
+        <v>0.0001999934466598271</v>
       </c>
       <c r="O29">
-        <v>-118.7746998057287</v>
+        <v>282.0032639314232</v>
       </c>
       <c r="P29">
-        <v>-244.3834921872013</v>
+        <v>176.0627292231166</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30">
-        <v>5.479401382938831</v>
+        <v>355.4215195172922</v>
       </c>
       <c r="B30">
         <v>0.02</v>
       </c>
       <c r="C30">
-        <v>18.90566457868778</v>
+        <v>1.502300650304962</v>
       </c>
       <c r="D30">
-        <v>-0.0656040060246442</v>
+        <v>0.05225687843390924</v>
       </c>
       <c r="E30">
-        <v>0.3568248022896389</v>
+        <v>0.03652927614555809</v>
       </c>
       <c r="F30">
-        <v>1.763105826308185</v>
+        <v>1.971801869695252</v>
       </c>
       <c r="G30">
-        <v>0.03335066998658347</v>
+        <v>0.01245174436666112</v>
       </c>
       <c r="H30">
-        <v>60.35793359666894</v>
+        <v>-2.953260079981019E-06</v>
       </c>
       <c r="I30">
-        <v>55.66827258623834</v>
+        <v>-2.476691795817937E-06</v>
       </c>
       <c r="J30">
-        <v>53.10798433878568</v>
+        <v>31.16980258046534</v>
       </c>
       <c r="K30">
-        <v>54.87485800965162</v>
+        <v>151.9245538799877</v>
       </c>
       <c r="L30">
-        <v>0.0522304813512872</v>
+        <v>0.02427849587366249</v>
       </c>
       <c r="M30">
-        <v>91.41256820290248</v>
+        <v>3.963478217760007E-05</v>
       </c>
       <c r="N30">
-        <v>2.236481725476671E-24</v>
+        <v>-26.95479607823283</v>
       </c>
       <c r="O30">
-        <v>127.3548453895466</v>
+        <v>-255.7835745633932</v>
       </c>
       <c r="P30">
-        <v>-217.4153173629903</v>
+        <v>-142.2748380888008</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31">
-        <v>5.750999871292233</v>
+        <v>358.8171772747159</v>
       </c>
       <c r="B31">
         <v>0.02</v>
       </c>
       <c r="C31">
-        <v>18.49700693031129</v>
+        <v>1.461633913731184</v>
       </c>
       <c r="D31">
-        <v>-0.06329929296912493</v>
+        <v>-0.01856597247728323</v>
       </c>
       <c r="E31">
-        <v>0.3800973215982708</v>
+        <v>0.01701379535939716</v>
       </c>
       <c r="F31">
-        <v>1.591762018829999</v>
+        <v>2.000000049641876</v>
       </c>
       <c r="G31">
-        <v>0.02841764661952779</v>
+        <v>-0.03144914128015154</v>
       </c>
       <c r="H31">
-        <v>48.01169906866211</v>
+        <v>171.4285743718356</v>
       </c>
       <c r="I31">
-        <v>49.07286240900848</v>
+        <v>57.46679067473682</v>
       </c>
       <c r="J31">
-        <v>58.09786346314313</v>
+        <v>0.1542633083456333</v>
       </c>
       <c r="K31">
-        <v>54.94336917923483</v>
+        <v>112.6619578987169</v>
       </c>
       <c r="L31">
-        <v>0.06939279321942551</v>
+        <v>0.02348097546284098</v>
       </c>
       <c r="M31">
-        <v>-5.957587782203527E-29</v>
+        <v>7.158342810607756</v>
       </c>
       <c r="N31">
-        <v>1.677535141814168E-05</v>
+        <v>0.0001999902651772596</v>
       </c>
       <c r="O31">
-        <v>-66.04634201202123</v>
+        <v>244.6562394080815</v>
       </c>
       <c r="P31">
-        <v>-244.3730092245467</v>
+        <v>139.2720250617973</v>
       </c>
     </row>
     <row r="32" spans="1:16">
       <c r="A32">
-        <v>6.030808714007093</v>
+        <v>362.0551415401488</v>
       </c>
       <c r="B32">
         <v>0.02</v>
       </c>
       <c r="C32">
-        <v>17.90056985576439</v>
+        <v>1.659464663848217</v>
       </c>
       <c r="D32">
-        <v>-0.05867408132330796</v>
+        <v>0.04092789256184379</v>
       </c>
       <c r="E32">
-        <v>0.3682562603721562</v>
+        <v>0.02832343158355989</v>
       </c>
       <c r="F32">
-        <v>1.42129742159429</v>
+        <v>1.776863818126263</v>
       </c>
       <c r="G32">
-        <v>0.02802251492798536</v>
+        <v>-0.08149317204961917</v>
       </c>
       <c r="H32">
-        <v>56.69189764168556</v>
+        <v>-2.938688058958549E-06</v>
       </c>
       <c r="I32">
-        <v>52.00463748034964</v>
+        <v>14.45191930055176</v>
       </c>
       <c r="J32">
-        <v>49.12241722812717</v>
+        <v>8.307570489194399</v>
       </c>
       <c r="K32">
-        <v>51.33806932408342</v>
+        <v>129.2083313462189</v>
       </c>
       <c r="L32">
-        <v>0.06197848919785732</v>
+        <v>0.02181167886918744</v>
       </c>
       <c r="M32">
-        <v>68.92316978135646</v>
+        <v>7.977459785151058</v>
       </c>
       <c r="N32">
-        <v>3.11855260816492E-25</v>
+        <v>0.000199864075601082</v>
       </c>
       <c r="O32">
-        <v>121.056377388412</v>
+        <v>-213.9240847723869</v>
       </c>
       <c r="P32">
-        <v>-222.0389915312417</v>
+        <v>-113.7610134748317</v>
       </c>
     </row>
     <row r="33" spans="1:16">
       <c r="A33">
-        <v>6.320028452627537</v>
+        <v>365.1638489836643</v>
       </c>
       <c r="B33">
         <v>0.02</v>
       </c>
       <c r="C33">
-        <v>17.45987373387959</v>
+        <v>1.625582917253973</v>
       </c>
       <c r="D33">
-        <v>-0.05271370901780061</v>
+        <v>-0.01273038082837005</v>
       </c>
       <c r="E33">
-        <v>0.3905904597524811</v>
+        <v>0.01472717558567554</v>
       </c>
       <c r="F33">
-        <v>1.290376152413829</v>
+        <v>1.297372152897303</v>
       </c>
       <c r="G33">
-        <v>0.03280378142384666</v>
+        <v>-0.1323918098790651</v>
       </c>
       <c r="H33">
-        <v>45.86854625080127</v>
+        <v>171.4285742934214</v>
       </c>
       <c r="I33">
-        <v>46.80838075915286</v>
+        <v>171.4285741221187</v>
       </c>
       <c r="J33">
-        <v>51.8006688142414</v>
+        <v>17.68033896057787</v>
       </c>
       <c r="K33">
-        <v>51.9675529646732</v>
+        <v>134.2326690355763</v>
       </c>
       <c r="L33">
-        <v>0.07501908524007181</v>
+        <v>0.02152180303315001</v>
       </c>
       <c r="M33">
-        <v>261.7167072585108</v>
+        <v>1.581620754370884</v>
       </c>
       <c r="N33">
-        <v>-9.598535298243677E-31</v>
+        <v>0.0001999847464276984</v>
       </c>
       <c r="O33">
-        <v>-247.3352899442067</v>
+        <v>203.4016984827308</v>
       </c>
       <c r="P33">
-        <v>-221.0784672431397</v>
+        <v>109.2483861128341</v>
       </c>
     </row>
     <row r="34" spans="1:16">
       <c r="A34">
-        <v>6.611466678105559</v>
+        <v>368.2045912450644</v>
       </c>
       <c r="B34">
         <v>0.02</v>
       </c>
       <c r="C34">
-        <v>17.68452854028479</v>
+        <v>1.801506079998902</v>
       </c>
       <c r="D34">
-        <v>-0.05277535762174398</v>
+        <v>0.03374411492090467</v>
       </c>
       <c r="E34">
-        <v>0.3598096460151987</v>
+        <v>0.02189995110211204</v>
       </c>
       <c r="F34">
-        <v>1.203009380508814</v>
+        <v>0.5274608441792159</v>
       </c>
       <c r="G34">
-        <v>0.03704144584465612</v>
+        <v>-0.1862692065447703</v>
       </c>
       <c r="H34">
-        <v>55.3170429663875</v>
+        <v>-2.883323264055616E-06</v>
       </c>
       <c r="I34">
-        <v>50.67718014078041</v>
+        <v>87.72442731358301</v>
       </c>
       <c r="J34">
-        <v>56.83232653198873</v>
+        <v>14.39861538125679</v>
       </c>
       <c r="K34">
-        <v>53.18848044892403</v>
+        <v>134.7382593024339</v>
       </c>
       <c r="L34">
-        <v>0.06866613363868762</v>
+        <v>0.02058822699095207</v>
       </c>
       <c r="M34">
-        <v>43.3831044343839</v>
+        <v>0.3208649184350714</v>
       </c>
       <c r="N34">
-        <v>-1.651680962403308E-26</v>
+        <v>0.000199945536750804</v>
       </c>
       <c r="O34">
-        <v>171.3099134863379</v>
+        <v>-183.8144761536342</v>
       </c>
       <c r="P34">
-        <v>-225.9957916261661</v>
+        <v>-95.39638960489245</v>
       </c>
     </row>
     <row r="35" spans="1:16">
       <c r="A35">
-        <v>6.905138940281997</v>
+        <v>371.1984544463602</v>
       </c>
       <c r="B35">
         <v>0.02</v>
       </c>
       <c r="C35">
-        <v>17.23401778798979</v>
+        <v>1.777658155516802</v>
       </c>
       <c r="D35">
-        <v>-0.04580828679797188</v>
+        <v>-0.008665054664186964</v>
       </c>
       <c r="E35">
-        <v>0.3915808318291374</v>
+        <v>0.01652353012017592</v>
       </c>
       <c r="F35">
-        <v>1.151114730230537</v>
+        <v>-0.5440211802652701</v>
       </c>
       <c r="G35">
-        <v>0.04242575900457433</v>
+        <v>-0.2394817762118191</v>
       </c>
       <c r="H35">
-        <v>45.92504654053485</v>
+        <v>48.32547105896449</v>
       </c>
       <c r="I35">
-        <v>46.83243496698204</v>
+        <v>171.4285742023826</v>
       </c>
       <c r="J35">
-        <v>51.47095802622008</v>
+        <v>8.283212327689206</v>
       </c>
       <c r="K35">
-        <v>49.92742206220482</v>
+        <v>126.6720054807343</v>
       </c>
       <c r="L35">
-        <v>0.08329081763892782</v>
+        <v>0.01513165157237306</v>
       </c>
       <c r="M35">
-        <v>280.1664486362501</v>
+        <v>20.07256326739708</v>
       </c>
       <c r="N35">
-        <v>2.567646184633904E-29</v>
+        <v>0.0001999765356002858</v>
       </c>
       <c r="O35">
-        <v>-265.7739080861951</v>
+        <v>31.47237693223547</v>
       </c>
       <c r="P35">
-        <v>-213.8737271608356</v>
+        <v>25.68974933550225</v>
       </c>
     </row>
     <row r="36" spans="1:16">
       <c r="A36">
-        <v>7.200296208691094</v>
+        <v>374.2239507181678</v>
       </c>
       <c r="B36">
         <v>0.02</v>
       </c>
       <c r="C36">
-        <v>17.53188097188578</v>
+        <v>1.902121033193476</v>
       </c>
       <c r="D36">
-        <v>-0.04720362886079962</v>
+        <v>0.02299553303131527</v>
       </c>
       <c r="E36">
-        <v>0.3589701590505832</v>
+        <v>0.4772008638492212</v>
       </c>
       <c r="F36">
-        <v>1.149069956547078</v>
+        <v>-2.000000049768825</v>
       </c>
       <c r="G36">
-        <v>0.04804723048819105</v>
+        <v>-0.3048187110169432</v>
       </c>
       <c r="H36">
-        <v>54.22641023152722</v>
+        <v>-2.902631722834846E-06</v>
       </c>
       <c r="I36">
-        <v>49.72164211795151</v>
+        <v>171.4285740033698</v>
       </c>
       <c r="J36">
-        <v>56.59770943834998</v>
+        <v>51.7215908871168</v>
       </c>
       <c r="K36">
-        <v>53.5163566059118</v>
+        <v>171.4285706970392</v>
       </c>
       <c r="L36">
-        <v>0.07150070286149632</v>
+        <v>0.118695261913302</v>
       </c>
       <c r="M36">
-        <v>59.16893691467783</v>
+        <v>264.7336158699712</v>
       </c>
       <c r="N36">
-        <v>-1.453888720114538E-25</v>
+        <v>-491.7553598311159</v>
       </c>
       <c r="O36">
-        <v>154.8998612278962</v>
+        <v>-221.0228088134109</v>
       </c>
       <c r="P36">
-        <v>-227.1009672237715</v>
+        <v>-128.2331304978224</v>
       </c>
     </row>
     <row r="37" spans="1:16">
       <c r="A37">
-        <v>7.496085728932864</v>
+        <v>376.0546544168142</v>
       </c>
       <c r="B37">
         <v>0.02</v>
       </c>
       <c r="C37">
-        <v>17.1431139479808</v>
+        <v>3.977888568276782</v>
       </c>
       <c r="D37">
-        <v>-0.04082649287382356</v>
+        <v>0.03834973784790086</v>
       </c>
       <c r="E37">
-        <v>0.3900412960272182</v>
+        <v>0.2148393726893207</v>
       </c>
       <c r="F37">
-        <v>1.182521595426026</v>
+        <v>-1.805915678483411</v>
       </c>
       <c r="G37">
-        <v>0.05388224042737847</v>
+        <v>0.1209905938377209</v>
       </c>
       <c r="H37">
-        <v>46.31727679658388</v>
+        <v>171.42857426433</v>
       </c>
       <c r="I37">
-        <v>47.09303475600134</v>
+        <v>-2.834215377080956E-06</v>
       </c>
       <c r="J37">
-        <v>52.73515869816585</v>
+        <v>152.0069759107495</v>
       </c>
       <c r="K37">
-        <v>49.45763745343412</v>
+        <v>171.4285515947262</v>
       </c>
       <c r="L37">
-        <v>0.1830028358104935</v>
+        <v>0.04143753457643821</v>
       </c>
       <c r="M37">
-        <v>238.5727406092965</v>
+        <v>34.47948396533056</v>
       </c>
       <c r="N37">
-        <v>-3.786883064217709E-29</v>
+        <v>-388.8832265075421</v>
       </c>
       <c r="O37">
-        <v>-191.6909737606789</v>
+        <v>-118.7594280774801</v>
       </c>
       <c r="P37">
-        <v>-220.1070107144204</v>
+        <v>-60.50391698307328</v>
       </c>
     </row>
     <row r="38" spans="1:16">
       <c r="A38">
-        <v>7.793938959118723</v>
+        <v>377.2989801105899</v>
       </c>
       <c r="B38">
         <v>0.02</v>
       </c>
       <c r="C38">
-        <v>17.2569442584117</v>
+        <v>4.754166510182819</v>
       </c>
       <c r="D38">
-        <v>-0.04450722972638575</v>
+        <v>0.01105672481320672</v>
       </c>
       <c r="E38">
-        <v>0.3647261767296222</v>
+        <v>0.1025970988266143</v>
       </c>
       <c r="F38">
-        <v>1.260403551929532</v>
+        <v>-0.7760956436413973</v>
       </c>
       <c r="G38">
-        <v>0.06122746719624157</v>
+        <v>0.1872238157825133</v>
       </c>
       <c r="H38">
-        <v>51.3643419549745</v>
+        <v>171.428574368873</v>
       </c>
       <c r="I38">
-        <v>47.30676760082309</v>
+        <v>-2.919701165139602E-06</v>
       </c>
       <c r="J38">
-        <v>54.88863585206523</v>
+        <v>1.039546254646192</v>
       </c>
       <c r="K38">
-        <v>52.54830344708554</v>
+        <v>2.081270048997986E-07</v>
       </c>
       <c r="L38">
-        <v>0.06497434698849419</v>
+        <v>0.0295173129475529</v>
       </c>
       <c r="M38">
-        <v>141.005231303369</v>
+        <v>221.5369485367968</v>
       </c>
       <c r="N38">
-        <v>4.115314585031116E-25</v>
+        <v>0.0001998753840946112</v>
       </c>
       <c r="O38">
-        <v>-3.721436148868396</v>
+        <v>-22.52059033976505</v>
       </c>
       <c r="P38">
-        <v>-232.7946857549203</v>
+        <v>-11.06638168497132</v>
       </c>
     </row>
     <row r="39" spans="1:16">
       <c r="A39">
-        <v>8.091122931133524</v>
+        <v>378.3702587848759</v>
       </c>
       <c r="B39">
         <v>0.02</v>
       </c>
       <c r="C39">
-        <v>17.15579617263688</v>
+        <v>5.254159172433778</v>
       </c>
       <c r="D39">
-        <v>-0.04030892298840084</v>
+        <v>0.01395247005557099</v>
       </c>
       <c r="E39">
-        <v>0.3724066999441362</v>
+        <v>0.0757927419418279</v>
       </c>
       <c r="F39">
-        <v>1.368312054915998</v>
+        <v>0.2732431060815674</v>
       </c>
       <c r="G39">
-        <v>0.06578103394254267</v>
+        <v>0.1730869302551418</v>
       </c>
       <c r="H39">
-        <v>48.38540008525107</v>
+        <v>171.4285737283847</v>
       </c>
       <c r="I39">
-        <v>48.7111656481016</v>
+        <v>76.52673769605225</v>
       </c>
       <c r="J39">
-        <v>54.2810219180784</v>
+        <v>166.0554239689108</v>
       </c>
       <c r="K39">
-        <v>50.12603376177968</v>
+        <v>164.4678350515972</v>
       </c>
       <c r="L39">
-        <v>0.08554277063520478</v>
+        <v>0.02147626711792422</v>
       </c>
       <c r="M39">
-        <v>231.1489103499916</v>
+        <v>25.88335224619073</v>
       </c>
       <c r="N39">
-        <v>4.228808392912525E-30</v>
+        <v>0.0001998994722095968</v>
       </c>
       <c r="O39">
-        <v>-187.4406879674974</v>
+        <v>-43.17984304639459</v>
       </c>
       <c r="P39">
-        <v>-224.8106749389978</v>
+        <v>-21.26991846151348</v>
       </c>
     </row>
     <row r="40" spans="1:16">
       <c r="A40">
-        <v>8.386889961011637</v>
+        <v>379.3429533001744</v>
       </c>
       <c r="B40">
         <v>0.02</v>
       </c>
       <c r="C40">
-        <v>17.33977792713401</v>
+        <v>5.526152435038922</v>
       </c>
       <c r="D40">
-        <v>-0.03835916300840144</v>
+        <v>0.007568644962309433</v>
       </c>
       <c r="E40">
-        <v>0.3530006922999765</v>
+        <v>0.05903805790634745</v>
       </c>
       <c r="F40">
-        <v>1.510366809876015</v>
+        <v>1.127986440594383</v>
       </c>
       <c r="G40">
-        <v>0.06803105745413768</v>
+        <v>0.1314970836254192</v>
       </c>
       <c r="H40">
-        <v>51.24712558420509</v>
+        <v>171.4285736709441</v>
       </c>
       <c r="I40">
-        <v>47.66051586194631</v>
+        <v>110.7119989847646</v>
       </c>
       <c r="J40">
-        <v>54.21574631735587</v>
+        <v>155.848686232725</v>
       </c>
       <c r="K40">
-        <v>52.25928490430933</v>
+        <v>152.4974943205549</v>
       </c>
       <c r="L40">
-        <v>0.05894958667273837</v>
+        <v>0.01538534438478167</v>
       </c>
       <c r="M40">
-        <v>178.9547673504247</v>
+        <v>38.13335607332485</v>
       </c>
       <c r="N40">
-        <v>-1.26899371976994E-30</v>
+        <v>0.0001999128852347269</v>
       </c>
       <c r="O40">
-        <v>-58.39929240621525</v>
+        <v>-25.57193255483217</v>
       </c>
       <c r="P40">
-        <v>-222.4604197367706</v>
+        <v>-12.34065099612679</v>
       </c>
     </row>
     <row r="41" spans="1:16">
       <c r="A41">
-        <v>8.679912998813574</v>
+        <v>380.2547684225888</v>
       </c>
       <c r="B41">
         <v>0.02</v>
       </c>
       <c r="C41">
-        <v>17.37181633112408</v>
+        <v>5.717419241253554</v>
       </c>
       <c r="D41">
-        <v>-0.03565586879593829</v>
+        <v>0.006059370227518984</v>
       </c>
       <c r="E41">
-        <v>0.3532485738191174</v>
+        <v>0.06024880258579402</v>
       </c>
       <c r="F41">
-        <v>1.665432468019806</v>
+        <v>1.690711245448674</v>
       </c>
       <c r="G41">
-        <v>0.06649472865838951</v>
+        <v>0.07275638098365574</v>
       </c>
       <c r="H41">
-        <v>49.35596465950109</v>
+        <v>171.428573926316</v>
       </c>
       <c r="I41">
-        <v>49.37339572028718</v>
+        <v>128.5495886312783</v>
       </c>
       <c r="J41">
-        <v>54.98363176134757</v>
+        <v>160.7097053986691</v>
       </c>
       <c r="K41">
-        <v>51.2147836187531</v>
+        <v>156.5968356754166</v>
       </c>
       <c r="L41">
-        <v>0.07010805522273364</v>
+        <v>0.02032316487778606</v>
       </c>
       <c r="M41">
-        <v>232.8721175334108</v>
+        <v>27.16577487064418</v>
       </c>
       <c r="N41">
-        <v>8.75580444618351E-30</v>
+        <v>0.0001999285238911662</v>
       </c>
       <c r="O41">
-        <v>-175.3403837717839</v>
+        <v>-18.5132944883605</v>
       </c>
       <c r="P41">
-        <v>-218.5827306315371</v>
+        <v>-8.611321593481827</v>
       </c>
     </row>
     <row r="42" spans="1:16">
       <c r="A42">
-        <v>8.970032173345627</v>
+        <v>381.1193026107814</v>
       </c>
       <c r="B42">
         <v>0.02</v>
       </c>
       <c r="C42">
-        <v>17.57525092731254</v>
+        <v>5.981907658553395</v>
       </c>
       <c r="D42">
-        <v>-0.03373530975851145</v>
+        <v>0.009478465703786841</v>
       </c>
       <c r="E42">
-        <v>0.3380644137788796</v>
+        <v>0.1001419930353323</v>
       </c>
       <c r="F42">
-        <v>1.816043997584537</v>
+        <v>1.965344683833926</v>
       </c>
       <c r="G42">
-        <v>0.06176038018371807</v>
+        <v>0.01775191993219125</v>
       </c>
       <c r="H42">
-        <v>51.69476284908245</v>
+        <v>16.56482213723607</v>
       </c>
       <c r="I42">
-        <v>48.51230848719851</v>
+        <v>-2.674605207773841E-06</v>
       </c>
       <c r="J42">
-        <v>54.78041270453804</v>
+        <v>162.5804756510469</v>
       </c>
       <c r="K42">
-        <v>52.62006601679167</v>
+        <v>158.1948540565109</v>
       </c>
       <c r="L42">
-        <v>0.0460562270289034</v>
+        <v>0.01675487733444195</v>
       </c>
       <c r="M42">
-        <v>204.9067526621295</v>
+        <v>73.28694592025991</v>
       </c>
       <c r="N42">
-        <v>1.042014786473643E-30</v>
+        <v>0.0001998846137043633</v>
       </c>
       <c r="O42">
-        <v>-96.28246823869799</v>
+        <v>-45.04224645676251</v>
       </c>
       <c r="P42">
-        <v>-210.0498392475159</v>
+        <v>-22.08878878410075</v>
       </c>
     </row>
     <row r="43" spans="1:16">
       <c r="A43">
-        <v>9.256564707387838</v>
+        <v>381.9370155204589</v>
       </c>
       <c r="B43">
         <v>0.02</v>
       </c>
       <c r="C43">
-        <v>17.70055364537248</v>
+        <v>6.330431678887159</v>
       </c>
       <c r="D43">
-        <v>-0.03405187191906311</v>
+        <v>0.0051170627011792</v>
       </c>
       <c r="E43">
-        <v>0.3315416378786687</v>
+        <v>0.08779113903198772</v>
       </c>
       <c r="F43">
-        <v>1.934703061322355</v>
+        <v>2.000000049471945</v>
       </c>
       <c r="G43">
-        <v>0.05268192102089887</v>
+        <v>-0.02143753089946938</v>
       </c>
       <c r="H43">
-        <v>50.52265550655499</v>
+        <v>171.4285735604942</v>
       </c>
       <c r="I43">
-        <v>50.33060267106741</v>
+        <v>171.4285738647595</v>
       </c>
       <c r="J43">
-        <v>55.57729762065753</v>
+        <v>164.4092968314938</v>
       </c>
       <c r="K43">
-        <v>52.44158949040104</v>
+        <v>157.1127758461759</v>
       </c>
       <c r="L43">
-        <v>0.05012939732648833</v>
+        <v>0.02348423847781038</v>
       </c>
       <c r="M43">
-        <v>239.2709021790526</v>
+        <v>55.87574092098637</v>
       </c>
       <c r="N43">
-        <v>1.107546326902022E-26</v>
+        <v>0.0001999182603059054</v>
       </c>
       <c r="O43">
-        <v>-171.7392613533504</v>
+        <v>0.7154276828146691</v>
       </c>
       <c r="P43">
-        <v>-208.1299181206844</v>
+        <v>-1.676288888033395</v>
       </c>
     </row>
     <row r="44" spans="1:16">
       <c r="A44">
-        <v>9.539675302571187</v>
+        <v>382.7073812169757</v>
       </c>
       <c r="B44">
         <v>0.02</v>
       </c>
       <c r="C44">
-        <v>17.92702921776986</v>
+        <v>6.752369202727333</v>
       </c>
       <c r="D44">
-        <v>-0.03265342238335223</v>
+        <v>0.009849008413409145</v>
       </c>
       <c r="E44">
-        <v>0.316265148381986</v>
+        <v>0.3012305668534642</v>
       </c>
       <c r="F44">
-        <v>1.999999864931711</v>
+        <v>1.834190011641778</v>
       </c>
       <c r="G44">
-        <v>0.03936629053902025</v>
+        <v>-0.0632777622729922</v>
       </c>
       <c r="H44">
-        <v>52.53312949785076</v>
+        <v>-2.887083871084747E-06</v>
       </c>
       <c r="I44">
-        <v>49.71993067741214</v>
+        <v>30.86810830068822</v>
       </c>
       <c r="J44">
-        <v>55.68799698598681</v>
+        <v>171.4201995094965</v>
       </c>
       <c r="K44">
-        <v>53.48212057534185</v>
+        <v>164.6005763717414</v>
       </c>
       <c r="L44">
-        <v>0.03379423605154323</v>
+        <v>0.03745068456376621</v>
       </c>
       <c r="M44">
-        <v>223.5503920599814</v>
+        <v>3.263872276429288E-06</v>
       </c>
       <c r="N44">
-        <v>2.352401576515773E-31</v>
+        <v>-108.9857890138413</v>
       </c>
       <c r="O44">
-        <v>-120.0131847962945</v>
+        <v>-127.4587917401681</v>
       </c>
       <c r="P44">
-        <v>-197.2597895081246</v>
+        <v>-66.4428057494016</v>
       </c>
     </row>
     <row r="45" spans="1:16">
       <c r="A45">
-        <v>9.819407762522172</v>
+        <v>383.3919308562669</v>
       </c>
       <c r="B45">
         <v>0.02</v>
       </c>
       <c r="C45">
-        <v>18.10547760821647</v>
+        <v>8.055989276549292</v>
       </c>
       <c r="D45">
-        <v>-0.03396394063563473</v>
+        <v>0.008608498043274019</v>
       </c>
       <c r="E45">
-        <v>0.3043746259104375</v>
+        <v>0.2176023916043388</v>
       </c>
       <c r="F45">
-        <v>1.984962779664668</v>
+        <v>1.7672614527405</v>
       </c>
       <c r="G45">
-        <v>0.02115319309012525</v>
+        <v>0.005308992473549387</v>
       </c>
       <c r="H45">
-        <v>51.78285227705366</v>
+        <v>88.98680437041249</v>
       </c>
       <c r="I45">
-        <v>51.47577498699793</v>
+        <v>171.4285739642258</v>
       </c>
       <c r="J45">
-        <v>56.55507094433766</v>
+        <v>35.51508616904943</v>
       </c>
       <c r="K45">
-        <v>53.76339575335403</v>
+        <v>5.393714556615848</v>
       </c>
       <c r="L45">
-        <v>0.02756209752023485</v>
+        <v>0.02863371391730217</v>
       </c>
       <c r="M45">
-        <v>255.0793967543425</v>
+        <v>405.1222665474241</v>
       </c>
       <c r="N45">
-        <v>-1.216987510771085E-30</v>
+        <v>0.0001994820815969802</v>
       </c>
       <c r="O45">
-        <v>-180.4669891039564</v>
+        <v>-115.323038554969</v>
       </c>
       <c r="P45">
-        <v>-190.0125905030407</v>
+        <v>-58.52872855414194</v>
       </c>
     </row>
     <row r="46" spans="1:16">
       <c r="A46">
-        <v>10.09617809614165</v>
+        <v>383.9845267389514</v>
       </c>
       <c r="B46">
         <v>0.02</v>
       </c>
       <c r="C46">
-        <v>18.37587661309</v>
+        <v>9.028602572064788</v>
       </c>
       <c r="D46">
-        <v>-0.03444662946367001</v>
+        <v>0.004889796292154015</v>
       </c>
       <c r="E46">
-        <v>0.2840196943296125</v>
+        <v>0.1738396328522046</v>
       </c>
       <c r="F46">
-        <v>1.860194615692348</v>
+        <v>1.861824344012618</v>
       </c>
       <c r="G46">
-        <v>-0.002449160335722087</v>
+        <v>0.01473537134974662</v>
       </c>
       <c r="H46">
-        <v>53.68630402839651</v>
+        <v>37.87585709231951</v>
       </c>
       <c r="I46">
-        <v>51.23899152109929</v>
+        <v>171.4285733652439</v>
       </c>
       <c r="J46">
-        <v>57.24831629396588</v>
+        <v>171.3645108788047</v>
       </c>
       <c r="K46">
-        <v>54.79040116336819</v>
+        <v>127.7242671851465</v>
       </c>
       <c r="L46">
-        <v>0.0105274321386805</v>
+        <v>0.01758619282455282</v>
       </c>
       <c r="M46">
-        <v>244.5411071237461</v>
+        <v>137.4568833783262</v>
       </c>
       <c r="N46">
-        <v>-9.30583052841991E-30</v>
+        <v>0.0001996529719345974</v>
       </c>
       <c r="O46">
-        <v>-141.0928793981904</v>
+        <v>-100.3212393374474</v>
       </c>
       <c r="P46">
-        <v>-174.5798692089672</v>
+        <v>-50.40392103546151</v>
       </c>
     </row>
     <row r="47" spans="1:16">
       <c r="A47">
-        <v>10.37058164915373</v>
+        <v>384.5236715130082</v>
       </c>
       <c r="B47">
         <v>0.02</v>
       </c>
       <c r="C47">
-        <v>18.61104172838906</v>
+        <v>9.725713536445353</v>
       </c>
       <c r="D47">
-        <v>-0.03789585827521252</v>
+        <v>0.0003698205632270834</v>
       </c>
       <c r="E47">
-        <v>0.2622089044107401</v>
+        <v>0.1383874013566217</v>
       </c>
       <c r="F47">
-        <v>1.586827175290384</v>
+        <v>1.89633036154025</v>
       </c>
       <c r="G47">
-        <v>-0.03255404080890677</v>
+        <v>-0.006953650377699439</v>
       </c>
       <c r="H47">
-        <v>53.24441312161098</v>
+        <v>16.65149387051026</v>
       </c>
       <c r="I47">
-        <v>52.95110200559144</v>
+        <v>171.4285731657336</v>
       </c>
       <c r="J47">
-        <v>58.26542181642778</v>
+        <v>171.1894133134</v>
       </c>
       <c r="K47">
-        <v>55.3661261253029</v>
+        <v>117.8126710842341</v>
       </c>
       <c r="L47">
-        <v>0.005360065039212361</v>
+        <v>0.01050199670059428</v>
       </c>
       <c r="M47">
-        <v>272.1752115071617</v>
+        <v>121.7760529062457</v>
       </c>
       <c r="N47">
-        <v>-9.437179747590532E-31</v>
+        <v>0.0001997093264230432</v>
       </c>
       <c r="O47">
-        <v>-190.0481416090455</v>
+        <v>-83.56828454328904</v>
       </c>
       <c r="P47">
-        <v>-165.6302451048647</v>
+        <v>-41.59461881304307</v>
       </c>
     </row>
     <row r="48" spans="1:16">
       <c r="A48">
-        <v>10.64375626276973</v>
+        <v>385.0307635338429</v>
       </c>
       <c r="B48">
         <v>0.01991830220998726</v>
       </c>
       <c r="C48">
-        <v>18.91926512013778</v>
+        <v>10.23258814852241</v>
       </c>
       <c r="D48">
-        <v>-0.03720035898949309</v>
+        <v>-0.00189341310996009</v>
       </c>
       <c r="E48">
-        <v>0.23470033260237</v>
+        <v>0.1089926021670921</v>
       </c>
       <c r="F48">
-        <v>1.134233650033034</v>
+        <v>1.751320840640777</v>
       </c>
       <c r="G48">
-        <v>-0.06929197920200716</v>
+        <v>-0.04934821295063403</v>
       </c>
       <c r="H48">
-        <v>55.06600667091554</v>
+        <v>7.601835771059378</v>
       </c>
       <c r="I48">
-        <v>53.02558516164466</v>
+        <v>171.4285727235387</v>
       </c>
       <c r="J48">
-        <v>59.14145391038939</v>
+        <v>171.2563094115709</v>
       </c>
       <c r="K48">
-        <v>56.4042149913326</v>
+        <v>111.0120448500262</v>
       </c>
       <c r="L48">
-        <v>-0.0077463281846291</v>
+        <v>0.006246432045545776</v>
       </c>
       <c r="M48">
-        <v>271.9467120228146</v>
+        <v>103.5285300361086</v>
       </c>
       <c r="N48">
-        <v>7.294076685247619E-30</v>
+        <v>0.0001997418775560964</v>
       </c>
       <c r="O48">
-        <v>-164.486285531264</v>
+        <v>-67.97649481127708</v>
       </c>
       <c r="P48">
-        <v>-145.5832846930768</v>
+        <v>-33.54496094159587</v>
       </c>
     </row>
     <row r="49" spans="1:16">
       <c r="A49">
-        <v>10.91728605354176</v>
+        <v>385.5231693221205</v>
       </c>
       <c r="B49">
         <v>0.01649435061504471</v>
       </c>
       <c r="C49">
-        <v>19.22058985590987</v>
+        <v>10.5838560986007</v>
       </c>
       <c r="D49">
-        <v>-0.03859596754771999</v>
+        <v>-0.002781462428249359</v>
       </c>
       <c r="E49">
-        <v>0.2045581682624821</v>
+        <v>0.08481473246016291</v>
       </c>
       <c r="F49">
-        <v>0.4915141992219205</v>
+        <v>1.372507159837443</v>
       </c>
       <c r="G49">
-        <v>-0.09586886879412186</v>
+        <v>-0.08861207917973049</v>
       </c>
       <c r="H49">
-        <v>54.9355867617726</v>
+        <v>3.613384762751696</v>
       </c>
       <c r="I49">
-        <v>54.76806918576017</v>
+        <v>171.4285719898419</v>
       </c>
       <c r="J49">
-        <v>60.28574355370315</v>
+        <v>171.172971775934</v>
       </c>
       <c r="K49">
-        <v>57.29226541078476</v>
+        <v>106.2382889625225</v>
       </c>
       <c r="L49">
-        <v>-0.01145590098799235</v>
+        <v>0.003720060442982321</v>
       </c>
       <c r="M49">
-        <v>302.382786048038</v>
+        <v>83.62357939964056</v>
       </c>
       <c r="N49">
-        <v>-7.413824476071486E-31</v>
+        <v>0.0001997627473227951</v>
       </c>
       <c r="O49">
-        <v>-206.7726729348484</v>
+        <v>-53.93265230056954</v>
       </c>
       <c r="P49">
-        <v>-131.301250648508</v>
+        <v>-26.42388440454391</v>
       </c>
     </row>
     <row r="50" spans="1:16">
       <c r="A50">
-        <v>11.18979201538024</v>
+        <v>386.0109212494555</v>
       </c>
       <c r="B50">
         <v>0.009809843005185111</v>
       </c>
       <c r="C50">
-        <v>19.60062225845789</v>
+        <v>10.80251214440495</v>
       </c>
       <c r="D50">
-        <v>-0.03551467540361967</v>
+        <v>-0.002894853749762275</v>
       </c>
       <c r="E50">
-        <v>0.1713465552052831</v>
+        <v>0.06519857980062542</v>
       </c>
       <c r="F50">
-        <v>-0.2233307246219464</v>
+        <v>0.8432682463758998</v>
       </c>
       <c r="G50">
-        <v>-0.09619850324199698</v>
+        <v>-0.1038154187969173</v>
       </c>
       <c r="H50">
-        <v>56.81260921575408</v>
+        <v>1.817437972777156</v>
       </c>
       <c r="I50">
-        <v>55.21912616879638</v>
+        <v>171.4285704780864</v>
       </c>
       <c r="J50">
-        <v>61.41483650969563</v>
+        <v>170.2908036876566</v>
       </c>
       <c r="K50">
-        <v>58.5178634365199</v>
+        <v>102.2812029480785</v>
       </c>
       <c r="L50">
-        <v>-0.02193531581744311</v>
+        <v>0.002262226864125965</v>
       </c>
       <c r="M50">
-        <v>313.5115482953804</v>
+        <v>57.82534271762061</v>
       </c>
       <c r="N50">
-        <v>2.428808427027646E-31</v>
+        <v>0.0001997745287455976</v>
       </c>
       <c r="O50">
-        <v>-194.7837204811747</v>
+        <v>-41.86865787479469</v>
       </c>
       <c r="P50">
-        <v>-106.4830237513414</v>
+        <v>-20.40180903239728</v>
       </c>
     </row>
     <row r="51" spans="1:16">
       <c r="A51">
-        <v>11.45734382909261</v>
+        <v>386.4959033344862</v>
       </c>
       <c r="B51">
         <v>0.003233794600127655</v>
       </c>
       <c r="C51">
-        <v>19.99378005686687</v>
+        <v>10.90775409613783</v>
       </c>
       <c r="D51">
-        <v>-0.03455940870307408</v>
+        <v>-0.002611252663796164</v>
       </c>
       <c r="E51">
-        <v>0.1362198362502424</v>
+        <v>0.04966362439551574</v>
       </c>
       <c r="F51">
-        <v>-0.866589804777582</v>
+        <v>0.2982196609155605</v>
       </c>
       <c r="G51">
-        <v>-0.07209005550940069</v>
+        <v>-0.0931538123689617</v>
       </c>
       <c r="H51">
-        <v>57.05344889906311</v>
+        <v>0.9898575977976396</v>
       </c>
       <c r="I51">
-        <v>57.08606609375592</v>
+        <v>171.4285660541739</v>
       </c>
       <c r="J51">
-        <v>62.78037732534976</v>
+        <v>165.4813939015812</v>
       </c>
       <c r="K51">
-        <v>59.80607084570988</v>
+        <v>95.55260585199477</v>
       </c>
       <c r="L51">
-        <v>-0.02340240964807794</v>
+        <v>0.001450095435172325</v>
       </c>
       <c r="M51">
-        <v>344.8597562577993</v>
+        <v>43.34927383714518</v>
       </c>
       <c r="N51">
-        <v>-6.572276610274761E-30</v>
+        <v>0.0001997792276190203</v>
       </c>
       <c r="O51">
-        <v>-229.3808801869622</v>
+        <v>-31.96765559778959</v>
       </c>
       <c r="P51">
-        <v>-88.69013583422591</v>
+        <v>-15.51828735437315</v>
       </c>
     </row>
     <row r="52" spans="1:16">
       <c r="A52">
-        <v>11.71797598337239</v>
+        <v>386.9784472961992</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52">
-        <v>20.45153614189159</v>
+        <v>10.92076081929019</v>
       </c>
       <c r="D52">
-        <v>-0.02980111408246361</v>
+        <v>-0.002166861164070132</v>
       </c>
       <c r="E52">
-        <v>0.1023881967446281</v>
+        <v>0.03761935623202067</v>
       </c>
       <c r="F52">
-        <v>-1.330283582595182</v>
+        <v>-0.1477303146634473</v>
       </c>
       <c r="G52">
-        <v>-0.0410563103650491</v>
+        <v>-0.07225410287297838</v>
       </c>
       <c r="H52">
-        <v>59.02630543832731</v>
+        <v>0.5878311635972819</v>
       </c>
       <c r="I52">
-        <v>57.89317031525459</v>
+        <v>171.4284854879963</v>
       </c>
       <c r="J52">
-        <v>64.15931887715459</v>
+        <v>160.8784359337548</v>
       </c>
       <c r="K52">
-        <v>61.28380372892499</v>
+        <v>89.80045186901765</v>
       </c>
       <c r="L52">
-        <v>-0.0296431275454726</v>
+        <v>0.001025179005282881</v>
       </c>
       <c r="M52">
-        <v>362.9837397638042</v>
+        <v>33.5216254755444</v>
       </c>
       <c r="N52">
-        <v>1.553884969042059E-29</v>
+        <v>0.0001997802964525157</v>
       </c>
       <c r="O52">
-        <v>-227.8503562528336</v>
+        <v>-24.11188566969494</v>
       </c>
       <c r="P52">
-        <v>-63.65573791435528</v>
+        <v>-11.67571992858589</v>
       </c>
     </row>
     <row r="53" spans="1:16">
       <c r="A53">
-        <v>11.97214748785181</v>
+        <v>387.4613426542454</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>20.92891599224533</v>
+        <v>10.86233879859392</v>
       </c>
       <c r="D53">
-        <v>-0.02675311687018086</v>
+        <v>-0.001689320628887865</v>
       </c>
       <c r="E53">
-        <v>0.06953685504965307</v>
+        <v>0.02840862272140857</v>
       </c>
       <c r="F53">
-        <v>-1.635005788406454</v>
+        <v>-0.494593342608816</v>
       </c>
       <c r="G53">
-        <v>-0.01927449436217221</v>
+        <v>-0.05643139062821931</v>
       </c>
       <c r="H53">
-        <v>59.6266075985923</v>
+        <v>1.054233932755379E-05</v>
       </c>
       <c r="I53">
-        <v>59.86082576464671</v>
+        <v>171.0689628100801</v>
       </c>
       <c r="J53">
-        <v>65.72881313786736</v>
+        <v>157.443452151944</v>
       </c>
       <c r="K53">
-        <v>62.96952920945337</v>
+        <v>85.69632134516318</v>
       </c>
       <c r="L53">
-        <v>-0.02608121989660552</v>
+        <v>0.0007646463787985297</v>
       </c>
       <c r="M53">
-        <v>390.6272278688153</v>
+        <v>26.51595291811233</v>
       </c>
       <c r="N53">
-        <v>1.754837716188897E-29</v>
+        <v>0.0001997790584360903</v>
       </c>
       <c r="O53">
-        <v>-254.0555690094482</v>
+        <v>-18.00062019867099</v>
       </c>
       <c r="P53">
-        <v>-47.30003107700363</v>
+        <v>-8.703171236428629</v>
       </c>
     </row>
     <row r="54" spans="1:16">
       <c r="A54">
-        <v>12.22006230863698</v>
+        <v>387.9476983486949</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="C54">
-        <v>21.45086250124922</v>
+        <v>10.74940455838039</v>
       </c>
       <c r="D54">
-        <v>-0.02084018743828562</v>
+        <v>-0.001273509830267965</v>
       </c>
       <c r="E54">
-        <v>0.04239728626678527</v>
+        <v>0.02137001379297698</v>
       </c>
       <c r="F54">
-        <v>-1.821084291450236</v>
+        <v>-0.7660984240537432</v>
       </c>
       <c r="G54">
-        <v>-0.005477968580721022</v>
+        <v>-0.04441804797409896</v>
       </c>
       <c r="H54">
-        <v>61.67863659980172</v>
+        <v>3.905913536239828E-06</v>
       </c>
       <c r="I54">
-        <v>60.95624172203545</v>
+        <v>171.1902715275834</v>
       </c>
       <c r="J54">
-        <v>67.32495865425422</v>
+        <v>155.3032416594431</v>
       </c>
       <c r="K54">
-        <v>64.72162965213079</v>
+        <v>83.17349368215338</v>
       </c>
       <c r="L54">
-        <v>-0.02549734842109723</v>
+        <v>0.0006242295439325173</v>
       </c>
       <c r="M54">
-        <v>407.7695549652397</v>
+        <v>21.61862917967242</v>
       </c>
       <c r="N54">
-        <v>2.138316141107261E-29</v>
+        <v>0.0001997756266513288</v>
       </c>
       <c r="O54">
-        <v>-257.1210426905168</v>
+        <v>-13.33094574457206</v>
       </c>
       <c r="P54">
-        <v>-27.98035286826806</v>
+        <v>-6.43950264548321</v>
       </c>
     </row>
     <row r="55" spans="1:16">
       <c r="A55">
-        <v>12.4618641413827</v>
+        <v>388.439902728492</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="C55">
-        <v>21.98102523013781</v>
+        <v>10.59633005167963</v>
       </c>
       <c r="D55">
-        <v>-0.01632475671977554</v>
+        <v>-0.0009194054039673202</v>
       </c>
       <c r="E55">
-        <v>0.02003675377682059</v>
+        <v>0.01604220419506138</v>
       </c>
       <c r="F55">
-        <v>-1.924829173039639</v>
+        <v>-0.9801867607194868</v>
       </c>
       <c r="G55">
-        <v>0.001994820734094132</v>
+        <v>-0.03528172045530424</v>
       </c>
       <c r="H55">
-        <v>62.57403605493435</v>
+        <v>1.895729608163532E-06</v>
       </c>
       <c r="I55">
-        <v>62.93356289575028</v>
+        <v>171.2672268842661</v>
       </c>
       <c r="J55">
-        <v>69.04403538169329</v>
+        <v>154.47553741282</v>
       </c>
       <c r="K55">
-        <v>66.74689690956677</v>
+        <v>82.13092140428995</v>
       </c>
       <c r="L55">
-        <v>-0.01796466441569363</v>
+        <v>0.0005352667094880269</v>
       </c>
       <c r="M55">
-        <v>426.1651608657469</v>
+        <v>16.8641398886169</v>
       </c>
       <c r="N55">
-        <v>-6.624582539336354E-29</v>
+        <v>0.0001997699855437323</v>
       </c>
       <c r="O55">
-        <v>-273.9243793050162</v>
+        <v>-9.823416271014077</v>
       </c>
       <c r="P55">
-        <v>-16.95334649250927</v>
+        <v>-4.742690815982626</v>
       </c>
     </row>
     <row r="56" spans="1:16">
       <c r="A56">
-        <v>12.69780102770439</v>
+        <v>388.9398426543783</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56">
-        <v>22.52282477820338</v>
+        <v>10.41419329716213</v>
       </c>
       <c r="D56">
-        <v>-0.01077731604276446</v>
+        <v>-0.000641254732964019</v>
       </c>
       <c r="E56">
-        <v>0.005091053568056193</v>
+        <v>0.01203065834577294</v>
       </c>
       <c r="F56">
-        <v>-1.974623342200836</v>
+        <v>-1.150521440806501</v>
       </c>
       <c r="G56">
-        <v>0.00488581305245185</v>
+        <v>-0.02831959598955932</v>
       </c>
       <c r="H56">
-        <v>64.59154998711496</v>
+        <v>9.383162734491275E-07</v>
       </c>
       <c r="I56">
-        <v>64.16249780497749</v>
+        <v>171.3186808947778</v>
       </c>
       <c r="J56">
-        <v>70.78371992988001</v>
+        <v>154.2304371166763</v>
       </c>
       <c r="K56">
-        <v>68.75421185934624</v>
+        <v>81.76668310681198</v>
       </c>
       <c r="L56">
-        <v>-0.01589649410062524</v>
+        <v>0.0004683507003417708</v>
       </c>
       <c r="M56">
-        <v>436.5805068569553</v>
+        <v>13.70726701677308</v>
       </c>
       <c r="N56">
-        <v>1.537391592796668E-27</v>
+        <v>0.0001997618083345029</v>
       </c>
       <c r="O56">
-        <v>-275.7730645575422</v>
+        <v>-7.215808033424183</v>
       </c>
       <c r="P56">
-        <v>-4.318040816968792</v>
+        <v>-3.482728399756915</v>
       </c>
     </row>
     <row r="57" spans="1:16">
       <c r="A57">
-        <v>12.92820008680493</v>
+        <v>389.4490399866193</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57">
-        <v>23.04876388770719</v>
+        <v>10.21175428861547</v>
       </c>
       <c r="D57">
-        <v>-0.007254018003740477</v>
+        <v>-0.000432851353353996</v>
       </c>
       <c r="E57">
-        <v>-0.005741199020544688</v>
+        <v>0.009020077754621715</v>
       </c>
       <c r="F57">
-        <v>-1.994620451105244</v>
+        <v>-1.287504645593823</v>
       </c>
       <c r="G57">
-        <v>0.004755735290799788</v>
+        <v>-0.02300347003089997</v>
       </c>
       <c r="H57">
-        <v>65.62154947119235</v>
+        <v>3.84113850708343E-07</v>
       </c>
       <c r="I57">
-        <v>66.00181693176427</v>
+        <v>171.3538938989614</v>
       </c>
       <c r="J57">
-        <v>72.64410300182259</v>
+        <v>154.6427913556667</v>
       </c>
       <c r="K57">
-        <v>71.23148013850066</v>
+        <v>82.11353761754978</v>
       </c>
       <c r="L57">
-        <v>-0.007644599035413526</v>
+        <v>0.0004110237084717464</v>
       </c>
       <c r="M57">
-        <v>443.0433176791869</v>
+        <v>10.47720131606968</v>
       </c>
       <c r="N57">
-        <v>1.084809255320042E-28</v>
+        <v>0.0001997507128386661</v>
       </c>
       <c r="O57">
-        <v>-283.0594031137477</v>
+        <v>-5.291341242239641</v>
       </c>
       <c r="P57">
-        <v>-0.4392686744444267</v>
+        <v>-2.55347139176565</v>
       </c>
     </row>
     <row r="58" spans="1:16">
       <c r="A58">
-        <v>13.15348202580292</v>
+        <v>389.9687470974291</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>23.55598631415235</v>
+        <v>9.995753403456565</v>
       </c>
       <c r="D58">
-        <v>-0.003204549737869117</v>
+        <v>-0.0002821446417660446</v>
       </c>
       <c r="E58">
-        <v>-0.01058228958997999</v>
+        <v>0.006765103456664595</v>
       </c>
       <c r="F58">
-        <v>-1.99999946949124</v>
+        <v>-1.399045488322683</v>
       </c>
       <c r="G58">
-        <v>0.002877153098402982</v>
+        <v>-0.01893588395654465</v>
       </c>
       <c r="H58">
-        <v>67.44982549663361</v>
+        <v>2.703544833358558E-08</v>
       </c>
       <c r="I58">
-        <v>67.19564481840062</v>
+        <v>171.3781308645132</v>
       </c>
       <c r="J58">
-        <v>74.39803962934799</v>
+        <v>155.1498187859613</v>
       </c>
       <c r="K58">
-        <v>73.32689799248394</v>
+        <v>82.58474692368466</v>
       </c>
       <c r="L58">
-        <v>-0.0009191491256197496</v>
+        <v>0.0003586436656713179</v>
       </c>
       <c r="M58">
-        <v>441.4123915148464</v>
+        <v>9.308304849218029</v>
       </c>
       <c r="N58">
-        <v>3.578564923998964E-29</v>
+        <v>0.000199735861223443</v>
       </c>
       <c r="O58">
-        <v>-280.1324257312623</v>
+        <v>-3.877896021660475</v>
       </c>
       <c r="P58">
-        <v>2.239121827019806</v>
+        <v>-1.871217866220606</v>
       </c>
     </row>
     <row r="59" spans="1:16">
       <c r="A59">
-        <v>13.37413336798776</v>
+        <v>390.5000169499079</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
       <c r="C59">
-        <v>24.02649350523733</v>
+        <v>9.77129267316943</v>
       </c>
       <c r="D59">
-        <v>4.405031059662506E-05</v>
+        <v>-0.0001763478095069599</v>
       </c>
       <c r="E59">
-        <v>-0.01095113528741443</v>
+        <v>0.005077634176713114</v>
       </c>
       <c r="F59">
-        <v>-1.997995329610591</v>
+        <v>-1.49115539982555</v>
       </c>
       <c r="G59">
-        <v>0.0004784570750179082</v>
+        <v>-0.01581723797702659</v>
       </c>
       <c r="H59">
-        <v>68.4561102559819</v>
+        <v>-2.176000434619272E-07</v>
       </c>
       <c r="I59">
-        <v>68.77283412519076</v>
+        <v>171.3947595608326</v>
       </c>
       <c r="J59">
-        <v>75.73425010866306</v>
+        <v>156.3284418691475</v>
       </c>
       <c r="K59">
-        <v>75.21427560366803</v>
+        <v>83.74384007102272</v>
       </c>
       <c r="L59">
-        <v>0.007027812333839</v>
+        <v>0.0003100361929419782</v>
       </c>
       <c r="M59">
-        <v>442.252938730777</v>
+        <v>8.404986337823424</v>
       </c>
       <c r="N59">
-        <v>2.191776469345094E-30</v>
+        <v>0.0001997162200303187</v>
       </c>
       <c r="O59">
-        <v>-282.9434481013639</v>
+        <v>-2.842783032315081</v>
       </c>
       <c r="P59">
-        <v>0.8022067544612832</v>
+        <v>-1.371678821845765</v>
       </c>
     </row>
     <row r="60" spans="1:16">
       <c r="A60">
-        <v>13.5906368690226</v>
+        <v>391.0437547542587</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
       <c r="C60">
-        <v>24.46761562216563</v>
+        <v>9.542185160218212</v>
       </c>
       <c r="D60">
-        <v>0.002819398856350751</v>
+        <v>-0.0001040576466395266</v>
       </c>
       <c r="E60">
-        <v>-0.00697825805773308</v>
+        <v>0.003814991261665513</v>
       </c>
       <c r="F60">
-        <v>-1.991915840225344</v>
+        <v>-1.568404325568113</v>
       </c>
       <c r="G60">
-        <v>-0.001476632088750429</v>
+        <v>-0.01342131266299415</v>
       </c>
       <c r="H60">
-        <v>70.01351034320673</v>
+        <v>-3.895385580098317E-07</v>
       </c>
       <c r="I60">
-        <v>69.82217409422954</v>
+        <v>171.4060894700621</v>
       </c>
       <c r="J60">
-        <v>77.06231528739983</v>
+        <v>158.0092911519104</v>
       </c>
       <c r="K60">
-        <v>76.71743044463342</v>
+        <v>85.41405181126223</v>
       </c>
       <c r="L60">
-        <v>0.008126363465820035</v>
+        <v>0.0002653131898195549</v>
       </c>
       <c r="M60">
-        <v>440.3382749522</v>
+        <v>7.232496905739414</v>
       </c>
       <c r="N60">
-        <v>1.377542464860059E-29</v>
+        <v>0.0001996900955445323</v>
       </c>
       <c r="O60">
-        <v>-280.5187919297882</v>
+        <v>-2.085826436919751</v>
       </c>
       <c r="P60">
-        <v>1.662760382008889</v>
+        <v>-1.006414101369191</v>
       </c>
     </row>
     <row r="61" spans="1:16">
       <c r="A61">
-        <v>13.80341810626703</v>
+        <v>391.6007564176062</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
       <c r="C61">
-        <v>24.87521503496018</v>
+        <v>9.3112500561269</v>
       </c>
       <c r="D61">
-        <v>0.003543112282022477</v>
+        <v>-5.597786537648866E-05</v>
       </c>
       <c r="E61">
-        <v>-0.002313108320789624</v>
+        <v>0.002869775765872218</v>
       </c>
       <c r="F61">
-        <v>-1.985297196179395</v>
+        <v>-1.634268855483865</v>
       </c>
       <c r="G61">
-        <v>-0.002465031085992346</v>
+        <v>-0.01157699030132441</v>
       </c>
       <c r="H61">
-        <v>70.94535293757322</v>
+        <v>-5.082780520796796E-07</v>
       </c>
       <c r="I61">
-        <v>71.14887505158923</v>
+        <v>171.4137483967926</v>
       </c>
       <c r="J61">
-        <v>78.17084037526534</v>
+        <v>159.8254556877939</v>
       </c>
       <c r="K61">
-        <v>78.16785417738534</v>
+        <v>87.22442044955559</v>
       </c>
       <c r="L61">
-        <v>0.007716898444950014</v>
+        <v>0.0002248575064516223</v>
       </c>
       <c r="M61">
-        <v>441.2140416227772</v>
+        <v>7.816262441656634</v>
       </c>
       <c r="N61">
-        <v>2.155968690372191E-30</v>
+        <v>0.0001996545838521818</v>
       </c>
       <c r="O61">
-        <v>-282.6656477069695</v>
+        <v>-1.532481511433951</v>
       </c>
       <c r="P61">
-        <v>0.5524195406049585</v>
+        <v>-0.7394153097146714</v>
       </c>
     </row>
     <row r="62" spans="1:16">
       <c r="A62">
-        <v>14.01284566600077</v>
+        <v>392.1717373846776</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62">
-        <v>25.25806698070437</v>
+        <v>9.080551401623079</v>
       </c>
       <c r="D62">
-        <v>0.003151679616284214</v>
+        <v>-2.494462106945585E-05</v>
       </c>
       <c r="E62">
-        <v>0.001936889933207007</v>
+        <v>0.002161562881917182</v>
       </c>
       <c r="F62">
-        <v>-1.98094711372665</v>
+        <v>-1.691396914352508</v>
       </c>
       <c r="G62">
-        <v>-0.002498123699927706</v>
+        <v>-0.01015457848468331</v>
       </c>
       <c r="H62">
-        <v>72.25773869875196</v>
+        <v>-5.823621552858303E-07</v>
       </c>
       <c r="I62">
-        <v>72.08578514915888</v>
+        <v>171.4188868335516</v>
       </c>
       <c r="J62">
-        <v>79.31966045630027</v>
+        <v>162.5133873914778</v>
       </c>
       <c r="K62">
-        <v>79.42812534255813</v>
+        <v>89.90919011771156</v>
       </c>
       <c r="L62">
-        <v>0.003984338939220324</v>
+        <v>0.0001889236247864851</v>
       </c>
       <c r="M62">
-        <v>440.2218583029254</v>
+        <v>10.4910320464884</v>
       </c>
       <c r="N62">
-        <v>-4.418836325438934E-29</v>
+        <v>0.0001996049599964377</v>
       </c>
       <c r="O62">
-        <v>-281.2314556765193</v>
+        <v>-1.127810932579923</v>
       </c>
       <c r="P62">
-        <v>0.6271506802736259</v>
+        <v>-0.5441599616818351</v>
       </c>
     </row>
     <row r="63" spans="1:16">
       <c r="A63">
-        <v>14.21923162541453</v>
+        <v>392.7573544005883</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63">
-        <v>25.61434011708347</v>
+        <v>8.851585524261271</v>
       </c>
       <c r="D63">
-        <v>0.001760153631069652</v>
+        <v>-5.646993185429463E-06</v>
       </c>
       <c r="E63">
-        <v>0.004158240509543088</v>
+        <v>0.001630317959076604</v>
       </c>
       <c r="F63">
-        <v>-1.980065096117542</v>
+        <v>-1.741808361599838</v>
       </c>
       <c r="G63">
-        <v>-0.001858931070325327</v>
+        <v>-0.009055571004820819</v>
       </c>
       <c r="H63">
-        <v>73.10693578129042</v>
+        <v>-6.127360462332639E-07</v>
       </c>
       <c r="I63">
-        <v>73.22403316458468</v>
+        <v>171.4223112663841</v>
       </c>
       <c r="J63">
-        <v>80.37793374019853</v>
+        <v>167.0985304221826</v>
       </c>
       <c r="K63">
-        <v>80.61156602101046</v>
+        <v>94.4926046109792</v>
       </c>
       <c r="L63">
-        <v>0.001209228178324576</v>
+        <v>0.0001575363143056968</v>
       </c>
       <c r="M63">
-        <v>440.7849745155056</v>
+        <v>8.181244610761585</v>
       </c>
       <c r="N63">
-        <v>-5.297878702402491E-30</v>
+        <v>0.0001995341108780757</v>
       </c>
       <c r="O63">
-        <v>-282.6993987681153</v>
+        <v>-0.8315786841067161</v>
       </c>
       <c r="P63">
-        <v>-0.4635818549206762</v>
+        <v>-0.4012286358433014</v>
       </c>
     </row>
     <row r="64" spans="1:16">
       <c r="A64">
-        <v>14.42285139068643</v>
+        <v>393.3582220216385</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64">
-        <v>25.949387934466</v>
+        <v>8.625425098893372</v>
       </c>
       <c r="D64">
-        <v>0.0004163902762145762</v>
+        <v>5.74213086144677E-06</v>
       </c>
       <c r="E64">
-        <v>0.004767708811659001</v>
+        <v>0.001231299726642224</v>
       </c>
       <c r="F64">
-        <v>-1.982229727911674</v>
+        <v>-1.787046680340905</v>
       </c>
       <c r="G64">
-        <v>-0.0009419263301016941</v>
+        <v>-0.008204979862981963</v>
       </c>
       <c r="H64">
-        <v>74.21283367017635</v>
+        <v>-5.928441409179228E-07</v>
       </c>
       <c r="I64">
-        <v>74.07448620573456</v>
+        <v>171.4245804701144</v>
       </c>
       <c r="J64">
-        <v>81.47474165363556</v>
+        <v>170.8192393054927</v>
       </c>
       <c r="K64">
-        <v>81.61787564299281</v>
+        <v>98.21236625036269</v>
       </c>
       <c r="L64">
-        <v>-0.001963827259961594</v>
+        <v>0.0001305140869346155</v>
       </c>
       <c r="M64">
-        <v>439.8754243026239</v>
+        <v>1.909988756214035</v>
       </c>
       <c r="N64">
-        <v>-2.961536548127957E-30</v>
+        <v>0.0001994272530047032</v>
       </c>
       <c r="O64">
-        <v>-281.5575462053598</v>
+        <v>-0.6144265338082043</v>
       </c>
       <c r="P64">
-        <v>-0.3285367685865132</v>
+        <v>-0.2964540540581682</v>
       </c>
     </row>
     <row r="65" spans="1:16">
       <c r="A65">
-        <v>14.62394765235881</v>
+        <v>393.9749252113708</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65">
-        <v>26.26162163751965</v>
+        <v>8.402828228634046</v>
       </c>
       <c r="D65">
-        <v>-0.0007950274280725685</v>
+        <v>1.19202139149539E-05</v>
       </c>
       <c r="E65">
-        <v>0.00373024822120531</v>
+        <v>0.0009311807337273499</v>
       </c>
       <c r="F65">
-        <v>-1.986361849852085</v>
+        <v>-1.828293562124868</v>
       </c>
       <c r="G65">
-        <v>-8.14858420235277E-05</v>
+        <v>-0.007545588942431365</v>
       </c>
       <c r="H65">
-        <v>74.97953087159206</v>
+        <v>-5.052588358815846E-07</v>
       </c>
       <c r="I65">
-        <v>75.05760147901722</v>
+        <v>171.4260770743564</v>
       </c>
       <c r="J65">
-        <v>82.48447334663639</v>
+        <v>171.3028513515576</v>
       </c>
       <c r="K65">
-        <v>82.56403194703815</v>
+        <v>98.69545775755171</v>
       </c>
       <c r="L65">
-        <v>-0.003008505676550867</v>
+        <v>0.000107531351706215</v>
       </c>
       <c r="M65">
-        <v>440.0529158358166</v>
+        <v>0.878598996686098</v>
       </c>
       <c r="N65">
-        <v>7.239456466319677E-31</v>
+        <v>0.000199251683531927</v>
       </c>
       <c r="O65">
-        <v>-282.4967468467839</v>
+        <v>-0.4549764558209604</v>
       </c>
       <c r="P65">
-        <v>-0.8685256198183162</v>
+        <v>-0.2195206974945897</v>
       </c>
     </row>
     <row r="66" spans="1:16">
       <c r="A66">
-        <v>14.82273851727173</v>
+        <v>394.6080290086285</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>26.55508450395694</v>
+        <v>8.184320217448974</v>
       </c>
       <c r="D66">
-        <v>-0.001354133202986988</v>
+        <v>1.475342967888158E-05</v>
       </c>
       <c r="E66">
-        <v>0.00210608957344559</v>
+        <v>0.0007051279545345824</v>
       </c>
       <c r="F66">
-        <v>-1.991098758059789</v>
+        <v>-1.866455467089181</v>
       </c>
       <c r="G66">
-        <v>0.0005003984128530284</v>
+        <v>-0.007033642363963323</v>
       </c>
       <c r="H66">
-        <v>75.91701046340093</v>
+        <v>-3.109246577817797E-07</v>
       </c>
       <c r="I66">
-        <v>75.82659446642462</v>
+        <v>171.4270603640373</v>
       </c>
       <c r="J66">
-        <v>83.4807390392009</v>
+        <v>171.3630306959952</v>
       </c>
       <c r="K66">
-        <v>83.39388859602673</v>
+        <v>98.75535019423418</v>
       </c>
       <c r="L66">
-        <v>-0.003558207949539017</v>
+        <v>8.818135453328694E-05</v>
       </c>
       <c r="M66">
-        <v>439.3727165189503</v>
+        <v>0.5936882724959863</v>
       </c>
       <c r="N66">
-        <v>2.003180276175655E-25</v>
+        <v>0.0001989337014573517</v>
       </c>
       <c r="O66">
-        <v>-281.720427899179</v>
+        <v>-0.3376738781746061</v>
       </c>
       <c r="P66">
-        <v>-0.4623981423582945</v>
+        <v>-0.1629233199467273</v>
       </c>
     </row>
     <row r="67" spans="1:16">
       <c r="A67">
-        <v>15.01941638397542</v>
+        <v>395.2580859984504</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="C67">
-        <v>26.8292556215936</v>
+        <v>7.970254482932585</v>
       </c>
       <c r="D67">
-        <v>-0.001491840966995927</v>
+        <v>1.551093441176104E-05</v>
       </c>
       <c r="E67">
-        <v>0.0002549100499349298</v>
+        <v>0.0005346220957941419</v>
       </c>
       <c r="F67">
-        <v>-1.995372416725188</v>
+        <v>-1.902229071863976</v>
       </c>
       <c r="G67">
-        <v>0.0007319230745700741</v>
+        <v>-0.006635603505619162</v>
       </c>
       <c r="H67">
-        <v>76.61083517407528</v>
+        <v>8.398746372076246E-08</v>
       </c>
       <c r="I67">
-        <v>76.67591228483252</v>
+        <v>171.4277045237287</v>
       </c>
       <c r="J67">
-        <v>84.38182869155985</v>
+        <v>171.3775219643343</v>
       </c>
       <c r="K67">
-        <v>84.20825876198447</v>
+        <v>98.76968283265738</v>
       </c>
       <c r="L67">
-        <v>-0.002423878090414986</v>
+        <v>7.20263745884902E-05</v>
       </c>
       <c r="M67">
-        <v>439.5034026761299</v>
+        <v>0.420562868038233</v>
       </c>
       <c r="N67">
-        <v>-2.771650830179325E-30</v>
+        <v>0.0001982604817998707</v>
       </c>
       <c r="O67">
-        <v>-282.3991618850509</v>
+        <v>-0.2512006972994641</v>
       </c>
       <c r="P67">
-        <v>-0.6583232212184169</v>
+        <v>-0.1212009196221042</v>
       </c>
     </row>
     <row r="68" spans="1:16">
       <c r="A68">
-        <v>15.21415356732201</v>
+        <v>395.9256421285528</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="C68">
-        <v>27.08726181182552</v>
+        <v>7.76085776165798</v>
       </c>
       <c r="D68">
-        <v>-0.00111611589486981</v>
+        <v>1.504102035925825E-05</v>
       </c>
       <c r="E68">
-        <v>-0.001029550424399625</v>
+        <v>0.0004058358640371129</v>
       </c>
       <c r="F68">
-        <v>-1.998439550382097</v>
+        <v>-1.936150828262598</v>
       </c>
       <c r="G68">
-        <v>0.0006535240976610539</v>
+        <v>-0.006325713448382566</v>
       </c>
       <c r="H68">
-        <v>77.41591893271378</v>
+        <v>9.716438521626506E-07</v>
       </c>
       <c r="I68">
-        <v>77.36604057434529</v>
+        <v>171.4281258878046</v>
       </c>
       <c r="J68">
-        <v>85.25225262628889</v>
+        <v>171.3785875974138</v>
       </c>
       <c r="K68">
-        <v>84.95703433454239</v>
+        <v>98.77066047965519</v>
       </c>
       <c r="L68">
-        <v>-0.001240881674720904</v>
+        <v>5.863277957634517E-05</v>
       </c>
       <c r="M68">
-        <v>439.0300490728508</v>
+        <v>0.3058680980261133</v>
       </c>
       <c r="N68">
-        <v>1.574780678346522E-29</v>
+        <v>0.0001964599286752743</v>
       </c>
       <c r="O68">
-        <v>-281.8996399718433</v>
+        <v>-0.1873159399746704</v>
       </c>
       <c r="P68">
-        <v>-0.3343038851291994</v>
+        <v>-0.09037725187354977</v>
       </c>
     </row>
     <row r="69" spans="1:16">
       <c r="A69">
-        <v>15.40710306629226</v>
+        <v>396.6112412756376</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="C69">
-        <v>27.32895537111682</v>
+        <v>7.556263593442317</v>
       </c>
       <c r="D69">
-        <v>-0.0005858524395284717</v>
+        <v>1.389979795403131E-05</v>
       </c>
       <c r="E69">
-        <v>-0.001679553049499067</v>
+        <v>0.000308430666867994</v>
       </c>
       <c r="F69">
-        <v>-1.999981877029894</v>
+        <v>-1.968634560728888</v>
       </c>
       <c r="G69">
-        <v>0.0003889392242223858</v>
+        <v>-0.00608414715965624</v>
       </c>
       <c r="H69">
-        <v>78.04686464195264</v>
+        <v>3.221765016341848E-06</v>
       </c>
       <c r="I69">
-        <v>78.10011496271376</v>
+        <v>171.4284022068507</v>
       </c>
       <c r="J69">
-        <v>86.04696404102258</v>
+        <v>171.3769697587052</v>
       </c>
       <c r="K69">
-        <v>85.69178015169136</v>
+        <v>98.76899368055834</v>
       </c>
       <c r="L69">
-        <v>0.00047885976984989</v>
+        <v>4.759327134020422E-05</v>
       </c>
       <c r="M69">
-        <v>439.0291929333104</v>
+        <v>0.2265361824668302</v>
       </c>
       <c r="N69">
-        <v>-3.829987378389947E-31</v>
+        <v>0.0001893392485850571</v>
       </c>
       <c r="O69">
-        <v>-282.3165693347185</v>
+        <v>-0.1400124910182405</v>
       </c>
       <c r="P69">
-        <v>-0.5395691786072626</v>
+        <v>-0.06755391564618882</v>
       </c>
     </row>
     <row r="70" spans="1:16">
       <c r="A70">
-        <v>15.59840362962104</v>
+        <v>397.3154288634393</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="C70">
-        <v>27.55644293163924</v>
+        <v>7.356537110463023</v>
       </c>
       <c r="D70">
-        <v>3.199070130129252E-05</v>
+        <v>1.244348670121387E-05</v>
       </c>
       <c r="E70">
-        <v>-0.00149072459056563</v>
+        <v>0.0002346651002253361</v>
       </c>
       <c r="F70">
-        <v>-1.999986857351332</v>
+        <v>-2.000000048262731</v>
       </c>
       <c r="G70">
-        <v>8.264284133753508E-05</v>
+        <v>-0.005895617306052557</v>
       </c>
       <c r="H70">
-        <v>78.74533055573271</v>
+        <v>-2.952691669241955E-06</v>
       </c>
       <c r="I70">
-        <v>78.71558281461846</v>
+        <v>171.4285743810969</v>
       </c>
       <c r="J70">
-        <v>86.81777224625216</v>
+        <v>171.3763995832639</v>
       </c>
       <c r="K70">
-        <v>86.36455145499291</v>
+        <v>98.76839617254761</v>
       </c>
     </row>
   </sheetData>

--- a/custom sim/two_track_out2.xlsx
+++ b/custom sim/two_track_out2.xlsx
@@ -483,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.4025236678718991</v>
+        <v>29.99999739566411</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -492,3422 +492,3422 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>-1.923587485323732</v>
+        <v>-0.2702505563138138</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>171.428573986029</v>
+        <v>171.4280177052676</v>
       </c>
       <c r="I2">
-        <v>-2.557454950492511E-06</v>
+        <v>171.4283835692619</v>
       </c>
       <c r="J2">
-        <v>5.592879920384704</v>
+        <v>72.59644880647843</v>
       </c>
       <c r="K2">
-        <v>107.0518191062842</v>
+        <v>90.59754701633935</v>
       </c>
       <c r="L2">
-        <v>-0.008442906890839983</v>
+        <v>-0.0007008544648795109</v>
       </c>
       <c r="M2">
-        <v>0.001849342634680564</v>
+        <v>449.316120762934</v>
       </c>
       <c r="N2">
-        <v>-1.188450101141443</v>
+        <v>-4.303735218331349E-20</v>
       </c>
       <c r="O2">
-        <v>-43.42724043924721</v>
+        <v>-283.0678199056217</v>
       </c>
       <c r="P2">
-        <v>-20.80765885514819</v>
+        <v>-1.866704920067906</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3">
-        <v>13.50030028985811</v>
+        <v>0.175148236510452</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.3758859305097116</v>
+        <v>29.99999983056264</v>
       </c>
       <c r="D3">
-        <v>-0.009146453258830166</v>
+        <v>-0.0007553603927464459</v>
       </c>
       <c r="E3">
-        <v>-0.002840094275378657</v>
+        <v>0.005775513476068665</v>
       </c>
       <c r="F3">
-        <v>-2.000000026991795</v>
+        <v>-0.2700888252871915</v>
       </c>
       <c r="G3">
-        <v>-0.01992736453858513</v>
+        <v>0.0008699662100687607</v>
       </c>
       <c r="H3">
-        <v>171.4285707383771</v>
+        <v>85.57449085625431</v>
       </c>
       <c r="I3">
-        <v>55.45623919978623</v>
+        <v>86.42261887572441</v>
       </c>
       <c r="J3">
-        <v>0.03933852893697091</v>
+        <v>101.911935913443</v>
       </c>
       <c r="K3">
-        <v>101.1940606700598</v>
+        <v>93.88818366908896</v>
       </c>
       <c r="L3">
-        <v>0.01350520335297163</v>
+        <v>-0.02504570173229527</v>
       </c>
       <c r="M3">
-        <v>2.404275986633913</v>
+        <v>404.2397083497763</v>
       </c>
       <c r="N3">
-        <v>0.0001998491605094467</v>
+        <v>1.203251192425251E-27</v>
       </c>
       <c r="O3">
-        <v>172.6992316535219</v>
+        <v>-245.2490418743137</v>
       </c>
       <c r="P3">
-        <v>94.6351032206619</v>
+        <v>21.29130960883162</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4">
-        <v>27.09410522723888</v>
+        <v>0.3501486729923848</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3970776190966772</v>
+        <v>29.9988015889761</v>
       </c>
       <c r="D4">
-        <v>0.02416015140907168</v>
+        <v>-0.00559082339246463</v>
       </c>
       <c r="E4">
-        <v>0.007127760551605367</v>
+        <v>-0.003262681252059567</v>
       </c>
       <c r="F4">
-        <v>-1.982222532411391</v>
+        <v>-0.2827516960506198</v>
       </c>
       <c r="G4">
-        <v>0.01198207239015201</v>
+        <v>0.001092901668211778</v>
       </c>
       <c r="H4">
-        <v>6.910984529323092E-07</v>
+        <v>85.78825623760189</v>
       </c>
       <c r="I4">
-        <v>71.16985477815466</v>
+        <v>85.09782003942341</v>
       </c>
       <c r="J4">
-        <v>35.85645322050225</v>
+        <v>103.7239749205084</v>
       </c>
       <c r="K4">
-        <v>134.642221313657</v>
+        <v>93.94209242061122</v>
       </c>
       <c r="L4">
-        <v>-0.007183289095877532</v>
+        <v>-0.05231688253363346</v>
       </c>
       <c r="M4">
-        <v>0.0007105472821708751</v>
+        <v>404.7353104071987</v>
       </c>
       <c r="N4">
-        <v>-2.611588034178653</v>
+        <v>-1.940005093046536E-27</v>
       </c>
       <c r="O4">
-        <v>-209.5803358827978</v>
+        <v>-263.9921329831768</v>
       </c>
       <c r="P4">
-        <v>-110.327168194697</v>
+        <v>39.06927319012095</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5">
-        <v>41.21219702908144</v>
+        <v>0.5251595317725035</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.3480958008756005</v>
+        <v>29.99999963866599</v>
       </c>
       <c r="D5">
-        <v>-0.03112138228219068</v>
+        <v>-0.01079945548171086</v>
       </c>
       <c r="E5">
-        <v>-0.003701259158805437</v>
+        <v>-0.02050228251169342</v>
       </c>
       <c r="F5">
-        <v>-1.982028185292249</v>
+        <v>-0.3264813428942182</v>
       </c>
       <c r="G5">
-        <v>-0.004283101064455341</v>
+        <v>-0.0009704810072043052</v>
       </c>
       <c r="H5">
-        <v>171.4285734857922</v>
+        <v>85.4605259126847</v>
       </c>
       <c r="I5">
-        <v>171.4285735952785</v>
+        <v>86.10894944589667</v>
       </c>
       <c r="J5">
-        <v>18.5048155206608</v>
+        <v>103.4894607824712</v>
       </c>
       <c r="K5">
-        <v>112.6749464594002</v>
+        <v>94.13056251564815</v>
       </c>
       <c r="L5">
-        <v>0.01199820563138037</v>
+        <v>-0.04653400602082683</v>
       </c>
       <c r="M5">
-        <v>1.524565923907109</v>
+        <v>397.1658166988021</v>
       </c>
       <c r="N5">
-        <v>0.0001999828067136122</v>
+        <v>-2.943282834618596E-26</v>
       </c>
       <c r="O5">
-        <v>282.9648999281249</v>
+        <v>-250.7120530595055</v>
       </c>
       <c r="P5">
-        <v>172.286353954202</v>
+        <v>33.50820073452412</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6">
-        <v>55.50499235808775</v>
+        <v>0.7002007032934222</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3873166245431029</v>
+        <v>29.99244363851315</v>
       </c>
       <c r="D6">
-        <v>0.04471729166097636</v>
+        <v>-0.01116894665144502</v>
       </c>
       <c r="E6">
-        <v>0.007221939080635714</v>
+        <v>-0.0368260356533487</v>
       </c>
       <c r="F6">
-        <v>-1.896014082180723</v>
+        <v>-0.4024800883557253</v>
       </c>
       <c r="G6">
-        <v>0.02395347815962818</v>
+        <v>-0.005992750146944469</v>
       </c>
       <c r="H6">
-        <v>-2.557669447712158E-06</v>
+        <v>85.67282798612499</v>
       </c>
       <c r="I6">
-        <v>152.9130860348284</v>
+        <v>85.41484272524832</v>
       </c>
       <c r="J6">
-        <v>46.4689003087034</v>
+        <v>103.3698978150644</v>
       </c>
       <c r="K6">
-        <v>134.3430030187501</v>
+        <v>93.84390508083925</v>
       </c>
       <c r="L6">
-        <v>-0.0131341041674196</v>
+        <v>-0.0523431534041934</v>
       </c>
       <c r="M6">
-        <v>0.0003711714419971881</v>
+        <v>402.994166745402</v>
       </c>
       <c r="N6">
-        <v>-4.6852767963984</v>
+        <v>4.581089132841495E-27</v>
       </c>
       <c r="O6">
-        <v>-299.294826222171</v>
+        <v>-264.3889453881312</v>
       </c>
       <c r="P6">
-        <v>-176.6703432633724</v>
+        <v>43.24325580077888</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7">
-        <v>70.6289001077414</v>
+        <v>0.8752634688893306</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.309872689562307</v>
+        <v>29.99999524687372</v>
       </c>
       <c r="D7">
-        <v>-0.05764679377913462</v>
+        <v>-0.009708194299310373</v>
       </c>
       <c r="E7">
-        <v>-0.004125766939543165</v>
+        <v>-0.05411581826598051</v>
       </c>
       <c r="F7">
-        <v>-1.886468028810635</v>
+        <v>-0.5093286506710499</v>
       </c>
       <c r="G7">
-        <v>-0.006335240316035612</v>
+        <v>-0.01396053627372621</v>
       </c>
       <c r="H7">
-        <v>171.4285740170393</v>
+        <v>85.41117144742898</v>
       </c>
       <c r="I7">
-        <v>171.4285673992215</v>
+        <v>86.01299583954764</v>
       </c>
       <c r="J7">
-        <v>26.65330585028306</v>
+        <v>101.7448627247406</v>
       </c>
       <c r="K7">
-        <v>108.0286805605204</v>
+        <v>94.09250860909573</v>
       </c>
       <c r="L7">
-        <v>0.01093248834956401</v>
+        <v>-0.08464046098628504</v>
       </c>
       <c r="M7">
-        <v>1.08666001613401</v>
+        <v>383.5780761218104</v>
       </c>
       <c r="N7">
-        <v>0.0001999860629717998</v>
+        <v>-8.96348007022494E-28</v>
       </c>
       <c r="O7">
-        <v>306.8692648324996</v>
+        <v>-252.1065821221995</v>
       </c>
       <c r="P7">
-        <v>205.3954407046986</v>
+        <v>67.67169328388906</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8">
-        <v>86.1260661012579</v>
+        <v>1.050354612257053</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.3683472034671609</v>
+        <v>29.99999876022166</v>
       </c>
       <c r="D8">
-        <v>0.07002561595617632</v>
+        <v>-0.009076291498923411</v>
       </c>
       <c r="E8">
-        <v>0.007068801122846744</v>
+        <v>-0.07791734757747674</v>
       </c>
       <c r="F8">
-        <v>-1.820963208326224</v>
+        <v>-0.6622771227168154</v>
       </c>
       <c r="G8">
-        <v>0.01935618492382619</v>
+        <v>-0.02550188823884381</v>
       </c>
       <c r="H8">
-        <v>-2.611226585013112E-06</v>
+        <v>85.2629277737649</v>
       </c>
       <c r="I8">
-        <v>124.2263322672908</v>
+        <v>85.37113961025112</v>
       </c>
       <c r="J8">
-        <v>50.78558340361215</v>
+        <v>92.37855644397554</v>
       </c>
       <c r="K8">
-        <v>124.1584662633507</v>
+        <v>94.22601207606471</v>
       </c>
       <c r="L8">
-        <v>-0.01363906414830139</v>
+        <v>-0.04841882778277753</v>
       </c>
       <c r="M8">
-        <v>0.0003635789449264077</v>
+        <v>391.8888313349107</v>
       </c>
       <c r="N8">
-        <v>-4.773140342545753</v>
+        <v>1.445655997706762E-24</v>
       </c>
       <c r="O8">
-        <v>-314.6825223289686</v>
+        <v>-258.0479333907703</v>
       </c>
       <c r="P8">
-        <v>-205.2401566963525</v>
+        <v>64.76934810977976</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9">
-        <v>102.5586452878137</v>
+        <v>1.225499757483865</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2741733946274609</v>
+        <v>29.98629861262248</v>
       </c>
       <c r="D9">
-        <v>-0.0835073737620311</v>
+        <v>-0.00256449402259163</v>
       </c>
       <c r="E9">
-        <v>-0.003968759051152925</v>
+        <v>-0.0925764795562182</v>
       </c>
       <c r="F9">
-        <v>-1.840376654937489</v>
+        <v>-0.8644275401994517</v>
       </c>
       <c r="G9">
-        <v>-0.01221631890677186</v>
+        <v>-0.04050788773798109</v>
       </c>
       <c r="H9">
-        <v>171.4285740774316</v>
+        <v>85.52810541603233</v>
       </c>
       <c r="I9">
-        <v>100.9676512674029</v>
+        <v>86.20621549735269</v>
       </c>
       <c r="J9">
-        <v>32.14046123258811</v>
+        <v>90.05345733001154</v>
       </c>
       <c r="K9">
-        <v>99.10458882919917</v>
+        <v>94.89804494969685</v>
       </c>
       <c r="L9">
-        <v>0.01028717453065245</v>
+        <v>0.04141014888834691</v>
       </c>
       <c r="M9">
-        <v>0.8125498385202237</v>
+        <v>435.6938360112447</v>
       </c>
       <c r="N9">
-        <v>0.0001999884421727933</v>
+        <v>3.397690724693333E-28</v>
       </c>
       <c r="O9">
-        <v>295.6488980037444</v>
+        <v>-252.4305730012158</v>
       </c>
       <c r="P9">
-        <v>207.3508081258908</v>
+        <v>-2.55878366849068</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10">
-        <v>119.4372438025613</v>
+        <v>1.400688136228056</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.348446407457455</v>
+        <v>30.00000007969707</v>
       </c>
       <c r="D10">
-        <v>0.09500605982315469</v>
+        <v>0.01670841275708275</v>
       </c>
       <c r="E10">
-        <v>0.006550475281539251</v>
+        <v>-0.07404306037784376</v>
       </c>
       <c r="F10">
-        <v>-1.811515325952283</v>
+        <v>-1.074194612272204</v>
       </c>
       <c r="G10">
-        <v>0.01199838432866765</v>
+        <v>-0.05513820570028236</v>
       </c>
       <c r="H10">
-        <v>-2.648850144351273E-06</v>
+        <v>85.36326045051545</v>
       </c>
       <c r="I10">
-        <v>42.11953792437455</v>
+        <v>85.54569530579924</v>
       </c>
       <c r="J10">
-        <v>52.07720324443369</v>
+        <v>94.95612502138002</v>
       </c>
       <c r="K10">
-        <v>112.3939510164194</v>
+        <v>98.68606607510506</v>
       </c>
       <c r="L10">
-        <v>-0.01276187022363004</v>
+        <v>0.03499138696120417</v>
       </c>
       <c r="M10">
-        <v>0.0004657674008989858</v>
+        <v>419.8284899575024</v>
       </c>
       <c r="N10">
-        <v>-3.810925854385568</v>
+        <v>-8.498488252749848E-28</v>
       </c>
       <c r="O10">
-        <v>-300.638014615855</v>
+        <v>-260.2069833423311</v>
       </c>
       <c r="P10">
-        <v>-206.2067003091486</v>
+        <v>31.20546562955481</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11">
-        <v>137.2956881221491</v>
+        <v>1.575807398538395</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2432973981317768</v>
+        <v>29.99999935710484</v>
       </c>
       <c r="D11">
-        <v>-0.1077259475834896</v>
+        <v>0.02474974397563092</v>
       </c>
       <c r="E11">
-        <v>-0.003178181679021966</v>
+        <v>-0.05839563646757716</v>
       </c>
       <c r="F11">
-        <v>-1.862095585250477</v>
+        <v>-1.283714728661302</v>
       </c>
       <c r="G11">
-        <v>-0.01763443214393483</v>
+        <v>-0.06671870525157461</v>
       </c>
       <c r="H11">
-        <v>171.428574089508</v>
+        <v>85.6783545595397</v>
       </c>
       <c r="I11">
-        <v>39.75443197357352</v>
+        <v>86.11039198869005</v>
       </c>
       <c r="J11">
-        <v>35.92085714001773</v>
+        <v>93.58315209973553</v>
       </c>
       <c r="K11">
-        <v>90.54014521880822</v>
+        <v>106.1526174173784</v>
       </c>
       <c r="L11">
-        <v>0.01034660684897255</v>
+        <v>0.06612957526612506</v>
       </c>
       <c r="M11">
-        <v>0.5867728999864386</v>
+        <v>602.5223596407133</v>
       </c>
       <c r="N11">
-        <v>0.0001999897121510085</v>
+        <v>-1.003094263682719E-26</v>
       </c>
       <c r="O11">
-        <v>279.8518285477558</v>
+        <v>-156.4814604077547</v>
       </c>
       <c r="P11">
-        <v>200.403803047832</v>
+        <v>-35.85592561121008</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12">
-        <v>155.6058664413082</v>
+        <v>1.751514699071341</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3306704419765834</v>
+        <v>29.78046720144491</v>
       </c>
       <c r="D12">
-        <v>0.1190956446651706</v>
+        <v>0.03963229130727886</v>
       </c>
       <c r="E12">
-        <v>0.005652149574822848</v>
+        <v>-0.03692606382483118</v>
       </c>
       <c r="F12">
-        <v>-1.860896014627843</v>
+        <v>-1.48682977130751</v>
       </c>
       <c r="G12">
-        <v>0.006838408287800813</v>
+        <v>-0.07494811591239135</v>
       </c>
       <c r="H12">
-        <v>-2.644852230977505E-06</v>
+        <v>84.80847347443027</v>
       </c>
       <c r="I12">
-        <v>4.4939003124283E-06</v>
+        <v>84.87367933722267</v>
       </c>
       <c r="J12">
-        <v>49.58864315989902</v>
+        <v>144.1261167807237</v>
       </c>
       <c r="K12">
-        <v>100.9450379392323</v>
+        <v>155.2172238812166</v>
       </c>
       <c r="L12">
-        <v>-0.01118138088745468</v>
+        <v>0.1080290974616526</v>
       </c>
       <c r="M12">
-        <v>0.0007276294021526524</v>
+        <v>-4.02182987857733E-26</v>
       </c>
       <c r="N12">
-        <v>-2.504703120999076</v>
+        <v>-0.0002382656986221379</v>
       </c>
       <c r="O12">
-        <v>-283.4349036461788</v>
+        <v>-212.6353441050444</v>
       </c>
       <c r="P12">
-        <v>-198.347993369127</v>
+        <v>-2.115484282094079</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13">
-        <v>174.8705402406503</v>
+        <v>1.928533916696793</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2181416187822255</v>
+        <v>29.58636800451441</v>
       </c>
       <c r="D13">
-        <v>-0.1303072562652417</v>
+        <v>0.05198737876893288</v>
       </c>
       <c r="E13">
-        <v>-0.002811659095833143</v>
+        <v>-0.009316364016207605</v>
       </c>
       <c r="F13">
-        <v>-1.924758861120675</v>
+        <v>-1.646705559141833</v>
       </c>
       <c r="G13">
-        <v>-0.01919774733012335</v>
+        <v>-0.079189460141976</v>
       </c>
       <c r="H13">
-        <v>171.4285740670998</v>
+        <v>84.36464466957358</v>
       </c>
       <c r="I13">
-        <v>32.89205036648492</v>
+        <v>84.50027406909025</v>
       </c>
       <c r="J13">
-        <v>37.32033605657825</v>
+        <v>92.39613089078176</v>
       </c>
       <c r="K13">
-        <v>84.21569039773586</v>
+        <v>105.9985875005506</v>
       </c>
       <c r="L13">
-        <v>0.01014406456756129</v>
+        <v>0.125055788493705</v>
       </c>
       <c r="M13">
-        <v>0.04884707979865765</v>
+        <v>358.7102237865072</v>
       </c>
       <c r="N13">
-        <v>0.0001999898061446215</v>
+        <v>1.763242668763301E-27</v>
       </c>
       <c r="O13">
-        <v>265.7252839472441</v>
+        <v>-198.1511343810747</v>
       </c>
       <c r="P13">
-        <v>192.0209892855251</v>
+        <v>-25.67060757642481</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14">
-        <v>194.5708491398933</v>
+        <v>2.106471973778904</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3153452456384909</v>
+        <v>29.44312662709868</v>
       </c>
       <c r="D14">
-        <v>0.1413529311354088</v>
+        <v>0.05392145412454036</v>
       </c>
       <c r="E14">
-        <v>0.005102029399164593</v>
+        <v>0.02951284708389866</v>
       </c>
       <c r="F14">
-        <v>-1.933491280951562</v>
+        <v>-1.780294036945668</v>
       </c>
       <c r="G14">
-        <v>0.004849643679055799</v>
+        <v>-0.07733963114756436</v>
       </c>
       <c r="H14">
-        <v>-2.634802071011128E-06</v>
+        <v>83.93184197797147</v>
       </c>
       <c r="I14">
-        <v>3.259514865542934E-05</v>
+        <v>83.72652645860553</v>
       </c>
       <c r="J14">
-        <v>40.09997527399352</v>
+        <v>95.4105724811533</v>
       </c>
       <c r="K14">
-        <v>85.45314163150074</v>
+        <v>109.3552215878401</v>
       </c>
       <c r="L14">
-        <v>-0.01028656772373162</v>
+        <v>0.1399931318186446</v>
       </c>
       <c r="M14">
-        <v>0.0009849736797253276</v>
+        <v>332.4299846781488</v>
       </c>
       <c r="N14">
-        <v>-1.733198907526684</v>
+        <v>1.742212466640867E-26</v>
       </c>
       <c r="O14">
-        <v>-266.8581442464447</v>
+        <v>-201.9918137635009</v>
       </c>
       <c r="P14">
-        <v>-188.6696935025203</v>
+        <v>-32.03204122763687</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15">
-        <v>215.241035636062</v>
+        <v>2.285254239181182</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2172318002830219</v>
+        <v>29.3029106111724</v>
       </c>
       <c r="D15">
-        <v>-0.1517266841022214</v>
+        <v>0.0506311188972042</v>
       </c>
       <c r="E15">
-        <v>-0.001359309453988036</v>
+        <v>0.06772207249900106</v>
       </c>
       <c r="F15">
-        <v>-2.000000047124283</v>
+        <v>-1.88922668367108</v>
       </c>
       <c r="G15">
-        <v>-0.01915642205621851</v>
+        <v>-0.06864072030209249</v>
       </c>
       <c r="H15">
-        <v>171.4285740656412</v>
+        <v>83.55584881772363</v>
       </c>
       <c r="I15">
-        <v>60.34250758024622</v>
+        <v>83.28289370661173</v>
       </c>
       <c r="J15">
-        <v>30.17447759289516</v>
+        <v>93.79356953687916</v>
       </c>
       <c r="K15">
-        <v>71.83643069055907</v>
+        <v>108.1983496077264</v>
       </c>
       <c r="L15">
-        <v>0.01105248700126392</v>
+        <v>0.1423112275103812</v>
       </c>
       <c r="M15">
-        <v>0.00466052912367589</v>
+        <v>329.907777830612</v>
       </c>
       <c r="N15">
-        <v>0.0001999893984333511</v>
+        <v>2.76763683728454E-27</v>
       </c>
       <c r="O15">
-        <v>254.4952117319014</v>
+        <v>-209.7973436063861</v>
       </c>
       <c r="P15">
-        <v>185.1235313495935</v>
+        <v>-35.79826427394634</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16">
-        <v>234.2600612864648</v>
+        <v>2.464797532383591</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3355937445858249</v>
+        <v>29.18972401618702</v>
       </c>
       <c r="D16">
-        <v>0.1635592339564484</v>
+        <v>0.04077829581824167</v>
       </c>
       <c r="E16">
-        <v>0.004025959163593364</v>
+        <v>0.1054925840237673</v>
       </c>
       <c r="F16">
-        <v>-2.000000049238839</v>
+        <v>-1.969198158422217</v>
       </c>
       <c r="G16">
-        <v>0.007181053429153064</v>
+        <v>-0.05308098356623071</v>
       </c>
       <c r="H16">
-        <v>-2.63705673708372E-06</v>
+        <v>83.27617455107935</v>
       </c>
       <c r="I16">
-        <v>60.82563948865756</v>
+        <v>82.73570952619457</v>
       </c>
       <c r="J16">
-        <v>26.85014957610545</v>
+        <v>90.23952510250032</v>
       </c>
       <c r="K16">
-        <v>71.16344417470708</v>
+        <v>104.5485520835698</v>
       </c>
       <c r="L16">
-        <v>0.0005381018871598624</v>
+        <v>0.5734386587331688</v>
       </c>
       <c r="M16">
-        <v>0.002593121483481037</v>
+        <v>412.5678104075254</v>
       </c>
       <c r="N16">
-        <v>-0.1334470676374061</v>
+        <v>2.279472509395758E-27</v>
       </c>
       <c r="O16">
-        <v>-258.8158308891711</v>
+        <v>-23.39852531058329</v>
       </c>
       <c r="P16">
-        <v>-184.8240808970149</v>
+        <v>-71.71965438736433</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17">
-        <v>253.5832688564677</v>
+        <v>2.646304900532903</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2618695535562728</v>
+        <v>28.64392812222416</v>
       </c>
       <c r="D17">
-        <v>-0.1622469234658728</v>
+        <v>0.03254825729389917</v>
       </c>
       <c r="E17">
-        <v>-0.002487856170210536</v>
+        <v>0.1349440177524654</v>
       </c>
       <c r="F17">
-        <v>-1.956241394345466</v>
+        <v>-1.999999810693658</v>
       </c>
       <c r="G17">
-        <v>0.008770027441980318</v>
+        <v>-0.03113979509410816</v>
       </c>
       <c r="H17">
-        <v>171.428574344364</v>
+        <v>65.71787633436971</v>
       </c>
       <c r="I17">
-        <v>120.5437313802238</v>
+        <v>66.16579388110144</v>
       </c>
       <c r="J17">
-        <v>25.29774045053272</v>
+        <v>121.5395205622169</v>
       </c>
       <c r="K17">
-        <v>68.82992519743624</v>
+        <v>128.4402575183722</v>
       </c>
       <c r="L17">
-        <v>0.008960281225997589</v>
+        <v>0.1321209100411237</v>
       </c>
       <c r="M17">
-        <v>0.00271460981676947</v>
+        <v>0.001939280818943257</v>
       </c>
       <c r="N17">
-        <v>0.0001999970018960722</v>
+        <v>7.66398330006273E-25</v>
       </c>
       <c r="O17">
-        <v>250.0632659773441</v>
+        <v>-68.40302639663129</v>
       </c>
       <c r="P17">
-        <v>181.6915601401241</v>
+        <v>-57.67629934326195</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18">
-        <v>269.1871442783465</v>
+        <v>2.830603326154852</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.4114353482725129</v>
+        <v>28.34394403757355</v>
       </c>
       <c r="D18">
-        <v>0.1717321646737955</v>
+        <v>0.02286746195829881</v>
       </c>
       <c r="E18">
-        <v>0.004978138829117581</v>
+        <v>0.1716769414562861</v>
       </c>
       <c r="F18">
-        <v>-1.829222331675156</v>
+        <v>-1.941931444187555</v>
       </c>
       <c r="G18">
-        <v>0.02992207522772276</v>
+        <v>-0.003014252561297861</v>
       </c>
       <c r="H18">
-        <v>-2.849877287823442E-06</v>
+        <v>94.09696873531539</v>
       </c>
       <c r="I18">
-        <v>-2.13884299098005E-06</v>
+        <v>91.87932625864471</v>
       </c>
       <c r="J18">
-        <v>26.73780922235307</v>
+        <v>79.99472038654166</v>
       </c>
       <c r="K18">
-        <v>69.20319530570514</v>
+        <v>79.80041194766807</v>
       </c>
       <c r="L18">
-        <v>0.00815364843837431</v>
+        <v>0.121119769646981</v>
       </c>
       <c r="M18">
-        <v>0.002636220285335493</v>
+        <v>-3.279916929011744E-24</v>
       </c>
       <c r="N18">
-        <v>0.000199991225148401</v>
+        <v>-0.00294914023710311</v>
       </c>
       <c r="O18">
-        <v>-253.6365632449449</v>
+        <v>256.187546612053</v>
       </c>
       <c r="P18">
-        <v>-182.4214296008324</v>
+        <v>-100.8695702955812</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19">
-        <v>284.8086591298096</v>
+        <v>3.018736632587401</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3702912562479955</v>
+        <v>27.52529179726817</v>
       </c>
       <c r="D19">
-        <v>-0.1618283944874649</v>
+        <v>0.02043185750597484</v>
       </c>
       <c r="E19">
-        <v>0.00169021460883954</v>
+        <v>0.2209513005327868</v>
       </c>
       <c r="F19">
-        <v>-1.595913021717977</v>
+        <v>-1.74833029082763</v>
       </c>
       <c r="G19">
-        <v>0.0498148844357296</v>
+        <v>0.03393054705061835</v>
       </c>
       <c r="H19">
-        <v>171.4285743461716</v>
+        <v>67.32405371162919</v>
       </c>
       <c r="I19">
-        <v>88.78309554005817</v>
+        <v>67.77763150691243</v>
       </c>
       <c r="J19">
-        <v>26.11769188959753</v>
+        <v>78.52319294319351</v>
       </c>
       <c r="K19">
-        <v>68.20060876669073</v>
+        <v>79.54585574299591</v>
       </c>
       <c r="L19">
-        <v>0.0117873395639554</v>
+        <v>0.1191978778303996</v>
       </c>
       <c r="M19">
-        <v>0.004295489607545928</v>
+        <v>503.9356604045615</v>
       </c>
       <c r="N19">
-        <v>0.0001999968699617555</v>
+        <v>5.318210895122265E-28</v>
       </c>
       <c r="O19">
-        <v>250.0615280100172</v>
+        <v>-332.7536131185527</v>
       </c>
       <c r="P19">
-        <v>182.4272166150001</v>
+        <v>-103.0542606003206</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20">
-        <v>295.7725276897305</v>
+        <v>3.209489361479243</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.656522460249566</v>
+        <v>27.64652984520336</v>
       </c>
       <c r="D20">
-        <v>0.1734211685786633</v>
+        <v>-0.008330811044512188</v>
       </c>
       <c r="E20">
-        <v>0.00669865785399826</v>
+        <v>0.2380682547519472</v>
       </c>
       <c r="F20">
-        <v>-1.226376666578598</v>
+        <v>-1.428809801732096</v>
       </c>
       <c r="G20">
-        <v>0.0781407524891182</v>
+        <v>0.07796339368739101</v>
       </c>
       <c r="H20">
-        <v>-2.889993843088816E-06</v>
+        <v>87.52022694410493</v>
       </c>
       <c r="I20">
-        <v>-2.686520688912521E-06</v>
+        <v>83.43484896976381</v>
       </c>
       <c r="J20">
-        <v>15.72786600503182</v>
+        <v>102.2377175346772</v>
       </c>
       <c r="K20">
-        <v>65.78688326562006</v>
+        <v>85.58423591373686</v>
       </c>
       <c r="L20">
-        <v>0.01492236708512812</v>
+        <v>0.09087146402773645</v>
       </c>
       <c r="M20">
-        <v>0.00605690987693816</v>
+        <v>4.129029810154228E-30</v>
       </c>
       <c r="N20">
-        <v>0.0001999853523934024</v>
+        <v>-340.5057285290218</v>
       </c>
       <c r="O20">
-        <v>-254.7295076785167</v>
+        <v>262.4399918949118</v>
       </c>
       <c r="P20">
-        <v>-183.9055357435065</v>
+        <v>-171.8350549962871</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21">
-        <v>305.4770220440475</v>
+        <v>3.40324726950419</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4587012334363274</v>
+        <v>26.75426692319439</v>
       </c>
       <c r="D21">
-        <v>-0.1550155039255171</v>
+        <v>-0.01524613692329107</v>
       </c>
       <c r="E21">
-        <v>0.003356509518256488</v>
+        <v>0.2760300333001882</v>
       </c>
       <c r="F21">
-        <v>-0.6745565889967078</v>
+        <v>-0.9511877451839259</v>
       </c>
       <c r="G21">
-        <v>0.1146179938937624</v>
+        <v>0.1279110609036712</v>
       </c>
       <c r="H21">
-        <v>171.4285743590031</v>
+        <v>68.32492373140883</v>
       </c>
       <c r="I21">
-        <v>113.6141856175414</v>
+        <v>69.4524457427579</v>
       </c>
       <c r="J21">
-        <v>18.59209596466039</v>
+        <v>85.56676236461699</v>
       </c>
       <c r="K21">
-        <v>70.26780160428</v>
+        <v>75.72387214062176</v>
       </c>
       <c r="L21">
-        <v>0.01200226614513192</v>
+        <v>0.106271284886993</v>
       </c>
       <c r="M21">
-        <v>0.01100641330067549</v>
+        <v>7.00789265528821E-05</v>
       </c>
       <c r="N21">
-        <v>0.0001999966264942684</v>
+        <v>-1.17434611415472E-24</v>
       </c>
       <c r="O21">
-        <v>253.419809273886</v>
+        <v>-106.3855923017031</v>
       </c>
       <c r="P21">
-        <v>184.6751269290639</v>
+        <v>-207.2497389191921</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22">
-        <v>314.4846013004699</v>
+        <v>3.604119813775911</v>
       </c>
       <c r="B22">
         <v>0.003183098861837901</v>
       </c>
       <c r="C22">
-        <v>0.888680728703259</v>
+        <v>26.00634421883393</v>
       </c>
       <c r="D22">
-        <v>0.1661144116921349</v>
+        <v>-0.028085495899735</v>
       </c>
       <c r="E22">
-        <v>0.01033063794965093</v>
+        <v>0.2764568842117314</v>
       </c>
       <c r="F22">
-        <v>0.01230785083917473</v>
+        <v>-0.2760139041835133</v>
       </c>
       <c r="G22">
-        <v>0.1271137204221079</v>
+        <v>0.1666787013563632</v>
       </c>
       <c r="H22">
-        <v>-2.921930451875139E-06</v>
+        <v>81.43306235505052</v>
       </c>
       <c r="I22">
-        <v>-2.777202218570391E-06</v>
+        <v>77.1717678403068</v>
       </c>
       <c r="J22">
-        <v>4.596166679722756</v>
+        <v>72.85539721410859</v>
       </c>
       <c r="K22">
-        <v>67.19869455017742</v>
+        <v>75.59838168285037</v>
       </c>
       <c r="L22">
-        <v>0.02188793713707414</v>
+        <v>0.07135646548253842</v>
       </c>
       <c r="M22">
-        <v>0.02649208092763519</v>
+        <v>-9.544694409049545E-30</v>
       </c>
       <c r="N22">
-        <v>0.0001999194820420282</v>
+        <v>-1335.892709540615</v>
       </c>
       <c r="O22">
-        <v>-261.0023984752552</v>
+        <v>327.0166767702015</v>
       </c>
       <c r="P22">
-        <v>-188.7108235847481</v>
+        <v>-169.2842546171157</v>
       </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23">
-        <v>321.4890358289551</v>
+        <v>3.813986636381685</v>
       </c>
       <c r="B23">
         <v>0.009708451528605597</v>
       </c>
       <c r="C23">
-        <v>0.6154758125602243</v>
+        <v>24.45368675157986</v>
       </c>
       <c r="D23">
-        <v>-0.138666585104283</v>
+        <v>-0.03880062472196966</v>
       </c>
       <c r="E23">
-        <v>0.006388057961833128</v>
+        <v>0.3122155920487815</v>
       </c>
       <c r="F23">
-        <v>0.7686169701497171</v>
+        <v>0.46861965900346</v>
       </c>
       <c r="G23">
-        <v>0.1297141077183976</v>
+        <v>0.1775396088560895</v>
       </c>
       <c r="H23">
-        <v>171.4285743805366</v>
+        <v>60.42025166434669</v>
       </c>
       <c r="I23">
-        <v>134.3447457761123</v>
+        <v>59.92394348416438</v>
       </c>
       <c r="J23">
-        <v>9.327762002679201</v>
+        <v>46.18691910975839</v>
       </c>
       <c r="K23">
-        <v>74.57505498767885</v>
+        <v>67.49396245266546</v>
       </c>
       <c r="L23">
-        <v>0.01282677856362168</v>
+        <v>0.08093771193798818</v>
       </c>
       <c r="M23">
-        <v>1.684952743416839</v>
+        <v>4.177142603132374E-05</v>
       </c>
       <c r="N23">
-        <v>0.0001999962208929666</v>
+        <v>-2.047357458758156E-25</v>
       </c>
       <c r="O23">
-        <v>261.3313800531331</v>
+        <v>-137.4727861493442</v>
       </c>
       <c r="P23">
-        <v>189.966028143527</v>
+        <v>-223.9283384094417</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24">
-        <v>328.2314819470565</v>
+        <v>4.031927964921906</v>
       </c>
       <c r="B24">
         <v>0.01639295913846519</v>
       </c>
       <c r="C24">
-        <v>1.033089376885512</v>
+        <v>23.54491119809519</v>
       </c>
       <c r="D24">
-        <v>0.149180665874344</v>
+        <v>-0.04880884224298262</v>
       </c>
       <c r="E24">
-        <v>0.01815686256805184</v>
+        <v>0.306428747886173</v>
       </c>
       <c r="F24">
-        <v>1.348164390776472</v>
+        <v>1.1270084947225</v>
       </c>
       <c r="G24">
-        <v>0.07461102117586228</v>
+        <v>0.1594283793624685</v>
       </c>
       <c r="H24">
-        <v>-2.951966116626071E-06</v>
+        <v>76.05838811512807</v>
       </c>
       <c r="I24">
-        <v>-1.871614698420237E-06</v>
+        <v>72.31711816135441</v>
       </c>
       <c r="J24">
-        <v>0.09678923606466314</v>
+        <v>64.88454155099977</v>
       </c>
       <c r="K24">
-        <v>81.1227813880764</v>
+        <v>69.35343767710854</v>
       </c>
       <c r="L24">
-        <v>0.03291373387411867</v>
+        <v>0.06217117779341732</v>
       </c>
       <c r="M24">
-        <v>0.03558776008919132</v>
+        <v>-1.121288683062752E-28</v>
       </c>
       <c r="N24">
-        <v>0.0001989843292765865</v>
+        <v>-339.9507502921666</v>
       </c>
       <c r="O24">
-        <v>-275.3045187253791</v>
+        <v>275.3206488217727</v>
       </c>
       <c r="P24">
-        <v>-198.7228724399485</v>
+        <v>-193.6760403331835</v>
       </c>
     </row>
     <row r="25" spans="1:16">
       <c r="A25">
-        <v>333.7952521358886</v>
+        <v>4.254212962298838</v>
       </c>
       <c r="B25">
         <v>0.01986760647169749</v>
       </c>
       <c r="C25">
-        <v>0.79381099390087</v>
+        <v>22.59126197695183</v>
       </c>
       <c r="D25">
-        <v>-0.1081914460731947</v>
+        <v>-0.05467298210836744</v>
       </c>
       <c r="E25">
-        <v>0.01253052892215573</v>
+        <v>0.3435125175454988</v>
       </c>
       <c r="F25">
-        <v>1.757522423515591</v>
+        <v>1.594959641935798</v>
       </c>
       <c r="G25">
-        <v>0.04854325114322183</v>
+        <v>0.1273950904415034</v>
       </c>
       <c r="H25">
-        <v>171.428574386137</v>
+        <v>56.388549796456</v>
       </c>
       <c r="I25">
-        <v>171.4285714467678</v>
+        <v>56.63439290133422</v>
       </c>
       <c r="J25">
-        <v>1.301308841704538</v>
+        <v>60.96788944995595</v>
       </c>
       <c r="K25">
-        <v>82.91764999928708</v>
+        <v>64.51840229927424</v>
       </c>
       <c r="L25">
-        <v>0.01765796195142317</v>
+        <v>0.07148982424466999</v>
       </c>
       <c r="M25">
-        <v>16.84390559239931</v>
+        <v>4.124450162148068E-05</v>
       </c>
       <c r="N25">
-        <v>0.0001999956203532667</v>
+        <v>-4.964718211583831E-24</v>
       </c>
       <c r="O25">
-        <v>269.779755455377</v>
+        <v>-144.333003941144</v>
       </c>
       <c r="P25">
-        <v>193.3878960471683</v>
+        <v>-237.1809739169186</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26">
-        <v>339.0810327987595</v>
+        <v>4.482652804149417</v>
       </c>
       <c r="B26">
         <v>0.02</v>
       </c>
       <c r="C26">
-        <v>1.118019419921428</v>
+        <v>21.85315022846399</v>
       </c>
       <c r="D26">
-        <v>0.1222204094400906</v>
+        <v>-0.05990869498501382</v>
       </c>
       <c r="E26">
-        <v>0.05244359118300083</v>
+        <v>0.3261467804699089</v>
       </c>
       <c r="F26">
-        <v>1.891270765280587</v>
+        <v>1.876354003335981</v>
       </c>
       <c r="G26">
-        <v>-0.01422445674307088</v>
+        <v>0.09894187404917255</v>
       </c>
       <c r="H26">
-        <v>-2.958332313885664E-06</v>
+        <v>70.34173864295875</v>
       </c>
       <c r="I26">
-        <v>103.428846709922</v>
+        <v>66.02293561445649</v>
       </c>
       <c r="J26">
-        <v>54.99045067199155</v>
+        <v>62.22500730921784</v>
       </c>
       <c r="K26">
-        <v>159.8264313210843</v>
+        <v>63.58001218990383</v>
       </c>
       <c r="L26">
-        <v>0.04858570872906419</v>
+        <v>0.05567684862949855</v>
       </c>
       <c r="M26">
-        <v>1.393607267550474E-05</v>
+        <v>-2.669437567255827E-28</v>
       </c>
       <c r="N26">
-        <v>-50.59488761407561</v>
+        <v>-285.8759741480189</v>
       </c>
       <c r="O26">
-        <v>-305.9030366082042</v>
+        <v>258.0428116068421</v>
       </c>
       <c r="P26">
-        <v>-211.6377623197678</v>
+        <v>-204.0327083042688</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27">
-        <v>343.6838936747593</v>
+        <v>4.718413167775238</v>
       </c>
       <c r="B27">
         <v>0.02</v>
       </c>
       <c r="C27">
-        <v>1.058329766453057</v>
+        <v>20.9587226103786</v>
       </c>
       <c r="D27">
-        <v>-0.05690972704156464</v>
+        <v>-0.06397206409210804</v>
       </c>
       <c r="E27">
-        <v>0.01802489696765177</v>
+        <v>0.3616505122086126</v>
       </c>
       <c r="F27">
-        <v>2.000000049198159</v>
+        <v>1.999999890945066</v>
       </c>
       <c r="G27">
-        <v>0.0003179395310395035</v>
+        <v>0.07501339881310645</v>
       </c>
       <c r="H27">
-        <v>171.428574392333</v>
+        <v>52.74375469392419</v>
       </c>
       <c r="I27">
-        <v>-1.130636519702664E-06</v>
+        <v>53.36088471995214</v>
       </c>
       <c r="J27">
-        <v>0.02520905350446062</v>
+        <v>57.17252085368987</v>
       </c>
       <c r="K27">
-        <v>87.79389609971304</v>
+        <v>60.13441786971049</v>
       </c>
       <c r="L27">
-        <v>0.02259688567885212</v>
+        <v>0.06298101072657836</v>
       </c>
       <c r="M27">
-        <v>15.75325024294949</v>
+        <v>1.568764306202474E-25</v>
       </c>
       <c r="N27">
-        <v>0.0001999951357830614</v>
+        <v>-5.367531465370823E-05</v>
       </c>
       <c r="O27">
-        <v>298.1243837404094</v>
+        <v>-138.9509047335262</v>
       </c>
       <c r="P27">
-        <v>203.8595111834251</v>
+        <v>-240.9259860860476</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28">
-        <v>347.9048297120319</v>
+        <v>4.963023535182331</v>
       </c>
       <c r="B28">
         <v>0.02</v>
       </c>
       <c r="C28">
-        <v>1.327017432663145</v>
+        <v>20.25710807129565</v>
       </c>
       <c r="D28">
-        <v>0.07589798474770515</v>
+        <v>-0.06617149478998177</v>
       </c>
       <c r="E28">
-        <v>0.04002605094503976</v>
+        <v>0.3421130304013377</v>
       </c>
       <c r="F28">
-        <v>1.933563927507374</v>
+        <v>1.999999498710614</v>
       </c>
       <c r="G28">
-        <v>-0.05057406156855061</v>
+        <v>0.05611899938720128</v>
       </c>
       <c r="H28">
-        <v>-2.961310528341408E-06</v>
+        <v>65.15825179911336</v>
       </c>
       <c r="I28">
-        <v>-2.175712204485554E-06</v>
+        <v>60.6424258199774</v>
       </c>
       <c r="J28">
-        <v>32.48018507158981</v>
+        <v>57.4461050429945</v>
       </c>
       <c r="K28">
-        <v>146.1378839056372</v>
+        <v>58.92615039693928</v>
       </c>
       <c r="L28">
-        <v>0.03368323206949987</v>
+        <v>0.05132264680241373</v>
       </c>
       <c r="M28">
-        <v>3.47787717596384E-05</v>
+        <v>2.830983595433104E-28</v>
       </c>
       <c r="N28">
-        <v>-29.28021047089428</v>
+        <v>-28.62000192897993</v>
       </c>
       <c r="O28">
-        <v>-301.3860848256655</v>
+        <v>224.1530884898876</v>
       </c>
       <c r="P28">
-        <v>-184.6913196339694</v>
+        <v>-215.3147127432239</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29">
-        <v>351.7838196390722</v>
+        <v>5.216391358850169</v>
       </c>
       <c r="B29">
         <v>0.02</v>
       </c>
       <c r="C29">
-        <v>1.276641886751603</v>
+        <v>19.56986153668406</v>
       </c>
       <c r="D29">
-        <v>-0.03026005628584125</v>
+        <v>-0.0666321352467568</v>
       </c>
       <c r="E29">
-        <v>0.01883992507947921</v>
+        <v>0.3755668045678391</v>
       </c>
       <c r="F29">
-        <v>1.723839738318365</v>
+        <v>1.909801751400547</v>
       </c>
       <c r="G29">
-        <v>0.05968003560393236</v>
+        <v>0.04204554436509146</v>
       </c>
       <c r="H29">
-        <v>171.4285743897674</v>
+        <v>50.04380040419706</v>
       </c>
       <c r="I29">
-        <v>-2.594230685574422E-06</v>
+        <v>51.01071316721705</v>
       </c>
       <c r="J29">
-        <v>0.1943252489873309</v>
+        <v>55.19162123256464</v>
       </c>
       <c r="K29">
-        <v>103.850073730754</v>
+        <v>56.66425996408394</v>
       </c>
       <c r="L29">
-        <v>0.02427553839522184</v>
+        <v>0.06332210453117473</v>
       </c>
       <c r="M29">
-        <v>15.63296892205036</v>
+        <v>1.59989329059248E-26</v>
       </c>
       <c r="N29">
-        <v>0.0001999934466598271</v>
+        <v>2.426879561172013E-07</v>
       </c>
       <c r="O29">
-        <v>282.0032639314232</v>
+        <v>-118.7746998057287</v>
       </c>
       <c r="P29">
-        <v>176.0627292231166</v>
+        <v>-244.3834921872013</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30">
-        <v>355.4215195172922</v>
+        <v>5.479401382938831</v>
       </c>
       <c r="B30">
         <v>0.02</v>
       </c>
       <c r="C30">
-        <v>1.502300650304962</v>
+        <v>18.90566457868778</v>
       </c>
       <c r="D30">
-        <v>0.05225687843390924</v>
+        <v>-0.0656040060246442</v>
       </c>
       <c r="E30">
-        <v>0.03652927614555809</v>
+        <v>0.3568248022896389</v>
       </c>
       <c r="F30">
-        <v>1.971801869695252</v>
+        <v>1.763105826308185</v>
       </c>
       <c r="G30">
-        <v>0.01245174436666112</v>
+        <v>0.03335066998658347</v>
       </c>
       <c r="H30">
-        <v>-2.953260079981019E-06</v>
+        <v>60.35793359666894</v>
       </c>
       <c r="I30">
-        <v>-2.476691795817937E-06</v>
+        <v>55.66827258623834</v>
       </c>
       <c r="J30">
-        <v>31.16980258046534</v>
+        <v>53.10798433878568</v>
       </c>
       <c r="K30">
-        <v>151.9245538799877</v>
+        <v>54.87485800965162</v>
       </c>
       <c r="L30">
-        <v>0.02427849587366249</v>
+        <v>0.0522304813512872</v>
       </c>
       <c r="M30">
-        <v>3.963478217760007E-05</v>
+        <v>91.41256820290248</v>
       </c>
       <c r="N30">
-        <v>-26.95479607823283</v>
+        <v>2.236481725476671E-24</v>
       </c>
       <c r="O30">
-        <v>-255.7835745633932</v>
+        <v>127.3548453895466</v>
       </c>
       <c r="P30">
-        <v>-142.2748380888008</v>
+        <v>-217.4153173629903</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31">
-        <v>358.8171772747159</v>
+        <v>5.750999871292233</v>
       </c>
       <c r="B31">
         <v>0.02</v>
       </c>
       <c r="C31">
-        <v>1.461633913731184</v>
+        <v>18.49700693031129</v>
       </c>
       <c r="D31">
-        <v>-0.01856597247728323</v>
+        <v>-0.06329929296912493</v>
       </c>
       <c r="E31">
-        <v>0.01701379535939716</v>
+        <v>0.3800973215982708</v>
       </c>
       <c r="F31">
-        <v>2.000000049641876</v>
+        <v>1.591762018829999</v>
       </c>
       <c r="G31">
-        <v>-0.03144914128015154</v>
+        <v>0.02841764661952779</v>
       </c>
       <c r="H31">
-        <v>171.4285743718356</v>
+        <v>48.01169906866211</v>
       </c>
       <c r="I31">
-        <v>57.46679067473682</v>
+        <v>49.07286240900848</v>
       </c>
       <c r="J31">
-        <v>0.1542633083456333</v>
+        <v>58.09786346314313</v>
       </c>
       <c r="K31">
-        <v>112.6619578987169</v>
+        <v>54.94336917923483</v>
       </c>
       <c r="L31">
-        <v>0.02348097546284098</v>
+        <v>0.06939279321942551</v>
       </c>
       <c r="M31">
-        <v>7.158342810607756</v>
+        <v>-5.957587782203527E-29</v>
       </c>
       <c r="N31">
-        <v>0.0001999902651772596</v>
+        <v>1.677535141814168E-05</v>
       </c>
       <c r="O31">
-        <v>244.6562394080815</v>
+        <v>-66.04634201202123</v>
       </c>
       <c r="P31">
-        <v>139.2720250617973</v>
+        <v>-244.3730092245467</v>
       </c>
     </row>
     <row r="32" spans="1:16">
       <c r="A32">
-        <v>362.0551415401488</v>
+        <v>6.030808714007093</v>
       </c>
       <c r="B32">
         <v>0.02</v>
       </c>
       <c r="C32">
-        <v>1.659464663848217</v>
+        <v>17.90056985576439</v>
       </c>
       <c r="D32">
-        <v>0.04092789256184379</v>
+        <v>-0.05867408132330796</v>
       </c>
       <c r="E32">
-        <v>0.02832343158355989</v>
+        <v>0.3682562603721562</v>
       </c>
       <c r="F32">
-        <v>1.776863818126263</v>
+        <v>1.42129742159429</v>
       </c>
       <c r="G32">
-        <v>-0.08149317204961917</v>
+        <v>0.02802251492798536</v>
       </c>
       <c r="H32">
-        <v>-2.938688058958549E-06</v>
+        <v>56.69189764168556</v>
       </c>
       <c r="I32">
-        <v>14.45191930055176</v>
+        <v>52.00463748034964</v>
       </c>
       <c r="J32">
-        <v>8.307570489194399</v>
+        <v>49.12241722812717</v>
       </c>
       <c r="K32">
-        <v>129.2083313462189</v>
+        <v>51.33806932408342</v>
       </c>
       <c r="L32">
-        <v>0.02181167886918744</v>
+        <v>0.06197848919785732</v>
       </c>
       <c r="M32">
-        <v>7.977459785151058</v>
+        <v>68.92316978135646</v>
       </c>
       <c r="N32">
-        <v>0.000199864075601082</v>
+        <v>3.11855260816492E-25</v>
       </c>
       <c r="O32">
-        <v>-213.9240847723869</v>
+        <v>121.056377388412</v>
       </c>
       <c r="P32">
-        <v>-113.7610134748317</v>
+        <v>-222.0389915312417</v>
       </c>
     </row>
     <row r="33" spans="1:16">
       <c r="A33">
-        <v>365.1638489836643</v>
+        <v>6.320028452627537</v>
       </c>
       <c r="B33">
         <v>0.02</v>
       </c>
       <c r="C33">
-        <v>1.625582917253973</v>
+        <v>17.45987373387959</v>
       </c>
       <c r="D33">
-        <v>-0.01273038082837005</v>
+        <v>-0.05271370901780061</v>
       </c>
       <c r="E33">
-        <v>0.01472717558567554</v>
+        <v>0.3905904597524811</v>
       </c>
       <c r="F33">
-        <v>1.297372152897303</v>
+        <v>1.290376152413829</v>
       </c>
       <c r="G33">
-        <v>-0.1323918098790651</v>
+        <v>0.03280378142384666</v>
       </c>
       <c r="H33">
-        <v>171.4285742934214</v>
+        <v>45.86854625080127</v>
       </c>
       <c r="I33">
-        <v>171.4285741221187</v>
+        <v>46.80838075915286</v>
       </c>
       <c r="J33">
-        <v>17.68033896057787</v>
+        <v>51.8006688142414</v>
       </c>
       <c r="K33">
-        <v>134.2326690355763</v>
+        <v>51.9675529646732</v>
       </c>
       <c r="L33">
-        <v>0.02152180303315001</v>
+        <v>0.07501908524007181</v>
       </c>
       <c r="M33">
-        <v>1.581620754370884</v>
+        <v>261.7167072585108</v>
       </c>
       <c r="N33">
-        <v>0.0001999847464276984</v>
+        <v>-9.598535298243677E-31</v>
       </c>
       <c r="O33">
-        <v>203.4016984827308</v>
+        <v>-247.3352899442067</v>
       </c>
       <c r="P33">
-        <v>109.2483861128341</v>
+        <v>-221.0784672431397</v>
       </c>
     </row>
     <row r="34" spans="1:16">
       <c r="A34">
-        <v>368.2045912450644</v>
+        <v>6.611466678105559</v>
       </c>
       <c r="B34">
         <v>0.02</v>
       </c>
       <c r="C34">
-        <v>1.801506079998902</v>
+        <v>17.68452854028479</v>
       </c>
       <c r="D34">
-        <v>0.03374411492090467</v>
+        <v>-0.05277535762174398</v>
       </c>
       <c r="E34">
-        <v>0.02189995110211204</v>
+        <v>0.3598096460151987</v>
       </c>
       <c r="F34">
-        <v>0.5274608441792159</v>
+        <v>1.203009380508814</v>
       </c>
       <c r="G34">
-        <v>-0.1862692065447703</v>
+        <v>0.03704144584465612</v>
       </c>
       <c r="H34">
-        <v>-2.883323264055616E-06</v>
+        <v>55.3170429663875</v>
       </c>
       <c r="I34">
-        <v>87.72442731358301</v>
+        <v>50.67718014078041</v>
       </c>
       <c r="J34">
-        <v>14.39861538125679</v>
+        <v>56.83232653198873</v>
       </c>
       <c r="K34">
-        <v>134.7382593024339</v>
+        <v>53.18848044892403</v>
       </c>
       <c r="L34">
-        <v>0.02058822699095207</v>
+        <v>0.06866613363868762</v>
       </c>
       <c r="M34">
-        <v>0.3208649184350714</v>
+        <v>43.3831044343839</v>
       </c>
       <c r="N34">
-        <v>0.000199945536750804</v>
+        <v>-1.651680962403308E-26</v>
       </c>
       <c r="O34">
-        <v>-183.8144761536342</v>
+        <v>171.3099134863379</v>
       </c>
       <c r="P34">
-        <v>-95.39638960489245</v>
+        <v>-225.9957916261661</v>
       </c>
     </row>
     <row r="35" spans="1:16">
       <c r="A35">
-        <v>371.1984544463602</v>
+        <v>6.905138940281997</v>
       </c>
       <c r="B35">
         <v>0.02</v>
       </c>
       <c r="C35">
-        <v>1.777658155516802</v>
+        <v>17.23401778798979</v>
       </c>
       <c r="D35">
-        <v>-0.008665054664186964</v>
+        <v>-0.04580828679797188</v>
       </c>
       <c r="E35">
-        <v>0.01652353012017592</v>
+        <v>0.3915808318291374</v>
       </c>
       <c r="F35">
-        <v>-0.5440211802652701</v>
+        <v>1.151114730230537</v>
       </c>
       <c r="G35">
-        <v>-0.2394817762118191</v>
+        <v>0.04242575900457433</v>
       </c>
       <c r="H35">
-        <v>48.32547105896449</v>
+        <v>45.92504654053485</v>
       </c>
       <c r="I35">
-        <v>171.4285742023826</v>
+        <v>46.83243496698204</v>
       </c>
       <c r="J35">
-        <v>8.283212327689206</v>
+        <v>51.47095802622008</v>
       </c>
       <c r="K35">
-        <v>126.6720054807343</v>
+        <v>49.92742206220482</v>
       </c>
       <c r="L35">
-        <v>0.01513165157237306</v>
+        <v>0.08329081763892782</v>
       </c>
       <c r="M35">
-        <v>20.07256326739708</v>
+        <v>280.1664486362501</v>
       </c>
       <c r="N35">
-        <v>0.0001999765356002858</v>
+        <v>2.567646184633904E-29</v>
       </c>
       <c r="O35">
-        <v>31.47237693223547</v>
+        <v>-265.7739080861951</v>
       </c>
       <c r="P35">
-        <v>25.68974933550225</v>
+        <v>-213.8737271608356</v>
       </c>
     </row>
     <row r="36" spans="1:16">
       <c r="A36">
-        <v>374.2239507181678</v>
+        <v>7.200296208691094</v>
       </c>
       <c r="B36">
         <v>0.02</v>
       </c>
       <c r="C36">
-        <v>1.902121033193476</v>
+        <v>17.53188097188578</v>
       </c>
       <c r="D36">
-        <v>0.02299553303131527</v>
+        <v>-0.04720362886079962</v>
       </c>
       <c r="E36">
-        <v>0.4772008638492212</v>
+        <v>0.3589701590505832</v>
       </c>
       <c r="F36">
-        <v>-2.000000049768825</v>
+        <v>1.149069956547078</v>
       </c>
       <c r="G36">
-        <v>-0.3048187110169432</v>
+        <v>0.04804723048819105</v>
       </c>
       <c r="H36">
-        <v>-2.902631722834846E-06</v>
+        <v>54.22641023152722</v>
       </c>
       <c r="I36">
-        <v>171.4285740033698</v>
+        <v>49.72164211795151</v>
       </c>
       <c r="J36">
-        <v>51.7215908871168</v>
+        <v>56.59770943834998</v>
       </c>
       <c r="K36">
-        <v>171.4285706970392</v>
+        <v>53.5163566059118</v>
       </c>
       <c r="L36">
-        <v>0.118695261913302</v>
+        <v>0.07150070286149632</v>
       </c>
       <c r="M36">
-        <v>264.7336158699712</v>
+        <v>59.16893691467783</v>
       </c>
       <c r="N36">
-        <v>-491.7553598311159</v>
+        <v>-1.453888720114538E-25</v>
       </c>
       <c r="O36">
-        <v>-221.0228088134109</v>
+        <v>154.8998612278962</v>
       </c>
       <c r="P36">
-        <v>-128.2331304978224</v>
+        <v>-227.1009672237715</v>
       </c>
     </row>
     <row r="37" spans="1:16">
       <c r="A37">
-        <v>376.0546544168142</v>
+        <v>7.496085728932864</v>
       </c>
       <c r="B37">
         <v>0.02</v>
       </c>
       <c r="C37">
-        <v>3.977888568276782</v>
+        <v>17.1431139479808</v>
       </c>
       <c r="D37">
-        <v>0.03834973784790086</v>
+        <v>-0.04082649287382356</v>
       </c>
       <c r="E37">
-        <v>0.2148393726893207</v>
+        <v>0.3900412960272182</v>
       </c>
       <c r="F37">
-        <v>-1.805915678483411</v>
+        <v>1.182521595426026</v>
       </c>
       <c r="G37">
-        <v>0.1209905938377209</v>
+        <v>0.05388224042737847</v>
       </c>
       <c r="H37">
-        <v>171.42857426433</v>
+        <v>46.31727679658388</v>
       </c>
       <c r="I37">
-        <v>-2.834215377080956E-06</v>
+        <v>47.09303475600134</v>
       </c>
       <c r="J37">
-        <v>152.0069759107495</v>
+        <v>52.73515869816585</v>
       </c>
       <c r="K37">
-        <v>171.4285515947262</v>
+        <v>49.45763745343412</v>
       </c>
       <c r="L37">
-        <v>0.04143753457643821</v>
+        <v>0.1830028358104935</v>
       </c>
       <c r="M37">
-        <v>34.47948396533056</v>
+        <v>238.5727406092965</v>
       </c>
       <c r="N37">
-        <v>-388.8832265075421</v>
+        <v>-3.786883064217709E-29</v>
       </c>
       <c r="O37">
-        <v>-118.7594280774801</v>
+        <v>-191.6909737606789</v>
       </c>
       <c r="P37">
-        <v>-60.50391698307328</v>
+        <v>-220.1070107144204</v>
       </c>
     </row>
     <row r="38" spans="1:16">
       <c r="A38">
-        <v>377.2989801105899</v>
+        <v>7.793938959118723</v>
       </c>
       <c r="B38">
         <v>0.02</v>
       </c>
       <c r="C38">
-        <v>4.754166510182819</v>
+        <v>17.2569442584117</v>
       </c>
       <c r="D38">
-        <v>0.01105672481320672</v>
+        <v>-0.04450722972638575</v>
       </c>
       <c r="E38">
-        <v>0.1025970988266143</v>
+        <v>0.3647261767296222</v>
       </c>
       <c r="F38">
-        <v>-0.7760956436413973</v>
+        <v>1.260403551929532</v>
       </c>
       <c r="G38">
-        <v>0.1872238157825133</v>
+        <v>0.06122746719624157</v>
       </c>
       <c r="H38">
-        <v>171.428574368873</v>
+        <v>51.3643419549745</v>
       </c>
       <c r="I38">
-        <v>-2.919701165139602E-06</v>
+        <v>47.30676760082309</v>
       </c>
       <c r="J38">
-        <v>1.039546254646192</v>
+        <v>54.88863585206523</v>
       </c>
       <c r="K38">
-        <v>2.081270048997986E-07</v>
+        <v>52.54830344708554</v>
       </c>
       <c r="L38">
-        <v>0.0295173129475529</v>
+        <v>0.06497434698849419</v>
       </c>
       <c r="M38">
-        <v>221.5369485367968</v>
+        <v>141.005231303369</v>
       </c>
       <c r="N38">
-        <v>0.0001998753840946112</v>
+        <v>4.115314585031116E-25</v>
       </c>
       <c r="O38">
-        <v>-22.52059033976505</v>
+        <v>-3.721436148868396</v>
       </c>
       <c r="P38">
-        <v>-11.06638168497132</v>
+        <v>-232.7946857549203</v>
       </c>
     </row>
     <row r="39" spans="1:16">
       <c r="A39">
-        <v>378.3702587848759</v>
+        <v>8.091122931133524</v>
       </c>
       <c r="B39">
         <v>0.02</v>
       </c>
       <c r="C39">
-        <v>5.254159172433778</v>
+        <v>17.15579617263688</v>
       </c>
       <c r="D39">
-        <v>0.01395247005557099</v>
+        <v>-0.04030892298840084</v>
       </c>
       <c r="E39">
-        <v>0.0757927419418279</v>
+        <v>0.3724066999441362</v>
       </c>
       <c r="F39">
-        <v>0.2732431060815674</v>
+        <v>1.368312054915998</v>
       </c>
       <c r="G39">
-        <v>0.1730869302551418</v>
+        <v>0.06578103394254267</v>
       </c>
       <c r="H39">
-        <v>171.4285737283847</v>
+        <v>48.38540008525107</v>
       </c>
       <c r="I39">
-        <v>76.52673769605225</v>
+        <v>48.7111656481016</v>
       </c>
       <c r="J39">
-        <v>166.0554239689108</v>
+        <v>54.2810219180784</v>
       </c>
       <c r="K39">
-        <v>164.4678350515972</v>
+        <v>50.12603376177968</v>
       </c>
       <c r="L39">
-        <v>0.02147626711792422</v>
+        <v>0.08554277063520478</v>
       </c>
       <c r="M39">
-        <v>25.88335224619073</v>
+        <v>231.1489103499916</v>
       </c>
       <c r="N39">
-        <v>0.0001998994722095968</v>
+        <v>4.228808392912525E-30</v>
       </c>
       <c r="O39">
-        <v>-43.17984304639459</v>
+        <v>-187.4406879674974</v>
       </c>
       <c r="P39">
-        <v>-21.26991846151348</v>
+        <v>-224.8106749389978</v>
       </c>
     </row>
     <row r="40" spans="1:16">
       <c r="A40">
-        <v>379.3429533001744</v>
+        <v>8.386889961011637</v>
       </c>
       <c r="B40">
         <v>0.02</v>
       </c>
       <c r="C40">
-        <v>5.526152435038922</v>
+        <v>17.33977792713401</v>
       </c>
       <c r="D40">
-        <v>0.007568644962309433</v>
+        <v>-0.03835916300840144</v>
       </c>
       <c r="E40">
-        <v>0.05903805790634745</v>
+        <v>0.3530006922999765</v>
       </c>
       <c r="F40">
-        <v>1.127986440594383</v>
+        <v>1.510366809876015</v>
       </c>
       <c r="G40">
-        <v>0.1314970836254192</v>
+        <v>0.06803105745413768</v>
       </c>
       <c r="H40">
-        <v>171.4285736709441</v>
+        <v>51.24712558420509</v>
       </c>
       <c r="I40">
-        <v>110.7119989847646</v>
+        <v>47.66051586194631</v>
       </c>
       <c r="J40">
-        <v>155.848686232725</v>
+        <v>54.21574631735587</v>
       </c>
       <c r="K40">
-        <v>152.4974943205549</v>
+        <v>52.25928490430933</v>
       </c>
       <c r="L40">
-        <v>0.01538534438478167</v>
+        <v>0.05894958667273837</v>
       </c>
       <c r="M40">
-        <v>38.13335607332485</v>
+        <v>178.9547673504247</v>
       </c>
       <c r="N40">
-        <v>0.0001999128852347269</v>
+        <v>-1.26899371976994E-30</v>
       </c>
       <c r="O40">
-        <v>-25.57193255483217</v>
+        <v>-58.39929240621525</v>
       </c>
       <c r="P40">
-        <v>-12.34065099612679</v>
+        <v>-222.4604197367706</v>
       </c>
     </row>
     <row r="41" spans="1:16">
       <c r="A41">
-        <v>380.2547684225888</v>
+        <v>8.679912998813574</v>
       </c>
       <c r="B41">
         <v>0.02</v>
       </c>
       <c r="C41">
-        <v>5.717419241253554</v>
+        <v>17.37181633112408</v>
       </c>
       <c r="D41">
-        <v>0.006059370227518984</v>
+        <v>-0.03565586879593829</v>
       </c>
       <c r="E41">
-        <v>0.06024880258579402</v>
+        <v>0.3532485738191174</v>
       </c>
       <c r="F41">
-        <v>1.690711245448674</v>
+        <v>1.665432468019806</v>
       </c>
       <c r="G41">
-        <v>0.07275638098365574</v>
+        <v>0.06649472865838951</v>
       </c>
       <c r="H41">
-        <v>171.428573926316</v>
+        <v>49.35596465950109</v>
       </c>
       <c r="I41">
-        <v>128.5495886312783</v>
+        <v>49.37339572028718</v>
       </c>
       <c r="J41">
-        <v>160.7097053986691</v>
+        <v>54.98363176134757</v>
       </c>
       <c r="K41">
-        <v>156.5968356754166</v>
+        <v>51.2147836187531</v>
       </c>
       <c r="L41">
-        <v>0.02032316487778606</v>
+        <v>0.07010805522273364</v>
       </c>
       <c r="M41">
-        <v>27.16577487064418</v>
+        <v>232.8721175334108</v>
       </c>
       <c r="N41">
-        <v>0.0001999285238911662</v>
+        <v>8.75580444618351E-30</v>
       </c>
       <c r="O41">
-        <v>-18.5132944883605</v>
+        <v>-175.3403837717839</v>
       </c>
       <c r="P41">
-        <v>-8.611321593481827</v>
+        <v>-218.5827306315371</v>
       </c>
     </row>
     <row r="42" spans="1:16">
       <c r="A42">
-        <v>381.1193026107814</v>
+        <v>8.970032173345627</v>
       </c>
       <c r="B42">
         <v>0.02</v>
       </c>
       <c r="C42">
-        <v>5.981907658553395</v>
+        <v>17.57525092731254</v>
       </c>
       <c r="D42">
-        <v>0.009478465703786841</v>
+        <v>-0.03373530975851145</v>
       </c>
       <c r="E42">
-        <v>0.1001419930353323</v>
+        <v>0.3380644137788796</v>
       </c>
       <c r="F42">
-        <v>1.965344683833926</v>
+        <v>1.816043997584537</v>
       </c>
       <c r="G42">
-        <v>0.01775191993219125</v>
+        <v>0.06176038018371807</v>
       </c>
       <c r="H42">
-        <v>16.56482213723607</v>
+        <v>51.69476284908245</v>
       </c>
       <c r="I42">
-        <v>-2.674605207773841E-06</v>
+        <v>48.51230848719851</v>
       </c>
       <c r="J42">
-        <v>162.5804756510469</v>
+        <v>54.78041270453804</v>
       </c>
       <c r="K42">
-        <v>158.1948540565109</v>
+        <v>52.62006601679167</v>
       </c>
       <c r="L42">
-        <v>0.01675487733444195</v>
+        <v>0.0460562270289034</v>
       </c>
       <c r="M42">
-        <v>73.28694592025991</v>
+        <v>204.9067526621295</v>
       </c>
       <c r="N42">
-        <v>0.0001998846137043633</v>
+        <v>1.042014786473643E-30</v>
       </c>
       <c r="O42">
-        <v>-45.04224645676251</v>
+        <v>-96.28246823869799</v>
       </c>
       <c r="P42">
-        <v>-22.08878878410075</v>
+        <v>-210.0498392475159</v>
       </c>
     </row>
     <row r="43" spans="1:16">
       <c r="A43">
-        <v>381.9370155204589</v>
+        <v>9.256564707387838</v>
       </c>
       <c r="B43">
         <v>0.02</v>
       </c>
       <c r="C43">
-        <v>6.330431678887159</v>
+        <v>17.70055364537248</v>
       </c>
       <c r="D43">
-        <v>0.0051170627011792</v>
+        <v>-0.03405187191906311</v>
       </c>
       <c r="E43">
-        <v>0.08779113903198772</v>
+        <v>0.3315416378786687</v>
       </c>
       <c r="F43">
-        <v>2.000000049471945</v>
+        <v>1.934703061322355</v>
       </c>
       <c r="G43">
-        <v>-0.02143753089946938</v>
+        <v>0.05268192102089887</v>
       </c>
       <c r="H43">
-        <v>171.4285735604942</v>
+        <v>50.52265550655499</v>
       </c>
       <c r="I43">
-        <v>171.4285738647595</v>
+        <v>50.33060267106741</v>
       </c>
       <c r="J43">
-        <v>164.4092968314938</v>
+        <v>55.57729762065753</v>
       </c>
       <c r="K43">
-        <v>157.1127758461759</v>
+        <v>52.44158949040104</v>
       </c>
       <c r="L43">
-        <v>0.02348423847781038</v>
+        <v>0.05012939732648833</v>
       </c>
       <c r="M43">
-        <v>55.87574092098637</v>
+        <v>239.2709021790526</v>
       </c>
       <c r="N43">
-        <v>0.0001999182603059054</v>
+        <v>1.107546326902022E-26</v>
       </c>
       <c r="O43">
-        <v>0.7154276828146691</v>
+        <v>-171.7392613533504</v>
       </c>
       <c r="P43">
-        <v>-1.676288888033395</v>
+        <v>-208.1299181206844</v>
       </c>
     </row>
     <row r="44" spans="1:16">
       <c r="A44">
-        <v>382.7073812169757</v>
+        <v>9.539675302571187</v>
       </c>
       <c r="B44">
         <v>0.02</v>
       </c>
       <c r="C44">
-        <v>6.752369202727333</v>
+        <v>17.92702921776986</v>
       </c>
       <c r="D44">
-        <v>0.009849008413409145</v>
+        <v>-0.03265342238335223</v>
       </c>
       <c r="E44">
-        <v>0.3012305668534642</v>
+        <v>0.316265148381986</v>
       </c>
       <c r="F44">
-        <v>1.834190011641778</v>
+        <v>1.999999864931711</v>
       </c>
       <c r="G44">
-        <v>-0.0632777622729922</v>
+        <v>0.03936629053902025</v>
       </c>
       <c r="H44">
-        <v>-2.887083871084747E-06</v>
+        <v>52.53312949785076</v>
       </c>
       <c r="I44">
-        <v>30.86810830068822</v>
+        <v>49.71993067741214</v>
       </c>
       <c r="J44">
-        <v>171.4201995094965</v>
+        <v>55.68799698598681</v>
       </c>
       <c r="K44">
-        <v>164.6005763717414</v>
+        <v>53.48212057534185</v>
       </c>
       <c r="L44">
-        <v>0.03745068456376621</v>
+        <v>0.03379423605154323</v>
       </c>
       <c r="M44">
-        <v>3.263872276429288E-06</v>
+        <v>223.5503920599814</v>
       </c>
       <c r="N44">
-        <v>-108.9857890138413</v>
+        <v>2.352401576515773E-31</v>
       </c>
       <c r="O44">
-        <v>-127.4587917401681</v>
+        <v>-120.0131847962945</v>
       </c>
       <c r="P44">
-        <v>-66.4428057494016</v>
+        <v>-197.2597895081246</v>
       </c>
     </row>
     <row r="45" spans="1:16">
       <c r="A45">
-        <v>383.3919308562669</v>
+        <v>9.819407762522172</v>
       </c>
       <c r="B45">
         <v>0.02</v>
       </c>
       <c r="C45">
-        <v>8.055989276549292</v>
+        <v>18.10547760821647</v>
       </c>
       <c r="D45">
-        <v>0.008608498043274019</v>
+        <v>-0.03396394063563473</v>
       </c>
       <c r="E45">
-        <v>0.2176023916043388</v>
+        <v>0.3043746259104375</v>
       </c>
       <c r="F45">
-        <v>1.7672614527405</v>
+        <v>1.984962779664668</v>
       </c>
       <c r="G45">
-        <v>0.005308992473549387</v>
+        <v>0.02115319309012525</v>
       </c>
       <c r="H45">
-        <v>88.98680437041249</v>
+        <v>51.78285227705366</v>
       </c>
       <c r="I45">
-        <v>171.4285739642258</v>
+        <v>51.47577498699793</v>
       </c>
       <c r="J45">
-        <v>35.51508616904943</v>
+        <v>56.55507094433766</v>
       </c>
       <c r="K45">
-        <v>5.393714556615848</v>
+        <v>53.76339575335403</v>
       </c>
       <c r="L45">
-        <v>0.02863371391730217</v>
+        <v>0.02756209752023485</v>
       </c>
       <c r="M45">
-        <v>405.1222665474241</v>
+        <v>255.0793967543425</v>
       </c>
       <c r="N45">
-        <v>0.0001994820815969802</v>
+        <v>-1.216987510771085E-30</v>
       </c>
       <c r="O45">
-        <v>-115.323038554969</v>
+        <v>-180.4669891039564</v>
       </c>
       <c r="P45">
-        <v>-58.52872855414194</v>
+        <v>-190.0125905030407</v>
       </c>
     </row>
     <row r="46" spans="1:16">
       <c r="A46">
-        <v>383.9845267389514</v>
+        <v>10.09617809614165</v>
       </c>
       <c r="B46">
         <v>0.02</v>
       </c>
       <c r="C46">
-        <v>9.028602572064788</v>
+        <v>18.37587661309</v>
       </c>
       <c r="D46">
-        <v>0.004889796292154015</v>
+        <v>-0.03444662946367001</v>
       </c>
       <c r="E46">
-        <v>0.1738396328522046</v>
+        <v>0.2840196943296125</v>
       </c>
       <c r="F46">
-        <v>1.861824344012618</v>
+        <v>1.860194615692348</v>
       </c>
       <c r="G46">
-        <v>0.01473537134974662</v>
+        <v>-0.002449160335722087</v>
       </c>
       <c r="H46">
-        <v>37.87585709231951</v>
+        <v>53.68630402839651</v>
       </c>
       <c r="I46">
-        <v>171.4285733652439</v>
+        <v>51.23899152109929</v>
       </c>
       <c r="J46">
-        <v>171.3645108788047</v>
+        <v>57.24831629396588</v>
       </c>
       <c r="K46">
-        <v>127.7242671851465</v>
+        <v>54.79040116336819</v>
       </c>
       <c r="L46">
-        <v>0.01758619282455282</v>
+        <v>0.0105274321386805</v>
       </c>
       <c r="M46">
-        <v>137.4568833783262</v>
+        <v>244.5411071237461</v>
       </c>
       <c r="N46">
-        <v>0.0001996529719345974</v>
+        <v>-9.30583052841991E-30</v>
       </c>
       <c r="O46">
-        <v>-100.3212393374474</v>
+        <v>-141.0928793981904</v>
       </c>
       <c r="P46">
-        <v>-50.40392103546151</v>
+        <v>-174.5798692089672</v>
       </c>
     </row>
     <row r="47" spans="1:16">
       <c r="A47">
-        <v>384.5236715130082</v>
+        <v>10.37058164915373</v>
       </c>
       <c r="B47">
         <v>0.02</v>
       </c>
       <c r="C47">
-        <v>9.725713536445353</v>
+        <v>18.61104172838906</v>
       </c>
       <c r="D47">
-        <v>0.0003698205632270834</v>
+        <v>-0.03789585827521252</v>
       </c>
       <c r="E47">
-        <v>0.1383874013566217</v>
+        <v>0.2622089044107401</v>
       </c>
       <c r="F47">
-        <v>1.89633036154025</v>
+        <v>1.586827175290384</v>
       </c>
       <c r="G47">
-        <v>-0.006953650377699439</v>
+        <v>-0.03255404080890677</v>
       </c>
       <c r="H47">
-        <v>16.65149387051026</v>
+        <v>53.24441312161098</v>
       </c>
       <c r="I47">
-        <v>171.4285731657336</v>
+        <v>52.95110200559144</v>
       </c>
       <c r="J47">
-        <v>171.1894133134</v>
+        <v>58.26542181642778</v>
       </c>
       <c r="K47">
-        <v>117.8126710842341</v>
+        <v>55.3661261253029</v>
       </c>
       <c r="L47">
-        <v>0.01050199670059428</v>
+        <v>0.005360065039212361</v>
       </c>
       <c r="M47">
-        <v>121.7760529062457</v>
+        <v>272.1752115071617</v>
       </c>
       <c r="N47">
-        <v>0.0001997093264230432</v>
+        <v>-9.437179747590532E-31</v>
       </c>
       <c r="O47">
-        <v>-83.56828454328904</v>
+        <v>-190.0481416090455</v>
       </c>
       <c r="P47">
-        <v>-41.59461881304307</v>
+        <v>-165.6302451048647</v>
       </c>
     </row>
     <row r="48" spans="1:16">
       <c r="A48">
-        <v>385.0307635338429</v>
+        <v>10.64375626276973</v>
       </c>
       <c r="B48">
         <v>0.01991830220998726</v>
       </c>
       <c r="C48">
-        <v>10.23258814852241</v>
+        <v>18.91926512013778</v>
       </c>
       <c r="D48">
-        <v>-0.00189341310996009</v>
+        <v>-0.03720035898949309</v>
       </c>
       <c r="E48">
-        <v>0.1089926021670921</v>
+        <v>0.23470033260237</v>
       </c>
       <c r="F48">
-        <v>1.751320840640777</v>
+        <v>1.134233650033034</v>
       </c>
       <c r="G48">
-        <v>-0.04934821295063403</v>
+        <v>-0.06929197920200716</v>
       </c>
       <c r="H48">
-        <v>7.601835771059378</v>
+        <v>55.06600667091554</v>
       </c>
       <c r="I48">
-        <v>171.4285727235387</v>
+        <v>53.02558516164466</v>
       </c>
       <c r="J48">
-        <v>171.2563094115709</v>
+        <v>59.14145391038939</v>
       </c>
       <c r="K48">
-        <v>111.0120448500262</v>
+        <v>56.4042149913326</v>
       </c>
       <c r="L48">
-        <v>0.006246432045545776</v>
+        <v>-0.0077463281846291</v>
       </c>
       <c r="M48">
-        <v>103.5285300361086</v>
+        <v>271.9467120228146</v>
       </c>
       <c r="N48">
-        <v>0.0001997418775560964</v>
+        <v>7.294076685247619E-30</v>
       </c>
       <c r="O48">
-        <v>-67.97649481127708</v>
+        <v>-164.486285531264</v>
       </c>
       <c r="P48">
-        <v>-33.54496094159587</v>
+        <v>-145.5832846930768</v>
       </c>
     </row>
     <row r="49" spans="1:16">
       <c r="A49">
-        <v>385.5231693221205</v>
+        <v>10.91728605354176</v>
       </c>
       <c r="B49">
         <v>0.01649435061504471</v>
       </c>
       <c r="C49">
-        <v>10.5838560986007</v>
+        <v>19.22058985590987</v>
       </c>
       <c r="D49">
-        <v>-0.002781462428249359</v>
+        <v>-0.03859596754771999</v>
       </c>
       <c r="E49">
-        <v>0.08481473246016291</v>
+        <v>0.2045581682624821</v>
       </c>
       <c r="F49">
-        <v>1.372507159837443</v>
+        <v>0.4915141992219205</v>
       </c>
       <c r="G49">
-        <v>-0.08861207917973049</v>
+        <v>-0.09586886879412186</v>
       </c>
       <c r="H49">
-        <v>3.613384762751696</v>
+        <v>54.9355867617726</v>
       </c>
       <c r="I49">
-        <v>171.4285719898419</v>
+        <v>54.76806918576017</v>
       </c>
       <c r="J49">
-        <v>171.172971775934</v>
+        <v>60.28574355370315</v>
       </c>
       <c r="K49">
-        <v>106.2382889625225</v>
+        <v>57.29226541078476</v>
       </c>
       <c r="L49">
-        <v>0.003720060442982321</v>
+        <v>-0.01145590098799235</v>
       </c>
       <c r="M49">
-        <v>83.62357939964056</v>
+        <v>302.382786048038</v>
       </c>
       <c r="N49">
-        <v>0.0001997627473227951</v>
+        <v>-7.413824476071486E-31</v>
       </c>
       <c r="O49">
-        <v>-53.93265230056954</v>
+        <v>-206.7726729348484</v>
       </c>
       <c r="P49">
-        <v>-26.42388440454391</v>
+        <v>-131.301250648508</v>
       </c>
     </row>
     <row r="50" spans="1:16">
       <c r="A50">
-        <v>386.0109212494555</v>
+        <v>11.18979201538024</v>
       </c>
       <c r="B50">
         <v>0.009809843005185111</v>
       </c>
       <c r="C50">
-        <v>10.80251214440495</v>
+        <v>19.60062225845789</v>
       </c>
       <c r="D50">
-        <v>-0.002894853749762275</v>
+        <v>-0.03551467540361967</v>
       </c>
       <c r="E50">
-        <v>0.06519857980062542</v>
+        <v>0.1713465552052831</v>
       </c>
       <c r="F50">
-        <v>0.8432682463758998</v>
+        <v>-0.2233307246219464</v>
       </c>
       <c r="G50">
-        <v>-0.1038154187969173</v>
+        <v>-0.09619850324199698</v>
       </c>
       <c r="H50">
-        <v>1.817437972777156</v>
+        <v>56.81260921575408</v>
       </c>
       <c r="I50">
-        <v>171.4285704780864</v>
+        <v>55.21912616879638</v>
       </c>
       <c r="J50">
-        <v>170.2908036876566</v>
+        <v>61.41483650969563</v>
       </c>
       <c r="K50">
-        <v>102.2812029480785</v>
+        <v>58.5178634365199</v>
       </c>
       <c r="L50">
-        <v>0.002262226864125965</v>
+        <v>-0.02193531581744311</v>
       </c>
       <c r="M50">
-        <v>57.82534271762061</v>
+        <v>313.5115482953804</v>
       </c>
       <c r="N50">
-        <v>0.0001997745287455976</v>
+        <v>2.428808427027646E-31</v>
       </c>
       <c r="O50">
-        <v>-41.86865787479469</v>
+        <v>-194.7837204811747</v>
       </c>
       <c r="P50">
-        <v>-20.40180903239728</v>
+        <v>-106.4830237513414</v>
       </c>
     </row>
     <row r="51" spans="1:16">
       <c r="A51">
-        <v>386.4959033344862</v>
+        <v>11.45734382909261</v>
       </c>
       <c r="B51">
         <v>0.003233794600127655</v>
       </c>
       <c r="C51">
-        <v>10.90775409613783</v>
+        <v>19.99378005686687</v>
       </c>
       <c r="D51">
-        <v>-0.002611252663796164</v>
+        <v>-0.03455940870307408</v>
       </c>
       <c r="E51">
-        <v>0.04966362439551574</v>
+        <v>0.1362198362502424</v>
       </c>
       <c r="F51">
-        <v>0.2982196609155605</v>
+        <v>-0.866589804777582</v>
       </c>
       <c r="G51">
-        <v>-0.0931538123689617</v>
+        <v>-0.07209005550940069</v>
       </c>
       <c r="H51">
-        <v>0.9898575977976396</v>
+        <v>57.05344889906311</v>
       </c>
       <c r="I51">
-        <v>171.4285660541739</v>
+        <v>57.08606609375592</v>
       </c>
       <c r="J51">
-        <v>165.4813939015812</v>
+        <v>62.78037732534976</v>
       </c>
       <c r="K51">
-        <v>95.55260585199477</v>
+        <v>59.80607084570988</v>
       </c>
       <c r="L51">
-        <v>0.001450095435172325</v>
+        <v>-0.02340240964807794</v>
       </c>
       <c r="M51">
-        <v>43.34927383714518</v>
+        <v>344.8597562577993</v>
       </c>
       <c r="N51">
-        <v>0.0001997792276190203</v>
+        <v>-6.572276610274761E-30</v>
       </c>
       <c r="O51">
-        <v>-31.96765559778959</v>
+        <v>-229.3808801869622</v>
       </c>
       <c r="P51">
-        <v>-15.51828735437315</v>
+        <v>-88.69013583422591</v>
       </c>
     </row>
     <row r="52" spans="1:16">
       <c r="A52">
-        <v>386.9784472961992</v>
+        <v>11.71797598337239</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52">
-        <v>10.92076081929019</v>
+        <v>20.45153614189159</v>
       </c>
       <c r="D52">
-        <v>-0.002166861164070132</v>
+        <v>-0.02980111408246361</v>
       </c>
       <c r="E52">
-        <v>0.03761935623202067</v>
+        <v>0.1023881967446281</v>
       </c>
       <c r="F52">
-        <v>-0.1477303146634473</v>
+        <v>-1.330283582595182</v>
       </c>
       <c r="G52">
-        <v>-0.07225410287297838</v>
+        <v>-0.0410563103650491</v>
       </c>
       <c r="H52">
-        <v>0.5878311635972819</v>
+        <v>59.02630543832731</v>
       </c>
       <c r="I52">
-        <v>171.4284854879963</v>
+        <v>57.89317031525459</v>
       </c>
       <c r="J52">
-        <v>160.8784359337548</v>
+        <v>64.15931887715459</v>
       </c>
       <c r="K52">
-        <v>89.80045186901765</v>
+        <v>61.28380372892499</v>
       </c>
       <c r="L52">
-        <v>0.001025179005282881</v>
+        <v>-0.0296431275454726</v>
       </c>
       <c r="M52">
-        <v>33.5216254755444</v>
+        <v>362.9837397638042</v>
       </c>
       <c r="N52">
-        <v>0.0001997802964525157</v>
+        <v>1.553884969042059E-29</v>
       </c>
       <c r="O52">
-        <v>-24.11188566969494</v>
+        <v>-227.8503562528336</v>
       </c>
       <c r="P52">
-        <v>-11.67571992858589</v>
+        <v>-63.65573791435528</v>
       </c>
     </row>
     <row r="53" spans="1:16">
       <c r="A53">
-        <v>387.4613426542454</v>
+        <v>11.97214748785181</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>10.86233879859392</v>
+        <v>20.92891599224533</v>
       </c>
       <c r="D53">
-        <v>-0.001689320628887865</v>
+        <v>-0.02675311687018086</v>
       </c>
       <c r="E53">
-        <v>0.02840862272140857</v>
+        <v>0.06953685504965307</v>
       </c>
       <c r="F53">
-        <v>-0.494593342608816</v>
+        <v>-1.635005788406454</v>
       </c>
       <c r="G53">
-        <v>-0.05643139062821931</v>
+        <v>-0.01927449436217221</v>
       </c>
       <c r="H53">
-        <v>1.054233932755379E-05</v>
+        <v>59.6266075985923</v>
       </c>
       <c r="I53">
-        <v>171.0689628100801</v>
+        <v>59.86082576464671</v>
       </c>
       <c r="J53">
-        <v>157.443452151944</v>
+        <v>65.72881313786736</v>
       </c>
       <c r="K53">
-        <v>85.69632134516318</v>
+        <v>62.96952920945337</v>
       </c>
       <c r="L53">
-        <v>0.0007646463787985297</v>
+        <v>-0.02608121989660552</v>
       </c>
       <c r="M53">
-        <v>26.51595291811233</v>
+        <v>390.6272278688153</v>
       </c>
       <c r="N53">
-        <v>0.0001997790584360903</v>
+        <v>1.754837716188897E-29</v>
       </c>
       <c r="O53">
-        <v>-18.00062019867099</v>
+        <v>-254.0555690094482</v>
       </c>
       <c r="P53">
-        <v>-8.703171236428629</v>
+        <v>-47.30003107700363</v>
       </c>
     </row>
     <row r="54" spans="1:16">
       <c r="A54">
-        <v>387.9476983486949</v>
+        <v>12.22006230863698</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="C54">
-        <v>10.74940455838039</v>
+        <v>21.45086250124922</v>
       </c>
       <c r="D54">
-        <v>-0.001273509830267965</v>
+        <v>-0.02084018743828562</v>
       </c>
       <c r="E54">
-        <v>0.02137001379297698</v>
+        <v>0.04239728626678527</v>
       </c>
       <c r="F54">
-        <v>-0.7660984240537432</v>
+        <v>-1.821084291450236</v>
       </c>
       <c r="G54">
-        <v>-0.04441804797409896</v>
+        <v>-0.005477968580721022</v>
       </c>
       <c r="H54">
-        <v>3.905913536239828E-06</v>
+        <v>61.67863659980172</v>
       </c>
       <c r="I54">
-        <v>171.1902715275834</v>
+        <v>60.95624172203545</v>
       </c>
       <c r="J54">
-        <v>155.3032416594431</v>
+        <v>67.32495865425422</v>
       </c>
       <c r="K54">
-        <v>83.17349368215338</v>
+        <v>64.72162965213079</v>
       </c>
       <c r="L54">
-        <v>0.0006242295439325173</v>
+        <v>-0.02549734842109723</v>
       </c>
       <c r="M54">
-        <v>21.61862917967242</v>
+        <v>407.7695549652397</v>
       </c>
       <c r="N54">
-        <v>0.0001997756266513288</v>
+        <v>2.138316141107261E-29</v>
       </c>
       <c r="O54">
-        <v>-13.33094574457206</v>
+        <v>-257.1210426905168</v>
       </c>
       <c r="P54">
-        <v>-6.43950264548321</v>
+        <v>-27.98035286826806</v>
       </c>
     </row>
     <row r="55" spans="1:16">
       <c r="A55">
-        <v>388.439902728492</v>
+        <v>12.4618641413827</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="C55">
-        <v>10.59633005167963</v>
+        <v>21.98102523013781</v>
       </c>
       <c r="D55">
-        <v>-0.0009194054039673202</v>
+        <v>-0.01632475671977554</v>
       </c>
       <c r="E55">
-        <v>0.01604220419506138</v>
+        <v>0.02003675377682059</v>
       </c>
       <c r="F55">
-        <v>-0.9801867607194868</v>
+        <v>-1.924829173039639</v>
       </c>
       <c r="G55">
-        <v>-0.03528172045530424</v>
+        <v>0.001994820734094132</v>
       </c>
       <c r="H55">
-        <v>1.895729608163532E-06</v>
+        <v>62.57403605493435</v>
       </c>
       <c r="I55">
-        <v>171.2672268842661</v>
+        <v>62.93356289575028</v>
       </c>
       <c r="J55">
-        <v>154.47553741282</v>
+        <v>69.04403538169329</v>
       </c>
       <c r="K55">
-        <v>82.13092140428995</v>
+        <v>66.74689690956677</v>
       </c>
       <c r="L55">
-        <v>0.0005352667094880269</v>
+        <v>-0.01796466441569363</v>
       </c>
       <c r="M55">
-        <v>16.8641398886169</v>
+        <v>426.1651608657469</v>
       </c>
       <c r="N55">
-        <v>0.0001997699855437323</v>
+        <v>-6.624582539336354E-29</v>
       </c>
       <c r="O55">
-        <v>-9.823416271014077</v>
+        <v>-273.9243793050162</v>
       </c>
       <c r="P55">
-        <v>-4.742690815982626</v>
+        <v>-16.95334649250927</v>
       </c>
     </row>
     <row r="56" spans="1:16">
       <c r="A56">
-        <v>388.9398426543783</v>
+        <v>12.69780102770439</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56">
-        <v>10.41419329716213</v>
+        <v>22.52282477820338</v>
       </c>
       <c r="D56">
-        <v>-0.000641254732964019</v>
+        <v>-0.01077731604276446</v>
       </c>
       <c r="E56">
-        <v>0.01203065834577294</v>
+        <v>0.005091053568056193</v>
       </c>
       <c r="F56">
-        <v>-1.150521440806501</v>
+        <v>-1.974623342200836</v>
       </c>
       <c r="G56">
-        <v>-0.02831959598955932</v>
+        <v>0.00488581305245185</v>
       </c>
       <c r="H56">
-        <v>9.383162734491275E-07</v>
+        <v>64.59154998711496</v>
       </c>
       <c r="I56">
-        <v>171.3186808947778</v>
+        <v>64.16249780497749</v>
       </c>
       <c r="J56">
-        <v>154.2304371166763</v>
+        <v>70.78371992988001</v>
       </c>
       <c r="K56">
-        <v>81.76668310681198</v>
+        <v>68.75421185934624</v>
       </c>
       <c r="L56">
-        <v>0.0004683507003417708</v>
+        <v>-0.01589649410062524</v>
       </c>
       <c r="M56">
-        <v>13.70726701677308</v>
+        <v>436.5805068569553</v>
       </c>
       <c r="N56">
-        <v>0.0001997618083345029</v>
+        <v>1.537391592796668E-27</v>
       </c>
       <c r="O56">
-        <v>-7.215808033424183</v>
+        <v>-275.7730645575422</v>
       </c>
       <c r="P56">
-        <v>-3.482728399756915</v>
+        <v>-4.318040816968792</v>
       </c>
     </row>
     <row r="57" spans="1:16">
       <c r="A57">
-        <v>389.4490399866193</v>
+        <v>12.92820008680493</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57">
-        <v>10.21175428861547</v>
+        <v>23.04876388770719</v>
       </c>
       <c r="D57">
-        <v>-0.000432851353353996</v>
+        <v>-0.007254018003740477</v>
       </c>
       <c r="E57">
-        <v>0.009020077754621715</v>
+        <v>-0.005741199020544688</v>
       </c>
       <c r="F57">
-        <v>-1.287504645593823</v>
+        <v>-1.994620451105244</v>
       </c>
       <c r="G57">
-        <v>-0.02300347003089997</v>
+        <v>0.004755735290799788</v>
       </c>
       <c r="H57">
-        <v>3.84113850708343E-07</v>
+        <v>65.62154947119235</v>
       </c>
       <c r="I57">
-        <v>171.3538938989614</v>
+        <v>66.00181693176427</v>
       </c>
       <c r="J57">
-        <v>154.6427913556667</v>
+        <v>72.64410300182259</v>
       </c>
       <c r="K57">
-        <v>82.11353761754978</v>
+        <v>71.23148013850066</v>
       </c>
       <c r="L57">
-        <v>0.0004110237084717464</v>
+        <v>-0.007644599035413526</v>
       </c>
       <c r="M57">
-        <v>10.47720131606968</v>
+        <v>443.0433176791869</v>
       </c>
       <c r="N57">
-        <v>0.0001997507128386661</v>
+        <v>1.084809255320042E-28</v>
       </c>
       <c r="O57">
-        <v>-5.291341242239641</v>
+        <v>-283.0594031137477</v>
       </c>
       <c r="P57">
-        <v>-2.55347139176565</v>
+        <v>-0.4392686744444267</v>
       </c>
     </row>
     <row r="58" spans="1:16">
       <c r="A58">
-        <v>389.9687470974291</v>
+        <v>13.15348202580292</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>9.995753403456565</v>
+        <v>23.55598631415235</v>
       </c>
       <c r="D58">
-        <v>-0.0002821446417660446</v>
+        <v>-0.003204549737869117</v>
       </c>
       <c r="E58">
-        <v>0.006765103456664595</v>
+        <v>-0.01058228958997999</v>
       </c>
       <c r="F58">
-        <v>-1.399045488322683</v>
+        <v>-1.99999946949124</v>
       </c>
       <c r="G58">
-        <v>-0.01893588395654465</v>
+        <v>0.002877153098402982</v>
       </c>
       <c r="H58">
-        <v>2.703544833358558E-08</v>
+        <v>67.44982549663361</v>
       </c>
       <c r="I58">
-        <v>171.3781308645132</v>
+        <v>67.19564481840062</v>
       </c>
       <c r="J58">
-        <v>155.1498187859613</v>
+        <v>74.39803962934799</v>
       </c>
       <c r="K58">
-        <v>82.58474692368466</v>
+        <v>73.32689799248394</v>
       </c>
       <c r="L58">
-        <v>0.0003586436656713179</v>
+        <v>-0.0009191491256197496</v>
       </c>
       <c r="M58">
-        <v>9.308304849218029</v>
+        <v>441.4123915148464</v>
       </c>
       <c r="N58">
-        <v>0.000199735861223443</v>
+        <v>3.578564923998964E-29</v>
       </c>
       <c r="O58">
-        <v>-3.877896021660475</v>
+        <v>-280.1324257312623</v>
       </c>
       <c r="P58">
-        <v>-1.871217866220606</v>
+        <v>2.239121827019806</v>
       </c>
     </row>
     <row r="59" spans="1:16">
       <c r="A59">
-        <v>390.5000169499079</v>
+        <v>13.37413336798776</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
       <c r="C59">
-        <v>9.77129267316943</v>
+        <v>24.02649350523733</v>
       </c>
       <c r="D59">
-        <v>-0.0001763478095069599</v>
+        <v>4.405031059662506E-05</v>
       </c>
       <c r="E59">
-        <v>0.005077634176713114</v>
+        <v>-0.01095113528741443</v>
       </c>
       <c r="F59">
-        <v>-1.49115539982555</v>
+        <v>-1.997995329610591</v>
       </c>
       <c r="G59">
-        <v>-0.01581723797702659</v>
+        <v>0.0004784570750179082</v>
       </c>
       <c r="H59">
-        <v>-2.176000434619272E-07</v>
+        <v>68.4561102559819</v>
       </c>
       <c r="I59">
-        <v>171.3947595608326</v>
+        <v>68.77283412519076</v>
       </c>
       <c r="J59">
-        <v>156.3284418691475</v>
+        <v>75.73425010866306</v>
       </c>
       <c r="K59">
-        <v>83.74384007102272</v>
+        <v>75.21427560366803</v>
       </c>
       <c r="L59">
-        <v>0.0003100361929419782</v>
+        <v>0.007027812333839</v>
       </c>
       <c r="M59">
-        <v>8.404986337823424</v>
+        <v>442.252938730777</v>
       </c>
       <c r="N59">
-        <v>0.0001997162200303187</v>
+        <v>2.191776469345094E-30</v>
       </c>
       <c r="O59">
-        <v>-2.842783032315081</v>
+        <v>-282.9434481013639</v>
       </c>
       <c r="P59">
-        <v>-1.371678821845765</v>
+        <v>0.8022067544612832</v>
       </c>
     </row>
     <row r="60" spans="1:16">
       <c r="A60">
-        <v>391.0437547542587</v>
+        <v>13.5906368690226</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
       <c r="C60">
-        <v>9.542185160218212</v>
+        <v>24.46761562216563</v>
       </c>
       <c r="D60">
-        <v>-0.0001040576466395266</v>
+        <v>0.002819398856350751</v>
       </c>
       <c r="E60">
-        <v>0.003814991261665513</v>
+        <v>-0.00697825805773308</v>
       </c>
       <c r="F60">
-        <v>-1.568404325568113</v>
+        <v>-1.991915840225344</v>
       </c>
       <c r="G60">
-        <v>-0.01342131266299415</v>
+        <v>-0.001476632088750429</v>
       </c>
       <c r="H60">
-        <v>-3.895385580098317E-07</v>
+        <v>70.01351034320673</v>
       </c>
       <c r="I60">
-        <v>171.4060894700621</v>
+        <v>69.82217409422954</v>
       </c>
       <c r="J60">
-        <v>158.0092911519104</v>
+        <v>77.06231528739983</v>
       </c>
       <c r="K60">
-        <v>85.41405181126223</v>
+        <v>76.71743044463342</v>
       </c>
       <c r="L60">
-        <v>0.0002653131898195549</v>
+        <v>0.008126363465820035</v>
       </c>
       <c r="M60">
-        <v>7.232496905739414</v>
+        <v>440.3382749522</v>
       </c>
       <c r="N60">
-        <v>0.0001996900955445323</v>
+        <v>1.377542464860059E-29</v>
       </c>
       <c r="O60">
-        <v>-2.085826436919751</v>
+        <v>-280.5187919297882</v>
       </c>
       <c r="P60">
-        <v>-1.006414101369191</v>
+        <v>1.662760382008889</v>
       </c>
     </row>
     <row r="61" spans="1:16">
       <c r="A61">
-        <v>391.6007564176062</v>
+        <v>13.80341810626703</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
       <c r="C61">
-        <v>9.3112500561269</v>
+        <v>24.87521503496018</v>
       </c>
       <c r="D61">
-        <v>-5.597786537648866E-05</v>
+        <v>0.003543112282022477</v>
       </c>
       <c r="E61">
-        <v>0.002869775765872218</v>
+        <v>-0.002313108320789624</v>
       </c>
       <c r="F61">
-        <v>-1.634268855483865</v>
+        <v>-1.985297196179395</v>
       </c>
       <c r="G61">
-        <v>-0.01157699030132441</v>
+        <v>-0.002465031085992346</v>
       </c>
       <c r="H61">
-        <v>-5.082780520796796E-07</v>
+        <v>70.94535293757322</v>
       </c>
       <c r="I61">
-        <v>171.4137483967926</v>
+        <v>71.14887505158923</v>
       </c>
       <c r="J61">
-        <v>159.8254556877939</v>
+        <v>78.17084037526534</v>
       </c>
       <c r="K61">
-        <v>87.22442044955559</v>
+        <v>78.16785417738534</v>
       </c>
       <c r="L61">
-        <v>0.0002248575064516223</v>
+        <v>0.007716898444950014</v>
       </c>
       <c r="M61">
-        <v>7.816262441656634</v>
+        <v>441.2140416227772</v>
       </c>
       <c r="N61">
-        <v>0.0001996545838521818</v>
+        <v>2.155968690372191E-30</v>
       </c>
       <c r="O61">
-        <v>-1.532481511433951</v>
+        <v>-282.6656477069695</v>
       </c>
       <c r="P61">
-        <v>-0.7394153097146714</v>
+        <v>0.5524195406049585</v>
       </c>
     </row>
     <row r="62" spans="1:16">
       <c r="A62">
-        <v>392.1717373846776</v>
+        <v>14.01284566600077</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62">
-        <v>9.080551401623079</v>
+        <v>25.25806698070437</v>
       </c>
       <c r="D62">
-        <v>-2.494462106945585E-05</v>
+        <v>0.003151679616284214</v>
       </c>
       <c r="E62">
-        <v>0.002161562881917182</v>
+        <v>0.001936889933207007</v>
       </c>
       <c r="F62">
-        <v>-1.691396914352508</v>
+        <v>-1.98094711372665</v>
       </c>
       <c r="G62">
-        <v>-0.01015457848468331</v>
+        <v>-0.002498123699927706</v>
       </c>
       <c r="H62">
-        <v>-5.823621552858303E-07</v>
+        <v>72.25773869875196</v>
       </c>
       <c r="I62">
-        <v>171.4188868335516</v>
+        <v>72.08578514915888</v>
       </c>
       <c r="J62">
-        <v>162.5133873914778</v>
+        <v>79.31966045630027</v>
       </c>
       <c r="K62">
-        <v>89.90919011771156</v>
+        <v>79.42812534255813</v>
       </c>
       <c r="L62">
-        <v>0.0001889236247864851</v>
+        <v>0.003984338939220324</v>
       </c>
       <c r="M62">
-        <v>10.4910320464884</v>
+        <v>440.2218583029254</v>
       </c>
       <c r="N62">
-        <v>0.0001996049599964377</v>
+        <v>-4.418836325438934E-29</v>
       </c>
       <c r="O62">
-        <v>-1.127810932579923</v>
+        <v>-281.2314556765193</v>
       </c>
       <c r="P62">
-        <v>-0.5441599616818351</v>
+        <v>0.6271506802736259</v>
       </c>
     </row>
     <row r="63" spans="1:16">
       <c r="A63">
-        <v>392.7573544005883</v>
+        <v>14.21923162541453</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63">
-        <v>8.851585524261271</v>
+        <v>25.61434011708347</v>
       </c>
       <c r="D63">
-        <v>-5.646993185429463E-06</v>
+        <v>0.001760153631069652</v>
       </c>
       <c r="E63">
-        <v>0.001630317959076604</v>
+        <v>0.004158240509543088</v>
       </c>
       <c r="F63">
-        <v>-1.741808361599838</v>
+        <v>-1.980065096117542</v>
       </c>
       <c r="G63">
-        <v>-0.009055571004820819</v>
+        <v>-0.001858931070325327</v>
       </c>
       <c r="H63">
-        <v>-6.127360462332639E-07</v>
+        <v>73.10693578129042</v>
       </c>
       <c r="I63">
-        <v>171.4223112663841</v>
+        <v>73.22403316458468</v>
       </c>
       <c r="J63">
-        <v>167.0985304221826</v>
+        <v>80.37793374019853</v>
       </c>
       <c r="K63">
-        <v>94.4926046109792</v>
+        <v>80.61156602101046</v>
       </c>
       <c r="L63">
-        <v>0.0001575363143056968</v>
+        <v>0.001209228178324576</v>
       </c>
       <c r="M63">
-        <v>8.181244610761585</v>
+        <v>440.7849745155056</v>
       </c>
       <c r="N63">
-        <v>0.0001995341108780757</v>
+        <v>-5.297878702402491E-30</v>
       </c>
       <c r="O63">
-        <v>-0.8315786841067161</v>
+        <v>-282.6993987681153</v>
       </c>
       <c r="P63">
-        <v>-0.4012286358433014</v>
+        <v>-0.4635818549206762</v>
       </c>
     </row>
     <row r="64" spans="1:16">
       <c r="A64">
-        <v>393.3582220216385</v>
+        <v>14.42285139068643</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64">
-        <v>8.625425098893372</v>
+        <v>25.949387934466</v>
       </c>
       <c r="D64">
-        <v>5.74213086144677E-06</v>
+        <v>0.0004163902762145762</v>
       </c>
       <c r="E64">
-        <v>0.001231299726642224</v>
+        <v>0.004767708811659001</v>
       </c>
       <c r="F64">
-        <v>-1.787046680340905</v>
+        <v>-1.982229727911674</v>
       </c>
       <c r="G64">
-        <v>-0.008204979862981963</v>
+        <v>-0.0009419263301016941</v>
       </c>
       <c r="H64">
-        <v>-5.928441409179228E-07</v>
+        <v>74.21283367017635</v>
       </c>
       <c r="I64">
-        <v>171.4245804701144</v>
+        <v>74.07448620573456</v>
       </c>
       <c r="J64">
-        <v>170.8192393054927</v>
+        <v>81.47474165363556</v>
       </c>
       <c r="K64">
-        <v>98.21236625036269</v>
+        <v>81.61787564299281</v>
       </c>
       <c r="L64">
-        <v>0.0001305140869346155</v>
+        <v>-0.001963827259961594</v>
       </c>
       <c r="M64">
-        <v>1.909988756214035</v>
+        <v>439.8754243026239</v>
       </c>
       <c r="N64">
-        <v>0.0001994272530047032</v>
+        <v>-2.961536548127957E-30</v>
       </c>
       <c r="O64">
-        <v>-0.6144265338082043</v>
+        <v>-281.5575462053598</v>
       </c>
       <c r="P64">
-        <v>-0.2964540540581682</v>
+        <v>-0.3285367685865132</v>
       </c>
     </row>
     <row r="65" spans="1:16">
       <c r="A65">
-        <v>393.9749252113708</v>
+        <v>14.62394765235881</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65">
-        <v>8.402828228634046</v>
+        <v>26.26162163751965</v>
       </c>
       <c r="D65">
-        <v>1.19202139149539E-05</v>
+        <v>-0.0007950274280725685</v>
       </c>
       <c r="E65">
-        <v>0.0009311807337273499</v>
+        <v>0.00373024822120531</v>
       </c>
       <c r="F65">
-        <v>-1.828293562124868</v>
+        <v>-1.986361849852085</v>
       </c>
       <c r="G65">
-        <v>-0.007545588942431365</v>
+        <v>-8.14858420235277E-05</v>
       </c>
       <c r="H65">
-        <v>-5.052588358815846E-07</v>
+        <v>74.97953087159206</v>
       </c>
       <c r="I65">
-        <v>171.4260770743564</v>
+        <v>75.05760147901722</v>
       </c>
       <c r="J65">
-        <v>171.3028513515576</v>
+        <v>82.48447334663639</v>
       </c>
       <c r="K65">
-        <v>98.69545775755171</v>
+        <v>82.56403194703815</v>
       </c>
       <c r="L65">
-        <v>0.000107531351706215</v>
+        <v>-0.003008505676550867</v>
       </c>
       <c r="M65">
-        <v>0.878598996686098</v>
+        <v>440.0529158358166</v>
       </c>
       <c r="N65">
-        <v>0.000199251683531927</v>
+        <v>7.239456466319677E-31</v>
       </c>
       <c r="O65">
-        <v>-0.4549764558209604</v>
+        <v>-282.4967468467839</v>
       </c>
       <c r="P65">
-        <v>-0.2195206974945897</v>
+        <v>-0.8685256198183162</v>
       </c>
     </row>
     <row r="66" spans="1:16">
       <c r="A66">
-        <v>394.6080290086285</v>
+        <v>14.82273851727173</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>8.184320217448974</v>
+        <v>26.55508450395694</v>
       </c>
       <c r="D66">
-        <v>1.475342967888158E-05</v>
+        <v>-0.001354133202986988</v>
       </c>
       <c r="E66">
-        <v>0.0007051279545345824</v>
+        <v>0.00210608957344559</v>
       </c>
       <c r="F66">
-        <v>-1.866455467089181</v>
+        <v>-1.991098758059789</v>
       </c>
       <c r="G66">
-        <v>-0.007033642363963323</v>
+        <v>0.0005003984128530284</v>
       </c>
       <c r="H66">
-        <v>-3.109246577817797E-07</v>
+        <v>75.91701046340093</v>
       </c>
       <c r="I66">
-        <v>171.4270603640373</v>
+        <v>75.82659446642462</v>
       </c>
       <c r="J66">
-        <v>171.3630306959952</v>
+        <v>83.4807390392009</v>
       </c>
       <c r="K66">
-        <v>98.75535019423418</v>
+        <v>83.39388859602673</v>
       </c>
       <c r="L66">
-        <v>8.818135453328694E-05</v>
+        <v>-0.003558207949539017</v>
       </c>
       <c r="M66">
-        <v>0.5936882724959863</v>
+        <v>439.3727165189503</v>
       </c>
       <c r="N66">
-        <v>0.0001989337014573517</v>
+        <v>2.003180276175655E-25</v>
       </c>
       <c r="O66">
-        <v>-0.3376738781746061</v>
+        <v>-281.720427899179</v>
       </c>
       <c r="P66">
-        <v>-0.1629233199467273</v>
+        <v>-0.4623981423582945</v>
       </c>
     </row>
     <row r="67" spans="1:16">
       <c r="A67">
-        <v>395.2580859984504</v>
+        <v>15.01941638397542</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="C67">
-        <v>7.970254482932585</v>
+        <v>26.8292556215936</v>
       </c>
       <c r="D67">
-        <v>1.551093441176104E-05</v>
+        <v>-0.001491840966995927</v>
       </c>
       <c r="E67">
-        <v>0.0005346220957941419</v>
+        <v>0.0002549100499349298</v>
       </c>
       <c r="F67">
-        <v>-1.902229071863976</v>
+        <v>-1.995372416725188</v>
       </c>
       <c r="G67">
-        <v>-0.006635603505619162</v>
+        <v>0.0007319230745700741</v>
       </c>
       <c r="H67">
-        <v>8.398746372076246E-08</v>
+        <v>76.61083517407528</v>
       </c>
       <c r="I67">
-        <v>171.4277045237287</v>
+        <v>76.67591228483252</v>
       </c>
       <c r="J67">
-        <v>171.3775219643343</v>
+        <v>84.38182869155985</v>
       </c>
       <c r="K67">
-        <v>98.76968283265738</v>
+        <v>84.20825876198447</v>
       </c>
       <c r="L67">
-        <v>7.20263745884902E-05</v>
+        <v>-0.002423878090414986</v>
       </c>
       <c r="M67">
-        <v>0.420562868038233</v>
+        <v>439.5034026761299</v>
       </c>
       <c r="N67">
-        <v>0.0001982604817998707</v>
+        <v>-2.771650830179325E-30</v>
       </c>
       <c r="O67">
-        <v>-0.2512006972994641</v>
+        <v>-282.3991618850509</v>
       </c>
       <c r="P67">
-        <v>-0.1212009196221042</v>
+        <v>-0.6583232212184169</v>
       </c>
     </row>
     <row r="68" spans="1:16">
       <c r="A68">
-        <v>395.9256421285528</v>
+        <v>15.21415356732201</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="C68">
-        <v>7.76085776165798</v>
+        <v>27.08726181182552</v>
       </c>
       <c r="D68">
-        <v>1.504102035925825E-05</v>
+        <v>-0.00111611589486981</v>
       </c>
       <c r="E68">
-        <v>0.0004058358640371129</v>
+        <v>-0.001029550424399625</v>
       </c>
       <c r="F68">
-        <v>-1.936150828262598</v>
+        <v>-1.998439550382097</v>
       </c>
       <c r="G68">
-        <v>-0.006325713448382566</v>
+        <v>0.0006535240976610539</v>
       </c>
       <c r="H68">
-        <v>9.716438521626506E-07</v>
+        <v>77.41591893271378</v>
       </c>
       <c r="I68">
-        <v>171.4281258878046</v>
+        <v>77.36604057434529</v>
       </c>
       <c r="J68">
-        <v>171.3785875974138</v>
+        <v>85.25225262628889</v>
       </c>
       <c r="K68">
-        <v>98.77066047965519</v>
+        <v>84.95703433454239</v>
       </c>
       <c r="L68">
-        <v>5.863277957634517E-05</v>
+        <v>-0.001240881674720904</v>
       </c>
       <c r="M68">
-        <v>0.3058680980261133</v>
+        <v>439.0300490728508</v>
       </c>
       <c r="N68">
-        <v>0.0001964599286752743</v>
+        <v>1.574780678346522E-29</v>
       </c>
       <c r="O68">
-        <v>-0.1873159399746704</v>
+        <v>-281.8996399718433</v>
       </c>
       <c r="P68">
-        <v>-0.09037725187354977</v>
+        <v>-0.3343038851291994</v>
       </c>
     </row>
     <row r="69" spans="1:16">
       <c r="A69">
-        <v>396.6112412756376</v>
+        <v>15.40710306629226</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="C69">
-        <v>7.556263593442317</v>
+        <v>27.32895537111682</v>
       </c>
       <c r="D69">
-        <v>1.389979795403131E-05</v>
+        <v>-0.0005858524395284717</v>
       </c>
       <c r="E69">
-        <v>0.000308430666867994</v>
+        <v>-0.001679553049499067</v>
       </c>
       <c r="F69">
-        <v>-1.968634560728888</v>
+        <v>-1.999981877029894</v>
       </c>
       <c r="G69">
-        <v>-0.00608414715965624</v>
+        <v>0.0003889392242223858</v>
       </c>
       <c r="H69">
-        <v>3.221765016341848E-06</v>
+        <v>78.04686464195264</v>
       </c>
       <c r="I69">
-        <v>171.4284022068507</v>
+        <v>78.10011496271376</v>
       </c>
       <c r="J69">
-        <v>171.3769697587052</v>
+        <v>86.04696404102258</v>
       </c>
       <c r="K69">
-        <v>98.76899368055834</v>
+        <v>85.69178015169136</v>
       </c>
       <c r="L69">
-        <v>4.759327134020422E-05</v>
+        <v>0.00047885976984989</v>
       </c>
       <c r="M69">
-        <v>0.2265361824668302</v>
+        <v>439.0291929333104</v>
       </c>
       <c r="N69">
-        <v>0.0001893392485850571</v>
+        <v>-3.829987378389947E-31</v>
       </c>
       <c r="O69">
-        <v>-0.1400124910182405</v>
+        <v>-282.3165693347185</v>
       </c>
       <c r="P69">
-        <v>-0.06755391564618882</v>
+        <v>-0.5395691786072626</v>
       </c>
     </row>
     <row r="70" spans="1:16">
       <c r="A70">
-        <v>397.3154288634393</v>
+        <v>15.59840362962104</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="C70">
-        <v>7.356537110463023</v>
+        <v>27.55644293163924</v>
       </c>
       <c r="D70">
-        <v>1.244348670121387E-05</v>
+        <v>3.199070130129252E-05</v>
       </c>
       <c r="E70">
-        <v>0.0002346651002253361</v>
+        <v>-0.00149072459056563</v>
       </c>
       <c r="F70">
-        <v>-2.000000048262731</v>
+        <v>-1.999986857351332</v>
       </c>
       <c r="G70">
-        <v>-0.005895617306052557</v>
+        <v>8.264284133753508E-05</v>
       </c>
       <c r="H70">
-        <v>-2.952691669241955E-06</v>
+        <v>78.74533055573271</v>
       </c>
       <c r="I70">
-        <v>171.4285743810969</v>
+        <v>78.71558281461846</v>
       </c>
       <c r="J70">
-        <v>171.3763995832639</v>
+        <v>86.81777224625216</v>
       </c>
       <c r="K70">
-        <v>98.76839617254761</v>
+        <v>86.36455145499291</v>
       </c>
     </row>
   </sheetData>
